--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -52,19 +52,118 @@
     <t>2025-07-25 17:21:41</t>
   </si>
   <si>
+    <t>2025-08-01 12:54:33</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:55:35</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:56:36</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:10:55</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:10:59</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:11:24</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:44</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:13:13</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:16:42</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:17:13</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:08:23</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:08:56</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:11:37</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:12:08</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:21</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:51</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:26:15</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:53:47</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:23</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:52</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>08873</t>
+    <t>46143</t>
   </si>
   <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Rate: 799.31, Carrier: JBHZ</t>
   </si>
   <si>
     <t>Rate: 594.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>504 Server Error: Gateway Timeout for url: https://api.jbhunt.com/pricing/quoting/v3/dynamic-quote</t>
+  </si>
+  <si>
+    <t>No valid rates returned</t>
+  </si>
+  <si>
+    <t>500 Server Error: Internal Server Error for url: https://api.jbhunt.com/pricing/quoting/v3/dynamic-quote</t>
+  </si>
+  <si>
+    <t>Rate: 1170.44, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 425.89, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1380.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 421.89, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1396.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 818.36, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 414.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 485.07, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1082.96, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -422,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +561,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -482,10 +581,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -502,10 +601,10 @@
         <v>4410</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -522,10 +621,10 @@
         <v>1455.3</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -542,30 +641,530 @@
         <v>4410</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="B7">
+        <v>7201</v>
+      </c>
+      <c r="C7">
+        <v>8873</v>
       </c>
       <c r="D7">
         <v>1455.3</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>7201</v>
+      </c>
+      <c r="C8">
+        <v>12533</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>7201</v>
+      </c>
+      <c r="C9">
+        <v>12533</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>29492</v>
+      </c>
+      <c r="C10">
+        <v>28214</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>29492</v>
+      </c>
+      <c r="C11">
+        <v>28214</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B12">
+        <v>7201</v>
+      </c>
+      <c r="C12">
+        <v>46809</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>7201</v>
+      </c>
+      <c r="C13">
+        <v>46809</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>7201</v>
+      </c>
+      <c r="C14">
+        <v>12533</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>7201</v>
+      </c>
+      <c r="C15">
+        <v>12533</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>16</v>
+      </c>
+      <c r="B16">
+        <v>29492</v>
+      </c>
+      <c r="C16">
+        <v>28214</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>29492</v>
+      </c>
+      <c r="C17">
+        <v>28214</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7201</v>
+      </c>
+      <c r="C18">
+        <v>46809</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>94607</v>
+      </c>
+      <c r="C19">
+        <v>94561</v>
+      </c>
+      <c r="D19">
+        <v>3960.621</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>90220</v>
+      </c>
+      <c r="C20">
+        <v>94561</v>
+      </c>
+      <c r="D20">
+        <v>3960.621</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>94607</v>
+      </c>
+      <c r="C21">
+        <v>94561</v>
+      </c>
+      <c r="D21">
+        <v>3960.621</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>90220</v>
+      </c>
+      <c r="C22">
+        <v>94561</v>
+      </c>
+      <c r="D22">
+        <v>3960.621</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>94607</v>
+      </c>
+      <c r="C23">
+        <v>94561</v>
+      </c>
+      <c r="D23">
+        <v>6383.475</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>90220</v>
+      </c>
+      <c r="C24">
+        <v>94561</v>
+      </c>
+      <c r="D24">
+        <v>6383.475</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>94607</v>
+      </c>
+      <c r="C25">
+        <v>94561</v>
+      </c>
+      <c r="D25">
+        <v>6383.475</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>90220</v>
+      </c>
+      <c r="C26">
+        <v>94561</v>
+      </c>
+      <c r="D26">
+        <v>6383.475</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>94607</v>
+      </c>
+      <c r="C27">
+        <v>94561</v>
+      </c>
+      <c r="D27">
+        <v>6383.475</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>90220</v>
+      </c>
+      <c r="C28">
+        <v>94561</v>
+      </c>
+      <c r="D28">
+        <v>6383.475</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7201</v>
+      </c>
+      <c r="C29">
+        <v>17225</v>
+      </c>
+      <c r="D29">
+        <v>639.16335</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7201</v>
+      </c>
+      <c r="C30">
+        <v>8873</v>
+      </c>
+      <c r="D30">
+        <v>253.575</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7201</v>
+      </c>
+      <c r="C31">
+        <v>8518</v>
+      </c>
+      <c r="D31">
+        <v>381.465</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>350.595</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
   <si>
     <t>Timestamp</t>
   </si>
@@ -112,10 +112,94 @@
     <t>2025-08-04 06:54:52</t>
   </si>
   <si>
+    <t>2025-08-05 13:38:54</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:39:28</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:45:55</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:46:31</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:49:08</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:49:37</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:44</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:54:13</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:06:58</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:08:43</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:15:07</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:00</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:34</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:21:06</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:37:41</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:38:11</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:38:45</t>
+  </si>
+  <si>
+    <t>2025-08-05 17:30:17</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:11:17</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:07</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:58</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:14:38</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:15:10</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:15:42</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:23:12</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:23:51</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:24:22</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>46143</t>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -164,6 +248,15 @@
   </si>
   <si>
     <t>Rate: 1082.96, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 734.31, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 427.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 761.44, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -521,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +654,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -581,10 +674,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -601,10 +694,10 @@
         <v>4410</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -621,10 +714,10 @@
         <v>1455.3</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -641,10 +734,10 @@
         <v>4410</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -661,10 +754,10 @@
         <v>1455.3</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -681,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -701,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -721,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -741,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -761,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -781,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -801,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -821,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -841,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -861,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -881,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -901,10 +994,10 @@
         <v>3960.621</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -921,10 +1014,10 @@
         <v>3960.621</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -941,10 +1034,10 @@
         <v>3960.621</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -961,10 +1054,10 @@
         <v>3960.621</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -981,10 +1074,10 @@
         <v>6383.475</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1001,10 +1094,10 @@
         <v>6383.475</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1021,10 +1114,10 @@
         <v>6383.475</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1041,10 +1134,10 @@
         <v>6383.475</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1061,10 +1154,10 @@
         <v>6383.475</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1081,10 +1174,10 @@
         <v>6383.475</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1101,10 +1194,10 @@
         <v>639.16335</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1121,10 +1214,10 @@
         <v>253.575</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1141,30 +1234,590 @@
         <v>381.465</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="B32">
+        <v>7201</v>
+      </c>
+      <c r="C32">
+        <v>46143</v>
       </c>
       <c r="D32">
         <v>350.595</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7201</v>
+      </c>
+      <c r="C33">
+        <v>21901</v>
+      </c>
+      <c r="D33">
+        <v>4410</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7201</v>
+      </c>
+      <c r="C34">
+        <v>8873</v>
+      </c>
+      <c r="D34">
+        <v>1455.3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B35">
+        <v>7201</v>
+      </c>
+      <c r="C35">
+        <v>21901</v>
+      </c>
+      <c r="D35">
+        <v>4410</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7201</v>
+      </c>
+      <c r="C36">
+        <v>8873</v>
+      </c>
+      <c r="D36">
+        <v>1455.3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7201</v>
+      </c>
+      <c r="C37">
+        <v>21901</v>
+      </c>
+      <c r="D37">
+        <v>4410</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7201</v>
+      </c>
+      <c r="C38">
+        <v>8873</v>
+      </c>
+      <c r="D38">
+        <v>1455.3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>29483</v>
+      </c>
+      <c r="C39">
+        <v>30567</v>
+      </c>
+      <c r="D39">
+        <v>4410</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7201</v>
+      </c>
+      <c r="C40">
+        <v>8873</v>
+      </c>
+      <c r="D40">
+        <v>1455.3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7201</v>
+      </c>
+      <c r="C41">
+        <v>21901</v>
+      </c>
+      <c r="D41">
+        <v>3507.94332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7201</v>
+      </c>
+      <c r="C42">
+        <v>21901</v>
+      </c>
+      <c r="D42">
+        <v>2205</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>29483</v>
+      </c>
+      <c r="C43">
+        <v>30567</v>
+      </c>
+      <c r="D43">
+        <v>4410</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7201</v>
+      </c>
+      <c r="C44">
+        <v>8873</v>
+      </c>
+      <c r="D44">
+        <v>1455.3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>29483</v>
+      </c>
+      <c r="C45">
+        <v>30567</v>
+      </c>
+      <c r="D45">
+        <v>4410</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7201</v>
+      </c>
+      <c r="C46">
+        <v>8873</v>
+      </c>
+      <c r="D46">
+        <v>1455.3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7201</v>
+      </c>
+      <c r="C47">
+        <v>21901</v>
+      </c>
+      <c r="D47">
+        <v>2205</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>29483</v>
+      </c>
+      <c r="C48">
+        <v>30567</v>
+      </c>
+      <c r="D48">
+        <v>4410</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7201</v>
+      </c>
+      <c r="C49">
+        <v>8873</v>
+      </c>
+      <c r="D49">
+        <v>1455.3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
         <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7201</v>
+      </c>
+      <c r="C50">
+        <v>21901</v>
+      </c>
+      <c r="D50">
+        <v>2205</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7201</v>
+      </c>
+      <c r="C51">
+        <v>21901</v>
+      </c>
+      <c r="D51">
+        <v>3507.94332</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7201</v>
+      </c>
+      <c r="C52">
+        <v>21901</v>
+      </c>
+      <c r="D52">
+        <v>3507.94332</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7201</v>
+      </c>
+      <c r="C53">
+        <v>21901</v>
+      </c>
+      <c r="D53">
+        <v>3507.94332</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7201</v>
+      </c>
+      <c r="C54">
+        <v>21901</v>
+      </c>
+      <c r="D54">
+        <v>3507.94332</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>29483</v>
+      </c>
+      <c r="C55">
+        <v>30567</v>
+      </c>
+      <c r="D55">
+        <v>4410</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7201</v>
+      </c>
+      <c r="C56">
+        <v>8873</v>
+      </c>
+      <c r="D56">
+        <v>1455.3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7201</v>
+      </c>
+      <c r="C57">
+        <v>21901</v>
+      </c>
+      <c r="D57">
+        <v>2205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>29483</v>
+      </c>
+      <c r="C58">
+        <v>30567</v>
+      </c>
+      <c r="D58">
+        <v>4410</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7201</v>
+      </c>
+      <c r="C59">
+        <v>8873</v>
+      </c>
+      <c r="D59">
+        <v>1455.3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60">
+        <v>2205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Timestamp</t>
   </si>
@@ -46,10 +46,40 @@
     <t>2025-08-06 16:49:41</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>2025-08-06 11:24:48</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:25:12</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:25:39</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:42</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:28:13</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:28:36</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:30:57</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:22</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:47</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:43:08</t>
+  </si>
+  <si>
+    <t>90220</t>
+  </si>
+  <si>
+    <t>94561</t>
   </si>
   <si>
     <t>Success</t>
@@ -62,6 +92,9 @@
   </si>
   <si>
     <t>Rate: 424.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1254.82, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -419,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +492,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,10 +512,10 @@
         <v>4410</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -499,30 +532,230 @@
         <v>1455.3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="B5">
+        <v>7201</v>
+      </c>
+      <c r="C5">
+        <v>21901</v>
       </c>
       <c r="D5">
         <v>2205</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>29483</v>
+      </c>
+      <c r="C6">
+        <v>30567</v>
+      </c>
+      <c r="D6">
+        <v>4410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>7201</v>
+      </c>
+      <c r="C7">
+        <v>8873</v>
+      </c>
+      <c r="D7">
+        <v>1455.3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B8">
+        <v>7201</v>
+      </c>
+      <c r="C8">
+        <v>21901</v>
+      </c>
+      <c r="D8">
+        <v>2205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>13</v>
+      </c>
+      <c r="B9">
+        <v>29483</v>
+      </c>
+      <c r="C9">
+        <v>30567</v>
+      </c>
+      <c r="D9">
+        <v>4410</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>7201</v>
+      </c>
+      <c r="C10">
+        <v>8873</v>
+      </c>
+      <c r="D10">
+        <v>1455.3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>7201</v>
+      </c>
+      <c r="C11">
+        <v>21901</v>
+      </c>
+      <c r="D11">
+        <v>2205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>29483</v>
+      </c>
+      <c r="C12">
+        <v>30567</v>
+      </c>
+      <c r="D12">
+        <v>4410</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>7201</v>
+      </c>
+      <c r="C13">
+        <v>8873</v>
+      </c>
+      <c r="D13">
+        <v>1455.3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>7201</v>
+      </c>
+      <c r="C14">
+        <v>21901</v>
+      </c>
+      <c r="D14">
+        <v>2205</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>2546.775</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Timestamp</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>2025-08-06 11:43:08</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:37:54</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:38:51</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:59:42</t>
   </si>
   <si>
     <t>90220</t>
@@ -452,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +501,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -512,10 +521,10 @@
         <v>4410</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -532,10 +541,10 @@
         <v>1455.3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -552,10 +561,10 @@
         <v>2205</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -572,10 +581,10 @@
         <v>4410</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,10 +601,10 @@
         <v>1455.3</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -612,10 +621,10 @@
         <v>2205</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -632,10 +641,10 @@
         <v>4410</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -652,10 +661,10 @@
         <v>1455.3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -672,10 +681,10 @@
         <v>2205</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -692,10 +701,10 @@
         <v>4410</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -712,10 +721,10 @@
         <v>1455.3</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -732,30 +741,90 @@
         <v>2205</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
+      <c r="B15">
+        <v>90220</v>
+      </c>
+      <c r="C15">
+        <v>94561</v>
       </c>
       <c r="D15">
         <v>2546.775</v>
       </c>
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>90220</v>
+      </c>
+      <c r="C16">
+        <v>94561</v>
+      </c>
+      <c r="D16">
+        <v>2546.775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>90220</v>
+      </c>
+      <c r="C17">
+        <v>94561</v>
+      </c>
+      <c r="D17">
+        <v>2546.775</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
-        <v>26</v>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>2546.775</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>Timestamp</t>
   </si>
@@ -85,10 +85,37 @@
     <t>2025-08-06 18:59:42</t>
   </si>
   <si>
-    <t>90220</t>
-  </si>
-  <si>
-    <t>94561</t>
+    <t>2025-08-07 07:48:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:48:49</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:49:18</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:06</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:35</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:52:05</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:53:44</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:14</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:42</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -104,6 +131,15 @@
   </si>
   <si>
     <t>Rate: 1254.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 740.44, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 413.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 700.31, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -461,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +537,10 @@
         <v>3507.94332</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -521,10 +557,10 @@
         <v>4410</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,10 +577,10 @@
         <v>1455.3</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -561,10 +597,10 @@
         <v>2205</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,10 +617,10 @@
         <v>4410</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -601,10 +637,10 @@
         <v>1455.3</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -621,10 +657,10 @@
         <v>2205</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -641,10 +677,10 @@
         <v>4410</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -661,10 +697,10 @@
         <v>1455.3</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -681,10 +717,10 @@
         <v>2205</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -701,10 +737,10 @@
         <v>4410</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -721,10 +757,10 @@
         <v>1455.3</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -741,10 +777,10 @@
         <v>2205</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -761,10 +797,10 @@
         <v>2546.775</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -781,10 +817,10 @@
         <v>2546.775</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -801,30 +837,210 @@
         <v>2546.775</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
+      <c r="B18">
+        <v>90220</v>
+      </c>
+      <c r="C18">
+        <v>94561</v>
       </c>
       <c r="D18">
         <v>2546.775</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>29483</v>
+      </c>
+      <c r="C19">
+        <v>30567</v>
+      </c>
+      <c r="D19">
+        <v>4410</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>7201</v>
+      </c>
+      <c r="C20">
+        <v>8873</v>
+      </c>
+      <c r="D20">
+        <v>1455.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B21">
+        <v>7201</v>
+      </c>
+      <c r="C21">
+        <v>21901</v>
+      </c>
+      <c r="D21">
+        <v>2205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>29483</v>
+      </c>
+      <c r="C22">
+        <v>30567</v>
+      </c>
+      <c r="D22">
+        <v>4410</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>7201</v>
+      </c>
+      <c r="C23">
+        <v>8873</v>
+      </c>
+      <c r="D23">
+        <v>1455.3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>7201</v>
+      </c>
+      <c r="C24">
+        <v>21901</v>
+      </c>
+      <c r="D24">
+        <v>2205</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>29</v>
+      </c>
+      <c r="B25">
+        <v>29483</v>
+      </c>
+      <c r="C25">
+        <v>30567</v>
+      </c>
+      <c r="D25">
+        <v>4410</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>7201</v>
+      </c>
+      <c r="C26">
+        <v>8873</v>
+      </c>
+      <c r="D26">
+        <v>1455.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>2205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Timestamp</t>
   </si>
@@ -61,10 +61,55 @@
     <t>2025-08-10 14:23:33</t>
   </si>
   <si>
+    <t>2025-08-11 12:42:15</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:42:29</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:42:43</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:42:58</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:43:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:45:29</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:45:32</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:45:45</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:45:48</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:46:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:07</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:19</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:34</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:36</t>
+  </si>
+  <si>
+    <t>2025-08-11 12:53:50</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>85043</t>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -92,6 +137,15 @@
   </si>
   <si>
     <t>Rate: 3493.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 693.44, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 428.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 714.31, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -449,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +543,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -509,10 +563,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -529,10 +583,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -549,10 +603,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,10 +623,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -589,10 +643,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,10 +663,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -629,10 +683,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -649,30 +703,330 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>7201</v>
+      </c>
+      <c r="C11">
+        <v>85043</v>
+      </c>
+      <c r="D11">
+        <v>45007.703685</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12">
+        <v>29483</v>
+      </c>
+      <c r="C12">
+        <v>30567</v>
+      </c>
+      <c r="D12">
+        <v>11025</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
-        <v>45007.703685</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B13">
+        <v>29483</v>
+      </c>
+      <c r="C13">
+        <v>30567</v>
+      </c>
+      <c r="D13">
+        <v>45007.703685</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B14">
+        <v>7201</v>
+      </c>
+      <c r="C14">
+        <v>8873</v>
+      </c>
+      <c r="D14">
+        <v>11025</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>7201</v>
+      </c>
+      <c r="C15">
+        <v>8873</v>
+      </c>
+      <c r="D15">
+        <v>45007.703685</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>7201</v>
+      </c>
+      <c r="C16">
+        <v>21901</v>
+      </c>
+      <c r="D16">
+        <v>45007.703685</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>29483</v>
+      </c>
+      <c r="C17">
+        <v>30567</v>
+      </c>
+      <c r="D17">
+        <v>11025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>29483</v>
+      </c>
+      <c r="C18">
+        <v>30567</v>
+      </c>
+      <c r="D18">
+        <v>45007.703685</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>7201</v>
+      </c>
+      <c r="C19">
+        <v>8873</v>
+      </c>
+      <c r="D19">
+        <v>11025</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>7201</v>
+      </c>
+      <c r="C20">
+        <v>8873</v>
+      </c>
+      <c r="D20">
+        <v>45007.703685</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>7201</v>
+      </c>
+      <c r="C21">
+        <v>21901</v>
+      </c>
+      <c r="D21">
+        <v>45007.703685</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>25</v>
+      </c>
+      <c r="B22">
+        <v>29483</v>
+      </c>
+      <c r="C22">
+        <v>30567</v>
+      </c>
+      <c r="D22">
+        <v>11025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>29483</v>
+      </c>
+      <c r="C23">
+        <v>30567</v>
+      </c>
+      <c r="D23">
+        <v>45007.703685</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>7201</v>
+      </c>
+      <c r="C24">
+        <v>8873</v>
+      </c>
+      <c r="D24">
+        <v>11025</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>7201</v>
+      </c>
+      <c r="C25">
+        <v>8873</v>
+      </c>
+      <c r="D25">
+        <v>45007.703685</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>45007.703685</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>Timestamp</t>
   </si>
@@ -106,10 +106,136 @@
     <t>2025-08-11 12:53:50</t>
   </si>
   <si>
+    <t>2025-08-11 13:06:12</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:06:25</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:08:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:09:48</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:10:01</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:10:13</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:10:46</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:10:57</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:24</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:35</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:12:02</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:12:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:16:57</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:12</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:24</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:55</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:58</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:30</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:41</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:19:08</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:19:11</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:50:10</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:50:23</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:50:26</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:51:38</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:51:51</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:03</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:35</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:47</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:12</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:23</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:34</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:46</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:49</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:56</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:01</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:27</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:37</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:04</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:07</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:32</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:35</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>21901</t>
+    <t>85043</t>
   </si>
   <si>
     <t>Success</t>
@@ -146,6 +272,24 @@
   </si>
   <si>
     <t>Rate: 714.31, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 598.95, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 881.37, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1036.06, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2496.85, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1302.11, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 3531.82, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -503,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +687,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -563,10 +707,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -583,10 +727,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -603,10 +747,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -623,10 +767,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,10 +787,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -663,10 +807,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -683,10 +827,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -703,10 +847,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -723,10 +867,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -743,10 +887,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -763,10 +907,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -783,10 +927,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -803,10 +947,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -823,10 +967,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -843,10 +987,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -863,10 +1007,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -883,10 +1027,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -903,10 +1047,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -923,10 +1067,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -943,10 +1087,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -963,10 +1107,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -983,10 +1127,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1003,30 +1147,870 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>7201</v>
+      </c>
+      <c r="C26">
+        <v>21901</v>
+      </c>
+      <c r="D26">
+        <v>45007.703685</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27">
+        <v>7201</v>
+      </c>
+      <c r="C27">
+        <v>18202</v>
+      </c>
+      <c r="D27">
+        <v>11025</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
-        <v>45007.703685</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B28">
+        <v>7201</v>
+      </c>
+      <c r="C28">
+        <v>18202</v>
+      </c>
+      <c r="D28">
+        <v>45007.703685</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B29">
+        <v>7201</v>
+      </c>
+      <c r="C29">
+        <v>18202</v>
+      </c>
+      <c r="D29">
+        <v>45007.703685</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>29483</v>
+      </c>
+      <c r="C30">
+        <v>28303</v>
+      </c>
+      <c r="D30">
+        <v>45007.703685</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>7201</v>
+      </c>
+      <c r="C31">
+        <v>46140</v>
+      </c>
+      <c r="D31">
+        <v>11025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>7201</v>
+      </c>
+      <c r="C32">
+        <v>46140</v>
+      </c>
+      <c r="D32">
+        <v>45007.703685</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>7201</v>
+      </c>
+      <c r="C33">
+        <v>75241</v>
+      </c>
+      <c r="D33">
+        <v>11025</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>7201</v>
+      </c>
+      <c r="C34">
+        <v>75241</v>
+      </c>
+      <c r="D34">
+        <v>45007.703685</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>90220</v>
+      </c>
+      <c r="C35">
+        <v>85395</v>
+      </c>
+      <c r="D35">
+        <v>11025</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>90220</v>
+      </c>
+      <c r="C36">
+        <v>85395</v>
+      </c>
+      <c r="D36">
+        <v>45007.703685</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>7201</v>
+      </c>
+      <c r="C37">
+        <v>85043</v>
+      </c>
+      <c r="D37">
+        <v>11025</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>7201</v>
+      </c>
+      <c r="C38">
+        <v>85043</v>
+      </c>
+      <c r="D38">
+        <v>45007.703685</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>29483</v>
+      </c>
+      <c r="C39">
+        <v>28303</v>
+      </c>
+      <c r="D39">
+        <v>45007.703685</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>43</v>
+      </c>
+      <c r="B40">
+        <v>7201</v>
+      </c>
+      <c r="C40">
+        <v>46140</v>
+      </c>
+      <c r="D40">
+        <v>11025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>7201</v>
+      </c>
+      <c r="C41">
+        <v>46140</v>
+      </c>
+      <c r="D41">
+        <v>45007.703685</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>7201</v>
+      </c>
+      <c r="C42">
+        <v>75241</v>
+      </c>
+      <c r="D42">
+        <v>11025</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>7201</v>
+      </c>
+      <c r="C43">
+        <v>75241</v>
+      </c>
+      <c r="D43">
+        <v>45007.703685</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>90220</v>
+      </c>
+      <c r="C44">
+        <v>85395</v>
+      </c>
+      <c r="D44">
+        <v>11025</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>90220</v>
+      </c>
+      <c r="C45">
+        <v>85395</v>
+      </c>
+      <c r="D45">
+        <v>45007.703685</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>7201</v>
+      </c>
+      <c r="C46">
+        <v>85043</v>
+      </c>
+      <c r="D46">
+        <v>11025</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>7201</v>
+      </c>
+      <c r="C47">
+        <v>85043</v>
+      </c>
+      <c r="D47">
+        <v>45007.703685</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>29483</v>
+      </c>
+      <c r="C48">
+        <v>28303</v>
+      </c>
+      <c r="D48">
+        <v>45007.703685</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>7201</v>
+      </c>
+      <c r="C49">
+        <v>46140</v>
+      </c>
+      <c r="D49">
+        <v>11025</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>7201</v>
+      </c>
+      <c r="C50">
+        <v>46140</v>
+      </c>
+      <c r="D50">
+        <v>45007.703685</v>
+      </c>
+      <c r="E50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>29483</v>
+      </c>
+      <c r="C51">
+        <v>28303</v>
+      </c>
+      <c r="D51">
+        <v>45007.703685</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>7201</v>
+      </c>
+      <c r="C52">
+        <v>46140</v>
+      </c>
+      <c r="D52">
+        <v>11025</v>
+      </c>
+      <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>7201</v>
+      </c>
+      <c r="C53">
+        <v>46140</v>
+      </c>
+      <c r="D53">
+        <v>45007.703685</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>7201</v>
+      </c>
+      <c r="C54">
+        <v>75241</v>
+      </c>
+      <c r="D54">
+        <v>11025</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>7201</v>
+      </c>
+      <c r="C55">
+        <v>75241</v>
+      </c>
+      <c r="D55">
+        <v>45007.703685</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>90220</v>
+      </c>
+      <c r="C56">
+        <v>85395</v>
+      </c>
+      <c r="D56">
+        <v>11025</v>
+      </c>
+      <c r="E56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>90220</v>
+      </c>
+      <c r="C57">
+        <v>85395</v>
+      </c>
+      <c r="D57">
+        <v>45007.703685</v>
+      </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>29483</v>
+      </c>
+      <c r="C58">
+        <v>28303</v>
+      </c>
+      <c r="D58">
+        <v>45007.703685</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>7201</v>
+      </c>
+      <c r="C59">
+        <v>46140</v>
+      </c>
+      <c r="D59">
+        <v>11025</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>7201</v>
+      </c>
+      <c r="C60">
+        <v>85043</v>
+      </c>
+      <c r="D60">
+        <v>11025</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>7201</v>
+      </c>
+      <c r="C61">
+        <v>46140</v>
+      </c>
+      <c r="D61">
+        <v>45007.703685</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>7201</v>
+      </c>
+      <c r="C62">
+        <v>85043</v>
+      </c>
+      <c r="D62">
+        <v>45007.703685</v>
+      </c>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>7201</v>
+      </c>
+      <c r="C63">
+        <v>75241</v>
+      </c>
+      <c r="D63">
+        <v>11025</v>
+      </c>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>7201</v>
+      </c>
+      <c r="C64">
+        <v>75241</v>
+      </c>
+      <c r="D64">
+        <v>45007.703685</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>90220</v>
+      </c>
+      <c r="C65">
+        <v>85395</v>
+      </c>
+      <c r="D65">
+        <v>11025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>90220</v>
+      </c>
+      <c r="C66">
+        <v>85395</v>
+      </c>
+      <c r="D66">
+        <v>45007.703685</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>7201</v>
+      </c>
+      <c r="C67">
+        <v>85043</v>
+      </c>
+      <c r="D67">
+        <v>11025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <v>45007.703685</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="253">
   <si>
     <t>Timestamp</t>
   </si>
@@ -232,10 +232,403 @@
     <t>2025-08-11 14:55:35</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>85043</t>
+    <t>2025-08-12 10:50:26</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:50:38</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:50:52</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:51:05</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:51:17</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:51:36</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:51:47</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:51:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:52:11</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:52:24</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:52:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:52:48</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:53:02</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:53:15</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:53:30</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:53:45</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:53:57</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:54:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:54:20</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:54:33</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:54:45</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:54:56</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:55:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:55:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:55:36</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:55:48</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:55:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:56:11</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:56:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:57:40</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:58:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:58:38</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:58:50</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:03</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:12</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:48</t>
+  </si>
+  <si>
+    <t>2025-08-12 10:59:58</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:00:09</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:00:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:00:35</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:00:44</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:00:51</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:06:47</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:06:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:07:11</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:07:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:07:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:07:50</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:01</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:12</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:23</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:33</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:44</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:08:54</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:09:05</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:09:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:09:31</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:09:44</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:09:55</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:05</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:15</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:26</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:36</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:46</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:10:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:11:09</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:11:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:11:30</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:11:40</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:11:51</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:13:12</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:13:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:13:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:13:40</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:13:52</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:03</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:16</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:18</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:29</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:40</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:14:53</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:17</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:26</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:40</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:15:50</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:11</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:14</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:48</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:16:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:17:10</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:17:20</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:17:29</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:17:41</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:17:53</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:18:05</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:18:16</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:18:27</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:18:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:18:50</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:03</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:13</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:22</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:33</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:36</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:48</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:19:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20:09</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20:29</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:20:50</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:02</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:12</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:15</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:26</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:36</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:46</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:21:56</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:22:06</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:22:18</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:22:27</t>
+  </si>
+  <si>
+    <t>2025-08-12 11:22:30</t>
+  </si>
+  <si>
+    <t>29492</t>
+  </si>
+  <si>
+    <t>33032</t>
+  </si>
+  <si>
+    <t>11024</t>
   </si>
   <si>
     <t>Success</t>
@@ -290,6 +683,96 @@
   </si>
   <si>
     <t>Rate: 3531.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 800.36, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 427.89, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1390.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 681.31, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 450.89, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 417.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 896.67, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 762.82, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 895.64, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 531.7, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 581.95, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 461.07, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 464.33, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1464.24, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1049.96, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1214.44, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1007.06, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 530.61, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 750.08, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1460.7, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 709.96, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 750.45, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 829.53, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2235.15, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 3851.35, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1221.43, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1046.05, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 375.9, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1764.36, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 950.96, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -647,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +1170,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -707,10 +1190,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -727,10 +1210,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -747,10 +1230,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -767,10 +1250,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -787,10 +1270,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -807,10 +1290,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -827,10 +1310,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -847,10 +1330,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -867,10 +1350,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -887,10 +1370,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -907,10 +1390,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -927,10 +1410,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -947,10 +1430,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -967,10 +1450,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -987,10 +1470,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1007,10 +1490,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1027,10 +1510,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1047,10 +1530,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1067,10 +1550,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1087,10 +1570,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1107,10 +1590,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1127,10 +1610,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1147,10 +1630,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1167,10 +1650,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1187,10 +1670,10 @@
         <v>11025</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1207,10 +1690,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1227,10 +1710,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1247,10 +1730,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1267,10 +1750,10 @@
         <v>11025</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1287,10 +1770,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1307,10 +1790,10 @@
         <v>11025</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1327,10 +1810,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1347,10 +1830,10 @@
         <v>11025</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1367,10 +1850,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1387,10 +1870,10 @@
         <v>11025</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1407,10 +1890,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1427,10 +1910,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1447,10 +1930,10 @@
         <v>11025</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1467,10 +1950,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1487,10 +1970,10 @@
         <v>11025</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1507,10 +1990,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1527,10 +2010,10 @@
         <v>11025</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1547,10 +2030,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1567,10 +2050,10 @@
         <v>11025</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1587,10 +2070,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1607,10 +2090,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1627,10 +2110,10 @@
         <v>11025</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1647,10 +2130,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1667,10 +2150,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1687,10 +2170,10 @@
         <v>11025</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1707,10 +2190,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1727,10 +2210,10 @@
         <v>11025</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1747,10 +2230,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1767,10 +2250,10 @@
         <v>11025</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1787,10 +2270,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1807,10 +2290,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1827,10 +2310,10 @@
         <v>11025</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1847,10 +2330,10 @@
         <v>11025</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1867,10 +2350,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1887,10 +2370,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1907,10 +2390,10 @@
         <v>11025</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1927,10 +2410,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1947,10 +2430,10 @@
         <v>11025</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1967,10 +2450,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1987,30 +2470,2630 @@
         <v>11025</v>
       </c>
       <c r="E67" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" t="s">
-        <v>73</v>
+      <c r="B68">
+        <v>7201</v>
+      </c>
+      <c r="C68">
+        <v>85043</v>
       </c>
       <c r="D68">
         <v>45007.703685</v>
       </c>
       <c r="E68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>7201</v>
+      </c>
+      <c r="C69">
+        <v>17225</v>
+      </c>
+      <c r="D69">
+        <v>45000</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>94607</v>
+      </c>
+      <c r="C70">
+        <v>94561</v>
+      </c>
+      <c r="D70">
+        <v>45000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="F68" t="s">
+      <c r="B71">
+        <v>90220</v>
+      </c>
+      <c r="C71">
+        <v>94561</v>
+      </c>
+      <c r="D71">
+        <v>45000</v>
+      </c>
+      <c r="E71" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>7201</v>
+      </c>
+      <c r="C72">
+        <v>21901</v>
+      </c>
+      <c r="D72">
+        <v>45000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>33316</v>
+      </c>
+      <c r="C73">
+        <v>33032</v>
+      </c>
+      <c r="D73">
+        <v>45000</v>
+      </c>
+      <c r="E73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>7201</v>
+      </c>
+      <c r="C74">
+        <v>8873</v>
+      </c>
+      <c r="D74">
+        <v>45000</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>7201</v>
+      </c>
+      <c r="C75">
+        <v>15672</v>
+      </c>
+      <c r="D75">
+        <v>45000</v>
+      </c>
+      <c r="E75" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>29492</v>
+      </c>
+      <c r="C76">
+        <v>28214</v>
+      </c>
+      <c r="D76">
+        <v>45000</v>
+      </c>
+      <c r="E76" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>29492</v>
+      </c>
+      <c r="C77">
+        <v>28303</v>
+      </c>
+      <c r="D77">
+        <v>45000</v>
+      </c>
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>90220</v>
+      </c>
+      <c r="C78">
+        <v>92377</v>
+      </c>
+      <c r="D78">
+        <v>45000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>7201</v>
+      </c>
+      <c r="C79">
+        <v>18202</v>
+      </c>
+      <c r="D79">
+        <v>45000</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>7201</v>
+      </c>
+      <c r="C80">
+        <v>8518</v>
+      </c>
+      <c r="D80">
+        <v>45000</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>33316</v>
+      </c>
+      <c r="C81">
+        <v>34986</v>
+      </c>
+      <c r="D81">
+        <v>45000</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>29492</v>
+      </c>
+      <c r="C82">
+        <v>34986</v>
+      </c>
+      <c r="D82">
+        <v>45000</v>
+      </c>
+      <c r="E82" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>7201</v>
+      </c>
+      <c r="C83">
+        <v>46143</v>
+      </c>
+      <c r="D83">
+        <v>45000</v>
+      </c>
+      <c r="E83" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>7201</v>
+      </c>
+      <c r="C84">
+        <v>46809</v>
+      </c>
+      <c r="D84">
+        <v>45000</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>7201</v>
+      </c>
+      <c r="C85">
+        <v>46140</v>
+      </c>
+      <c r="D85">
+        <v>45000</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>90220</v>
+      </c>
+      <c r="C86">
+        <v>92316</v>
+      </c>
+      <c r="D86">
+        <v>45000</v>
+      </c>
+      <c r="E86" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>29492</v>
+      </c>
+      <c r="C87">
+        <v>27577</v>
+      </c>
+      <c r="D87">
+        <v>45000</v>
+      </c>
+      <c r="E87" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
         <v>91</v>
+      </c>
+      <c r="B88">
+        <v>29492</v>
+      </c>
+      <c r="C88">
+        <v>38118</v>
+      </c>
+      <c r="D88">
+        <v>45000</v>
+      </c>
+      <c r="E88" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>7201</v>
+      </c>
+      <c r="C89">
+        <v>12533</v>
+      </c>
+      <c r="D89">
+        <v>45000</v>
+      </c>
+      <c r="E89" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>29492</v>
+      </c>
+      <c r="C90">
+        <v>29330</v>
+      </c>
+      <c r="D90">
+        <v>45000</v>
+      </c>
+      <c r="E90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>77020</v>
+      </c>
+      <c r="C91">
+        <v>75241</v>
+      </c>
+      <c r="D91">
+        <v>45000</v>
+      </c>
+      <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>29492</v>
+      </c>
+      <c r="C92">
+        <v>75241</v>
+      </c>
+      <c r="D92">
+        <v>45000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>90220</v>
+      </c>
+      <c r="C93">
+        <v>80018</v>
+      </c>
+      <c r="D93">
+        <v>45000</v>
+      </c>
+      <c r="E93" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>7201</v>
+      </c>
+      <c r="C94">
+        <v>48917</v>
+      </c>
+      <c r="D94">
+        <v>45000</v>
+      </c>
+      <c r="E94" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>29492</v>
+      </c>
+      <c r="C95">
+        <v>35756</v>
+      </c>
+      <c r="D95">
+        <v>45000</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>60007</v>
+      </c>
+      <c r="C96">
+        <v>60142</v>
+      </c>
+      <c r="D96">
+        <v>45000</v>
+      </c>
+      <c r="E96" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>29492</v>
+      </c>
+      <c r="C97">
+        <v>33032</v>
+      </c>
+      <c r="D97">
+        <v>45000</v>
+      </c>
+      <c r="E97" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>7201</v>
+      </c>
+      <c r="C98">
+        <v>17225</v>
+      </c>
+      <c r="D98">
+        <v>45000</v>
+      </c>
+      <c r="E98" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>7201</v>
+      </c>
+      <c r="C99">
+        <v>17225</v>
+      </c>
+      <c r="D99">
+        <v>45000</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>94607</v>
+      </c>
+      <c r="C100">
+        <v>94561</v>
+      </c>
+      <c r="D100">
+        <v>45000</v>
+      </c>
+      <c r="E100" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>90220</v>
+      </c>
+      <c r="C101">
+        <v>94561</v>
+      </c>
+      <c r="D101">
+        <v>45000</v>
+      </c>
+      <c r="E101" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>7201</v>
+      </c>
+      <c r="C102">
+        <v>21901</v>
+      </c>
+      <c r="D102">
+        <v>45000</v>
+      </c>
+      <c r="E102" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>33316</v>
+      </c>
+      <c r="C103">
+        <v>33032</v>
+      </c>
+      <c r="D103">
+        <v>45000</v>
+      </c>
+      <c r="E103" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>7201</v>
+      </c>
+      <c r="C104">
+        <v>8873</v>
+      </c>
+      <c r="D104">
+        <v>45000</v>
+      </c>
+      <c r="E104" t="s">
+        <v>205</v>
+      </c>
+      <c r="F104" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>7201</v>
+      </c>
+      <c r="C105">
+        <v>15672</v>
+      </c>
+      <c r="D105">
+        <v>45000</v>
+      </c>
+      <c r="E105" t="s">
+        <v>205</v>
+      </c>
+      <c r="F105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>29492</v>
+      </c>
+      <c r="C106">
+        <v>28214</v>
+      </c>
+      <c r="D106">
+        <v>45000</v>
+      </c>
+      <c r="E106" t="s">
+        <v>205</v>
+      </c>
+      <c r="F106" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>29492</v>
+      </c>
+      <c r="C107">
+        <v>28303</v>
+      </c>
+      <c r="D107">
+        <v>45000</v>
+      </c>
+      <c r="E107" t="s">
+        <v>205</v>
+      </c>
+      <c r="F107" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>90220</v>
+      </c>
+      <c r="C108">
+        <v>92377</v>
+      </c>
+      <c r="D108">
+        <v>45000</v>
+      </c>
+      <c r="E108" t="s">
+        <v>205</v>
+      </c>
+      <c r="F108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>7201</v>
+      </c>
+      <c r="C109">
+        <v>18202</v>
+      </c>
+      <c r="D109">
+        <v>45000</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>7201</v>
+      </c>
+      <c r="C110">
+        <v>8518</v>
+      </c>
+      <c r="D110">
+        <v>45000</v>
+      </c>
+      <c r="E110" t="s">
+        <v>205</v>
+      </c>
+      <c r="F110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>33316</v>
+      </c>
+      <c r="C111">
+        <v>34986</v>
+      </c>
+      <c r="D111">
+        <v>45000</v>
+      </c>
+      <c r="E111" t="s">
+        <v>205</v>
+      </c>
+      <c r="F111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>29492</v>
+      </c>
+      <c r="C112">
+        <v>34986</v>
+      </c>
+      <c r="D112">
+        <v>45000</v>
+      </c>
+      <c r="E112" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>7201</v>
+      </c>
+      <c r="C113">
+        <v>17225</v>
+      </c>
+      <c r="D113">
+        <v>45000</v>
+      </c>
+      <c r="E113" t="s">
+        <v>205</v>
+      </c>
+      <c r="F113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>94607</v>
+      </c>
+      <c r="C114">
+        <v>94561</v>
+      </c>
+      <c r="D114">
+        <v>45000</v>
+      </c>
+      <c r="E114" t="s">
+        <v>205</v>
+      </c>
+      <c r="F114" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>90220</v>
+      </c>
+      <c r="C115">
+        <v>94561</v>
+      </c>
+      <c r="D115">
+        <v>45000</v>
+      </c>
+      <c r="E115" t="s">
+        <v>205</v>
+      </c>
+      <c r="F115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>7201</v>
+      </c>
+      <c r="C116">
+        <v>21901</v>
+      </c>
+      <c r="D116">
+        <v>45000</v>
+      </c>
+      <c r="E116" t="s">
+        <v>205</v>
+      </c>
+      <c r="F116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>33316</v>
+      </c>
+      <c r="C117">
+        <v>33032</v>
+      </c>
+      <c r="D117">
+        <v>45000</v>
+      </c>
+      <c r="E117" t="s">
+        <v>205</v>
+      </c>
+      <c r="F117" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>7201</v>
+      </c>
+      <c r="C118">
+        <v>8873</v>
+      </c>
+      <c r="D118">
+        <v>45000</v>
+      </c>
+      <c r="E118" t="s">
+        <v>205</v>
+      </c>
+      <c r="F118" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>7201</v>
+      </c>
+      <c r="C119">
+        <v>15672</v>
+      </c>
+      <c r="D119">
+        <v>45000</v>
+      </c>
+      <c r="E119" t="s">
+        <v>205</v>
+      </c>
+      <c r="F119" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>29492</v>
+      </c>
+      <c r="C120">
+        <v>28214</v>
+      </c>
+      <c r="D120">
+        <v>45000</v>
+      </c>
+      <c r="E120" t="s">
+        <v>205</v>
+      </c>
+      <c r="F120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>29492</v>
+      </c>
+      <c r="C121">
+        <v>28303</v>
+      </c>
+      <c r="D121">
+        <v>45000</v>
+      </c>
+      <c r="E121" t="s">
+        <v>205</v>
+      </c>
+      <c r="F121" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>90220</v>
+      </c>
+      <c r="C122">
+        <v>92377</v>
+      </c>
+      <c r="D122">
+        <v>45000</v>
+      </c>
+      <c r="E122" t="s">
+        <v>205</v>
+      </c>
+      <c r="F122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>7201</v>
+      </c>
+      <c r="C123">
+        <v>18202</v>
+      </c>
+      <c r="D123">
+        <v>45000</v>
+      </c>
+      <c r="E123" t="s">
+        <v>205</v>
+      </c>
+      <c r="F123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>7201</v>
+      </c>
+      <c r="C124">
+        <v>8518</v>
+      </c>
+      <c r="D124">
+        <v>45000</v>
+      </c>
+      <c r="E124" t="s">
+        <v>205</v>
+      </c>
+      <c r="F124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>33316</v>
+      </c>
+      <c r="C125">
+        <v>34986</v>
+      </c>
+      <c r="D125">
+        <v>45000</v>
+      </c>
+      <c r="E125" t="s">
+        <v>205</v>
+      </c>
+      <c r="F125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>29492</v>
+      </c>
+      <c r="C126">
+        <v>34986</v>
+      </c>
+      <c r="D126">
+        <v>45000</v>
+      </c>
+      <c r="E126" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>7201</v>
+      </c>
+      <c r="C127">
+        <v>46143</v>
+      </c>
+      <c r="D127">
+        <v>45000</v>
+      </c>
+      <c r="E127" t="s">
+        <v>205</v>
+      </c>
+      <c r="F127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>7201</v>
+      </c>
+      <c r="C128">
+        <v>46809</v>
+      </c>
+      <c r="D128">
+        <v>45000</v>
+      </c>
+      <c r="E128" t="s">
+        <v>205</v>
+      </c>
+      <c r="F128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>7201</v>
+      </c>
+      <c r="C129">
+        <v>46140</v>
+      </c>
+      <c r="D129">
+        <v>45000</v>
+      </c>
+      <c r="E129" t="s">
+        <v>205</v>
+      </c>
+      <c r="F129" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>90220</v>
+      </c>
+      <c r="C130">
+        <v>92316</v>
+      </c>
+      <c r="D130">
+        <v>45000</v>
+      </c>
+      <c r="E130" t="s">
+        <v>205</v>
+      </c>
+      <c r="F130" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>29492</v>
+      </c>
+      <c r="C131">
+        <v>27577</v>
+      </c>
+      <c r="D131">
+        <v>45000</v>
+      </c>
+      <c r="E131" t="s">
+        <v>205</v>
+      </c>
+      <c r="F131" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>29492</v>
+      </c>
+      <c r="C132">
+        <v>38118</v>
+      </c>
+      <c r="D132">
+        <v>45000</v>
+      </c>
+      <c r="E132" t="s">
+        <v>205</v>
+      </c>
+      <c r="F132" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>7201</v>
+      </c>
+      <c r="C133">
+        <v>12533</v>
+      </c>
+      <c r="D133">
+        <v>45000</v>
+      </c>
+      <c r="E133" t="s">
+        <v>205</v>
+      </c>
+      <c r="F133" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>29492</v>
+      </c>
+      <c r="C134">
+        <v>29330</v>
+      </c>
+      <c r="D134">
+        <v>45000</v>
+      </c>
+      <c r="E134" t="s">
+        <v>205</v>
+      </c>
+      <c r="F134" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>77020</v>
+      </c>
+      <c r="C135">
+        <v>75241</v>
+      </c>
+      <c r="D135">
+        <v>45000</v>
+      </c>
+      <c r="E135" t="s">
+        <v>205</v>
+      </c>
+      <c r="F135" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>29492</v>
+      </c>
+      <c r="C136">
+        <v>75241</v>
+      </c>
+      <c r="D136">
+        <v>45000</v>
+      </c>
+      <c r="E136" t="s">
+        <v>205</v>
+      </c>
+      <c r="F136" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>90220</v>
+      </c>
+      <c r="C137">
+        <v>80018</v>
+      </c>
+      <c r="D137">
+        <v>45000</v>
+      </c>
+      <c r="E137" t="s">
+        <v>205</v>
+      </c>
+      <c r="F137" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>7201</v>
+      </c>
+      <c r="C138">
+        <v>48917</v>
+      </c>
+      <c r="D138">
+        <v>45000</v>
+      </c>
+      <c r="E138" t="s">
+        <v>205</v>
+      </c>
+      <c r="F138" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>29492</v>
+      </c>
+      <c r="C139">
+        <v>35756</v>
+      </c>
+      <c r="D139">
+        <v>45000</v>
+      </c>
+      <c r="E139" t="s">
+        <v>205</v>
+      </c>
+      <c r="F139" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>60007</v>
+      </c>
+      <c r="C140">
+        <v>60142</v>
+      </c>
+      <c r="D140">
+        <v>45000</v>
+      </c>
+      <c r="E140" t="s">
+        <v>205</v>
+      </c>
+      <c r="F140" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>7201</v>
+      </c>
+      <c r="C141">
+        <v>17225</v>
+      </c>
+      <c r="D141">
+        <v>45000</v>
+      </c>
+      <c r="E141" t="s">
+        <v>205</v>
+      </c>
+      <c r="F141" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>7201</v>
+      </c>
+      <c r="C142">
+        <v>17225</v>
+      </c>
+      <c r="D142">
+        <v>11024</v>
+      </c>
+      <c r="E142" t="s">
+        <v>205</v>
+      </c>
+      <c r="F142" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>94607</v>
+      </c>
+      <c r="C143">
+        <v>94561</v>
+      </c>
+      <c r="D143">
+        <v>45000</v>
+      </c>
+      <c r="E143" t="s">
+        <v>205</v>
+      </c>
+      <c r="F143" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>94607</v>
+      </c>
+      <c r="C144">
+        <v>94561</v>
+      </c>
+      <c r="D144">
+        <v>11024</v>
+      </c>
+      <c r="E144" t="s">
+        <v>205</v>
+      </c>
+      <c r="F144" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>90220</v>
+      </c>
+      <c r="C145">
+        <v>94561</v>
+      </c>
+      <c r="D145">
+        <v>45000</v>
+      </c>
+      <c r="E145" t="s">
+        <v>205</v>
+      </c>
+      <c r="F145" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>90220</v>
+      </c>
+      <c r="C146">
+        <v>94561</v>
+      </c>
+      <c r="D146">
+        <v>11024</v>
+      </c>
+      <c r="E146" t="s">
+        <v>205</v>
+      </c>
+      <c r="F146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>7201</v>
+      </c>
+      <c r="C147">
+        <v>21901</v>
+      </c>
+      <c r="D147">
+        <v>45000</v>
+      </c>
+      <c r="E147" t="s">
+        <v>205</v>
+      </c>
+      <c r="F147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>7201</v>
+      </c>
+      <c r="C148">
+        <v>21901</v>
+      </c>
+      <c r="D148">
+        <v>11024</v>
+      </c>
+      <c r="E148" t="s">
+        <v>205</v>
+      </c>
+      <c r="F148" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>33316</v>
+      </c>
+      <c r="C149">
+        <v>33032</v>
+      </c>
+      <c r="D149">
+        <v>45000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>205</v>
+      </c>
+      <c r="F149" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>33316</v>
+      </c>
+      <c r="C150">
+        <v>33032</v>
+      </c>
+      <c r="D150">
+        <v>11024</v>
+      </c>
+      <c r="E150" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>7201</v>
+      </c>
+      <c r="C151">
+        <v>8873</v>
+      </c>
+      <c r="D151">
+        <v>45000</v>
+      </c>
+      <c r="E151" t="s">
+        <v>205</v>
+      </c>
+      <c r="F151" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>7201</v>
+      </c>
+      <c r="C152">
+        <v>8873</v>
+      </c>
+      <c r="D152">
+        <v>11024</v>
+      </c>
+      <c r="E152" t="s">
+        <v>205</v>
+      </c>
+      <c r="F152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>7201</v>
+      </c>
+      <c r="C153">
+        <v>15672</v>
+      </c>
+      <c r="D153">
+        <v>45000</v>
+      </c>
+      <c r="E153" t="s">
+        <v>205</v>
+      </c>
+      <c r="F153" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>7201</v>
+      </c>
+      <c r="C154">
+        <v>15672</v>
+      </c>
+      <c r="D154">
+        <v>11024</v>
+      </c>
+      <c r="E154" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>29492</v>
+      </c>
+      <c r="C155">
+        <v>28214</v>
+      </c>
+      <c r="D155">
+        <v>45000</v>
+      </c>
+      <c r="E155" t="s">
+        <v>205</v>
+      </c>
+      <c r="F155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>29492</v>
+      </c>
+      <c r="C156">
+        <v>28214</v>
+      </c>
+      <c r="D156">
+        <v>11024</v>
+      </c>
+      <c r="E156" t="s">
+        <v>205</v>
+      </c>
+      <c r="F156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>29492</v>
+      </c>
+      <c r="C157">
+        <v>28303</v>
+      </c>
+      <c r="D157">
+        <v>45000</v>
+      </c>
+      <c r="E157" t="s">
+        <v>205</v>
+      </c>
+      <c r="F157" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>29492</v>
+      </c>
+      <c r="C158">
+        <v>28303</v>
+      </c>
+      <c r="D158">
+        <v>11024</v>
+      </c>
+      <c r="E158" t="s">
+        <v>205</v>
+      </c>
+      <c r="F158" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>90220</v>
+      </c>
+      <c r="C159">
+        <v>92377</v>
+      </c>
+      <c r="D159">
+        <v>45000</v>
+      </c>
+      <c r="E159" t="s">
+        <v>205</v>
+      </c>
+      <c r="F159" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>90220</v>
+      </c>
+      <c r="C160">
+        <v>92377</v>
+      </c>
+      <c r="D160">
+        <v>11024</v>
+      </c>
+      <c r="E160" t="s">
+        <v>205</v>
+      </c>
+      <c r="F160" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>7201</v>
+      </c>
+      <c r="C161">
+        <v>18202</v>
+      </c>
+      <c r="D161">
+        <v>45000</v>
+      </c>
+      <c r="E161" t="s">
+        <v>205</v>
+      </c>
+      <c r="F161" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>7201</v>
+      </c>
+      <c r="C162">
+        <v>18202</v>
+      </c>
+      <c r="D162">
+        <v>11024</v>
+      </c>
+      <c r="E162" t="s">
+        <v>205</v>
+      </c>
+      <c r="F162" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>7201</v>
+      </c>
+      <c r="C163">
+        <v>8518</v>
+      </c>
+      <c r="D163">
+        <v>45000</v>
+      </c>
+      <c r="E163" t="s">
+        <v>205</v>
+      </c>
+      <c r="F163" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>7201</v>
+      </c>
+      <c r="C164">
+        <v>8518</v>
+      </c>
+      <c r="D164">
+        <v>11024</v>
+      </c>
+      <c r="E164" t="s">
+        <v>205</v>
+      </c>
+      <c r="F164" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>33316</v>
+      </c>
+      <c r="C165">
+        <v>34986</v>
+      </c>
+      <c r="D165">
+        <v>45000</v>
+      </c>
+      <c r="E165" t="s">
+        <v>205</v>
+      </c>
+      <c r="F165" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>33316</v>
+      </c>
+      <c r="C166">
+        <v>34986</v>
+      </c>
+      <c r="D166">
+        <v>11024</v>
+      </c>
+      <c r="E166" t="s">
+        <v>205</v>
+      </c>
+      <c r="F166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>29492</v>
+      </c>
+      <c r="C167">
+        <v>34986</v>
+      </c>
+      <c r="D167">
+        <v>45000</v>
+      </c>
+      <c r="E167" t="s">
+        <v>205</v>
+      </c>
+      <c r="F167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>29492</v>
+      </c>
+      <c r="C168">
+        <v>34986</v>
+      </c>
+      <c r="D168">
+        <v>11024</v>
+      </c>
+      <c r="E168" t="s">
+        <v>205</v>
+      </c>
+      <c r="F168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>7201</v>
+      </c>
+      <c r="C169">
+        <v>46143</v>
+      </c>
+      <c r="D169">
+        <v>45000</v>
+      </c>
+      <c r="E169" t="s">
+        <v>205</v>
+      </c>
+      <c r="F169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>7201</v>
+      </c>
+      <c r="C170">
+        <v>46143</v>
+      </c>
+      <c r="D170">
+        <v>11024</v>
+      </c>
+      <c r="E170" t="s">
+        <v>205</v>
+      </c>
+      <c r="F170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>7201</v>
+      </c>
+      <c r="C171">
+        <v>46809</v>
+      </c>
+      <c r="D171">
+        <v>45000</v>
+      </c>
+      <c r="E171" t="s">
+        <v>205</v>
+      </c>
+      <c r="F171" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>7201</v>
+      </c>
+      <c r="C172">
+        <v>46809</v>
+      </c>
+      <c r="D172">
+        <v>11024</v>
+      </c>
+      <c r="E172" t="s">
+        <v>205</v>
+      </c>
+      <c r="F172" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>7201</v>
+      </c>
+      <c r="C173">
+        <v>46140</v>
+      </c>
+      <c r="D173">
+        <v>45000</v>
+      </c>
+      <c r="E173" t="s">
+        <v>205</v>
+      </c>
+      <c r="F173" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>7201</v>
+      </c>
+      <c r="C174">
+        <v>46140</v>
+      </c>
+      <c r="D174">
+        <v>11024</v>
+      </c>
+      <c r="E174" t="s">
+        <v>205</v>
+      </c>
+      <c r="F174" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>90220</v>
+      </c>
+      <c r="C175">
+        <v>92316</v>
+      </c>
+      <c r="D175">
+        <v>45000</v>
+      </c>
+      <c r="E175" t="s">
+        <v>205</v>
+      </c>
+      <c r="F175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>90220</v>
+      </c>
+      <c r="C176">
+        <v>92316</v>
+      </c>
+      <c r="D176">
+        <v>11024</v>
+      </c>
+      <c r="E176" t="s">
+        <v>205</v>
+      </c>
+      <c r="F176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>29492</v>
+      </c>
+      <c r="C177">
+        <v>27577</v>
+      </c>
+      <c r="D177">
+        <v>45000</v>
+      </c>
+      <c r="E177" t="s">
+        <v>205</v>
+      </c>
+      <c r="F177" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>29492</v>
+      </c>
+      <c r="C178">
+        <v>27577</v>
+      </c>
+      <c r="D178">
+        <v>11024</v>
+      </c>
+      <c r="E178" t="s">
+        <v>205</v>
+      </c>
+      <c r="F178" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>29492</v>
+      </c>
+      <c r="C179">
+        <v>38118</v>
+      </c>
+      <c r="D179">
+        <v>45000</v>
+      </c>
+      <c r="E179" t="s">
+        <v>205</v>
+      </c>
+      <c r="F179" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>29492</v>
+      </c>
+      <c r="C180">
+        <v>38118</v>
+      </c>
+      <c r="D180">
+        <v>11024</v>
+      </c>
+      <c r="E180" t="s">
+        <v>205</v>
+      </c>
+      <c r="F180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>7201</v>
+      </c>
+      <c r="C181">
+        <v>12533</v>
+      </c>
+      <c r="D181">
+        <v>45000</v>
+      </c>
+      <c r="E181" t="s">
+        <v>205</v>
+      </c>
+      <c r="F181" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>7201</v>
+      </c>
+      <c r="C182">
+        <v>12533</v>
+      </c>
+      <c r="D182">
+        <v>11024</v>
+      </c>
+      <c r="E182" t="s">
+        <v>205</v>
+      </c>
+      <c r="F182" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>29492</v>
+      </c>
+      <c r="C183">
+        <v>29330</v>
+      </c>
+      <c r="D183">
+        <v>45000</v>
+      </c>
+      <c r="E183" t="s">
+        <v>205</v>
+      </c>
+      <c r="F183" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>29492</v>
+      </c>
+      <c r="C184">
+        <v>29330</v>
+      </c>
+      <c r="D184">
+        <v>11024</v>
+      </c>
+      <c r="E184" t="s">
+        <v>205</v>
+      </c>
+      <c r="F184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>77020</v>
+      </c>
+      <c r="C185">
+        <v>75241</v>
+      </c>
+      <c r="D185">
+        <v>45000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>205</v>
+      </c>
+      <c r="F185" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>77020</v>
+      </c>
+      <c r="C186">
+        <v>75241</v>
+      </c>
+      <c r="D186">
+        <v>11024</v>
+      </c>
+      <c r="E186" t="s">
+        <v>205</v>
+      </c>
+      <c r="F186" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>29492</v>
+      </c>
+      <c r="C187">
+        <v>75241</v>
+      </c>
+      <c r="D187">
+        <v>45000</v>
+      </c>
+      <c r="E187" t="s">
+        <v>205</v>
+      </c>
+      <c r="F187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>29492</v>
+      </c>
+      <c r="C188">
+        <v>75241</v>
+      </c>
+      <c r="D188">
+        <v>11024</v>
+      </c>
+      <c r="E188" t="s">
+        <v>205</v>
+      </c>
+      <c r="F188" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>90220</v>
+      </c>
+      <c r="C189">
+        <v>80018</v>
+      </c>
+      <c r="D189">
+        <v>45000</v>
+      </c>
+      <c r="E189" t="s">
+        <v>205</v>
+      </c>
+      <c r="F189" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>90220</v>
+      </c>
+      <c r="C190">
+        <v>80018</v>
+      </c>
+      <c r="D190">
+        <v>11024</v>
+      </c>
+      <c r="E190" t="s">
+        <v>205</v>
+      </c>
+      <c r="F190" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>7201</v>
+      </c>
+      <c r="C191">
+        <v>48917</v>
+      </c>
+      <c r="D191">
+        <v>45000</v>
+      </c>
+      <c r="E191" t="s">
+        <v>205</v>
+      </c>
+      <c r="F191" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>7201</v>
+      </c>
+      <c r="C192">
+        <v>48917</v>
+      </c>
+      <c r="D192">
+        <v>11024</v>
+      </c>
+      <c r="E192" t="s">
+        <v>205</v>
+      </c>
+      <c r="F192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>29492</v>
+      </c>
+      <c r="C193">
+        <v>35756</v>
+      </c>
+      <c r="D193">
+        <v>45000</v>
+      </c>
+      <c r="E193" t="s">
+        <v>205</v>
+      </c>
+      <c r="F193" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>29492</v>
+      </c>
+      <c r="C194">
+        <v>35756</v>
+      </c>
+      <c r="D194">
+        <v>11024</v>
+      </c>
+      <c r="E194" t="s">
+        <v>205</v>
+      </c>
+      <c r="F194" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>60007</v>
+      </c>
+      <c r="C195">
+        <v>60142</v>
+      </c>
+      <c r="D195">
+        <v>45000</v>
+      </c>
+      <c r="E195" t="s">
+        <v>205</v>
+      </c>
+      <c r="F195" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>60007</v>
+      </c>
+      <c r="C196">
+        <v>60142</v>
+      </c>
+      <c r="D196">
+        <v>11024</v>
+      </c>
+      <c r="E196" t="s">
+        <v>205</v>
+      </c>
+      <c r="F196" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>29492</v>
+      </c>
+      <c r="C197">
+        <v>33032</v>
+      </c>
+      <c r="D197">
+        <v>45000</v>
+      </c>
+      <c r="E197" t="s">
+        <v>205</v>
+      </c>
+      <c r="F197" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198" t="s">
+        <v>203</v>
+      </c>
+      <c r="D198" t="s">
+        <v>204</v>
+      </c>
+      <c r="E198" t="s">
+        <v>205</v>
+      </c>
+      <c r="F198" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="286">
   <si>
     <t>Timestamp</t>
   </si>
@@ -622,13 +622,109 @@
     <t>2025-08-12 11:22:30</t>
   </si>
   <si>
-    <t>29492</t>
-  </si>
-  <si>
-    <t>33032</t>
-  </si>
-  <si>
-    <t>11024</t>
+    <t>2025-08-12 11:54:01</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:03</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:15</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:29</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:07:42</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:30:09</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:30:37</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:30:51</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:30:54</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:31:07</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:51:25</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:56:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:56:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:56:45</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:56:47</t>
+  </si>
+  <si>
+    <t>2025-08-12 12:56:59</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:40:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:40:31</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:40:51</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:40:53</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:41:07</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:43:58</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:44:00</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:44:13</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:44:26</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:44:39</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:15</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:27</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:42</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:44</t>
+  </si>
+  <si>
+    <t>2025-08-12 13:47:57</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>21901</t>
+  </si>
+  <si>
+    <t>45000</t>
   </si>
   <si>
     <t>Success</t>
@@ -773,6 +869,9 @@
   </si>
   <si>
     <t>Rate: 950.96, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 711.44, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F198"/>
+  <dimension ref="A1:F230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1170,10 +1269,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,10 +1289,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1210,10 +1309,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1230,10 +1329,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1250,10 +1349,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1270,10 +1369,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1290,10 +1389,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1310,10 +1409,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1330,10 +1429,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1350,10 +1449,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1370,10 +1469,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1390,10 +1489,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1410,10 +1509,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1430,10 +1529,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1450,10 +1549,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1470,10 +1569,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1490,10 +1589,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1510,10 +1609,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1530,10 +1629,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1550,10 +1649,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1570,10 +1669,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1590,10 +1689,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1610,10 +1709,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1630,10 +1729,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1650,10 +1749,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1670,10 +1769,10 @@
         <v>11025</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1690,10 +1789,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1710,10 +1809,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1730,10 +1829,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1750,10 +1849,10 @@
         <v>11025</v>
       </c>
       <c r="E31" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1770,10 +1869,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E32" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1790,10 +1889,10 @@
         <v>11025</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1810,10 +1909,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1830,10 +1929,10 @@
         <v>11025</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1850,10 +1949,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1870,10 +1969,10 @@
         <v>11025</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1890,10 +1989,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1910,10 +2009,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1930,10 +2029,10 @@
         <v>11025</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1950,10 +2049,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1970,10 +2069,10 @@
         <v>11025</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1990,10 +2089,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2010,10 +2109,10 @@
         <v>11025</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2030,10 +2129,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2050,10 +2149,10 @@
         <v>11025</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2070,10 +2169,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2090,10 +2189,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2110,10 +2209,10 @@
         <v>11025</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2130,10 +2229,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2150,10 +2249,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2170,10 +2269,10 @@
         <v>11025</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2190,10 +2289,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2210,10 +2309,10 @@
         <v>11025</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2230,10 +2329,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2250,10 +2349,10 @@
         <v>11025</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F56" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2270,10 +2369,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E57" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2290,10 +2389,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2310,10 +2409,10 @@
         <v>11025</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2330,10 +2429,10 @@
         <v>11025</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2350,10 +2449,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E61" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2370,10 +2469,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2390,10 +2489,10 @@
         <v>11025</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2410,10 +2509,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2430,10 +2529,10 @@
         <v>11025</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2450,10 +2549,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2470,10 +2569,10 @@
         <v>11025</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2490,10 +2589,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2510,10 +2609,10 @@
         <v>45000</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2530,10 +2629,10 @@
         <v>45000</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2550,10 +2649,10 @@
         <v>45000</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2570,10 +2669,10 @@
         <v>45000</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F72" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2590,10 +2689,10 @@
         <v>45000</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F73" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2610,10 +2709,10 @@
         <v>45000</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2630,10 +2729,10 @@
         <v>45000</v>
       </c>
       <c r="E75" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2650,10 +2749,10 @@
         <v>45000</v>
       </c>
       <c r="E76" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F76" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2670,10 +2769,10 @@
         <v>45000</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2690,10 +2789,10 @@
         <v>45000</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2710,10 +2809,10 @@
         <v>45000</v>
       </c>
       <c r="E79" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2730,10 +2829,10 @@
         <v>45000</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F80" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2750,10 +2849,10 @@
         <v>45000</v>
       </c>
       <c r="E81" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2770,10 +2869,10 @@
         <v>45000</v>
       </c>
       <c r="E82" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2790,10 +2889,10 @@
         <v>45000</v>
       </c>
       <c r="E83" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2810,10 +2909,10 @@
         <v>45000</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2830,10 +2929,10 @@
         <v>45000</v>
       </c>
       <c r="E85" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2850,10 +2949,10 @@
         <v>45000</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2870,10 +2969,10 @@
         <v>45000</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2890,10 +2989,10 @@
         <v>45000</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F88" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2910,10 +3009,10 @@
         <v>45000</v>
       </c>
       <c r="E89" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2930,10 +3029,10 @@
         <v>45000</v>
       </c>
       <c r="E90" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F90" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2950,10 +3049,10 @@
         <v>45000</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2970,10 +3069,10 @@
         <v>45000</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F92" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2990,10 +3089,10 @@
         <v>45000</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F93" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3010,10 +3109,10 @@
         <v>45000</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3030,10 +3129,10 @@
         <v>45000</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3050,10 +3149,10 @@
         <v>45000</v>
       </c>
       <c r="E96" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F96" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3070,10 +3169,10 @@
         <v>45000</v>
       </c>
       <c r="E97" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F97" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3090,10 +3189,10 @@
         <v>45000</v>
       </c>
       <c r="E98" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3110,10 +3209,10 @@
         <v>45000</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3130,10 +3229,10 @@
         <v>45000</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3150,10 +3249,10 @@
         <v>45000</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F101" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3170,10 +3269,10 @@
         <v>45000</v>
       </c>
       <c r="E102" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3190,10 +3289,10 @@
         <v>45000</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3210,10 +3309,10 @@
         <v>45000</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3230,10 +3329,10 @@
         <v>45000</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F105" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3250,10 +3349,10 @@
         <v>45000</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3270,10 +3369,10 @@
         <v>45000</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3290,10 +3389,10 @@
         <v>45000</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F108" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3310,10 +3409,10 @@
         <v>45000</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3330,10 +3429,10 @@
         <v>45000</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F110" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3350,10 +3449,10 @@
         <v>45000</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F111" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3370,10 +3469,10 @@
         <v>45000</v>
       </c>
       <c r="E112" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F112" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3390,10 +3489,10 @@
         <v>45000</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3410,10 +3509,10 @@
         <v>45000</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3430,10 +3529,10 @@
         <v>45000</v>
       </c>
       <c r="E115" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3450,10 +3549,10 @@
         <v>45000</v>
       </c>
       <c r="E116" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3470,10 +3569,10 @@
         <v>45000</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F117" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3490,10 +3589,10 @@
         <v>45000</v>
       </c>
       <c r="E118" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3510,10 +3609,10 @@
         <v>45000</v>
       </c>
       <c r="E119" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F119" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3530,10 +3629,10 @@
         <v>45000</v>
       </c>
       <c r="E120" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3550,10 +3649,10 @@
         <v>45000</v>
       </c>
       <c r="E121" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3570,10 +3669,10 @@
         <v>45000</v>
       </c>
       <c r="E122" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3590,10 +3689,10 @@
         <v>45000</v>
       </c>
       <c r="E123" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3610,10 +3709,10 @@
         <v>45000</v>
       </c>
       <c r="E124" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3630,10 +3729,10 @@
         <v>45000</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3650,10 +3749,10 @@
         <v>45000</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3670,10 +3769,10 @@
         <v>45000</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3690,10 +3789,10 @@
         <v>45000</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3710,10 +3809,10 @@
         <v>45000</v>
       </c>
       <c r="E129" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3730,10 +3829,10 @@
         <v>45000</v>
       </c>
       <c r="E130" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3750,10 +3849,10 @@
         <v>45000</v>
       </c>
       <c r="E131" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F131" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3770,10 +3869,10 @@
         <v>45000</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F132" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3790,10 +3889,10 @@
         <v>45000</v>
       </c>
       <c r="E133" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3810,10 +3909,10 @@
         <v>45000</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3830,10 +3929,10 @@
         <v>45000</v>
       </c>
       <c r="E135" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3850,10 +3949,10 @@
         <v>45000</v>
       </c>
       <c r="E136" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3870,10 +3969,10 @@
         <v>45000</v>
       </c>
       <c r="E137" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F137" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3890,10 +3989,10 @@
         <v>45000</v>
       </c>
       <c r="E138" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F138" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3910,10 +4009,10 @@
         <v>45000</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3930,10 +4029,10 @@
         <v>45000</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F140" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3950,10 +4049,10 @@
         <v>45000</v>
       </c>
       <c r="E141" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F141" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3970,10 +4069,10 @@
         <v>11024</v>
       </c>
       <c r="E142" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F142" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3990,10 +4089,10 @@
         <v>45000</v>
       </c>
       <c r="E143" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F143" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4010,10 +4109,10 @@
         <v>11024</v>
       </c>
       <c r="E144" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F144" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4030,10 +4129,10 @@
         <v>45000</v>
       </c>
       <c r="E145" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F145" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4050,10 +4149,10 @@
         <v>11024</v>
       </c>
       <c r="E146" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F146" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4070,10 +4169,10 @@
         <v>45000</v>
       </c>
       <c r="E147" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F147" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4090,10 +4189,10 @@
         <v>11024</v>
       </c>
       <c r="E148" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F148" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4110,10 +4209,10 @@
         <v>45000</v>
       </c>
       <c r="E149" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F149" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4130,10 +4229,10 @@
         <v>11024</v>
       </c>
       <c r="E150" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F150" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4150,10 +4249,10 @@
         <v>45000</v>
       </c>
       <c r="E151" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F151" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4170,10 +4269,10 @@
         <v>11024</v>
       </c>
       <c r="E152" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F152" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4190,10 +4289,10 @@
         <v>45000</v>
       </c>
       <c r="E153" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F153" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4210,10 +4309,10 @@
         <v>11024</v>
       </c>
       <c r="E154" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F154" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4230,10 +4329,10 @@
         <v>45000</v>
       </c>
       <c r="E155" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F155" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4250,10 +4349,10 @@
         <v>11024</v>
       </c>
       <c r="E156" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F156" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4270,10 +4369,10 @@
         <v>45000</v>
       </c>
       <c r="E157" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F157" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4290,10 +4389,10 @@
         <v>11024</v>
       </c>
       <c r="E158" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F158" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4310,10 +4409,10 @@
         <v>45000</v>
       </c>
       <c r="E159" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F159" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4330,10 +4429,10 @@
         <v>11024</v>
       </c>
       <c r="E160" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F160" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4350,10 +4449,10 @@
         <v>45000</v>
       </c>
       <c r="E161" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4370,10 +4469,10 @@
         <v>11024</v>
       </c>
       <c r="E162" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F162" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4390,10 +4489,10 @@
         <v>45000</v>
       </c>
       <c r="E163" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F163" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4410,10 +4509,10 @@
         <v>11024</v>
       </c>
       <c r="E164" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F164" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4430,10 +4529,10 @@
         <v>45000</v>
       </c>
       <c r="E165" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F165" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4450,10 +4549,10 @@
         <v>11024</v>
       </c>
       <c r="E166" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F166" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4470,10 +4569,10 @@
         <v>45000</v>
       </c>
       <c r="E167" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F167" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4490,10 +4589,10 @@
         <v>11024</v>
       </c>
       <c r="E168" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F168" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4510,10 +4609,10 @@
         <v>45000</v>
       </c>
       <c r="E169" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F169" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4530,10 +4629,10 @@
         <v>11024</v>
       </c>
       <c r="E170" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F170" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4550,10 +4649,10 @@
         <v>45000</v>
       </c>
       <c r="E171" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F171" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4570,10 +4669,10 @@
         <v>11024</v>
       </c>
       <c r="E172" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4590,10 +4689,10 @@
         <v>45000</v>
       </c>
       <c r="E173" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F173" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4610,10 +4709,10 @@
         <v>11024</v>
       </c>
       <c r="E174" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F174" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4630,10 +4729,10 @@
         <v>45000</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4650,10 +4749,10 @@
         <v>11024</v>
       </c>
       <c r="E176" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F176" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4670,10 +4769,10 @@
         <v>45000</v>
       </c>
       <c r="E177" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F177" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4690,10 +4789,10 @@
         <v>11024</v>
       </c>
       <c r="E178" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F178" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4710,10 +4809,10 @@
         <v>45000</v>
       </c>
       <c r="E179" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F179" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4730,10 +4829,10 @@
         <v>11024</v>
       </c>
       <c r="E180" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F180" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4750,10 +4849,10 @@
         <v>45000</v>
       </c>
       <c r="E181" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F181" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4770,10 +4869,10 @@
         <v>11024</v>
       </c>
       <c r="E182" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F182" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4790,10 +4889,10 @@
         <v>45000</v>
       </c>
       <c r="E183" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F183" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4810,10 +4909,10 @@
         <v>11024</v>
       </c>
       <c r="E184" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F184" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4830,10 +4929,10 @@
         <v>45000</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F185" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4850,10 +4949,10 @@
         <v>11024</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F186" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4870,10 +4969,10 @@
         <v>45000</v>
       </c>
       <c r="E187" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F187" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4890,10 +4989,10 @@
         <v>11024</v>
       </c>
       <c r="E188" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F188" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4910,10 +5009,10 @@
         <v>45000</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F189" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4930,10 +5029,10 @@
         <v>11024</v>
       </c>
       <c r="E190" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F190" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4950,10 +5049,10 @@
         <v>45000</v>
       </c>
       <c r="E191" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F191" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4970,10 +5069,10 @@
         <v>11024</v>
       </c>
       <c r="E192" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F192" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4990,10 +5089,10 @@
         <v>45000</v>
       </c>
       <c r="E193" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F193" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5010,10 +5109,10 @@
         <v>11024</v>
       </c>
       <c r="E194" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F194" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5030,10 +5129,10 @@
         <v>45000</v>
       </c>
       <c r="E195" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F195" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5050,10 +5149,10 @@
         <v>11024</v>
       </c>
       <c r="E196" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F196" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5070,30 +5169,670 @@
         <v>45000</v>
       </c>
       <c r="E197" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="F197" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>201</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198">
+        <v>29492</v>
+      </c>
+      <c r="C198">
+        <v>33032</v>
+      </c>
+      <c r="D198">
+        <v>11024</v>
+      </c>
+      <c r="E198" t="s">
+        <v>237</v>
+      </c>
+      <c r="F198" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
         <v>202</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B199">
+        <v>7201</v>
+      </c>
+      <c r="C199">
+        <v>18202</v>
+      </c>
+      <c r="D199">
+        <v>45000</v>
+      </c>
+      <c r="E199" t="s">
+        <v>237</v>
+      </c>
+      <c r="F199" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
         <v>203</v>
       </c>
-      <c r="D198" t="s">
+      <c r="B200">
+        <v>29483</v>
+      </c>
+      <c r="C200">
+        <v>30567</v>
+      </c>
+      <c r="D200">
+        <v>11024</v>
+      </c>
+      <c r="E200" t="s">
+        <v>237</v>
+      </c>
+      <c r="F200" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
         <v>204</v>
       </c>
-      <c r="E198" t="s">
+      <c r="B201">
+        <v>29483</v>
+      </c>
+      <c r="C201">
+        <v>30567</v>
+      </c>
+      <c r="D201">
+        <v>45000</v>
+      </c>
+      <c r="E201" t="s">
+        <v>237</v>
+      </c>
+      <c r="F201" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
         <v>205</v>
       </c>
-      <c r="F198" t="s">
-        <v>251</v>
+      <c r="B202">
+        <v>7201</v>
+      </c>
+      <c r="C202">
+        <v>8873</v>
+      </c>
+      <c r="D202">
+        <v>11024</v>
+      </c>
+      <c r="E202" t="s">
+        <v>237</v>
+      </c>
+      <c r="F202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>7201</v>
+      </c>
+      <c r="C203">
+        <v>8873</v>
+      </c>
+      <c r="D203">
+        <v>45000</v>
+      </c>
+      <c r="E203" t="s">
+        <v>237</v>
+      </c>
+      <c r="F203" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>7201</v>
+      </c>
+      <c r="C204">
+        <v>21901</v>
+      </c>
+      <c r="D204">
+        <v>45000</v>
+      </c>
+      <c r="E204" t="s">
+        <v>237</v>
+      </c>
+      <c r="F204" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>29483</v>
+      </c>
+      <c r="C205">
+        <v>30567</v>
+      </c>
+      <c r="D205">
+        <v>11024</v>
+      </c>
+      <c r="E205" t="s">
+        <v>237</v>
+      </c>
+      <c r="F205" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>29483</v>
+      </c>
+      <c r="C206">
+        <v>30567</v>
+      </c>
+      <c r="D206">
+        <v>45000</v>
+      </c>
+      <c r="E206" t="s">
+        <v>237</v>
+      </c>
+      <c r="F206" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>7201</v>
+      </c>
+      <c r="C207">
+        <v>8873</v>
+      </c>
+      <c r="D207">
+        <v>11024</v>
+      </c>
+      <c r="E207" t="s">
+        <v>237</v>
+      </c>
+      <c r="F207" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>7201</v>
+      </c>
+      <c r="C208">
+        <v>8873</v>
+      </c>
+      <c r="D208">
+        <v>45000</v>
+      </c>
+      <c r="E208" t="s">
+        <v>237</v>
+      </c>
+      <c r="F208" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>7201</v>
+      </c>
+      <c r="C209">
+        <v>21901</v>
+      </c>
+      <c r="D209">
+        <v>45000</v>
+      </c>
+      <c r="E209" t="s">
+        <v>237</v>
+      </c>
+      <c r="F209" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>7201</v>
+      </c>
+      <c r="C210">
+        <v>17225</v>
+      </c>
+      <c r="D210">
+        <v>45000</v>
+      </c>
+      <c r="E210" t="s">
+        <v>237</v>
+      </c>
+      <c r="F210" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>29483</v>
+      </c>
+      <c r="C211">
+        <v>30567</v>
+      </c>
+      <c r="D211">
+        <v>11024</v>
+      </c>
+      <c r="E211" t="s">
+        <v>237</v>
+      </c>
+      <c r="F211" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>29483</v>
+      </c>
+      <c r="C212">
+        <v>30567</v>
+      </c>
+      <c r="D212">
+        <v>45000</v>
+      </c>
+      <c r="E212" t="s">
+        <v>237</v>
+      </c>
+      <c r="F212" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>7201</v>
+      </c>
+      <c r="C213">
+        <v>8873</v>
+      </c>
+      <c r="D213">
+        <v>11024</v>
+      </c>
+      <c r="E213" t="s">
+        <v>237</v>
+      </c>
+      <c r="F213" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>7201</v>
+      </c>
+      <c r="C214">
+        <v>8873</v>
+      </c>
+      <c r="D214">
+        <v>45000</v>
+      </c>
+      <c r="E214" t="s">
+        <v>237</v>
+      </c>
+      <c r="F214" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>7201</v>
+      </c>
+      <c r="C215">
+        <v>21901</v>
+      </c>
+      <c r="D215">
+        <v>45000</v>
+      </c>
+      <c r="E215" t="s">
+        <v>237</v>
+      </c>
+      <c r="F215" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>29483</v>
+      </c>
+      <c r="C216">
+        <v>30567</v>
+      </c>
+      <c r="D216">
+        <v>11024</v>
+      </c>
+      <c r="E216" t="s">
+        <v>237</v>
+      </c>
+      <c r="F216" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>29483</v>
+      </c>
+      <c r="C217">
+        <v>30567</v>
+      </c>
+      <c r="D217">
+        <v>45000</v>
+      </c>
+      <c r="E217" t="s">
+        <v>237</v>
+      </c>
+      <c r="F217" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>7201</v>
+      </c>
+      <c r="C218">
+        <v>8873</v>
+      </c>
+      <c r="D218">
+        <v>11024</v>
+      </c>
+      <c r="E218" t="s">
+        <v>237</v>
+      </c>
+      <c r="F218" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>7201</v>
+      </c>
+      <c r="C219">
+        <v>8873</v>
+      </c>
+      <c r="D219">
+        <v>45000</v>
+      </c>
+      <c r="E219" t="s">
+        <v>237</v>
+      </c>
+      <c r="F219" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>7201</v>
+      </c>
+      <c r="C220">
+        <v>21901</v>
+      </c>
+      <c r="D220">
+        <v>45000</v>
+      </c>
+      <c r="E220" t="s">
+        <v>237</v>
+      </c>
+      <c r="F220" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>29483</v>
+      </c>
+      <c r="C221">
+        <v>30567</v>
+      </c>
+      <c r="D221">
+        <v>11024</v>
+      </c>
+      <c r="E221" t="s">
+        <v>237</v>
+      </c>
+      <c r="F221" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>29483</v>
+      </c>
+      <c r="C222">
+        <v>30567</v>
+      </c>
+      <c r="D222">
+        <v>45000</v>
+      </c>
+      <c r="E222" t="s">
+        <v>237</v>
+      </c>
+      <c r="F222" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>7201</v>
+      </c>
+      <c r="C223">
+        <v>8873</v>
+      </c>
+      <c r="D223">
+        <v>11024</v>
+      </c>
+      <c r="E223" t="s">
+        <v>237</v>
+      </c>
+      <c r="F223" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>7201</v>
+      </c>
+      <c r="C224">
+        <v>8873</v>
+      </c>
+      <c r="D224">
+        <v>45000</v>
+      </c>
+      <c r="E224" t="s">
+        <v>237</v>
+      </c>
+      <c r="F224" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>7201</v>
+      </c>
+      <c r="C225">
+        <v>21901</v>
+      </c>
+      <c r="D225">
+        <v>45000</v>
+      </c>
+      <c r="E225" t="s">
+        <v>237</v>
+      </c>
+      <c r="F225" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>29483</v>
+      </c>
+      <c r="C226">
+        <v>30567</v>
+      </c>
+      <c r="D226">
+        <v>11024</v>
+      </c>
+      <c r="E226" t="s">
+        <v>237</v>
+      </c>
+      <c r="F226" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>29483</v>
+      </c>
+      <c r="C227">
+        <v>30567</v>
+      </c>
+      <c r="D227">
+        <v>45000</v>
+      </c>
+      <c r="E227" t="s">
+        <v>237</v>
+      </c>
+      <c r="F227" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>7201</v>
+      </c>
+      <c r="C228">
+        <v>8873</v>
+      </c>
+      <c r="D228">
+        <v>11024</v>
+      </c>
+      <c r="E228" t="s">
+        <v>237</v>
+      </c>
+      <c r="F228" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>7201</v>
+      </c>
+      <c r="C229">
+        <v>8873</v>
+      </c>
+      <c r="D229">
+        <v>45000</v>
+      </c>
+      <c r="E229" t="s">
+        <v>237</v>
+      </c>
+      <c r="F229" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C230" t="s">
+        <v>235</v>
+      </c>
+      <c r="D230" t="s">
+        <v>236</v>
+      </c>
+      <c r="E230" t="s">
+        <v>237</v>
+      </c>
+      <c r="F230" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="328">
   <si>
     <t>Timestamp</t>
   </si>
@@ -718,10 +718,106 @@
     <t>2025-08-12 13:47:57</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>21901</t>
+    <t>2025-08-12 13:53:08</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:17:02</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:21:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:23:17</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:23:19</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:23:32</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:29:27</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:29:30</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:29:43</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:45:05</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:45:16</t>
+  </si>
+  <si>
+    <t>2025-08-12 14:45:28</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:43:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:45:54</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:08</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:23</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:46:36</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:49:05</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:49:08</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:49:52</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:50:02</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:58:43</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:58:55</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:59:09</t>
+  </si>
+  <si>
+    <t>2025-08-13 07:59:26</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:00:05</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:00:08</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:00:49</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:00:52</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:01:22</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:01:38</t>
+  </si>
+  <si>
+    <t>2025-08-13 08:06:41</t>
+  </si>
+  <si>
+    <t>32226</t>
+  </si>
+  <si>
+    <t>33032</t>
   </si>
   <si>
     <t>45000</t>
@@ -872,6 +968,36 @@
   </si>
   <si>
     <t>Rate: 711.44, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 793.17, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 705.01, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 413.7, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1937.76, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 883.51, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 998.38, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 3300.72, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1378.53, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1477.49, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1118.16, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,10 +1395,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1289,10 +1415,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1309,10 +1435,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1329,10 +1455,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1349,10 +1475,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1369,10 +1495,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1389,10 +1515,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1409,10 +1535,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1429,10 +1555,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F10" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1449,10 +1575,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1469,10 +1595,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1489,10 +1615,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1509,10 +1635,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1529,10 +1655,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1549,10 +1675,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1569,10 +1695,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F17" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1589,10 +1715,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F18" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1609,10 +1735,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F19" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1629,10 +1755,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1649,10 +1775,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1669,10 +1795,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F22" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1689,10 +1815,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1709,10 +1835,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1729,10 +1855,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1749,10 +1875,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1769,10 +1895,10 @@
         <v>11025</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1789,10 +1915,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1809,10 +1935,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1829,10 +1955,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1849,10 +1975,10 @@
         <v>11025</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1869,10 +1995,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1889,10 +2015,10 @@
         <v>11025</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1909,10 +2035,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1929,10 +2055,10 @@
         <v>11025</v>
       </c>
       <c r="E35" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1949,10 +2075,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1969,10 +2095,10 @@
         <v>11025</v>
       </c>
       <c r="E37" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1989,10 +2115,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E38" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2009,10 +2135,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E39" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F39" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2029,10 +2155,10 @@
         <v>11025</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F40" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2049,10 +2175,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E41" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F41" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2069,10 +2195,10 @@
         <v>11025</v>
       </c>
       <c r="E42" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F42" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2089,10 +2215,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E43" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2109,10 +2235,10 @@
         <v>11025</v>
       </c>
       <c r="E44" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2129,10 +2255,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2149,10 +2275,10 @@
         <v>11025</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2169,10 +2295,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E47" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F47" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2189,10 +2315,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E48" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2209,10 +2335,10 @@
         <v>11025</v>
       </c>
       <c r="E49" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2229,10 +2355,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2249,10 +2375,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E51" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2269,10 +2395,10 @@
         <v>11025</v>
       </c>
       <c r="E52" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2289,10 +2415,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2309,10 +2435,10 @@
         <v>11025</v>
       </c>
       <c r="E54" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2329,10 +2455,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E55" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2349,10 +2475,10 @@
         <v>11025</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F56" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2369,10 +2495,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E57" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2389,10 +2515,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2409,10 +2535,10 @@
         <v>11025</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2429,10 +2555,10 @@
         <v>11025</v>
       </c>
       <c r="E60" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F60" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2449,10 +2575,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F61" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2469,10 +2595,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E62" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F62" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2489,10 +2615,10 @@
         <v>11025</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2509,10 +2635,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F64" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2529,10 +2655,10 @@
         <v>11025</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2549,10 +2675,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2569,10 +2695,10 @@
         <v>11025</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F67" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2589,10 +2715,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E68" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F68" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2609,10 +2735,10 @@
         <v>45000</v>
       </c>
       <c r="E69" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2629,10 +2755,10 @@
         <v>45000</v>
       </c>
       <c r="E70" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2649,10 +2775,10 @@
         <v>45000</v>
       </c>
       <c r="E71" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2669,10 +2795,10 @@
         <v>45000</v>
       </c>
       <c r="E72" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2689,10 +2815,10 @@
         <v>45000</v>
       </c>
       <c r="E73" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2709,10 +2835,10 @@
         <v>45000</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F74" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2729,10 +2855,10 @@
         <v>45000</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2749,10 +2875,10 @@
         <v>45000</v>
       </c>
       <c r="E76" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2769,10 +2895,10 @@
         <v>45000</v>
       </c>
       <c r="E77" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2789,10 +2915,10 @@
         <v>45000</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2809,10 +2935,10 @@
         <v>45000</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2829,10 +2955,10 @@
         <v>45000</v>
       </c>
       <c r="E80" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2849,10 +2975,10 @@
         <v>45000</v>
       </c>
       <c r="E81" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2869,10 +2995,10 @@
         <v>45000</v>
       </c>
       <c r="E82" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2889,10 +3015,10 @@
         <v>45000</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2909,10 +3035,10 @@
         <v>45000</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F84" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2929,10 +3055,10 @@
         <v>45000</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2949,10 +3075,10 @@
         <v>45000</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2969,10 +3095,10 @@
         <v>45000</v>
       </c>
       <c r="E87" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2989,10 +3115,10 @@
         <v>45000</v>
       </c>
       <c r="E88" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3009,10 +3135,10 @@
         <v>45000</v>
       </c>
       <c r="E89" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F89" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3029,10 +3155,10 @@
         <v>45000</v>
       </c>
       <c r="E90" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3049,10 +3175,10 @@
         <v>45000</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3069,10 +3195,10 @@
         <v>45000</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3089,10 +3215,10 @@
         <v>45000</v>
       </c>
       <c r="E93" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3109,10 +3235,10 @@
         <v>45000</v>
       </c>
       <c r="E94" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3129,10 +3255,10 @@
         <v>45000</v>
       </c>
       <c r="E95" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3149,10 +3275,10 @@
         <v>45000</v>
       </c>
       <c r="E96" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3169,10 +3295,10 @@
         <v>45000</v>
       </c>
       <c r="E97" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F97" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3189,10 +3315,10 @@
         <v>45000</v>
       </c>
       <c r="E98" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3209,10 +3335,10 @@
         <v>45000</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F99" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3229,10 +3355,10 @@
         <v>45000</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3249,10 +3375,10 @@
         <v>45000</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3269,10 +3395,10 @@
         <v>45000</v>
       </c>
       <c r="E102" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F102" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3289,10 +3415,10 @@
         <v>45000</v>
       </c>
       <c r="E103" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F103" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3309,10 +3435,10 @@
         <v>45000</v>
       </c>
       <c r="E104" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F104" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3329,10 +3455,10 @@
         <v>45000</v>
       </c>
       <c r="E105" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F105" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3349,10 +3475,10 @@
         <v>45000</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3369,10 +3495,10 @@
         <v>45000</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F107" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3389,10 +3515,10 @@
         <v>45000</v>
       </c>
       <c r="E108" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F108" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3409,10 +3535,10 @@
         <v>45000</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F109" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3429,10 +3555,10 @@
         <v>45000</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F110" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3449,10 +3575,10 @@
         <v>45000</v>
       </c>
       <c r="E111" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F111" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3469,10 +3595,10 @@
         <v>45000</v>
       </c>
       <c r="E112" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="F112" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3489,10 +3615,10 @@
         <v>45000</v>
       </c>
       <c r="E113" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3509,10 +3635,10 @@
         <v>45000</v>
       </c>
       <c r="E114" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F114" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3529,10 +3655,10 @@
         <v>45000</v>
       </c>
       <c r="E115" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F115" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3549,10 +3675,10 @@
         <v>45000</v>
       </c>
       <c r="E116" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F116" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3569,10 +3695,10 @@
         <v>45000</v>
       </c>
       <c r="E117" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F117" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3589,10 +3715,10 @@
         <v>45000</v>
       </c>
       <c r="E118" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F118" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3609,10 +3735,10 @@
         <v>45000</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3629,10 +3755,10 @@
         <v>45000</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F120" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3649,10 +3775,10 @@
         <v>45000</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F121" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3669,10 +3795,10 @@
         <v>45000</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F122" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3689,10 +3815,10 @@
         <v>45000</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F123" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3709,10 +3835,10 @@
         <v>45000</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F124" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3729,10 +3855,10 @@
         <v>45000</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F125" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3749,10 +3875,10 @@
         <v>45000</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F126" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3769,10 +3895,10 @@
         <v>45000</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F127" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3789,10 +3915,10 @@
         <v>45000</v>
       </c>
       <c r="E128" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F128" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3809,10 +3935,10 @@
         <v>45000</v>
       </c>
       <c r="E129" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F129" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3829,10 +3955,10 @@
         <v>45000</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F130" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3849,10 +3975,10 @@
         <v>45000</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F131" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3869,10 +3995,10 @@
         <v>45000</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F132" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3889,10 +4015,10 @@
         <v>45000</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F133" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3909,10 +4035,10 @@
         <v>45000</v>
       </c>
       <c r="E134" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F134" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3929,10 +4055,10 @@
         <v>45000</v>
       </c>
       <c r="E135" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F135" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3949,10 +4075,10 @@
         <v>45000</v>
       </c>
       <c r="E136" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F136" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3969,10 +4095,10 @@
         <v>45000</v>
       </c>
       <c r="E137" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3989,10 +4115,10 @@
         <v>45000</v>
       </c>
       <c r="E138" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4009,10 +4135,10 @@
         <v>45000</v>
       </c>
       <c r="E139" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4029,10 +4155,10 @@
         <v>45000</v>
       </c>
       <c r="E140" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4049,10 +4175,10 @@
         <v>45000</v>
       </c>
       <c r="E141" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4069,10 +4195,10 @@
         <v>11024</v>
       </c>
       <c r="E142" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4089,10 +4215,10 @@
         <v>45000</v>
       </c>
       <c r="E143" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4109,10 +4235,10 @@
         <v>11024</v>
       </c>
       <c r="E144" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4129,10 +4255,10 @@
         <v>45000</v>
       </c>
       <c r="E145" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4149,10 +4275,10 @@
         <v>11024</v>
       </c>
       <c r="E146" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F146" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4169,10 +4295,10 @@
         <v>45000</v>
       </c>
       <c r="E147" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F147" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4189,10 +4315,10 @@
         <v>11024</v>
       </c>
       <c r="E148" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F148" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4209,10 +4335,10 @@
         <v>45000</v>
       </c>
       <c r="E149" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4229,10 +4355,10 @@
         <v>11024</v>
       </c>
       <c r="E150" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4249,10 +4375,10 @@
         <v>45000</v>
       </c>
       <c r="E151" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F151" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4269,10 +4395,10 @@
         <v>11024</v>
       </c>
       <c r="E152" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F152" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4289,10 +4415,10 @@
         <v>45000</v>
       </c>
       <c r="E153" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F153" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4309,10 +4435,10 @@
         <v>11024</v>
       </c>
       <c r="E154" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F154" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4329,10 +4455,10 @@
         <v>45000</v>
       </c>
       <c r="E155" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4349,10 +4475,10 @@
         <v>11024</v>
       </c>
       <c r="E156" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F156" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4369,10 +4495,10 @@
         <v>45000</v>
       </c>
       <c r="E157" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F157" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4389,10 +4515,10 @@
         <v>11024</v>
       </c>
       <c r="E158" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F158" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4409,10 +4535,10 @@
         <v>45000</v>
       </c>
       <c r="E159" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F159" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4429,10 +4555,10 @@
         <v>11024</v>
       </c>
       <c r="E160" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F160" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4449,10 +4575,10 @@
         <v>45000</v>
       </c>
       <c r="E161" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F161" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4469,10 +4595,10 @@
         <v>11024</v>
       </c>
       <c r="E162" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4489,10 +4615,10 @@
         <v>45000</v>
       </c>
       <c r="E163" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F163" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4509,10 +4635,10 @@
         <v>11024</v>
       </c>
       <c r="E164" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F164" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4529,10 +4655,10 @@
         <v>45000</v>
       </c>
       <c r="E165" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F165" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4549,10 +4675,10 @@
         <v>11024</v>
       </c>
       <c r="E166" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F166" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4569,10 +4695,10 @@
         <v>45000</v>
       </c>
       <c r="E167" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4589,10 +4715,10 @@
         <v>11024</v>
       </c>
       <c r="E168" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F168" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4609,10 +4735,10 @@
         <v>45000</v>
       </c>
       <c r="E169" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F169" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4629,10 +4755,10 @@
         <v>11024</v>
       </c>
       <c r="E170" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F170" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4649,10 +4775,10 @@
         <v>45000</v>
       </c>
       <c r="E171" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F171" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4669,10 +4795,10 @@
         <v>11024</v>
       </c>
       <c r="E172" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F172" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4689,10 +4815,10 @@
         <v>45000</v>
       </c>
       <c r="E173" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F173" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4709,10 +4835,10 @@
         <v>11024</v>
       </c>
       <c r="E174" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F174" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4729,10 +4855,10 @@
         <v>45000</v>
       </c>
       <c r="E175" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F175" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4749,10 +4875,10 @@
         <v>11024</v>
       </c>
       <c r="E176" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F176" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4769,10 +4895,10 @@
         <v>45000</v>
       </c>
       <c r="E177" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F177" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4789,10 +4915,10 @@
         <v>11024</v>
       </c>
       <c r="E178" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F178" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4809,10 +4935,10 @@
         <v>45000</v>
       </c>
       <c r="E179" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F179" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4829,10 +4955,10 @@
         <v>11024</v>
       </c>
       <c r="E180" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F180" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4849,10 +4975,10 @@
         <v>45000</v>
       </c>
       <c r="E181" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F181" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4869,10 +4995,10 @@
         <v>11024</v>
       </c>
       <c r="E182" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F182" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4889,10 +5015,10 @@
         <v>45000</v>
       </c>
       <c r="E183" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F183" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4909,10 +5035,10 @@
         <v>11024</v>
       </c>
       <c r="E184" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F184" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4929,10 +5055,10 @@
         <v>45000</v>
       </c>
       <c r="E185" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F185" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4949,10 +5075,10 @@
         <v>11024</v>
       </c>
       <c r="E186" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F186" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4969,10 +5095,10 @@
         <v>45000</v>
       </c>
       <c r="E187" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F187" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4989,10 +5115,10 @@
         <v>11024</v>
       </c>
       <c r="E188" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F188" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5009,10 +5135,10 @@
         <v>45000</v>
       </c>
       <c r="E189" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F189" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5029,10 +5155,10 @@
         <v>11024</v>
       </c>
       <c r="E190" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F190" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5049,10 +5175,10 @@
         <v>45000</v>
       </c>
       <c r="E191" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F191" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5069,10 +5195,10 @@
         <v>11024</v>
       </c>
       <c r="E192" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F192" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5089,10 +5215,10 @@
         <v>45000</v>
       </c>
       <c r="E193" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F193" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5109,10 +5235,10 @@
         <v>11024</v>
       </c>
       <c r="E194" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F194" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5129,10 +5255,10 @@
         <v>45000</v>
       </c>
       <c r="E195" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F195" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5149,10 +5275,10 @@
         <v>11024</v>
       </c>
       <c r="E196" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F196" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5169,10 +5295,10 @@
         <v>45000</v>
       </c>
       <c r="E197" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F197" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5189,10 +5315,10 @@
         <v>11024</v>
       </c>
       <c r="E198" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F198" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5209,10 +5335,10 @@
         <v>45000</v>
       </c>
       <c r="E199" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F199" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5229,10 +5355,10 @@
         <v>11024</v>
       </c>
       <c r="E200" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F200" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5249,10 +5375,10 @@
         <v>45000</v>
       </c>
       <c r="E201" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F201" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5269,10 +5395,10 @@
         <v>11024</v>
       </c>
       <c r="E202" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F202" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5289,10 +5415,10 @@
         <v>45000</v>
       </c>
       <c r="E203" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F203" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5309,10 +5435,10 @@
         <v>45000</v>
       </c>
       <c r="E204" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F204" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5329,10 +5455,10 @@
         <v>11024</v>
       </c>
       <c r="E205" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F205" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5349,10 +5475,10 @@
         <v>45000</v>
       </c>
       <c r="E206" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F206" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5369,10 +5495,10 @@
         <v>11024</v>
       </c>
       <c r="E207" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F207" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5389,10 +5515,10 @@
         <v>45000</v>
       </c>
       <c r="E208" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F208" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5409,10 +5535,10 @@
         <v>45000</v>
       </c>
       <c r="E209" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F209" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5429,10 +5555,10 @@
         <v>45000</v>
       </c>
       <c r="E210" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F210" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5449,10 +5575,10 @@
         <v>11024</v>
       </c>
       <c r="E211" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F211" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5469,10 +5595,10 @@
         <v>45000</v>
       </c>
       <c r="E212" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F212" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5489,10 +5615,10 @@
         <v>11024</v>
       </c>
       <c r="E213" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F213" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5509,10 +5635,10 @@
         <v>45000</v>
       </c>
       <c r="E214" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F214" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5529,10 +5655,10 @@
         <v>45000</v>
       </c>
       <c r="E215" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F215" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5549,10 +5675,10 @@
         <v>11024</v>
       </c>
       <c r="E216" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F216" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5569,10 +5695,10 @@
         <v>45000</v>
       </c>
       <c r="E217" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F217" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5589,10 +5715,10 @@
         <v>11024</v>
       </c>
       <c r="E218" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F218" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5609,10 +5735,10 @@
         <v>45000</v>
       </c>
       <c r="E219" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F219" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5629,10 +5755,10 @@
         <v>45000</v>
       </c>
       <c r="E220" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F220" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5649,10 +5775,10 @@
         <v>11024</v>
       </c>
       <c r="E221" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F221" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5669,10 +5795,10 @@
         <v>45000</v>
       </c>
       <c r="E222" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F222" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5689,10 +5815,10 @@
         <v>11024</v>
       </c>
       <c r="E223" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F223" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5709,10 +5835,10 @@
         <v>45000</v>
       </c>
       <c r="E224" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F224" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5729,10 +5855,10 @@
         <v>45000</v>
       </c>
       <c r="E225" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F225" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5749,10 +5875,10 @@
         <v>11024</v>
       </c>
       <c r="E226" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F226" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5769,10 +5895,10 @@
         <v>45000</v>
       </c>
       <c r="E227" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F227" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5789,10 +5915,10 @@
         <v>11024</v>
       </c>
       <c r="E228" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F228" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5809,30 +5935,670 @@
         <v>45000</v>
       </c>
       <c r="E229" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F229" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>233</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230">
+        <v>7201</v>
+      </c>
+      <c r="C230">
+        <v>21901</v>
+      </c>
+      <c r="D230">
+        <v>45000</v>
+      </c>
+      <c r="E230" t="s">
+        <v>269</v>
+      </c>
+      <c r="F230" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
         <v>234</v>
       </c>
-      <c r="C230" t="s">
+      <c r="B231">
+        <v>7201</v>
+      </c>
+      <c r="C231">
+        <v>17225</v>
+      </c>
+      <c r="D231">
+        <v>45000</v>
+      </c>
+      <c r="E231" t="s">
+        <v>269</v>
+      </c>
+      <c r="F231" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
         <v>235</v>
       </c>
-      <c r="D230" t="s">
+      <c r="B232">
+        <v>7201</v>
+      </c>
+      <c r="C232">
+        <v>17225</v>
+      </c>
+      <c r="D232">
+        <v>45000</v>
+      </c>
+      <c r="E232" t="s">
+        <v>269</v>
+      </c>
+      <c r="F232" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
         <v>236</v>
       </c>
-      <c r="E230" t="s">
+      <c r="B233">
+        <v>7201</v>
+      </c>
+      <c r="C233">
+        <v>17225</v>
+      </c>
+      <c r="D233">
+        <v>45000</v>
+      </c>
+      <c r="E233" t="s">
+        <v>269</v>
+      </c>
+      <c r="F233" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
         <v>237</v>
       </c>
-      <c r="F230" t="s">
+      <c r="B234">
+        <v>7201</v>
+      </c>
+      <c r="C234">
+        <v>18202</v>
+      </c>
+      <c r="D234">
+        <v>11024</v>
+      </c>
+      <c r="E234" t="s">
+        <v>269</v>
+      </c>
+      <c r="F234" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>7201</v>
+      </c>
+      <c r="C235">
+        <v>18202</v>
+      </c>
+      <c r="D235">
+        <v>45000</v>
+      </c>
+      <c r="E235" t="s">
+        <v>269</v>
+      </c>
+      <c r="F235" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>7201</v>
+      </c>
+      <c r="C236">
+        <v>17225</v>
+      </c>
+      <c r="D236">
+        <v>45000</v>
+      </c>
+      <c r="E236" t="s">
+        <v>269</v>
+      </c>
+      <c r="F236" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>7201</v>
+      </c>
+      <c r="C237">
+        <v>18202</v>
+      </c>
+      <c r="D237">
+        <v>11024</v>
+      </c>
+      <c r="E237" t="s">
+        <v>269</v>
+      </c>
+      <c r="F237" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>7201</v>
+      </c>
+      <c r="C238">
+        <v>18202</v>
+      </c>
+      <c r="D238">
+        <v>45000</v>
+      </c>
+      <c r="E238" t="s">
+        <v>269</v>
+      </c>
+      <c r="F238" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>7201</v>
+      </c>
+      <c r="C239">
+        <v>17225</v>
+      </c>
+      <c r="D239">
+        <v>45000</v>
+      </c>
+      <c r="E239" t="s">
+        <v>269</v>
+      </c>
+      <c r="F239" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>7201</v>
+      </c>
+      <c r="C240">
+        <v>18202</v>
+      </c>
+      <c r="D240">
+        <v>11024</v>
+      </c>
+      <c r="E240" t="s">
+        <v>269</v>
+      </c>
+      <c r="F240" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>7201</v>
+      </c>
+      <c r="C241">
+        <v>18202</v>
+      </c>
+      <c r="D241">
+        <v>45000</v>
+      </c>
+      <c r="E241" t="s">
+        <v>269</v>
+      </c>
+      <c r="F241" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>7201</v>
+      </c>
+      <c r="C242">
+        <v>17225</v>
+      </c>
+      <c r="D242">
+        <v>45000</v>
+      </c>
+      <c r="E242" t="s">
+        <v>269</v>
+      </c>
+      <c r="F242" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>7201</v>
+      </c>
+      <c r="C243">
+        <v>17225</v>
+      </c>
+      <c r="D243">
+        <v>45000</v>
+      </c>
+      <c r="E243" t="s">
+        <v>269</v>
+      </c>
+      <c r="F243" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>29483</v>
+      </c>
+      <c r="C244">
+        <v>30567</v>
+      </c>
+      <c r="D244">
+        <v>11024</v>
+      </c>
+      <c r="E244" t="s">
+        <v>269</v>
+      </c>
+      <c r="F244" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>29483</v>
+      </c>
+      <c r="C245">
+        <v>30567</v>
+      </c>
+      <c r="D245">
+        <v>45000</v>
+      </c>
+      <c r="E245" t="s">
+        <v>269</v>
+      </c>
+      <c r="F245" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>7201</v>
+      </c>
+      <c r="C246">
+        <v>8873</v>
+      </c>
+      <c r="D246">
+        <v>11024</v>
+      </c>
+      <c r="E246" t="s">
+        <v>269</v>
+      </c>
+      <c r="F246" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247">
+        <v>7201</v>
+      </c>
+      <c r="C247">
+        <v>8873</v>
+      </c>
+      <c r="D247">
+        <v>45000</v>
+      </c>
+      <c r="E247" t="s">
+        <v>269</v>
+      </c>
+      <c r="F247" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>29483</v>
+      </c>
+      <c r="C248">
+        <v>30567</v>
+      </c>
+      <c r="D248">
+        <v>11024</v>
+      </c>
+      <c r="E248" t="s">
+        <v>269</v>
+      </c>
+      <c r="F248" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249">
+        <v>29483</v>
+      </c>
+      <c r="C249">
+        <v>30567</v>
+      </c>
+      <c r="D249">
+        <v>45000</v>
+      </c>
+      <c r="E249" t="s">
+        <v>269</v>
+      </c>
+      <c r="F249" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250">
+        <v>29483</v>
+      </c>
+      <c r="C250">
+        <v>8873</v>
+      </c>
+      <c r="D250">
+        <v>11024</v>
+      </c>
+      <c r="E250" t="s">
+        <v>269</v>
+      </c>
+      <c r="F250" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251">
+        <v>29483</v>
+      </c>
+      <c r="C251">
+        <v>8873</v>
+      </c>
+      <c r="D251">
+        <v>45000</v>
+      </c>
+      <c r="E251" t="s">
+        <v>269</v>
+      </c>
+      <c r="F251" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>29483</v>
+      </c>
+      <c r="C252">
+        <v>28303</v>
+      </c>
+      <c r="D252">
+        <v>11024</v>
+      </c>
+      <c r="E252" t="s">
+        <v>269</v>
+      </c>
+      <c r="F252" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253">
+        <v>29483</v>
+      </c>
+      <c r="C253">
+        <v>28303</v>
+      </c>
+      <c r="D253">
+        <v>45000</v>
+      </c>
+      <c r="E253" t="s">
+        <v>269</v>
+      </c>
+      <c r="F253" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254">
+        <v>7201</v>
+      </c>
+      <c r="C254">
+        <v>46140</v>
+      </c>
+      <c r="D254">
+        <v>11024</v>
+      </c>
+      <c r="E254" t="s">
+        <v>269</v>
+      </c>
+      <c r="F254" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
         <v>258</v>
+      </c>
+      <c r="B255">
+        <v>7201</v>
+      </c>
+      <c r="C255">
+        <v>46140</v>
+      </c>
+      <c r="D255">
+        <v>45000</v>
+      </c>
+      <c r="E255" t="s">
+        <v>269</v>
+      </c>
+      <c r="F255" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256">
+        <v>90220</v>
+      </c>
+      <c r="C256">
+        <v>75241</v>
+      </c>
+      <c r="D256">
+        <v>11024</v>
+      </c>
+      <c r="E256" t="s">
+        <v>269</v>
+      </c>
+      <c r="F256" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257">
+        <v>90220</v>
+      </c>
+      <c r="C257">
+        <v>75241</v>
+      </c>
+      <c r="D257">
+        <v>45000</v>
+      </c>
+      <c r="E257" t="s">
+        <v>269</v>
+      </c>
+      <c r="F257" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258">
+        <v>90220</v>
+      </c>
+      <c r="C258">
+        <v>85395</v>
+      </c>
+      <c r="D258">
+        <v>11024</v>
+      </c>
+      <c r="E258" t="s">
+        <v>269</v>
+      </c>
+      <c r="F258" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259">
+        <v>90220</v>
+      </c>
+      <c r="C259">
+        <v>85395</v>
+      </c>
+      <c r="D259">
+        <v>45000</v>
+      </c>
+      <c r="E259" t="s">
+        <v>269</v>
+      </c>
+      <c r="F259" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260">
+        <v>90220</v>
+      </c>
+      <c r="C260">
+        <v>85043</v>
+      </c>
+      <c r="D260">
+        <v>11024</v>
+      </c>
+      <c r="E260" t="s">
+        <v>269</v>
+      </c>
+      <c r="F260" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261">
+        <v>90220</v>
+      </c>
+      <c r="C261">
+        <v>85043</v>
+      </c>
+      <c r="D261">
+        <v>45000</v>
+      </c>
+      <c r="E261" t="s">
+        <v>269</v>
+      </c>
+      <c r="F261" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262" t="s">
+        <v>267</v>
+      </c>
+      <c r="D262" t="s">
+        <v>268</v>
+      </c>
+      <c r="E262" t="s">
+        <v>269</v>
+      </c>
+      <c r="F262" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="333">
   <si>
     <t>Timestamp</t>
   </si>
@@ -814,10 +814,22 @@
     <t>2025-08-13 08:06:41</t>
   </si>
   <si>
-    <t>32226</t>
-  </si>
-  <si>
-    <t>33032</t>
+    <t>2025-08-13 03:14:48</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:15:01</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:30</t>
+  </si>
+  <si>
+    <t>2025-08-13 03:17:32</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>18202</t>
   </si>
   <si>
     <t>45000</t>
@@ -998,6 +1010,9 @@
   </si>
   <si>
     <t>Rate: 1118.16, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 576.74, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1395,10 +1410,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1415,10 +1430,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1435,10 +1450,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1455,10 +1470,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1475,10 +1490,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,10 +1510,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1515,10 +1530,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1535,10 +1550,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1555,10 +1570,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1575,10 +1590,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1595,10 +1610,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1615,10 +1630,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1635,10 +1650,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1655,10 +1670,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1675,10 +1690,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1695,10 +1710,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1715,10 +1730,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1735,10 +1750,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1755,10 +1770,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1775,10 +1790,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1795,10 +1810,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F22" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1815,10 +1830,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F23" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1835,10 +1850,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1855,10 +1870,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1875,10 +1890,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F26" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1895,10 +1910,10 @@
         <v>11025</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1915,10 +1930,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1935,10 +1950,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F29" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1955,10 +1970,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1975,10 +1990,10 @@
         <v>11025</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1995,10 +2010,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2015,10 +2030,10 @@
         <v>11025</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2035,10 +2050,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2055,10 +2070,10 @@
         <v>11025</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2075,10 +2090,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2095,10 +2110,10 @@
         <v>11025</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2115,10 +2130,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2135,10 +2150,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2155,10 +2170,10 @@
         <v>11025</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F40" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2175,10 +2190,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2195,10 +2210,10 @@
         <v>11025</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2215,10 +2230,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F43" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2235,10 +2250,10 @@
         <v>11025</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2255,10 +2270,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2275,10 +2290,10 @@
         <v>11025</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2295,10 +2310,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F47" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2315,10 +2330,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2335,10 +2350,10 @@
         <v>11025</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2355,10 +2370,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F50" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2375,10 +2390,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2395,10 +2410,10 @@
         <v>11025</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2415,10 +2430,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2435,10 +2450,10 @@
         <v>11025</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2455,10 +2470,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E55" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2475,10 +2490,10 @@
         <v>11025</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2495,10 +2510,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F57" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2515,10 +2530,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2535,10 +2550,10 @@
         <v>11025</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F59" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2555,10 +2570,10 @@
         <v>11025</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F60" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2575,10 +2590,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F61" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2595,10 +2610,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F62" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2615,10 +2630,10 @@
         <v>11025</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F63" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2635,10 +2650,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2655,10 +2670,10 @@
         <v>11025</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2675,10 +2690,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2695,10 +2710,10 @@
         <v>11025</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2715,10 +2730,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F68" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2735,10 +2750,10 @@
         <v>45000</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2755,10 +2770,10 @@
         <v>45000</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2775,10 +2790,10 @@
         <v>45000</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2795,10 +2810,10 @@
         <v>45000</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F72" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2815,10 +2830,10 @@
         <v>45000</v>
       </c>
       <c r="E73" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F73" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2835,10 +2850,10 @@
         <v>45000</v>
       </c>
       <c r="E74" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2855,10 +2870,10 @@
         <v>45000</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F75" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2875,10 +2890,10 @@
         <v>45000</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F76" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2895,10 +2910,10 @@
         <v>45000</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2915,10 +2930,10 @@
         <v>45000</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F78" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2935,10 +2950,10 @@
         <v>45000</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F79" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2955,10 +2970,10 @@
         <v>45000</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2975,10 +2990,10 @@
         <v>45000</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F81" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2995,10 +3010,10 @@
         <v>45000</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3015,10 +3030,10 @@
         <v>45000</v>
       </c>
       <c r="E83" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3035,10 +3050,10 @@
         <v>45000</v>
       </c>
       <c r="E84" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F84" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3055,10 +3070,10 @@
         <v>45000</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F85" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3075,10 +3090,10 @@
         <v>45000</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F86" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3095,10 +3110,10 @@
         <v>45000</v>
       </c>
       <c r="E87" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F87" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3115,10 +3130,10 @@
         <v>45000</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F88" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3135,10 +3150,10 @@
         <v>45000</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3155,10 +3170,10 @@
         <v>45000</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F90" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3175,10 +3190,10 @@
         <v>45000</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3195,10 +3210,10 @@
         <v>45000</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F92" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3215,10 +3230,10 @@
         <v>45000</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F93" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3235,10 +3250,10 @@
         <v>45000</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F94" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3255,10 +3270,10 @@
         <v>45000</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F95" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3275,10 +3290,10 @@
         <v>45000</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F96" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3295,10 +3310,10 @@
         <v>45000</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3315,10 +3330,10 @@
         <v>45000</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F98" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3335,10 +3350,10 @@
         <v>45000</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F99" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3355,10 +3370,10 @@
         <v>45000</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F100" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3375,10 +3390,10 @@
         <v>45000</v>
       </c>
       <c r="E101" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F101" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3395,10 +3410,10 @@
         <v>45000</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3415,10 +3430,10 @@
         <v>45000</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F103" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3435,10 +3450,10 @@
         <v>45000</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3455,10 +3470,10 @@
         <v>45000</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3475,10 +3490,10 @@
         <v>45000</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F106" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3495,10 +3510,10 @@
         <v>45000</v>
       </c>
       <c r="E107" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F107" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3515,10 +3530,10 @@
         <v>45000</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F108" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3535,10 +3550,10 @@
         <v>45000</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F109" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3555,10 +3570,10 @@
         <v>45000</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F110" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3575,10 +3590,10 @@
         <v>45000</v>
       </c>
       <c r="E111" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F111" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3595,10 +3610,10 @@
         <v>45000</v>
       </c>
       <c r="E112" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F112" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3615,10 +3630,10 @@
         <v>45000</v>
       </c>
       <c r="E113" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3635,10 +3650,10 @@
         <v>45000</v>
       </c>
       <c r="E114" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3655,10 +3670,10 @@
         <v>45000</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F115" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3675,10 +3690,10 @@
         <v>45000</v>
       </c>
       <c r="E116" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3695,10 +3710,10 @@
         <v>45000</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3715,10 +3730,10 @@
         <v>45000</v>
       </c>
       <c r="E118" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3735,10 +3750,10 @@
         <v>45000</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F119" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3755,10 +3770,10 @@
         <v>45000</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F120" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3775,10 +3790,10 @@
         <v>45000</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F121" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3795,10 +3810,10 @@
         <v>45000</v>
       </c>
       <c r="E122" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F122" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3815,10 +3830,10 @@
         <v>45000</v>
       </c>
       <c r="E123" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3835,10 +3850,10 @@
         <v>45000</v>
       </c>
       <c r="E124" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F124" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3855,10 +3870,10 @@
         <v>45000</v>
       </c>
       <c r="E125" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3875,10 +3890,10 @@
         <v>45000</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F126" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3895,10 +3910,10 @@
         <v>45000</v>
       </c>
       <c r="E127" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F127" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3915,10 +3930,10 @@
         <v>45000</v>
       </c>
       <c r="E128" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F128" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3935,10 +3950,10 @@
         <v>45000</v>
       </c>
       <c r="E129" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F129" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3955,10 +3970,10 @@
         <v>45000</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F130" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3975,10 +3990,10 @@
         <v>45000</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F131" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3995,10 +4010,10 @@
         <v>45000</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F132" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4015,10 +4030,10 @@
         <v>45000</v>
       </c>
       <c r="E133" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4035,10 +4050,10 @@
         <v>45000</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4055,10 +4070,10 @@
         <v>45000</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F135" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4075,10 +4090,10 @@
         <v>45000</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F136" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4095,10 +4110,10 @@
         <v>45000</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F137" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4115,10 +4130,10 @@
         <v>45000</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F138" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4135,10 +4150,10 @@
         <v>45000</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4155,10 +4170,10 @@
         <v>45000</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4175,10 +4190,10 @@
         <v>45000</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4195,10 +4210,10 @@
         <v>11024</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4215,10 +4230,10 @@
         <v>45000</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4235,10 +4250,10 @@
         <v>11024</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4255,10 +4270,10 @@
         <v>45000</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4275,10 +4290,10 @@
         <v>11024</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4295,10 +4310,10 @@
         <v>45000</v>
       </c>
       <c r="E147" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4315,10 +4330,10 @@
         <v>11024</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4335,10 +4350,10 @@
         <v>45000</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4355,10 +4370,10 @@
         <v>11024</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F150" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4375,10 +4390,10 @@
         <v>45000</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4395,10 +4410,10 @@
         <v>11024</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4415,10 +4430,10 @@
         <v>45000</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4435,10 +4450,10 @@
         <v>11024</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F154" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4455,10 +4470,10 @@
         <v>45000</v>
       </c>
       <c r="E155" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4475,10 +4490,10 @@
         <v>11024</v>
       </c>
       <c r="E156" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4495,10 +4510,10 @@
         <v>45000</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F157" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4515,10 +4530,10 @@
         <v>11024</v>
       </c>
       <c r="E158" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F158" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4535,10 +4550,10 @@
         <v>45000</v>
       </c>
       <c r="E159" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4555,10 +4570,10 @@
         <v>11024</v>
       </c>
       <c r="E160" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4575,10 +4590,10 @@
         <v>45000</v>
       </c>
       <c r="E161" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F161" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4595,10 +4610,10 @@
         <v>11024</v>
       </c>
       <c r="E162" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F162" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4615,10 +4630,10 @@
         <v>45000</v>
       </c>
       <c r="E163" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4635,10 +4650,10 @@
         <v>11024</v>
       </c>
       <c r="E164" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F164" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4655,10 +4670,10 @@
         <v>45000</v>
       </c>
       <c r="E165" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F165" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4675,10 +4690,10 @@
         <v>11024</v>
       </c>
       <c r="E166" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F166" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4695,10 +4710,10 @@
         <v>45000</v>
       </c>
       <c r="E167" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4715,10 +4730,10 @@
         <v>11024</v>
       </c>
       <c r="E168" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F168" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4735,10 +4750,10 @@
         <v>45000</v>
       </c>
       <c r="E169" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F169" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4755,10 +4770,10 @@
         <v>11024</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F170" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4775,10 +4790,10 @@
         <v>45000</v>
       </c>
       <c r="E171" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F171" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4795,10 +4810,10 @@
         <v>11024</v>
       </c>
       <c r="E172" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4815,10 +4830,10 @@
         <v>45000</v>
       </c>
       <c r="E173" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F173" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4835,10 +4850,10 @@
         <v>11024</v>
       </c>
       <c r="E174" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F174" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4855,10 +4870,10 @@
         <v>45000</v>
       </c>
       <c r="E175" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F175" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4875,10 +4890,10 @@
         <v>11024</v>
       </c>
       <c r="E176" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F176" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4895,10 +4910,10 @@
         <v>45000</v>
       </c>
       <c r="E177" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F177" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4915,10 +4930,10 @@
         <v>11024</v>
       </c>
       <c r="E178" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F178" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4935,10 +4950,10 @@
         <v>45000</v>
       </c>
       <c r="E179" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4955,10 +4970,10 @@
         <v>11024</v>
       </c>
       <c r="E180" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F180" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4975,10 +4990,10 @@
         <v>45000</v>
       </c>
       <c r="E181" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F181" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4995,10 +5010,10 @@
         <v>11024</v>
       </c>
       <c r="E182" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F182" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5015,10 +5030,10 @@
         <v>45000</v>
       </c>
       <c r="E183" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F183" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5035,10 +5050,10 @@
         <v>11024</v>
       </c>
       <c r="E184" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F184" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5055,10 +5070,10 @@
         <v>45000</v>
       </c>
       <c r="E185" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F185" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5075,10 +5090,10 @@
         <v>11024</v>
       </c>
       <c r="E186" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F186" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5095,10 +5110,10 @@
         <v>45000</v>
       </c>
       <c r="E187" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F187" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5115,10 +5130,10 @@
         <v>11024</v>
       </c>
       <c r="E188" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F188" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5135,10 +5150,10 @@
         <v>45000</v>
       </c>
       <c r="E189" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F189" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5155,10 +5170,10 @@
         <v>11024</v>
       </c>
       <c r="E190" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F190" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5175,10 +5190,10 @@
         <v>45000</v>
       </c>
       <c r="E191" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F191" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5195,10 +5210,10 @@
         <v>11024</v>
       </c>
       <c r="E192" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F192" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5215,10 +5230,10 @@
         <v>45000</v>
       </c>
       <c r="E193" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F193" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5235,10 +5250,10 @@
         <v>11024</v>
       </c>
       <c r="E194" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F194" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5255,10 +5270,10 @@
         <v>45000</v>
       </c>
       <c r="E195" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F195" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5275,10 +5290,10 @@
         <v>11024</v>
       </c>
       <c r="E196" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F196" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5295,10 +5310,10 @@
         <v>45000</v>
       </c>
       <c r="E197" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F197" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5315,10 +5330,10 @@
         <v>11024</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5335,10 +5350,10 @@
         <v>45000</v>
       </c>
       <c r="E199" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F199" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5355,10 +5370,10 @@
         <v>11024</v>
       </c>
       <c r="E200" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F200" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5375,10 +5390,10 @@
         <v>45000</v>
       </c>
       <c r="E201" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F201" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5395,10 +5410,10 @@
         <v>11024</v>
       </c>
       <c r="E202" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F202" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5415,10 +5430,10 @@
         <v>45000</v>
       </c>
       <c r="E203" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F203" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5435,10 +5450,10 @@
         <v>45000</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F204" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5455,10 +5470,10 @@
         <v>11024</v>
       </c>
       <c r="E205" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F205" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5475,10 +5490,10 @@
         <v>45000</v>
       </c>
       <c r="E206" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F206" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5495,10 +5510,10 @@
         <v>11024</v>
       </c>
       <c r="E207" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F207" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5515,10 +5530,10 @@
         <v>45000</v>
       </c>
       <c r="E208" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F208" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5535,10 +5550,10 @@
         <v>45000</v>
       </c>
       <c r="E209" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F209" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5555,10 +5570,10 @@
         <v>45000</v>
       </c>
       <c r="E210" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F210" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5575,10 +5590,10 @@
         <v>11024</v>
       </c>
       <c r="E211" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F211" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5595,10 +5610,10 @@
         <v>45000</v>
       </c>
       <c r="E212" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F212" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5615,10 +5630,10 @@
         <v>11024</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F213" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5635,10 +5650,10 @@
         <v>45000</v>
       </c>
       <c r="E214" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F214" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5655,10 +5670,10 @@
         <v>45000</v>
       </c>
       <c r="E215" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F215" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5675,10 +5690,10 @@
         <v>11024</v>
       </c>
       <c r="E216" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F216" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5695,10 +5710,10 @@
         <v>45000</v>
       </c>
       <c r="E217" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F217" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5715,10 +5730,10 @@
         <v>11024</v>
       </c>
       <c r="E218" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F218" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5735,10 +5750,10 @@
         <v>45000</v>
       </c>
       <c r="E219" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F219" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5755,10 +5770,10 @@
         <v>45000</v>
       </c>
       <c r="E220" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F220" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5775,10 +5790,10 @@
         <v>11024</v>
       </c>
       <c r="E221" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F221" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5795,10 +5810,10 @@
         <v>45000</v>
       </c>
       <c r="E222" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F222" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5815,10 +5830,10 @@
         <v>11024</v>
       </c>
       <c r="E223" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F223" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5835,10 +5850,10 @@
         <v>45000</v>
       </c>
       <c r="E224" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F224" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5855,10 +5870,10 @@
         <v>45000</v>
       </c>
       <c r="E225" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F225" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5875,10 +5890,10 @@
         <v>11024</v>
       </c>
       <c r="E226" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F226" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5895,10 +5910,10 @@
         <v>45000</v>
       </c>
       <c r="E227" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F227" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5915,10 +5930,10 @@
         <v>11024</v>
       </c>
       <c r="E228" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F228" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5935,10 +5950,10 @@
         <v>45000</v>
       </c>
       <c r="E229" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F229" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5955,10 +5970,10 @@
         <v>45000</v>
       </c>
       <c r="E230" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F230" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5975,10 +5990,10 @@
         <v>45000</v>
       </c>
       <c r="E231" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F231" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5995,10 +6010,10 @@
         <v>45000</v>
       </c>
       <c r="E232" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F232" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6015,10 +6030,10 @@
         <v>45000</v>
       </c>
       <c r="E233" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F233" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6035,10 +6050,10 @@
         <v>11024</v>
       </c>
       <c r="E234" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F234" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6055,10 +6070,10 @@
         <v>45000</v>
       </c>
       <c r="E235" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F235" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6075,10 +6090,10 @@
         <v>45000</v>
       </c>
       <c r="E236" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F236" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6095,10 +6110,10 @@
         <v>11024</v>
       </c>
       <c r="E237" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F237" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6115,10 +6130,10 @@
         <v>45000</v>
       </c>
       <c r="E238" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F238" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6135,10 +6150,10 @@
         <v>45000</v>
       </c>
       <c r="E239" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F239" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6155,10 +6170,10 @@
         <v>11024</v>
       </c>
       <c r="E240" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F240" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6175,10 +6190,10 @@
         <v>45000</v>
       </c>
       <c r="E241" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F241" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6195,10 +6210,10 @@
         <v>45000</v>
       </c>
       <c r="E242" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F242" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6215,10 +6230,10 @@
         <v>45000</v>
       </c>
       <c r="E243" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F243" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6235,10 +6250,10 @@
         <v>11024</v>
       </c>
       <c r="E244" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F244" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6255,10 +6270,10 @@
         <v>45000</v>
       </c>
       <c r="E245" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F245" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6275,10 +6290,10 @@
         <v>11024</v>
       </c>
       <c r="E246" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F246" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6295,10 +6310,10 @@
         <v>45000</v>
       </c>
       <c r="E247" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F247" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6315,10 +6330,10 @@
         <v>11024</v>
       </c>
       <c r="E248" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F248" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6335,10 +6350,10 @@
         <v>45000</v>
       </c>
       <c r="E249" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F249" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6355,10 +6370,10 @@
         <v>11024</v>
       </c>
       <c r="E250" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F250" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6375,10 +6390,10 @@
         <v>45000</v>
       </c>
       <c r="E251" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F251" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6395,10 +6410,10 @@
         <v>11024</v>
       </c>
       <c r="E252" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F252" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6415,10 +6430,10 @@
         <v>45000</v>
       </c>
       <c r="E253" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F253" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6435,10 +6450,10 @@
         <v>11024</v>
       </c>
       <c r="E254" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F254" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6455,10 +6470,10 @@
         <v>45000</v>
       </c>
       <c r="E255" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F255" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6475,10 +6490,10 @@
         <v>11024</v>
       </c>
       <c r="E256" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F256" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6495,10 +6510,10 @@
         <v>45000</v>
       </c>
       <c r="E257" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F257" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6515,10 +6530,10 @@
         <v>11024</v>
       </c>
       <c r="E258" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F258" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6535,10 +6550,10 @@
         <v>45000</v>
       </c>
       <c r="E259" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F259" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6555,10 +6570,10 @@
         <v>11024</v>
       </c>
       <c r="E260" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F260" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6575,30 +6590,110 @@
         <v>45000</v>
       </c>
       <c r="E261" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F261" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>265</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262">
+        <v>32226</v>
+      </c>
+      <c r="C262">
+        <v>33032</v>
+      </c>
+      <c r="D262">
+        <v>45000</v>
+      </c>
+      <c r="E262" t="s">
+        <v>273</v>
+      </c>
+      <c r="F262" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
         <v>266</v>
       </c>
-      <c r="C262" t="s">
+      <c r="B263">
+        <v>7201</v>
+      </c>
+      <c r="C263">
+        <v>18202</v>
+      </c>
+      <c r="D263">
+        <v>11024</v>
+      </c>
+      <c r="E263" t="s">
+        <v>273</v>
+      </c>
+      <c r="F263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
         <v>267</v>
       </c>
-      <c r="D262" t="s">
+      <c r="B264">
+        <v>7201</v>
+      </c>
+      <c r="C264">
+        <v>18202</v>
+      </c>
+      <c r="D264">
+        <v>45000</v>
+      </c>
+      <c r="E264" t="s">
+        <v>273</v>
+      </c>
+      <c r="F264" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
         <v>268</v>
       </c>
-      <c r="E262" t="s">
+      <c r="B265">
+        <v>7201</v>
+      </c>
+      <c r="C265">
+        <v>18202</v>
+      </c>
+      <c r="D265">
+        <v>11024</v>
+      </c>
+      <c r="E265" t="s">
+        <v>273</v>
+      </c>
+      <c r="F265" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
         <v>269</v>
       </c>
-      <c r="F262" t="s">
-        <v>327</v>
+      <c r="B266" t="s">
+        <v>270</v>
+      </c>
+      <c r="C266" t="s">
+        <v>271</v>
+      </c>
+      <c r="D266" t="s">
+        <v>272</v>
+      </c>
+      <c r="E266" t="s">
+        <v>273</v>
+      </c>
+      <c r="F266" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="357">
   <si>
     <t>Timestamp</t>
   </si>
@@ -826,6 +826,66 @@
     <t>2025-08-13 03:17:32</t>
   </si>
   <si>
+    <t>2025-08-13 11:25:37</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:25:40</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:28:26</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:28:45</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:29:24</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:29:27</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:32:34</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:32:37</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:34:46</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:34:59</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:35:13</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:35:16</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:35:48</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:35:51</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:36:28</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:36:40</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:37:10</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:37:12</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:39:17</t>
+  </si>
+  <si>
+    <t>2025-08-13 11:39:31</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -1013,6 +1073,18 @@
   </si>
   <si>
     <t>Rate: 576.74, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 568.74, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 867.51, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1391.53, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1485.49, Carrier: JBHZ</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F266"/>
+  <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,10 +1482,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1430,10 +1502,10 @@
         <v>11025</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1450,10 +1522,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1470,10 +1542,10 @@
         <v>11025</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1490,10 +1562,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1510,10 +1582,10 @@
         <v>11025</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1530,10 +1602,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1550,10 +1622,10 @@
         <v>11025</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1570,10 +1642,10 @@
         <v>11025</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1590,10 +1662,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E11" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1610,10 +1682,10 @@
         <v>11025</v>
       </c>
       <c r="E12" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1630,10 +1702,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E13" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1650,10 +1722,10 @@
         <v>11025</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1670,10 +1742,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1690,10 +1762,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1710,10 +1782,10 @@
         <v>11025</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1730,10 +1802,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E18" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1750,10 +1822,10 @@
         <v>11025</v>
       </c>
       <c r="E19" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1770,10 +1842,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F20" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1790,10 +1862,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F21" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1810,10 +1882,10 @@
         <v>11025</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1830,10 +1902,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1850,10 +1922,10 @@
         <v>11025</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1870,10 +1942,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E25" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F25" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1890,10 +1962,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E26" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F26" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1910,10 +1982,10 @@
         <v>11025</v>
       </c>
       <c r="E27" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1930,10 +2002,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E28" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1950,10 +2022,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E29" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1970,10 +2042,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E30" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1990,10 +2062,10 @@
         <v>11025</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2010,10 +2082,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E32" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2030,10 +2102,10 @@
         <v>11025</v>
       </c>
       <c r="E33" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2050,10 +2122,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2070,10 +2142,10 @@
         <v>11025</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2090,10 +2162,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2110,10 +2182,10 @@
         <v>11025</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2130,10 +2202,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F38" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2150,10 +2222,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2170,10 +2242,10 @@
         <v>11025</v>
       </c>
       <c r="E40" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F40" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2190,10 +2262,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E41" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F41" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2210,10 +2282,10 @@
         <v>11025</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F42" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2230,10 +2302,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E43" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F43" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2250,10 +2322,10 @@
         <v>11025</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2270,10 +2342,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E45" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2290,10 +2362,10 @@
         <v>11025</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2310,10 +2382,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E47" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2330,10 +2402,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2350,10 +2422,10 @@
         <v>11025</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2370,10 +2442,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E50" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2390,10 +2462,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2410,10 +2482,10 @@
         <v>11025</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F52" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2430,10 +2502,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F53" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2450,10 +2522,10 @@
         <v>11025</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F54" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2470,10 +2542,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E55" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F55" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2490,10 +2562,10 @@
         <v>11025</v>
       </c>
       <c r="E56" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2510,10 +2582,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E57" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2530,10 +2602,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F58" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2550,10 +2622,10 @@
         <v>11025</v>
       </c>
       <c r="E59" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2570,10 +2642,10 @@
         <v>11025</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2590,10 +2662,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2610,10 +2682,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2630,10 +2702,10 @@
         <v>11025</v>
       </c>
       <c r="E63" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F63" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2650,10 +2722,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F64" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2670,10 +2742,10 @@
         <v>11025</v>
       </c>
       <c r="E65" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F65" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2690,10 +2762,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E66" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F66" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2710,10 +2782,10 @@
         <v>11025</v>
       </c>
       <c r="E67" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2730,10 +2802,10 @@
         <v>45007.703685</v>
       </c>
       <c r="E68" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F68" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2750,10 +2822,10 @@
         <v>45000</v>
       </c>
       <c r="E69" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F69" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2770,10 +2842,10 @@
         <v>45000</v>
       </c>
       <c r="E70" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2790,10 +2862,10 @@
         <v>45000</v>
       </c>
       <c r="E71" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2810,10 +2882,10 @@
         <v>45000</v>
       </c>
       <c r="E72" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2830,10 +2902,10 @@
         <v>45000</v>
       </c>
       <c r="E73" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2850,10 +2922,10 @@
         <v>45000</v>
       </c>
       <c r="E74" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F74" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2870,10 +2942,10 @@
         <v>45000</v>
       </c>
       <c r="E75" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F75" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2890,10 +2962,10 @@
         <v>45000</v>
       </c>
       <c r="E76" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F76" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2910,10 +2982,10 @@
         <v>45000</v>
       </c>
       <c r="E77" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2930,10 +3002,10 @@
         <v>45000</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2950,10 +3022,10 @@
         <v>45000</v>
       </c>
       <c r="E79" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2970,10 +3042,10 @@
         <v>45000</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2990,10 +3062,10 @@
         <v>45000</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F81" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3010,10 +3082,10 @@
         <v>45000</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F82" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3030,10 +3102,10 @@
         <v>45000</v>
       </c>
       <c r="E83" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F83" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3050,10 +3122,10 @@
         <v>45000</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3070,10 +3142,10 @@
         <v>45000</v>
       </c>
       <c r="E85" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F85" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3090,10 +3162,10 @@
         <v>45000</v>
       </c>
       <c r="E86" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3110,10 +3182,10 @@
         <v>45000</v>
       </c>
       <c r="E87" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3130,10 +3202,10 @@
         <v>45000</v>
       </c>
       <c r="E88" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3150,10 +3222,10 @@
         <v>45000</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F89" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3170,10 +3242,10 @@
         <v>45000</v>
       </c>
       <c r="E90" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F90" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3190,10 +3262,10 @@
         <v>45000</v>
       </c>
       <c r="E91" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F91" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3210,10 +3282,10 @@
         <v>45000</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3230,10 +3302,10 @@
         <v>45000</v>
       </c>
       <c r="E93" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3250,10 +3322,10 @@
         <v>45000</v>
       </c>
       <c r="E94" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F94" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3270,10 +3342,10 @@
         <v>45000</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3290,10 +3362,10 @@
         <v>45000</v>
       </c>
       <c r="E96" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3310,10 +3382,10 @@
         <v>45000</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3330,10 +3402,10 @@
         <v>45000</v>
       </c>
       <c r="E98" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3350,10 +3422,10 @@
         <v>45000</v>
       </c>
       <c r="E99" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F99" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3370,10 +3442,10 @@
         <v>45000</v>
       </c>
       <c r="E100" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3390,10 +3462,10 @@
         <v>45000</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3410,10 +3482,10 @@
         <v>45000</v>
       </c>
       <c r="E102" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3430,10 +3502,10 @@
         <v>45000</v>
       </c>
       <c r="E103" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F103" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3450,10 +3522,10 @@
         <v>45000</v>
       </c>
       <c r="E104" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F104" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3470,10 +3542,10 @@
         <v>45000</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F105" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3490,10 +3562,10 @@
         <v>45000</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F106" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3510,10 +3582,10 @@
         <v>45000</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3530,10 +3602,10 @@
         <v>45000</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F108" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3550,10 +3622,10 @@
         <v>45000</v>
       </c>
       <c r="E109" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3570,10 +3642,10 @@
         <v>45000</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3590,10 +3662,10 @@
         <v>45000</v>
       </c>
       <c r="E111" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F111" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3610,10 +3682,10 @@
         <v>45000</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="F112" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3630,10 +3702,10 @@
         <v>45000</v>
       </c>
       <c r="E113" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F113" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3650,10 +3722,10 @@
         <v>45000</v>
       </c>
       <c r="E114" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F114" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3670,10 +3742,10 @@
         <v>45000</v>
       </c>
       <c r="E115" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3690,10 +3762,10 @@
         <v>45000</v>
       </c>
       <c r="E116" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F116" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3710,10 +3782,10 @@
         <v>45000</v>
       </c>
       <c r="E117" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F117" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3730,10 +3802,10 @@
         <v>45000</v>
       </c>
       <c r="E118" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F118" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3750,10 +3822,10 @@
         <v>45000</v>
       </c>
       <c r="E119" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F119" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3770,10 +3842,10 @@
         <v>45000</v>
       </c>
       <c r="E120" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F120" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3790,10 +3862,10 @@
         <v>45000</v>
       </c>
       <c r="E121" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F121" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3810,10 +3882,10 @@
         <v>45000</v>
       </c>
       <c r="E122" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3830,10 +3902,10 @@
         <v>45000</v>
       </c>
       <c r="E123" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3850,10 +3922,10 @@
         <v>45000</v>
       </c>
       <c r="E124" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3870,10 +3942,10 @@
         <v>45000</v>
       </c>
       <c r="E125" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F125" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3890,10 +3962,10 @@
         <v>45000</v>
       </c>
       <c r="E126" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F126" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3910,10 +3982,10 @@
         <v>45000</v>
       </c>
       <c r="E127" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F127" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3930,10 +4002,10 @@
         <v>45000</v>
       </c>
       <c r="E128" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F128" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3950,10 +4022,10 @@
         <v>45000</v>
       </c>
       <c r="E129" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F129" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3970,10 +4042,10 @@
         <v>45000</v>
       </c>
       <c r="E130" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3990,10 +4062,10 @@
         <v>45000</v>
       </c>
       <c r="E131" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F131" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4010,10 +4082,10 @@
         <v>45000</v>
       </c>
       <c r="E132" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F132" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4030,10 +4102,10 @@
         <v>45000</v>
       </c>
       <c r="E133" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F133" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4050,10 +4122,10 @@
         <v>45000</v>
       </c>
       <c r="E134" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F134" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4070,10 +4142,10 @@
         <v>45000</v>
       </c>
       <c r="E135" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F135" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4090,10 +4162,10 @@
         <v>45000</v>
       </c>
       <c r="E136" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F136" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4110,10 +4182,10 @@
         <v>45000</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F137" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4130,10 +4202,10 @@
         <v>45000</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F138" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4150,10 +4222,10 @@
         <v>45000</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F139" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4170,10 +4242,10 @@
         <v>45000</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F140" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4190,10 +4262,10 @@
         <v>45000</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F141" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4210,10 +4282,10 @@
         <v>11024</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4230,10 +4302,10 @@
         <v>45000</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F143" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4250,10 +4322,10 @@
         <v>11024</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F144" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4270,10 +4342,10 @@
         <v>45000</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F145" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4290,10 +4362,10 @@
         <v>11024</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F146" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4310,10 +4382,10 @@
         <v>45000</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4330,10 +4402,10 @@
         <v>11024</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4350,10 +4422,10 @@
         <v>45000</v>
       </c>
       <c r="E149" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4370,10 +4442,10 @@
         <v>11024</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4390,10 +4462,10 @@
         <v>45000</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4410,10 +4482,10 @@
         <v>11024</v>
       </c>
       <c r="E152" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4430,10 +4502,10 @@
         <v>45000</v>
       </c>
       <c r="E153" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4450,10 +4522,10 @@
         <v>11024</v>
       </c>
       <c r="E154" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4470,10 +4542,10 @@
         <v>45000</v>
       </c>
       <c r="E155" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4490,10 +4562,10 @@
         <v>11024</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4510,10 +4582,10 @@
         <v>45000</v>
       </c>
       <c r="E157" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4530,10 +4602,10 @@
         <v>11024</v>
       </c>
       <c r="E158" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F158" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4550,10 +4622,10 @@
         <v>45000</v>
       </c>
       <c r="E159" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4570,10 +4642,10 @@
         <v>11024</v>
       </c>
       <c r="E160" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4590,10 +4662,10 @@
         <v>45000</v>
       </c>
       <c r="E161" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F161" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4610,10 +4682,10 @@
         <v>11024</v>
       </c>
       <c r="E162" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F162" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4630,10 +4702,10 @@
         <v>45000</v>
       </c>
       <c r="E163" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4650,10 +4722,10 @@
         <v>11024</v>
       </c>
       <c r="E164" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4670,10 +4742,10 @@
         <v>45000</v>
       </c>
       <c r="E165" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4690,10 +4762,10 @@
         <v>11024</v>
       </c>
       <c r="E166" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F166" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4710,10 +4782,10 @@
         <v>45000</v>
       </c>
       <c r="E167" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4730,10 +4802,10 @@
         <v>11024</v>
       </c>
       <c r="E168" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F168" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4750,10 +4822,10 @@
         <v>45000</v>
       </c>
       <c r="E169" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F169" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4770,10 +4842,10 @@
         <v>11024</v>
       </c>
       <c r="E170" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F170" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4790,10 +4862,10 @@
         <v>45000</v>
       </c>
       <c r="E171" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F171" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4810,10 +4882,10 @@
         <v>11024</v>
       </c>
       <c r="E172" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F172" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4830,10 +4902,10 @@
         <v>45000</v>
       </c>
       <c r="E173" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F173" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4850,10 +4922,10 @@
         <v>11024</v>
       </c>
       <c r="E174" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F174" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4870,10 +4942,10 @@
         <v>45000</v>
       </c>
       <c r="E175" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F175" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4890,10 +4962,10 @@
         <v>11024</v>
       </c>
       <c r="E176" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F176" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4910,10 +4982,10 @@
         <v>45000</v>
       </c>
       <c r="E177" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F177" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4930,10 +5002,10 @@
         <v>11024</v>
       </c>
       <c r="E178" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F178" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4950,10 +5022,10 @@
         <v>45000</v>
       </c>
       <c r="E179" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F179" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4970,10 +5042,10 @@
         <v>11024</v>
       </c>
       <c r="E180" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F180" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4990,10 +5062,10 @@
         <v>45000</v>
       </c>
       <c r="E181" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F181" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5010,10 +5082,10 @@
         <v>11024</v>
       </c>
       <c r="E182" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F182" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5030,10 +5102,10 @@
         <v>45000</v>
       </c>
       <c r="E183" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F183" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5050,10 +5122,10 @@
         <v>11024</v>
       </c>
       <c r="E184" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F184" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5070,10 +5142,10 @@
         <v>45000</v>
       </c>
       <c r="E185" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F185" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5090,10 +5162,10 @@
         <v>11024</v>
       </c>
       <c r="E186" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F186" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5110,10 +5182,10 @@
         <v>45000</v>
       </c>
       <c r="E187" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F187" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5130,10 +5202,10 @@
         <v>11024</v>
       </c>
       <c r="E188" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F188" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5150,10 +5222,10 @@
         <v>45000</v>
       </c>
       <c r="E189" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F189" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5170,10 +5242,10 @@
         <v>11024</v>
       </c>
       <c r="E190" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F190" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5190,10 +5262,10 @@
         <v>45000</v>
       </c>
       <c r="E191" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F191" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5210,10 +5282,10 @@
         <v>11024</v>
       </c>
       <c r="E192" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F192" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5230,10 +5302,10 @@
         <v>45000</v>
       </c>
       <c r="E193" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F193" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5250,10 +5322,10 @@
         <v>11024</v>
       </c>
       <c r="E194" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F194" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5270,10 +5342,10 @@
         <v>45000</v>
       </c>
       <c r="E195" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F195" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5290,10 +5362,10 @@
         <v>11024</v>
       </c>
       <c r="E196" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F196" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5310,10 +5382,10 @@
         <v>45000</v>
       </c>
       <c r="E197" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F197" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5330,10 +5402,10 @@
         <v>11024</v>
       </c>
       <c r="E198" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F198" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5350,10 +5422,10 @@
         <v>45000</v>
       </c>
       <c r="E199" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F199" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5370,10 +5442,10 @@
         <v>11024</v>
       </c>
       <c r="E200" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F200" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5390,10 +5462,10 @@
         <v>45000</v>
       </c>
       <c r="E201" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F201" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5410,10 +5482,10 @@
         <v>11024</v>
       </c>
       <c r="E202" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F202" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5430,10 +5502,10 @@
         <v>45000</v>
       </c>
       <c r="E203" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F203" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5450,10 +5522,10 @@
         <v>45000</v>
       </c>
       <c r="E204" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F204" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5470,10 +5542,10 @@
         <v>11024</v>
       </c>
       <c r="E205" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F205" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5490,10 +5562,10 @@
         <v>45000</v>
       </c>
       <c r="E206" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F206" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5510,10 +5582,10 @@
         <v>11024</v>
       </c>
       <c r="E207" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F207" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5530,10 +5602,10 @@
         <v>45000</v>
       </c>
       <c r="E208" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F208" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5550,10 +5622,10 @@
         <v>45000</v>
       </c>
       <c r="E209" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F209" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5570,10 +5642,10 @@
         <v>45000</v>
       </c>
       <c r="E210" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F210" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5590,10 +5662,10 @@
         <v>11024</v>
       </c>
       <c r="E211" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F211" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5610,10 +5682,10 @@
         <v>45000</v>
       </c>
       <c r="E212" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F212" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5630,10 +5702,10 @@
         <v>11024</v>
       </c>
       <c r="E213" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F213" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5650,10 +5722,10 @@
         <v>45000</v>
       </c>
       <c r="E214" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F214" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5670,10 +5742,10 @@
         <v>45000</v>
       </c>
       <c r="E215" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F215" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5690,10 +5762,10 @@
         <v>11024</v>
       </c>
       <c r="E216" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F216" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5710,10 +5782,10 @@
         <v>45000</v>
       </c>
       <c r="E217" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F217" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5730,10 +5802,10 @@
         <v>11024</v>
       </c>
       <c r="E218" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F218" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5750,10 +5822,10 @@
         <v>45000</v>
       </c>
       <c r="E219" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F219" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5770,10 +5842,10 @@
         <v>45000</v>
       </c>
       <c r="E220" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F220" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5790,10 +5862,10 @@
         <v>11024</v>
       </c>
       <c r="E221" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F221" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5810,10 +5882,10 @@
         <v>45000</v>
       </c>
       <c r="E222" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F222" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5830,10 +5902,10 @@
         <v>11024</v>
       </c>
       <c r="E223" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F223" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5850,10 +5922,10 @@
         <v>45000</v>
       </c>
       <c r="E224" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F224" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5870,10 +5942,10 @@
         <v>45000</v>
       </c>
       <c r="E225" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F225" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5890,10 +5962,10 @@
         <v>11024</v>
       </c>
       <c r="E226" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F226" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5910,10 +5982,10 @@
         <v>45000</v>
       </c>
       <c r="E227" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F227" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5930,10 +6002,10 @@
         <v>11024</v>
       </c>
       <c r="E228" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F228" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5950,10 +6022,10 @@
         <v>45000</v>
       </c>
       <c r="E229" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F229" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5970,10 +6042,10 @@
         <v>45000</v>
       </c>
       <c r="E230" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F230" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5990,10 +6062,10 @@
         <v>45000</v>
       </c>
       <c r="E231" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F231" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6010,10 +6082,10 @@
         <v>45000</v>
       </c>
       <c r="E232" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F232" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6030,10 +6102,10 @@
         <v>45000</v>
       </c>
       <c r="E233" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F233" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6050,10 +6122,10 @@
         <v>11024</v>
       </c>
       <c r="E234" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F234" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6070,10 +6142,10 @@
         <v>45000</v>
       </c>
       <c r="E235" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F235" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6090,10 +6162,10 @@
         <v>45000</v>
       </c>
       <c r="E236" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F236" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6110,10 +6182,10 @@
         <v>11024</v>
       </c>
       <c r="E237" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F237" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6130,10 +6202,10 @@
         <v>45000</v>
       </c>
       <c r="E238" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F238" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6150,10 +6222,10 @@
         <v>45000</v>
       </c>
       <c r="E239" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F239" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6170,10 +6242,10 @@
         <v>11024</v>
       </c>
       <c r="E240" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F240" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6190,10 +6262,10 @@
         <v>45000</v>
       </c>
       <c r="E241" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F241" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6210,10 +6282,10 @@
         <v>45000</v>
       </c>
       <c r="E242" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F242" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6230,10 +6302,10 @@
         <v>45000</v>
       </c>
       <c r="E243" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F243" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6250,10 +6322,10 @@
         <v>11024</v>
       </c>
       <c r="E244" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F244" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6270,10 +6342,10 @@
         <v>45000</v>
       </c>
       <c r="E245" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F245" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6290,10 +6362,10 @@
         <v>11024</v>
       </c>
       <c r="E246" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F246" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6310,10 +6382,10 @@
         <v>45000</v>
       </c>
       <c r="E247" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F247" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6330,10 +6402,10 @@
         <v>11024</v>
       </c>
       <c r="E248" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F248" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6350,10 +6422,10 @@
         <v>45000</v>
       </c>
       <c r="E249" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F249" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6370,10 +6442,10 @@
         <v>11024</v>
       </c>
       <c r="E250" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F250" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6390,10 +6462,10 @@
         <v>45000</v>
       </c>
       <c r="E251" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F251" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6410,10 +6482,10 @@
         <v>11024</v>
       </c>
       <c r="E252" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F252" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6430,10 +6502,10 @@
         <v>45000</v>
       </c>
       <c r="E253" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F253" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6450,10 +6522,10 @@
         <v>11024</v>
       </c>
       <c r="E254" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F254" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6470,10 +6542,10 @@
         <v>45000</v>
       </c>
       <c r="E255" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F255" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6490,10 +6562,10 @@
         <v>11024</v>
       </c>
       <c r="E256" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F256" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6510,10 +6582,10 @@
         <v>45000</v>
       </c>
       <c r="E257" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F257" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6530,10 +6602,10 @@
         <v>11024</v>
       </c>
       <c r="E258" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F258" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6550,10 +6622,10 @@
         <v>45000</v>
       </c>
       <c r="E259" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F259" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6570,10 +6642,10 @@
         <v>11024</v>
       </c>
       <c r="E260" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F260" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6590,10 +6662,10 @@
         <v>45000</v>
       </c>
       <c r="E261" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F261" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6610,10 +6682,10 @@
         <v>45000</v>
       </c>
       <c r="E262" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F262" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6630,10 +6702,10 @@
         <v>11024</v>
       </c>
       <c r="E263" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F263" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6650,10 +6722,10 @@
         <v>45000</v>
       </c>
       <c r="E264" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F264" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6670,30 +6742,430 @@
         <v>11024</v>
       </c>
       <c r="E265" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F265" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>269</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266">
+        <v>7201</v>
+      </c>
+      <c r="C266">
+        <v>18202</v>
+      </c>
+      <c r="D266">
+        <v>45000</v>
+      </c>
+      <c r="E266" t="s">
+        <v>293</v>
+      </c>
+      <c r="F266" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
         <v>270</v>
       </c>
-      <c r="C266" t="s">
+      <c r="B267">
+        <v>7201</v>
+      </c>
+      <c r="C267">
+        <v>18202</v>
+      </c>
+      <c r="D267">
+        <v>11024</v>
+      </c>
+      <c r="E267" t="s">
+        <v>293</v>
+      </c>
+      <c r="F267" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
         <v>271</v>
       </c>
-      <c r="D266" t="s">
+      <c r="B268">
+        <v>7201</v>
+      </c>
+      <c r="C268">
+        <v>18202</v>
+      </c>
+      <c r="D268">
+        <v>45000</v>
+      </c>
+      <c r="E268" t="s">
+        <v>293</v>
+      </c>
+      <c r="F268" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="E266" t="s">
+      <c r="B269">
+        <v>7201</v>
+      </c>
+      <c r="C269">
+        <v>18202</v>
+      </c>
+      <c r="D269">
+        <v>11024</v>
+      </c>
+      <c r="E269" t="s">
+        <v>293</v>
+      </c>
+      <c r="F269" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
         <v>273</v>
       </c>
-      <c r="F266" t="s">
-        <v>332</v>
+      <c r="B270">
+        <v>7201</v>
+      </c>
+      <c r="C270">
+        <v>18202</v>
+      </c>
+      <c r="D270">
+        <v>45000</v>
+      </c>
+      <c r="E270" t="s">
+        <v>293</v>
+      </c>
+      <c r="F270" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271">
+        <v>7201</v>
+      </c>
+      <c r="C271">
+        <v>18202</v>
+      </c>
+      <c r="D271">
+        <v>11024</v>
+      </c>
+      <c r="E271" t="s">
+        <v>293</v>
+      </c>
+      <c r="F271" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272">
+        <v>7201</v>
+      </c>
+      <c r="C272">
+        <v>18202</v>
+      </c>
+      <c r="D272">
+        <v>45000</v>
+      </c>
+      <c r="E272" t="s">
+        <v>293</v>
+      </c>
+      <c r="F272" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>7201</v>
+      </c>
+      <c r="C273">
+        <v>18202</v>
+      </c>
+      <c r="D273">
+        <v>11024</v>
+      </c>
+      <c r="E273" t="s">
+        <v>293</v>
+      </c>
+      <c r="F273" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274">
+        <v>7201</v>
+      </c>
+      <c r="C274">
+        <v>18202</v>
+      </c>
+      <c r="D274">
+        <v>45000</v>
+      </c>
+      <c r="E274" t="s">
+        <v>293</v>
+      </c>
+      <c r="F274" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>29483</v>
+      </c>
+      <c r="C275">
+        <v>28303</v>
+      </c>
+      <c r="D275">
+        <v>11024</v>
+      </c>
+      <c r="E275" t="s">
+        <v>293</v>
+      </c>
+      <c r="F275" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>29483</v>
+      </c>
+      <c r="C276">
+        <v>28303</v>
+      </c>
+      <c r="D276">
+        <v>45000</v>
+      </c>
+      <c r="E276" t="s">
+        <v>293</v>
+      </c>
+      <c r="F276" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>7201</v>
+      </c>
+      <c r="C277">
+        <v>46140</v>
+      </c>
+      <c r="D277">
+        <v>11024</v>
+      </c>
+      <c r="E277" t="s">
+        <v>293</v>
+      </c>
+      <c r="F277" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>7201</v>
+      </c>
+      <c r="C278">
+        <v>46140</v>
+      </c>
+      <c r="D278">
+        <v>45000</v>
+      </c>
+      <c r="E278" t="s">
+        <v>293</v>
+      </c>
+      <c r="F278" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>90220</v>
+      </c>
+      <c r="C279">
+        <v>75241</v>
+      </c>
+      <c r="D279">
+        <v>11024</v>
+      </c>
+      <c r="E279" t="s">
+        <v>293</v>
+      </c>
+      <c r="F279" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280">
+        <v>90220</v>
+      </c>
+      <c r="C280">
+        <v>75241</v>
+      </c>
+      <c r="D280">
+        <v>45000</v>
+      </c>
+      <c r="E280" t="s">
+        <v>293</v>
+      </c>
+      <c r="F280" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281">
+        <v>90220</v>
+      </c>
+      <c r="C281">
+        <v>85395</v>
+      </c>
+      <c r="D281">
+        <v>11024</v>
+      </c>
+      <c r="E281" t="s">
+        <v>293</v>
+      </c>
+      <c r="F281" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282">
+        <v>90220</v>
+      </c>
+      <c r="C282">
+        <v>85395</v>
+      </c>
+      <c r="D282">
+        <v>45000</v>
+      </c>
+      <c r="E282" t="s">
+        <v>293</v>
+      </c>
+      <c r="F282" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>90220</v>
+      </c>
+      <c r="C283">
+        <v>85043</v>
+      </c>
+      <c r="D283">
+        <v>11024</v>
+      </c>
+      <c r="E283" t="s">
+        <v>293</v>
+      </c>
+      <c r="F283" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>90220</v>
+      </c>
+      <c r="C284">
+        <v>85043</v>
+      </c>
+      <c r="D284">
+        <v>45000</v>
+      </c>
+      <c r="E284" t="s">
+        <v>293</v>
+      </c>
+      <c r="F284" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>7201</v>
+      </c>
+      <c r="C285">
+        <v>18202</v>
+      </c>
+      <c r="D285">
+        <v>11024</v>
+      </c>
+      <c r="E285" t="s">
+        <v>293</v>
+      </c>
+      <c r="F285" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286" t="s">
+        <v>290</v>
+      </c>
+      <c r="C286" t="s">
+        <v>291</v>
+      </c>
+      <c r="D286" t="s">
+        <v>292</v>
+      </c>
+      <c r="E286" t="s">
+        <v>293</v>
+      </c>
+      <c r="F286" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="99">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -49,6 +49,24 @@
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -139,10 +157,100 @@
     <t>2025-08-14 15:40:07</t>
   </si>
   <si>
+    <t>2025-08-14 10:25:22</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:25:34</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:21</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:24</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:43</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:53</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:28:10</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:28:20</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:18:50</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:19:03</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:20:59</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:01</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:40</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:43</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:30</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:45</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:37</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:40</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:19</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:25</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:30</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:34</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:05:49</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:06</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:33</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:35</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:33</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:36</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:27:01</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:27:12</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>17112</t>
+    <t>46809</t>
   </si>
   <si>
     <t>45000</t>
@@ -179,6 +287,27 @@
   </si>
   <si>
     <t>Rate: 1171.5, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 907.11, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1132.68, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1890.0, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1144.68, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1909.5, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1742.67, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1684.5149999999999, Carrier: JBHZ</t>
   </si>
   <si>
     <t>API</t>
@@ -539,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -588,13 +717,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -602,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -614,13 +743,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -628,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -640,13 +769,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -654,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -666,13 +795,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -680,7 +809,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -692,13 +821,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -706,7 +835,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -718,13 +847,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -732,7 +861,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -744,13 +873,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -758,7 +887,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -770,13 +899,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -784,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -796,13 +925,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -810,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -822,13 +951,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -836,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -848,13 +977,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -862,7 +991,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -874,13 +1003,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -888,7 +1017,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -900,13 +1029,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -914,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -926,13 +1055,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -940,7 +1069,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -952,13 +1081,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -966,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -978,13 +1107,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -992,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1004,13 +1133,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1018,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1030,13 +1159,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1044,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1056,13 +1185,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1070,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1082,13 +1211,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1096,7 +1225,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1108,13 +1237,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1122,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1134,13 +1263,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1148,7 +1277,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1160,13 +1289,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1174,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1186,13 +1315,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1200,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1212,13 +1341,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1226,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1238,13 +1367,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1252,7 +1381,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1264,13 +1393,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1278,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1290,13 +1419,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1304,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1316,13 +1445,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1330,25 +1459,805 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>7201</v>
+      </c>
+      <c r="D31">
+        <v>17112</v>
+      </c>
+      <c r="E31">
+        <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>7201</v>
+      </c>
+      <c r="D32">
+        <v>18202</v>
+      </c>
+      <c r="E32">
+        <v>11024</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>7201</v>
+      </c>
+      <c r="D33">
+        <v>18202</v>
+      </c>
+      <c r="E33">
+        <v>45000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34">
+        <v>77020</v>
+      </c>
+      <c r="D34">
+        <v>75007</v>
+      </c>
+      <c r="E34">
+        <v>11024</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>77020</v>
+      </c>
+      <c r="D35">
+        <v>75007</v>
+      </c>
+      <c r="E35">
+        <v>45000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>7201</v>
+      </c>
+      <c r="D36">
+        <v>18105</v>
+      </c>
+      <c r="E36">
+        <v>11024</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>7201</v>
+      </c>
+      <c r="D37">
+        <v>18105</v>
+      </c>
+      <c r="E37">
+        <v>45000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>7201</v>
+      </c>
+      <c r="D38">
+        <v>17112</v>
+      </c>
+      <c r="E38">
+        <v>11024</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
         <v>54</v>
       </c>
-      <c r="H31" t="s">
+      <c r="C39">
+        <v>7201</v>
+      </c>
+      <c r="D39">
+        <v>17112</v>
+      </c>
+      <c r="E39">
+        <v>45000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
         <v>55</v>
+      </c>
+      <c r="C40">
+        <v>29483</v>
+      </c>
+      <c r="D40">
+        <v>29330</v>
+      </c>
+      <c r="E40">
+        <v>11024</v>
+      </c>
+      <c r="F40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>29483</v>
+      </c>
+      <c r="D41">
+        <v>29330</v>
+      </c>
+      <c r="E41">
+        <v>45000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42">
+        <v>29483</v>
+      </c>
+      <c r="D42">
+        <v>29330</v>
+      </c>
+      <c r="E42">
+        <v>11024</v>
+      </c>
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>29483</v>
+      </c>
+      <c r="D43">
+        <v>29330</v>
+      </c>
+      <c r="E43">
+        <v>45000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44">
+        <v>29483</v>
+      </c>
+      <c r="D44">
+        <v>29330</v>
+      </c>
+      <c r="E44">
+        <v>11024</v>
+      </c>
+      <c r="F44" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>29483</v>
+      </c>
+      <c r="D45">
+        <v>29330</v>
+      </c>
+      <c r="E45">
+        <v>45000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>7201</v>
+      </c>
+      <c r="D46">
+        <v>46410</v>
+      </c>
+      <c r="E46">
+        <v>11024</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>7201</v>
+      </c>
+      <c r="D47">
+        <v>46410</v>
+      </c>
+      <c r="E47">
+        <v>45000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>29483</v>
+      </c>
+      <c r="D48">
+        <v>29330</v>
+      </c>
+      <c r="E48">
+        <v>11024</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>29483</v>
+      </c>
+      <c r="D49">
+        <v>29330</v>
+      </c>
+      <c r="E49">
+        <v>45000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50">
+        <v>7201</v>
+      </c>
+      <c r="D50">
+        <v>46410</v>
+      </c>
+      <c r="E50">
+        <v>11024</v>
+      </c>
+      <c r="F50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>7201</v>
+      </c>
+      <c r="D51">
+        <v>46410</v>
+      </c>
+      <c r="E51">
+        <v>11024</v>
+      </c>
+      <c r="F51" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52">
+        <v>7201</v>
+      </c>
+      <c r="D52">
+        <v>46410</v>
+      </c>
+      <c r="E52">
+        <v>45000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>95</v>
+      </c>
+      <c r="H52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>7201</v>
+      </c>
+      <c r="D53">
+        <v>46410</v>
+      </c>
+      <c r="E53">
+        <v>45000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s">
+        <v>95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <v>7201</v>
+      </c>
+      <c r="D54">
+        <v>48917</v>
+      </c>
+      <c r="E54">
+        <v>11024</v>
+      </c>
+      <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55">
+        <v>7201</v>
+      </c>
+      <c r="D55">
+        <v>48917</v>
+      </c>
+      <c r="E55">
+        <v>45000</v>
+      </c>
+      <c r="F55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
+      <c r="H55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>7201</v>
+      </c>
+      <c r="D56">
+        <v>46809</v>
+      </c>
+      <c r="E56">
+        <v>11024</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57">
+        <v>7201</v>
+      </c>
+      <c r="D57">
+        <v>46809</v>
+      </c>
+      <c r="E57">
+        <v>45000</v>
+      </c>
+      <c r="F57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>7201</v>
+      </c>
+      <c r="D58">
+        <v>48917</v>
+      </c>
+      <c r="E58">
+        <v>11024</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>7201</v>
+      </c>
+      <c r="D59">
+        <v>48917</v>
+      </c>
+      <c r="E59">
+        <v>45000</v>
+      </c>
+      <c r="F59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>96</v>
+      </c>
+      <c r="H59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>7201</v>
+      </c>
+      <c r="D60">
+        <v>46809</v>
+      </c>
+      <c r="E60">
+        <v>11024</v>
+      </c>
+      <c r="F60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="117">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -67,6 +67,9 @@
     <t>CMM0800LCL0062</t>
   </si>
   <si>
+    <t>CMM0800LCL0069</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -247,10 +250,52 @@
     <t>2025-08-18 06:27:12</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>46809</t>
+    <t>2025-08-18 06:55:59</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:11</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:23</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:29</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:46</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:48</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:04</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:06</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:18</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:24</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:42</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:53</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:59</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:04:04</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>60433</t>
   </si>
   <si>
     <t>45000</t>
@@ -259,6 +304,9 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Rate: 1358.2649999999999, Carrier: JBHZ</t>
   </si>
   <si>
@@ -308,6 +356,12 @@
   </si>
   <si>
     <t>Rate: 1684.5149999999999, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>500 Server Error: Internal Server Error for url: https://api.jbhunt.com/pricing/quoting/v3/dynamic-quote</t>
+  </si>
+  <si>
+    <t>No valid rates returned</t>
   </si>
   <si>
     <t>API</t>
@@ -668,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -717,13 +771,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -731,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -743,13 +797,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -757,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -769,13 +823,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -783,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -795,13 +849,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -809,7 +863,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -821,13 +875,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -835,7 +889,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -847,13 +901,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -861,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -873,13 +927,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -887,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -899,13 +953,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -913,7 +967,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -925,13 +979,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -939,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -951,13 +1005,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -965,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -977,13 +1031,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -991,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1003,13 +1057,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1017,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1029,13 +1083,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1043,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1055,13 +1109,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1069,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1081,13 +1135,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1095,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1107,13 +1161,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1121,7 +1175,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1133,13 +1187,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1147,7 +1201,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1159,13 +1213,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1173,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1185,13 +1239,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1199,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1211,13 +1265,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1225,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1237,13 +1291,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1251,7 +1305,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1263,13 +1317,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1277,7 +1331,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1289,13 +1343,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1303,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1315,13 +1369,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1329,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1341,13 +1395,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1355,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1367,13 +1421,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1381,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1393,13 +1447,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H28" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1407,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1419,13 +1473,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1433,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1445,13 +1499,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1459,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -1471,13 +1525,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1485,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1497,13 +1551,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H32" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1511,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1523,13 +1577,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1537,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -1549,13 +1603,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1563,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -1575,13 +1629,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1589,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -1601,13 +1655,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1615,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -1627,13 +1681,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1641,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -1653,13 +1707,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1667,7 +1721,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -1679,13 +1733,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1693,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -1705,13 +1759,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1719,7 +1773,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -1731,13 +1785,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H41" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1745,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -1757,13 +1811,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1771,7 +1825,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -1783,13 +1837,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H43" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1797,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -1809,13 +1863,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H44" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1823,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -1835,13 +1889,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H45" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1849,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -1861,13 +1915,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H46" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1875,7 +1929,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -1887,13 +1941,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1901,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -1913,13 +1967,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1927,7 +1981,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -1939,13 +1993,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1953,7 +2007,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -1965,13 +2019,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1979,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -1991,13 +2045,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H51" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2005,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2017,13 +2071,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2031,7 +2085,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2043,13 +2097,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2057,7 +2111,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2069,13 +2123,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H54" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2083,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2095,13 +2149,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H55" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2109,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2121,13 +2175,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2135,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2147,13 +2201,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2161,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2173,13 +2227,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H58" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2187,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2199,13 +2253,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G59" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2213,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2225,13 +2279,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2239,25 +2293,509 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
         <v>77</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61">
+        <v>7201</v>
+      </c>
+      <c r="D61">
+        <v>46809</v>
+      </c>
+      <c r="E61">
+        <v>45000</v>
+      </c>
+      <c r="F61" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
         <v>78</v>
       </c>
-      <c r="E61" t="s">
+      <c r="C62">
+        <v>7201</v>
+      </c>
+      <c r="D62">
+        <v>48917</v>
+      </c>
+      <c r="E62">
+        <v>11024</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
         <v>79</v>
       </c>
-      <c r="F61" t="s">
+      <c r="C63">
+        <v>7201</v>
+      </c>
+      <c r="D63">
+        <v>48917</v>
+      </c>
+      <c r="E63">
+        <v>45000</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
         <v>80</v>
       </c>
-      <c r="G61" t="s">
-        <v>97</v>
-      </c>
-      <c r="H61" t="s">
-        <v>98</v>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>60433</v>
+      </c>
+      <c r="E64">
+        <v>11024</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>60433</v>
+      </c>
+      <c r="E65">
+        <v>11024</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>60433</v>
+      </c>
+      <c r="E66">
+        <v>45000</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>60433</v>
+      </c>
+      <c r="E67">
+        <v>45000</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>7201</v>
+      </c>
+      <c r="D68">
+        <v>46809</v>
+      </c>
+      <c r="E68">
+        <v>11024</v>
+      </c>
+      <c r="F68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>7201</v>
+      </c>
+      <c r="D69">
+        <v>46809</v>
+      </c>
+      <c r="E69">
+        <v>45000</v>
+      </c>
+      <c r="F69" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70">
+        <v>7201</v>
+      </c>
+      <c r="D70">
+        <v>48917</v>
+      </c>
+      <c r="E70">
+        <v>11024</v>
+      </c>
+      <c r="F70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>7201</v>
+      </c>
+      <c r="D71">
+        <v>48917</v>
+      </c>
+      <c r="E71">
+        <v>45000</v>
+      </c>
+      <c r="F71" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>60433</v>
+      </c>
+      <c r="E72">
+        <v>11024</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>60433</v>
+      </c>
+      <c r="E73">
+        <v>11024</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>60433</v>
+      </c>
+      <c r="E74">
+        <v>45000</v>
+      </c>
+      <c r="F74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>60433</v>
+      </c>
+      <c r="E75">
+        <v>45000</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76">
+        <v>7201</v>
+      </c>
+      <c r="D76">
+        <v>46809</v>
+      </c>
+      <c r="E76">
+        <v>11024</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>7201</v>
+      </c>
+      <c r="D77">
+        <v>46809</v>
+      </c>
+      <c r="E77">
+        <v>45000</v>
+      </c>
+      <c r="F77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+      <c r="H77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>60433</v>
+      </c>
+      <c r="E78">
+        <v>11024</v>
+      </c>
+      <c r="F78" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>60433</v>
+      </c>
+      <c r="E79">
+        <v>11024</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>60433</v>
+      </c>
+      <c r="E80">
+        <v>45000</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="156">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -70,6 +70,24 @@
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -292,10 +310,94 @@
     <t>2025-08-18 07:04:04</t>
   </si>
   <si>
-    <t>00000</t>
-  </si>
-  <si>
-    <t>60433</t>
+    <t>2025-08-18 07:48:55</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:49:06</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:49:17</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:49:19</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:31</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:36</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:53:59</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:54:05</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:45</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:57</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:25:16</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:25:18</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:46:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:47:03</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:52</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:50:08</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:50:21</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:16:13</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:16:25</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:37:01</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:37:12</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:48</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:49:08</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:49:10</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:09:07</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:09:20</t>
+  </si>
+  <si>
+    <t>29483</t>
+  </si>
+  <si>
+    <t>29330</t>
   </si>
   <si>
     <t>45000</t>
@@ -362,6 +464,21 @@
   </si>
   <si>
     <t>No valid rates returned</t>
+  </si>
+  <si>
+    <t>Rate: 1820.4900000000002, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2067.795, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1317.615, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1329.615, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1137.18, Carrier: JBHZ</t>
   </si>
   <si>
     <t>API</t>
@@ -722,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -771,13 +888,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -785,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -797,13 +914,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -811,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -823,13 +940,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -837,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -849,13 +966,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -863,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -875,13 +992,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -889,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -901,13 +1018,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -915,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -927,13 +1044,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -941,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -953,13 +1070,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -967,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -979,13 +1096,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -993,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1005,13 +1122,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1019,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1031,13 +1148,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1045,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1057,13 +1174,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1071,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1083,13 +1200,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1097,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1109,13 +1226,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1123,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1135,13 +1252,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1149,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1161,13 +1278,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1175,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1187,13 +1304,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1201,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1213,13 +1330,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1227,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1239,13 +1356,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1253,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1265,13 +1382,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1279,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1291,13 +1408,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1305,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1317,13 +1434,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1331,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1343,13 +1460,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1357,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1369,13 +1486,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1383,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1395,13 +1512,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1409,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1421,13 +1538,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H27" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1435,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1447,13 +1564,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1461,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1473,13 +1590,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1487,7 +1604,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1499,13 +1616,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1513,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -1525,13 +1642,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G31" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1539,7 +1656,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1551,13 +1668,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1565,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1577,13 +1694,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1591,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -1603,13 +1720,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1617,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -1629,13 +1746,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1643,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -1655,13 +1772,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G36" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H36" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1669,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -1681,13 +1798,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1695,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -1707,13 +1824,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1721,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -1733,13 +1850,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G39" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1747,7 +1864,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -1759,13 +1876,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G40" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1773,7 +1890,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -1785,13 +1902,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1799,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -1811,13 +1928,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G42" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1825,7 +1942,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -1837,13 +1954,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H43" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1851,7 +1968,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -1863,13 +1980,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1877,7 +1994,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -1889,13 +2006,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1903,7 +2020,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -1915,13 +2032,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="H46" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1929,7 +2046,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -1941,13 +2058,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="H47" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1955,7 +2072,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -1967,13 +2084,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1981,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -1993,13 +2110,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2007,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2019,13 +2136,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2033,7 +2150,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2045,13 +2162,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H51" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2059,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2071,13 +2188,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H52" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2085,7 +2202,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2097,13 +2214,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="H53" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2111,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2123,13 +2240,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2137,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2149,13 +2266,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G55" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H55" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2163,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2175,13 +2292,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G56" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2189,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2201,13 +2318,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G57" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H57" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2215,7 +2332,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2227,13 +2344,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H58" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2241,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2253,13 +2370,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H59" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2267,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2279,13 +2396,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2293,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2305,13 +2422,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G61" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H61" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2319,7 +2436,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2331,13 +2448,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H62" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2345,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -2357,13 +2474,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G63" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2371,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2383,10 +2500,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2394,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2406,10 +2523,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2417,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2429,10 +2546,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2440,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2452,10 +2569,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G67" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2463,7 +2580,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2475,13 +2592,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H68" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2489,7 +2606,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -2501,13 +2618,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2515,7 +2632,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -2527,13 +2644,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H70" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2541,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -2553,13 +2670,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G71" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="H71" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2567,7 +2684,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2579,10 +2696,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G72" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2590,7 +2707,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2602,10 +2719,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G73" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2613,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2625,10 +2742,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2636,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2648,10 +2765,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G75" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2659,7 +2776,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -2671,13 +2788,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2685,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -2697,13 +2814,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="H77" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2711,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2723,10 +2840,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G78" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2734,7 +2851,7 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2746,10 +2863,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G79" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2757,7 +2874,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2769,33 +2886,841 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" t="s">
-        <v>93</v>
-      </c>
-      <c r="E81" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>60433</v>
+      </c>
+      <c r="E81">
+        <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="G81" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82">
+        <v>90220</v>
+      </c>
+      <c r="D82">
+        <v>89044</v>
+      </c>
+      <c r="E82">
+        <v>11024</v>
+      </c>
+      <c r="F82" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83">
+        <v>90220</v>
+      </c>
+      <c r="D83">
+        <v>89044</v>
+      </c>
+      <c r="E83">
+        <v>45000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G83" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>90220</v>
+      </c>
+      <c r="D84">
+        <v>85395</v>
+      </c>
+      <c r="E84">
+        <v>11024</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" t="s">
+        <v>151</v>
+      </c>
+      <c r="H84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85">
+        <v>90220</v>
+      </c>
+      <c r="D85">
+        <v>85395</v>
+      </c>
+      <c r="E85">
+        <v>45000</v>
+      </c>
+      <c r="F85" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" t="s">
+        <v>151</v>
+      </c>
+      <c r="H85" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>60433</v>
+      </c>
+      <c r="E86">
+        <v>11024</v>
+      </c>
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>60433</v>
+      </c>
+      <c r="E87">
+        <v>11024</v>
+      </c>
+      <c r="F87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>60433</v>
+      </c>
+      <c r="E88">
+        <v>45000</v>
+      </c>
+      <c r="F88" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>60433</v>
+      </c>
+      <c r="E89">
+        <v>45000</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>60433</v>
+      </c>
+      <c r="E90">
+        <v>11024</v>
+      </c>
+      <c r="F90" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>60433</v>
+      </c>
+      <c r="E91">
+        <v>11024</v>
+      </c>
+      <c r="F91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>60433</v>
+      </c>
+      <c r="E92">
+        <v>45000</v>
+      </c>
+      <c r="F92" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>60433</v>
+      </c>
+      <c r="E93">
+        <v>45000</v>
+      </c>
+      <c r="F93" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94">
+        <v>7201</v>
+      </c>
+      <c r="D94">
+        <v>15672</v>
+      </c>
+      <c r="E94">
+        <v>11024</v>
+      </c>
+      <c r="F94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" t="s">
+        <v>152</v>
+      </c>
+      <c r="H94" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95">
+        <v>7201</v>
+      </c>
+      <c r="D95">
+        <v>15672</v>
+      </c>
+      <c r="E95">
+        <v>45000</v>
+      </c>
+      <c r="F95" t="s">
+        <v>129</v>
+      </c>
+      <c r="G95" t="s">
+        <v>152</v>
+      </c>
+      <c r="H95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96">
+        <v>7201</v>
+      </c>
+      <c r="D96">
+        <v>15672</v>
+      </c>
+      <c r="E96">
+        <v>11024</v>
+      </c>
+      <c r="F96" t="s">
+        <v>129</v>
+      </c>
+      <c r="G96" t="s">
+        <v>152</v>
+      </c>
+      <c r="H96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97">
+        <v>7201</v>
+      </c>
+      <c r="D97">
+        <v>15672</v>
+      </c>
+      <c r="E97">
+        <v>45000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" t="s">
+        <v>152</v>
+      </c>
+      <c r="H97" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98">
+        <v>7201</v>
+      </c>
+      <c r="D98">
+        <v>15672</v>
+      </c>
+      <c r="E98">
+        <v>11024</v>
+      </c>
+      <c r="F98" t="s">
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>153</v>
+      </c>
+      <c r="H98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99">
+        <v>7201</v>
+      </c>
+      <c r="D99">
+        <v>15672</v>
+      </c>
+      <c r="E99">
+        <v>45000</v>
+      </c>
+      <c r="F99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G99" t="s">
+        <v>153</v>
+      </c>
+      <c r="H99" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100">
+        <v>7201</v>
+      </c>
+      <c r="D100">
+        <v>15672</v>
+      </c>
+      <c r="E100">
+        <v>11024</v>
+      </c>
+      <c r="F100" t="s">
+        <v>129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101">
+        <v>7201</v>
+      </c>
+      <c r="D101">
+        <v>15672</v>
+      </c>
+      <c r="E101">
+        <v>45000</v>
+      </c>
+      <c r="F101" t="s">
+        <v>129</v>
+      </c>
+      <c r="G101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>114</v>
+      </c>
+      <c r="C102">
+        <v>7201</v>
+      </c>
+      <c r="D102">
+        <v>15672</v>
+      </c>
+      <c r="E102">
+        <v>11024</v>
+      </c>
+      <c r="F102" t="s">
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>153</v>
+      </c>
+      <c r="H102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
         <v>115</v>
+      </c>
+      <c r="C103">
+        <v>7201</v>
+      </c>
+      <c r="D103">
+        <v>15672</v>
+      </c>
+      <c r="E103">
+        <v>45000</v>
+      </c>
+      <c r="F103" t="s">
+        <v>129</v>
+      </c>
+      <c r="G103" t="s">
+        <v>153</v>
+      </c>
+      <c r="H103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104">
+        <v>29483</v>
+      </c>
+      <c r="D104">
+        <v>29330</v>
+      </c>
+      <c r="E104">
+        <v>11024</v>
+      </c>
+      <c r="F104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G104" t="s">
+        <v>154</v>
+      </c>
+      <c r="H104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105">
+        <v>29483</v>
+      </c>
+      <c r="D105">
+        <v>29330</v>
+      </c>
+      <c r="E105">
+        <v>45000</v>
+      </c>
+      <c r="F105" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>154</v>
+      </c>
+      <c r="H105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106">
+        <v>29483</v>
+      </c>
+      <c r="D106">
+        <v>29330</v>
+      </c>
+      <c r="E106">
+        <v>11024</v>
+      </c>
+      <c r="F106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107">
+        <v>29483</v>
+      </c>
+      <c r="D107">
+        <v>29330</v>
+      </c>
+      <c r="E107">
+        <v>45000</v>
+      </c>
+      <c r="F107" t="s">
+        <v>129</v>
+      </c>
+      <c r="G107" t="s">
+        <v>154</v>
+      </c>
+      <c r="H107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108">
+        <v>29483</v>
+      </c>
+      <c r="D108">
+        <v>29330</v>
+      </c>
+      <c r="E108">
+        <v>11024</v>
+      </c>
+      <c r="F108" t="s">
+        <v>129</v>
+      </c>
+      <c r="G108" t="s">
+        <v>154</v>
+      </c>
+      <c r="H108" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109">
+        <v>29483</v>
+      </c>
+      <c r="D109">
+        <v>29330</v>
+      </c>
+      <c r="E109">
+        <v>45000</v>
+      </c>
+      <c r="F109" t="s">
+        <v>129</v>
+      </c>
+      <c r="G109" t="s">
+        <v>154</v>
+      </c>
+      <c r="H109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110">
+        <v>29483</v>
+      </c>
+      <c r="D110">
+        <v>29330</v>
+      </c>
+      <c r="E110">
+        <v>11024</v>
+      </c>
+      <c r="F110" t="s">
+        <v>129</v>
+      </c>
+      <c r="G110" t="s">
+        <v>154</v>
+      </c>
+      <c r="H110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111">
+        <v>29483</v>
+      </c>
+      <c r="D111">
+        <v>29330</v>
+      </c>
+      <c r="E111">
+        <v>45000</v>
+      </c>
+      <c r="F111" t="s">
+        <v>129</v>
+      </c>
+      <c r="G111" t="s">
+        <v>154</v>
+      </c>
+      <c r="H111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112">
+        <v>29483</v>
+      </c>
+      <c r="D112">
+        <v>29330</v>
+      </c>
+      <c r="E112">
+        <v>11024</v>
+      </c>
+      <c r="F112" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>154</v>
+      </c>
+      <c r="H112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>128</v>
+      </c>
+      <c r="F113" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>154</v>
+      </c>
+      <c r="H113" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="234">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -88,6 +88,36 @@
     <t>CMM0827LCL0039</t>
   </si>
   <si>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -394,10 +424,166 @@
     <t>2025-08-19 12:09:20</t>
   </si>
   <si>
+    <t>2025-08-20 07:27:25</t>
+  </si>
+  <si>
+    <t>2025-08-20 07:27:36</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:03:39</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:03:52</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:06:11</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:06:23</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:55:48</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:56:01</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:27</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:30</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:53:01</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:53:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:29:32</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:29:45</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:30:25</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:30:27</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:32:46</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:32:48</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:33:25</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:33:28</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:30</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:43</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:14</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:16</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:54</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:57</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:31:36</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:32:01</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:32:53</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:32:56</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:34:01</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:34:03</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:31</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:33</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:38:05</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:38:08</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:34:16</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:34:19</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:27</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:39</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:48:01</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:48:12</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:52:21</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:52:23</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:10:14</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:10:17</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:31</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:47</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:21</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:35</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:41:51</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:42:04</t>
+  </si>
+  <si>
     <t>29483</t>
   </si>
   <si>
-    <t>29330</t>
+    <t>30096</t>
   </si>
   <si>
     <t>45000</t>
@@ -479,6 +665,54 @@
   </si>
   <si>
     <t>Rate: 1137.18, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1368.225, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1074.345, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1435.725, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1005.795, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1309.1999999999998, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2150.67, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2221.425, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1013.295, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 5311.200000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1104.195, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 822.375, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1272.345, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1713.5700000000002, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 947.0699999999999, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1124.67, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1105.695, Carrier: JBHZ</t>
   </si>
   <si>
     <t>API</t>
@@ -839,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -888,13 +1122,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -902,7 +1136,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -914,13 +1148,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -928,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -940,13 +1174,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -954,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -966,13 +1200,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -980,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -992,13 +1226,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1006,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1018,13 +1252,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1032,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1044,13 +1278,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1058,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1070,13 +1304,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1084,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1096,13 +1330,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1110,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1122,13 +1356,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1136,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1148,13 +1382,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1162,7 +1396,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1174,13 +1408,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1188,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1200,13 +1434,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1214,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1226,13 +1460,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1240,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1252,13 +1486,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1266,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1278,13 +1512,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1292,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1304,13 +1538,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1318,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1330,13 +1564,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1344,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1356,13 +1590,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1370,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1382,13 +1616,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1396,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1408,13 +1642,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1422,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1434,13 +1668,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1448,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1460,13 +1694,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1474,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1486,13 +1720,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1500,7 +1734,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1512,13 +1746,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1526,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1538,13 +1772,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1552,7 +1786,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1564,13 +1798,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1578,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1590,13 +1824,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1604,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1616,13 +1850,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1630,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -1642,13 +1876,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1656,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1668,13 +1902,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G32" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1682,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1694,13 +1928,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1708,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -1720,13 +1954,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1734,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -1746,13 +1980,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="H35" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1760,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -1772,13 +2006,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1786,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -1798,13 +2032,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="H37" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1812,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -1824,13 +2058,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1838,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -1850,13 +2084,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="H39" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1864,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -1876,13 +2110,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H40" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1890,7 +2124,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -1902,13 +2136,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G41" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1916,7 +2150,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -1928,13 +2162,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H42" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1942,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -1954,13 +2188,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G43" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H43" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1968,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -1980,13 +2214,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1994,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2006,13 +2240,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2020,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2032,13 +2266,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G46" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2046,7 +2280,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2058,13 +2292,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G47" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2072,7 +2306,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2084,13 +2318,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2098,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2110,13 +2344,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2124,7 +2358,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2136,13 +2370,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G50" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2150,7 +2384,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2162,13 +2396,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2176,7 +2410,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2188,13 +2422,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2202,7 +2436,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2214,13 +2448,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2228,7 +2462,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2240,13 +2474,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2254,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2266,13 +2500,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2280,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2292,13 +2526,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2306,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2318,13 +2552,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2332,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2344,13 +2578,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2358,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2370,13 +2604,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2384,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2396,13 +2630,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2410,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2422,13 +2656,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H61" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2436,7 +2670,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2448,13 +2682,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G62" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H62" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2462,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -2474,13 +2708,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H63" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2488,7 +2722,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2500,10 +2734,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G64" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2511,7 +2745,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2523,10 +2757,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G65" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2534,7 +2768,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2546,10 +2780,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2557,7 +2791,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2569,10 +2803,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G67" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2580,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2592,13 +2826,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H68" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2606,7 +2840,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -2618,13 +2852,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H69" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2632,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -2644,13 +2878,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H70" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2658,7 +2892,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -2670,13 +2904,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="H71" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2684,7 +2918,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2696,10 +2930,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2707,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2719,10 +2953,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2730,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2742,10 +2976,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G74" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2753,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2765,10 +2999,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G75" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2776,7 +3010,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -2788,13 +3022,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2802,7 +3036,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -2814,13 +3048,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="H77" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2828,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2840,10 +3074,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G78" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2851,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2863,10 +3097,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G79" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2874,7 +3108,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2886,10 +3120,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G80" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2897,7 +3131,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2909,10 +3143,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G81" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2920,7 +3154,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -2932,13 +3166,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="H82" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2946,7 +3180,7 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -2958,13 +3192,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="H83" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2972,7 +3206,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -2984,13 +3218,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="H84" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2998,7 +3232,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3010,13 +3244,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G85" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="H85" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3024,7 +3258,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3036,10 +3270,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G86" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3047,7 +3281,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3059,10 +3293,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G87" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3070,7 +3304,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3082,10 +3316,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G88" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3093,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3105,10 +3339,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G89" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3116,7 +3350,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3128,10 +3362,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3139,7 +3373,7 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3151,10 +3385,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G91" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3162,7 +3396,7 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3174,10 +3408,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G92" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3185,7 +3419,7 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3197,10 +3431,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="G93" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3208,7 +3442,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -3220,13 +3454,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H94" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3234,7 +3468,7 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -3246,13 +3480,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G95" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H95" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3260,7 +3494,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -3272,13 +3506,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G96" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H96" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3286,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -3298,13 +3532,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G97" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="H97" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3312,7 +3546,7 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -3324,13 +3558,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H98" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3338,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -3350,13 +3584,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G99" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3364,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -3376,13 +3610,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H100" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3390,7 +3624,7 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -3402,13 +3636,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G101" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H101" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3416,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -3428,13 +3662,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G102" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3442,7 +3676,7 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -3454,13 +3688,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G103" t="s">
-        <v>153</v>
+        <v>215</v>
       </c>
       <c r="H103" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3468,7 +3702,7 @@
         <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -3480,13 +3714,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G104" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H104" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3494,7 +3728,7 @@
         <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -3506,13 +3740,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G105" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H105" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3520,7 +3754,7 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -3532,13 +3766,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G106" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H106" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3546,7 +3780,7 @@
         <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -3558,13 +3792,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G107" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H107" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3572,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -3584,13 +3818,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G108" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H108" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3598,7 +3832,7 @@
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -3610,13 +3844,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G109" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H109" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3624,7 +3858,7 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -3636,13 +3870,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G110" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H110" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3650,7 +3884,7 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -3662,13 +3896,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G111" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H111" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3676,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -3688,13 +3922,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G112" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H112" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3702,25 +3936,1377 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" t="s">
-        <v>126</v>
-      </c>
-      <c r="D113" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="C113">
+        <v>29483</v>
+      </c>
+      <c r="D113">
+        <v>29330</v>
+      </c>
+      <c r="E113">
+        <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G113" t="s">
+        <v>216</v>
+      </c>
+      <c r="H113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>20</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+      <c r="C114">
+        <v>7201</v>
+      </c>
+      <c r="D114">
+        <v>15672</v>
+      </c>
+      <c r="E114">
+        <v>11024</v>
+      </c>
+      <c r="F114" t="s">
+        <v>191</v>
+      </c>
+      <c r="G114" t="s">
+        <v>217</v>
+      </c>
+      <c r="H114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115">
+        <v>7201</v>
+      </c>
+      <c r="D115">
+        <v>15672</v>
+      </c>
+      <c r="E115">
+        <v>45000</v>
+      </c>
+      <c r="F115" t="s">
+        <v>191</v>
+      </c>
+      <c r="G115" t="s">
+        <v>217</v>
+      </c>
+      <c r="H115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116">
+        <v>29483</v>
+      </c>
+      <c r="D116">
+        <v>29330</v>
+      </c>
+      <c r="E116">
+        <v>11024</v>
+      </c>
+      <c r="F116" t="s">
+        <v>191</v>
+      </c>
+      <c r="G116" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117">
+        <v>29483</v>
+      </c>
+      <c r="D117">
+        <v>29330</v>
+      </c>
+      <c r="E117">
+        <v>45000</v>
+      </c>
+      <c r="F117" t="s">
+        <v>191</v>
+      </c>
+      <c r="G117" t="s">
+        <v>218</v>
+      </c>
+      <c r="H117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118">
+        <v>29483</v>
+      </c>
+      <c r="D118">
+        <v>29330</v>
+      </c>
+      <c r="E118">
+        <v>11024</v>
+      </c>
+      <c r="F118" t="s">
+        <v>191</v>
+      </c>
+      <c r="G118" t="s">
+        <v>218</v>
+      </c>
+      <c r="H118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119">
+        <v>29483</v>
+      </c>
+      <c r="D119">
+        <v>29330</v>
+      </c>
+      <c r="E119">
+        <v>45000</v>
+      </c>
+      <c r="F119" t="s">
+        <v>191</v>
+      </c>
+      <c r="G119" t="s">
+        <v>218</v>
+      </c>
+      <c r="H119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120">
+        <v>7201</v>
+      </c>
+      <c r="D120">
+        <v>15672</v>
+      </c>
+      <c r="E120">
+        <v>11024</v>
+      </c>
+      <c r="F120" t="s">
+        <v>191</v>
+      </c>
+      <c r="G120" t="s">
+        <v>219</v>
+      </c>
+      <c r="H120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121">
+        <v>7201</v>
+      </c>
+      <c r="D121">
+        <v>15672</v>
+      </c>
+      <c r="E121">
+        <v>45000</v>
+      </c>
+      <c r="F121" t="s">
+        <v>191</v>
+      </c>
+      <c r="G121" t="s">
+        <v>219</v>
+      </c>
+      <c r="H121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>26</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122">
+        <v>7201</v>
+      </c>
+      <c r="D122">
+        <v>18202</v>
+      </c>
+      <c r="E122">
+        <v>11024</v>
+      </c>
+      <c r="F122" t="s">
+        <v>191</v>
+      </c>
+      <c r="G122" t="s">
+        <v>220</v>
+      </c>
+      <c r="H122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123">
+        <v>7201</v>
+      </c>
+      <c r="D123">
+        <v>18202</v>
+      </c>
+      <c r="E123">
+        <v>45000</v>
+      </c>
+      <c r="F123" t="s">
+        <v>191</v>
+      </c>
+      <c r="G123" t="s">
+        <v>220</v>
+      </c>
+      <c r="H123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124">
+        <v>7201</v>
+      </c>
+      <c r="D124">
+        <v>22406</v>
+      </c>
+      <c r="E124">
+        <v>11024</v>
+      </c>
+      <c r="F124" t="s">
+        <v>191</v>
+      </c>
+      <c r="G124" t="s">
+        <v>221</v>
+      </c>
+      <c r="H124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>26</v>
+      </c>
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125">
+        <v>7201</v>
+      </c>
+      <c r="D125">
+        <v>22406</v>
+      </c>
+      <c r="E125">
+        <v>45000</v>
+      </c>
+      <c r="F125" t="s">
+        <v>191</v>
+      </c>
+      <c r="G125" t="s">
+        <v>221</v>
+      </c>
+      <c r="H125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126">
+        <v>90220</v>
+      </c>
+      <c r="D126">
+        <v>85043</v>
+      </c>
+      <c r="E126">
+        <v>11024</v>
+      </c>
+      <c r="F126" t="s">
+        <v>191</v>
+      </c>
+      <c r="G126" t="s">
+        <v>222</v>
+      </c>
+      <c r="H126" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127">
+        <v>90220</v>
+      </c>
+      <c r="D127">
+        <v>85043</v>
+      </c>
+      <c r="E127">
+        <v>45000</v>
+      </c>
+      <c r="F127" t="s">
+        <v>191</v>
+      </c>
+      <c r="G127" t="s">
+        <v>222</v>
+      </c>
+      <c r="H127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128">
+        <v>90220</v>
+      </c>
+      <c r="D128">
+        <v>85395</v>
+      </c>
+      <c r="E128">
+        <v>11024</v>
+      </c>
+      <c r="F128" t="s">
+        <v>191</v>
+      </c>
+      <c r="G128" t="s">
+        <v>223</v>
+      </c>
+      <c r="H128" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129">
+        <v>90220</v>
+      </c>
+      <c r="D129">
+        <v>85395</v>
+      </c>
+      <c r="E129">
+        <v>45000</v>
+      </c>
+      <c r="F129" t="s">
+        <v>191</v>
+      </c>
+      <c r="G129" t="s">
+        <v>223</v>
+      </c>
+      <c r="H129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130">
+        <v>7201</v>
+      </c>
+      <c r="D130">
+        <v>18202</v>
+      </c>
+      <c r="E130">
+        <v>11024</v>
+      </c>
+      <c r="F130" t="s">
+        <v>191</v>
+      </c>
+      <c r="G130" t="s">
+        <v>224</v>
+      </c>
+      <c r="H130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131">
+        <v>7201</v>
+      </c>
+      <c r="D131">
+        <v>18202</v>
+      </c>
+      <c r="E131">
+        <v>45000</v>
+      </c>
+      <c r="F131" t="s">
+        <v>191</v>
+      </c>
+      <c r="G131" t="s">
+        <v>224</v>
+      </c>
+      <c r="H131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>26</v>
+      </c>
+      <c r="B132" t="s">
         <v>154</v>
       </c>
-      <c r="H113" t="s">
+      <c r="C132">
+        <v>7201</v>
+      </c>
+      <c r="D132">
+        <v>22406</v>
+      </c>
+      <c r="E132">
+        <v>11024</v>
+      </c>
+      <c r="F132" t="s">
+        <v>191</v>
+      </c>
+      <c r="G132" t="s">
+        <v>221</v>
+      </c>
+      <c r="H132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>26</v>
+      </c>
+      <c r="B133" t="s">
         <v>155</v>
+      </c>
+      <c r="C133">
+        <v>7201</v>
+      </c>
+      <c r="D133">
+        <v>22406</v>
+      </c>
+      <c r="E133">
+        <v>45000</v>
+      </c>
+      <c r="F133" t="s">
+        <v>191</v>
+      </c>
+      <c r="G133" t="s">
+        <v>221</v>
+      </c>
+      <c r="H133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>26</v>
+      </c>
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134">
+        <v>7201</v>
+      </c>
+      <c r="D134">
+        <v>18202</v>
+      </c>
+      <c r="E134">
+        <v>11024</v>
+      </c>
+      <c r="F134" t="s">
+        <v>191</v>
+      </c>
+      <c r="G134" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135">
+        <v>7201</v>
+      </c>
+      <c r="D135">
+        <v>18202</v>
+      </c>
+      <c r="E135">
+        <v>45000</v>
+      </c>
+      <c r="F135" t="s">
+        <v>191</v>
+      </c>
+      <c r="G135" t="s">
+        <v>224</v>
+      </c>
+      <c r="H135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136">
+        <v>7201</v>
+      </c>
+      <c r="D136">
+        <v>22406</v>
+      </c>
+      <c r="E136">
+        <v>11024</v>
+      </c>
+      <c r="F136" t="s">
+        <v>191</v>
+      </c>
+      <c r="G136" t="s">
+        <v>221</v>
+      </c>
+      <c r="H136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137">
+        <v>7201</v>
+      </c>
+      <c r="D137">
+        <v>22406</v>
+      </c>
+      <c r="E137">
+        <v>45000</v>
+      </c>
+      <c r="F137" t="s">
+        <v>191</v>
+      </c>
+      <c r="G137" t="s">
+        <v>221</v>
+      </c>
+      <c r="H137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+      <c r="C138">
+        <v>90220</v>
+      </c>
+      <c r="D138">
+        <v>75241</v>
+      </c>
+      <c r="E138">
+        <v>11024</v>
+      </c>
+      <c r="F138" t="s">
+        <v>191</v>
+      </c>
+      <c r="G138" t="s">
+        <v>225</v>
+      </c>
+      <c r="H138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139">
+        <v>90220</v>
+      </c>
+      <c r="D139">
+        <v>75241</v>
+      </c>
+      <c r="E139">
+        <v>45000</v>
+      </c>
+      <c r="F139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G139" t="s">
+        <v>225</v>
+      </c>
+      <c r="H139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140">
+        <v>90220</v>
+      </c>
+      <c r="D140">
+        <v>85043</v>
+      </c>
+      <c r="E140">
+        <v>11024</v>
+      </c>
+      <c r="F140" t="s">
+        <v>191</v>
+      </c>
+      <c r="G140" t="s">
+        <v>222</v>
+      </c>
+      <c r="H140" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141">
+        <v>90220</v>
+      </c>
+      <c r="D141">
+        <v>85043</v>
+      </c>
+      <c r="E141">
+        <v>45000</v>
+      </c>
+      <c r="F141" t="s">
+        <v>191</v>
+      </c>
+      <c r="G141" t="s">
+        <v>222</v>
+      </c>
+      <c r="H141" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142">
+        <v>90220</v>
+      </c>
+      <c r="D142">
+        <v>85395</v>
+      </c>
+      <c r="E142">
+        <v>11024</v>
+      </c>
+      <c r="F142" t="s">
+        <v>191</v>
+      </c>
+      <c r="G142" t="s">
+        <v>223</v>
+      </c>
+      <c r="H142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" t="s">
+        <v>165</v>
+      </c>
+      <c r="C143">
+        <v>90220</v>
+      </c>
+      <c r="D143">
+        <v>85395</v>
+      </c>
+      <c r="E143">
+        <v>45000</v>
+      </c>
+      <c r="F143" t="s">
+        <v>191</v>
+      </c>
+      <c r="G143" t="s">
+        <v>223</v>
+      </c>
+      <c r="H143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144">
+        <v>90220</v>
+      </c>
+      <c r="D144">
+        <v>75241</v>
+      </c>
+      <c r="E144">
+        <v>11024</v>
+      </c>
+      <c r="F144" t="s">
+        <v>191</v>
+      </c>
+      <c r="G144" t="s">
+        <v>225</v>
+      </c>
+      <c r="H144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" t="s">
+        <v>167</v>
+      </c>
+      <c r="C145">
+        <v>90220</v>
+      </c>
+      <c r="D145">
+        <v>75241</v>
+      </c>
+      <c r="E145">
+        <v>45000</v>
+      </c>
+      <c r="F145" t="s">
+        <v>191</v>
+      </c>
+      <c r="G145" t="s">
+        <v>225</v>
+      </c>
+      <c r="H145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146">
+        <v>7201</v>
+      </c>
+      <c r="D146">
+        <v>18202</v>
+      </c>
+      <c r="E146">
+        <v>11024</v>
+      </c>
+      <c r="F146" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146" t="s">
+        <v>224</v>
+      </c>
+      <c r="H146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147">
+        <v>7201</v>
+      </c>
+      <c r="D147">
+        <v>18202</v>
+      </c>
+      <c r="E147">
+        <v>45000</v>
+      </c>
+      <c r="F147" t="s">
+        <v>191</v>
+      </c>
+      <c r="G147" t="s">
+        <v>224</v>
+      </c>
+      <c r="H147" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>170</v>
+      </c>
+      <c r="C148">
+        <v>7201</v>
+      </c>
+      <c r="D148">
+        <v>22406</v>
+      </c>
+      <c r="E148">
+        <v>11024</v>
+      </c>
+      <c r="F148" t="s">
+        <v>191</v>
+      </c>
+      <c r="G148" t="s">
+        <v>221</v>
+      </c>
+      <c r="H148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149">
+        <v>7201</v>
+      </c>
+      <c r="D149">
+        <v>22406</v>
+      </c>
+      <c r="E149">
+        <v>45000</v>
+      </c>
+      <c r="F149" t="s">
+        <v>191</v>
+      </c>
+      <c r="G149" t="s">
+        <v>221</v>
+      </c>
+      <c r="H149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150">
+        <v>29483</v>
+      </c>
+      <c r="D150">
+        <v>30096</v>
+      </c>
+      <c r="E150">
+        <v>11024</v>
+      </c>
+      <c r="F150" t="s">
+        <v>191</v>
+      </c>
+      <c r="G150" t="s">
+        <v>226</v>
+      </c>
+      <c r="H150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151">
+        <v>29483</v>
+      </c>
+      <c r="D151">
+        <v>30096</v>
+      </c>
+      <c r="E151">
+        <v>45000</v>
+      </c>
+      <c r="F151" t="s">
+        <v>191</v>
+      </c>
+      <c r="G151" t="s">
+        <v>226</v>
+      </c>
+      <c r="H151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152">
+        <v>29483</v>
+      </c>
+      <c r="D152">
+        <v>30096</v>
+      </c>
+      <c r="E152">
+        <v>11024</v>
+      </c>
+      <c r="F152" t="s">
+        <v>191</v>
+      </c>
+      <c r="G152" t="s">
+        <v>226</v>
+      </c>
+      <c r="H152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>175</v>
+      </c>
+      <c r="C153">
+        <v>29483</v>
+      </c>
+      <c r="D153">
+        <v>30096</v>
+      </c>
+      <c r="E153">
+        <v>45000</v>
+      </c>
+      <c r="F153" t="s">
+        <v>191</v>
+      </c>
+      <c r="G153" t="s">
+        <v>226</v>
+      </c>
+      <c r="H153" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154">
+        <v>90220</v>
+      </c>
+      <c r="D154">
+        <v>91752</v>
+      </c>
+      <c r="E154">
+        <v>11024</v>
+      </c>
+      <c r="F154" t="s">
+        <v>191</v>
+      </c>
+      <c r="G154" t="s">
+        <v>227</v>
+      </c>
+      <c r="H154" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155">
+        <v>90220</v>
+      </c>
+      <c r="D155">
+        <v>91752</v>
+      </c>
+      <c r="E155">
+        <v>45000</v>
+      </c>
+      <c r="F155" t="s">
+        <v>191</v>
+      </c>
+      <c r="G155" t="s">
+        <v>227</v>
+      </c>
+      <c r="H155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156">
+        <v>7201</v>
+      </c>
+      <c r="D156">
+        <v>21740</v>
+      </c>
+      <c r="E156">
+        <v>11024</v>
+      </c>
+      <c r="F156" t="s">
+        <v>191</v>
+      </c>
+      <c r="G156" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157">
+        <v>7201</v>
+      </c>
+      <c r="D157">
+        <v>21740</v>
+      </c>
+      <c r="E157">
+        <v>45000</v>
+      </c>
+      <c r="F157" t="s">
+        <v>191</v>
+      </c>
+      <c r="G157" t="s">
+        <v>228</v>
+      </c>
+      <c r="H157" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158">
+        <v>29483</v>
+      </c>
+      <c r="D158">
+        <v>38654</v>
+      </c>
+      <c r="E158">
+        <v>11024</v>
+      </c>
+      <c r="F158" t="s">
+        <v>191</v>
+      </c>
+      <c r="G158" t="s">
+        <v>229</v>
+      </c>
+      <c r="H158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" t="s">
+        <v>181</v>
+      </c>
+      <c r="C159">
+        <v>29483</v>
+      </c>
+      <c r="D159">
+        <v>38654</v>
+      </c>
+      <c r="E159">
+        <v>45000</v>
+      </c>
+      <c r="F159" t="s">
+        <v>191</v>
+      </c>
+      <c r="G159" t="s">
+        <v>229</v>
+      </c>
+      <c r="H159" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160">
+        <v>7201</v>
+      </c>
+      <c r="D160">
+        <v>18447</v>
+      </c>
+      <c r="E160">
+        <v>11024</v>
+      </c>
+      <c r="F160" t="s">
+        <v>191</v>
+      </c>
+      <c r="G160" t="s">
+        <v>230</v>
+      </c>
+      <c r="H160" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>32</v>
+      </c>
+      <c r="B161" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161">
+        <v>7201</v>
+      </c>
+      <c r="D161">
+        <v>18447</v>
+      </c>
+      <c r="E161">
+        <v>45000</v>
+      </c>
+      <c r="F161" t="s">
+        <v>191</v>
+      </c>
+      <c r="G161" t="s">
+        <v>230</v>
+      </c>
+      <c r="H161" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" t="s">
+        <v>184</v>
+      </c>
+      <c r="C162">
+        <v>29483</v>
+      </c>
+      <c r="D162">
+        <v>28134</v>
+      </c>
+      <c r="E162">
+        <v>11024</v>
+      </c>
+      <c r="F162" t="s">
+        <v>191</v>
+      </c>
+      <c r="G162" t="s">
+        <v>231</v>
+      </c>
+      <c r="H162" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163">
+        <v>29483</v>
+      </c>
+      <c r="D163">
+        <v>28134</v>
+      </c>
+      <c r="E163">
+        <v>45000</v>
+      </c>
+      <c r="F163" t="s">
+        <v>191</v>
+      </c>
+      <c r="G163" t="s">
+        <v>231</v>
+      </c>
+      <c r="H163" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164">
+        <v>29483</v>
+      </c>
+      <c r="D164">
+        <v>30096</v>
+      </c>
+      <c r="E164">
+        <v>11024</v>
+      </c>
+      <c r="F164" t="s">
+        <v>191</v>
+      </c>
+      <c r="G164" t="s">
+        <v>232</v>
+      </c>
+      <c r="H164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" t="s">
+        <v>188</v>
+      </c>
+      <c r="D165" t="s">
+        <v>189</v>
+      </c>
+      <c r="E165" t="s">
+        <v>190</v>
+      </c>
+      <c r="F165" t="s">
+        <v>191</v>
+      </c>
+      <c r="G165" t="s">
+        <v>232</v>
+      </c>
+      <c r="H165" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="243">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -118,6 +118,12 @@
     <t>CMM0657LCL0117</t>
   </si>
   <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -580,10 +586,28 @@
     <t>2025-08-26 05:42:04</t>
   </si>
   <si>
-    <t>29483</t>
-  </si>
-  <si>
-    <t>30096</t>
+    <t>2025-08-26 06:01:44</t>
+  </si>
+  <si>
+    <t>2025-08-26 06:01:54</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:29</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:31</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:56</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:59</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>15672</t>
   </si>
   <si>
     <t>45000</t>
@@ -713,6 +737,9 @@
   </si>
   <si>
     <t>Rate: 1105.695, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1411.725, Carrier: JBHZ</t>
   </si>
   <si>
     <t>API</t>
@@ -1073,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1122,13 +1149,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1136,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -1148,13 +1175,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1162,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -1174,13 +1201,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1188,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -1200,13 +1227,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1214,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1226,13 +1253,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1240,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1252,13 +1279,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1266,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1278,13 +1305,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1292,7 +1319,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1304,13 +1331,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1318,7 +1345,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1330,13 +1357,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1344,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1356,13 +1383,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1370,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1382,13 +1409,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1396,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1408,13 +1435,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1422,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1434,13 +1461,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1448,7 +1475,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1460,13 +1487,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1474,7 +1501,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1486,13 +1513,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1500,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1512,13 +1539,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1526,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1538,13 +1565,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1552,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1564,13 +1591,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1578,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1590,13 +1617,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H20" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1604,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1616,13 +1643,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1630,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1642,13 +1669,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1656,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1668,13 +1695,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1682,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1694,13 +1721,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1708,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1720,13 +1747,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H25" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1734,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1746,13 +1773,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H26" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1760,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1772,13 +1799,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1786,7 +1813,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1798,13 +1825,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H28" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1812,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1824,13 +1851,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1838,7 +1865,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1850,13 +1877,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1864,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -1876,13 +1903,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H31" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1890,7 +1917,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1902,13 +1929,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H32" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1916,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1928,13 +1955,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H33" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1942,7 +1969,7 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -1954,13 +1981,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1968,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -1980,13 +2007,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1994,7 +2021,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -2006,13 +2033,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2020,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -2032,13 +2059,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H37" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2046,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -2058,13 +2085,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2072,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -2084,13 +2111,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G39" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2098,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -2110,13 +2137,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H40" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2124,7 +2151,7 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -2136,13 +2163,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G41" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2150,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -2162,13 +2189,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G42" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2176,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -2188,13 +2215,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G43" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H43" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2202,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -2214,13 +2241,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H44" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2228,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2240,13 +2267,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2254,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2266,13 +2293,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H46" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2280,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2292,13 +2319,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H47" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2306,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2318,13 +2345,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H48" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2332,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2344,13 +2371,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2358,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2370,13 +2397,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G50" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2384,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2396,13 +2423,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2410,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2422,13 +2449,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2436,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2448,13 +2475,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H53" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2462,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2474,13 +2501,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H54" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2488,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2500,13 +2527,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H55" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2514,7 +2541,7 @@
         <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2526,13 +2553,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2540,7 +2567,7 @@
         <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2552,13 +2579,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H57" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2566,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2578,13 +2605,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G58" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H58" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2592,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2604,13 +2631,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2618,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2630,13 +2657,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H60" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2644,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2656,13 +2683,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G61" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H61" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2670,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2682,13 +2709,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H62" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2696,7 +2723,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -2708,13 +2735,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H63" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2722,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2734,10 +2761,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2745,7 +2772,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2757,10 +2784,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G65" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2768,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2780,10 +2807,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2791,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2803,10 +2830,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2814,7 +2841,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2826,13 +2853,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H68" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2840,7 +2867,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -2852,13 +2879,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G69" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H69" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2866,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -2878,13 +2905,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H70" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2892,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -2904,13 +2931,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2918,7 +2945,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2930,10 +2957,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2941,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2953,10 +2980,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G73" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2964,7 +2991,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2976,10 +3003,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G74" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2987,7 +3014,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2999,10 +3026,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3010,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -3022,13 +3049,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3036,7 +3063,7 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -3048,13 +3075,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G77" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H77" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3062,7 +3089,7 @@
         <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3074,10 +3101,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G78" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3085,7 +3112,7 @@
         <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3097,10 +3124,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G79" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3108,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3120,10 +3147,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3131,7 +3158,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3143,10 +3170,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G81" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3154,7 +3181,7 @@
         <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -3166,13 +3193,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3180,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -3192,13 +3219,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G83" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H83" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3206,7 +3233,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -3218,13 +3245,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G84" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H84" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3232,7 +3259,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3244,13 +3271,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G85" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3258,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3270,10 +3297,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3281,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3293,10 +3320,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3304,7 +3331,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3316,10 +3343,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3327,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3339,10 +3366,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G89" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3350,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3362,10 +3389,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G90" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3373,7 +3400,7 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3385,10 +3412,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G91" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3396,7 +3423,7 @@
         <v>17</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3408,10 +3435,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3419,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3431,10 +3458,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G93" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3442,7 +3469,7 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -3454,13 +3481,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G94" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H94" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3468,7 +3495,7 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -3480,13 +3507,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G95" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H95" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3494,7 +3521,7 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -3506,13 +3533,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G96" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H96" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3520,7 +3547,7 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -3532,13 +3559,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G97" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H97" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3546,7 +3573,7 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -3558,13 +3585,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G98" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H98" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3572,7 +3599,7 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -3584,13 +3611,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G99" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H99" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3598,7 +3625,7 @@
         <v>21</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -3610,13 +3637,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G100" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H100" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3624,7 +3651,7 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -3636,13 +3663,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G101" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H101" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3650,7 +3677,7 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -3662,13 +3689,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G102" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H102" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3676,7 +3703,7 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -3688,13 +3715,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G103" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H103" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3702,7 +3729,7 @@
         <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -3714,13 +3741,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G104" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H104" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3728,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -3740,13 +3767,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G105" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H105" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3754,7 +3781,7 @@
         <v>22</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -3766,13 +3793,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G106" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H106" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3780,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -3792,13 +3819,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G107" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H107" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3806,7 +3833,7 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -3818,13 +3845,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G108" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H108" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3832,7 +3859,7 @@
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -3844,13 +3871,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G109" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H109" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3858,7 +3885,7 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -3870,13 +3897,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G110" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H110" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3884,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -3896,13 +3923,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G111" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H111" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3910,7 +3937,7 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -3922,13 +3949,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G112" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H112" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3936,7 +3963,7 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C113">
         <v>29483</v>
@@ -3948,13 +3975,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G113" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H113" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3962,7 +3989,7 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C114">
         <v>7201</v>
@@ -3974,13 +4001,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G114" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H114" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3988,7 +4015,7 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C115">
         <v>7201</v>
@@ -4000,13 +4027,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G115" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H115" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4014,7 +4041,7 @@
         <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C116">
         <v>29483</v>
@@ -4026,13 +4053,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G116" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H116" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4040,7 +4067,7 @@
         <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C117">
         <v>29483</v>
@@ -4052,13 +4079,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H117" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4066,7 +4093,7 @@
         <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C118">
         <v>29483</v>
@@ -4078,13 +4105,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H118" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4092,7 +4119,7 @@
         <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C119">
         <v>29483</v>
@@ -4104,13 +4131,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G119" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H119" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4118,7 +4145,7 @@
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C120">
         <v>7201</v>
@@ -4130,13 +4157,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G120" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H120" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4144,7 +4171,7 @@
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C121">
         <v>7201</v>
@@ -4156,13 +4183,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H121" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4170,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C122">
         <v>7201</v>
@@ -4182,13 +4209,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G122" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H122" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4196,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C123">
         <v>7201</v>
@@ -4208,13 +4235,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G123" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="H123" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4222,7 +4249,7 @@
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C124">
         <v>7201</v>
@@ -4234,13 +4261,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G124" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H124" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4248,7 +4275,7 @@
         <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>7201</v>
@@ -4260,13 +4287,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G125" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H125" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4274,7 +4301,7 @@
         <v>27</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C126">
         <v>90220</v>
@@ -4286,13 +4313,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G126" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H126" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4300,7 +4327,7 @@
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C127">
         <v>90220</v>
@@ -4312,13 +4339,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G127" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H127" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4326,7 +4353,7 @@
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C128">
         <v>90220</v>
@@ -4338,13 +4365,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G128" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H128" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4352,7 +4379,7 @@
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C129">
         <v>90220</v>
@@ -4364,13 +4391,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G129" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H129" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4378,7 +4405,7 @@
         <v>26</v>
       </c>
       <c r="B130" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C130">
         <v>7201</v>
@@ -4390,13 +4417,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G130" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H130" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4404,7 +4431,7 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C131">
         <v>7201</v>
@@ -4416,13 +4443,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G131" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H131" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4430,7 +4457,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C132">
         <v>7201</v>
@@ -4442,13 +4469,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G132" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H132" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4456,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C133">
         <v>7201</v>
@@ -4468,13 +4495,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G133" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H133" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4482,7 +4509,7 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C134">
         <v>7201</v>
@@ -4494,13 +4521,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G134" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H134" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4508,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C135">
         <v>7201</v>
@@ -4520,13 +4547,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G135" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H135" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4534,7 +4561,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C136">
         <v>7201</v>
@@ -4546,13 +4573,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G136" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H136" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4560,7 +4587,7 @@
         <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C137">
         <v>7201</v>
@@ -4572,13 +4599,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G137" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H137" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4586,7 +4613,7 @@
         <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C138">
         <v>90220</v>
@@ -4598,13 +4625,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G138" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H138" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4612,7 +4639,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C139">
         <v>90220</v>
@@ -4624,13 +4651,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G139" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H139" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4638,7 +4665,7 @@
         <v>27</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C140">
         <v>90220</v>
@@ -4650,13 +4677,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G140" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H140" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4664,7 +4691,7 @@
         <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C141">
         <v>90220</v>
@@ -4676,13 +4703,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G141" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H141" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4690,7 +4717,7 @@
         <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C142">
         <v>90220</v>
@@ -4702,13 +4729,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G142" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H142" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4716,7 +4743,7 @@
         <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C143">
         <v>90220</v>
@@ -4728,13 +4755,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G143" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H143" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4742,7 +4769,7 @@
         <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C144">
         <v>90220</v>
@@ -4754,13 +4781,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G144" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H144" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4768,7 +4795,7 @@
         <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C145">
         <v>90220</v>
@@ -4780,13 +4807,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G145" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H145" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4794,7 +4821,7 @@
         <v>26</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C146">
         <v>7201</v>
@@ -4806,13 +4833,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G146" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H146" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4820,7 +4847,7 @@
         <v>26</v>
       </c>
       <c r="B147" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C147">
         <v>7201</v>
@@ -4832,13 +4859,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G147" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H147" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4846,7 +4873,7 @@
         <v>26</v>
       </c>
       <c r="B148" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C148">
         <v>7201</v>
@@ -4858,13 +4885,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G148" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H148" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4872,7 +4899,7 @@
         <v>26</v>
       </c>
       <c r="B149" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C149">
         <v>7201</v>
@@ -4884,13 +4911,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G149" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="H149" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4898,7 +4925,7 @@
         <v>28</v>
       </c>
       <c r="B150" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C150">
         <v>29483</v>
@@ -4910,13 +4937,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G150" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H150" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4924,7 +4951,7 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C151">
         <v>29483</v>
@@ -4936,13 +4963,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G151" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H151" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4950,7 +4977,7 @@
         <v>28</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C152">
         <v>29483</v>
@@ -4962,13 +4989,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G152" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H152" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4976,7 +5003,7 @@
         <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C153">
         <v>29483</v>
@@ -4988,13 +5015,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G153" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H153" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5002,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="B154" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C154">
         <v>90220</v>
@@ -5014,13 +5041,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G154" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H154" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5028,7 +5055,7 @@
         <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C155">
         <v>90220</v>
@@ -5040,13 +5067,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G155" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H155" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5054,7 +5081,7 @@
         <v>30</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C156">
         <v>7201</v>
@@ -5066,13 +5093,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G156" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H156" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5080,7 +5107,7 @@
         <v>30</v>
       </c>
       <c r="B157" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C157">
         <v>7201</v>
@@ -5092,13 +5119,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G157" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H157" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5106,7 +5133,7 @@
         <v>31</v>
       </c>
       <c r="B158" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C158">
         <v>29483</v>
@@ -5118,13 +5145,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G158" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H158" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5132,7 +5159,7 @@
         <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C159">
         <v>29483</v>
@@ -5144,13 +5171,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G159" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="H159" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5158,7 +5185,7 @@
         <v>32</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C160">
         <v>7201</v>
@@ -5170,13 +5197,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G160" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H160" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5184,7 +5211,7 @@
         <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C161">
         <v>7201</v>
@@ -5196,13 +5223,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G161" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H161" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5210,7 +5237,7 @@
         <v>33</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C162">
         <v>29483</v>
@@ -5222,13 +5249,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G162" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H162" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5236,7 +5263,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C163">
         <v>29483</v>
@@ -5248,13 +5275,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G163" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H163" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5262,7 +5289,7 @@
         <v>28</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C164">
         <v>29483</v>
@@ -5274,13 +5301,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G164" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H164" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5288,25 +5315,181 @@
         <v>28</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
-      </c>
-      <c r="C165" t="s">
-        <v>188</v>
-      </c>
-      <c r="D165" t="s">
         <v>189</v>
       </c>
-      <c r="E165" t="s">
+      <c r="C165">
+        <v>29483</v>
+      </c>
+      <c r="D165">
+        <v>30096</v>
+      </c>
+      <c r="E165">
+        <v>45000</v>
+      </c>
+      <c r="F165" t="s">
+        <v>199</v>
+      </c>
+      <c r="G165" t="s">
+        <v>240</v>
+      </c>
+      <c r="H165" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
         <v>190</v>
       </c>
-      <c r="F165" t="s">
+      <c r="C166">
+        <v>29483</v>
+      </c>
+      <c r="D166">
+        <v>30096</v>
+      </c>
+      <c r="E166">
+        <v>11024</v>
+      </c>
+      <c r="F166" t="s">
+        <v>199</v>
+      </c>
+      <c r="G166" t="s">
+        <v>240</v>
+      </c>
+      <c r="H166" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" t="s">
         <v>191</v>
       </c>
-      <c r="G165" t="s">
-        <v>232</v>
-      </c>
-      <c r="H165" t="s">
-        <v>233</v>
+      <c r="C167">
+        <v>29483</v>
+      </c>
+      <c r="D167">
+        <v>30096</v>
+      </c>
+      <c r="E167">
+        <v>45000</v>
+      </c>
+      <c r="F167" t="s">
+        <v>199</v>
+      </c>
+      <c r="G167" t="s">
+        <v>240</v>
+      </c>
+      <c r="H167" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>34</v>
+      </c>
+      <c r="B168" t="s">
+        <v>192</v>
+      </c>
+      <c r="C168">
+        <v>7201</v>
+      </c>
+      <c r="D168">
+        <v>15672</v>
+      </c>
+      <c r="E168">
+        <v>11024</v>
+      </c>
+      <c r="F168" t="s">
+        <v>199</v>
+      </c>
+      <c r="G168" t="s">
+        <v>241</v>
+      </c>
+      <c r="H168" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" t="s">
+        <v>193</v>
+      </c>
+      <c r="C169">
+        <v>7201</v>
+      </c>
+      <c r="D169">
+        <v>15672</v>
+      </c>
+      <c r="E169">
+        <v>45000</v>
+      </c>
+      <c r="F169" t="s">
+        <v>199</v>
+      </c>
+      <c r="G169" t="s">
+        <v>241</v>
+      </c>
+      <c r="H169" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>194</v>
+      </c>
+      <c r="C170">
+        <v>7201</v>
+      </c>
+      <c r="D170">
+        <v>15672</v>
+      </c>
+      <c r="E170">
+        <v>11024</v>
+      </c>
+      <c r="F170" t="s">
+        <v>199</v>
+      </c>
+      <c r="G170" t="s">
+        <v>241</v>
+      </c>
+      <c r="H170" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" t="s">
+        <v>195</v>
+      </c>
+      <c r="C171" t="s">
+        <v>196</v>
+      </c>
+      <c r="D171" t="s">
+        <v>197</v>
+      </c>
+      <c r="E171" t="s">
+        <v>198</v>
+      </c>
+      <c r="F171" t="s">
+        <v>199</v>
+      </c>
+      <c r="G171" t="s">
+        <v>241</v>
+      </c>
+      <c r="H171" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="287">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>FBA Code</t>
+  </si>
+  <si>
+    <t>Rate Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -124,6 +136,15 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -604,10 +625,46 @@
     <t>2025-08-28 09:53:59</t>
   </si>
   <si>
+    <t>2025-08-28 12:07:36</t>
+  </si>
+  <si>
+    <t>2025-08-28 12:07:46</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:54</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:57</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:02:14</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:02:27</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:15:04</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:15:19</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:32</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:39</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:17:10</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:17:13</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>18447</t>
   </si>
   <si>
     <t>45000</t>
@@ -742,7 +799,82 @@
     <t>Rate: 1411.725, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 1221.195, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1168.5749999999998, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1038.345, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1654.7250000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1571.0700000000002, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 963.5699999999999, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056_20250828120709</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0001_20250829111820</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002_20250830110140</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003_20250901081446</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073_20250902071052</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002_20250902071644</t>
+  </si>
+  <si>
+    <t>ATL9</t>
+  </si>
+  <si>
+    <t>HIA1</t>
+  </si>
+  <si>
+    <t>IUSR</t>
+  </si>
+  <si>
+    <t>LBE1</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>FTL53</t>
+  </si>
+  <si>
+    <t>28-08-2025</t>
+  </si>
+  <si>
+    <t>29-08-2025</t>
+  </si>
+  <si>
+    <t>30-08-2025</t>
+  </si>
+  <si>
+    <t>01-09-2025</t>
+  </si>
+  <si>
+    <t>02-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1232,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,13 +1263,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1149,21 +1293,21 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -1175,21 +1319,21 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -1201,21 +1345,21 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -1227,21 +1371,21 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1253,21 +1397,21 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1279,21 +1423,21 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1305,21 +1449,21 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1331,21 +1475,21 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1357,21 +1501,21 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1383,21 +1527,21 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1409,21 +1553,21 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1435,21 +1579,21 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1461,21 +1605,21 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1487,21 +1631,21 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1513,21 +1657,21 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1539,21 +1683,21 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1565,21 +1709,21 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1591,21 +1735,21 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H19" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1617,21 +1761,21 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1643,21 +1787,21 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1669,21 +1813,21 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1695,21 +1839,21 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1721,21 +1865,21 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1747,21 +1891,21 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1773,21 +1917,21 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1799,21 +1943,21 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1825,21 +1969,21 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1851,21 +1995,21 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -1877,21 +2021,21 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -1903,21 +2047,21 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H31" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -1929,21 +2073,21 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H32" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -1955,21 +2099,21 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H33" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -1981,21 +2125,21 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -2007,21 +2151,21 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H35" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -2033,21 +2177,21 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -2059,21 +2203,21 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H37" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -2085,21 +2229,21 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -2111,21 +2255,21 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -2137,21 +2281,21 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G40" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H40" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -2163,21 +2307,21 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H41" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -2189,21 +2333,21 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G42" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H42" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -2215,21 +2359,21 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G43" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -2241,21 +2385,21 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G44" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H44" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2267,21 +2411,21 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2293,21 +2437,21 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2319,21 +2463,21 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="H47" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2345,21 +2489,21 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G48" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2371,21 +2515,21 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G49" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H49" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2397,21 +2541,21 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H50" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2423,21 +2567,21 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2449,21 +2593,21 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2475,21 +2619,21 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H53" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2501,21 +2645,21 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H54" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2527,21 +2671,21 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G55" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H55" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2553,21 +2697,21 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H56" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2579,21 +2723,21 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G57" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2605,21 +2749,21 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G58" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2631,21 +2775,21 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2657,21 +2801,21 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G60" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2683,21 +2827,21 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G61" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2709,21 +2853,21 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G62" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H62" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -2735,21 +2879,21 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G63" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2761,18 +2905,18 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G64" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2784,18 +2928,18 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G65" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2807,18 +2951,18 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2830,18 +2974,18 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G67" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2853,21 +2997,21 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G68" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -2879,21 +3023,21 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -2905,21 +3049,21 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H70" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -2931,21 +3075,21 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H71" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2957,18 +3101,18 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G72" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2980,18 +3124,18 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3003,18 +3147,18 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3026,18 +3170,18 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G75" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -3049,21 +3193,21 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G76" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H76" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -3075,21 +3219,21 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H77" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3101,18 +3245,18 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3124,18 +3268,18 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3147,18 +3291,18 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3170,18 +3314,18 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -3193,21 +3337,21 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H82" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -3219,21 +3363,21 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H83" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -3245,21 +3389,21 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G84" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H84" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3271,21 +3415,21 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G85" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="H85" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3297,18 +3441,18 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3320,18 +3464,18 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G87" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3343,18 +3487,18 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3366,18 +3510,18 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G89" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3389,18 +3533,18 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G90" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3412,18 +3556,18 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G91" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3435,18 +3579,18 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3458,18 +3602,18 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -3481,21 +3625,21 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G94" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H94" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -3507,21 +3651,21 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H95" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -3533,21 +3677,21 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G96" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H96" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -3559,21 +3703,21 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G97" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H97" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -3585,21 +3729,21 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -3611,21 +3755,21 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G99" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H99" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -3637,21 +3781,21 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H100" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -3663,21 +3807,21 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -3689,21 +3833,21 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G102" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H102" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -3715,21 +3859,21 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G103" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H103" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -3741,21 +3885,21 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G104" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H104" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -3767,21 +3911,21 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G105" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H105" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -3793,21 +3937,21 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G106" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H106" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -3819,21 +3963,21 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G107" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H107" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -3845,21 +3989,21 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G108" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H108" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -3871,21 +4015,21 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G109" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H109" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -3897,21 +4041,21 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G110" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H110" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -3923,21 +4067,21 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G111" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H111" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -3949,21 +4093,21 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G112" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H112" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C113">
         <v>29483</v>
@@ -3975,21 +4119,21 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G113" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H113" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C114">
         <v>7201</v>
@@ -4001,21 +4145,21 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G114" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H114" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C115">
         <v>7201</v>
@@ -4027,21 +4171,21 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G115" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H115" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C116">
         <v>29483</v>
@@ -4053,21 +4197,21 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G116" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H116" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C117">
         <v>29483</v>
@@ -4079,21 +4223,21 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G117" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H117" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C118">
         <v>29483</v>
@@ -4105,21 +4249,21 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G118" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H118" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C119">
         <v>29483</v>
@@ -4131,21 +4275,21 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G119" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H119" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C120">
         <v>7201</v>
@@ -4157,21 +4301,21 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G120" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H120" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C121">
         <v>7201</v>
@@ -4183,21 +4327,21 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G121" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H121" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C122">
         <v>7201</v>
@@ -4209,21 +4353,21 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G122" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H122" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C123">
         <v>7201</v>
@@ -4235,21 +4379,21 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G123" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="H123" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C124">
         <v>7201</v>
@@ -4261,21 +4405,21 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G124" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H124" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C125">
         <v>7201</v>
@@ -4287,21 +4431,21 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H125" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C126">
         <v>90220</v>
@@ -4313,21 +4457,21 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G126" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H126" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C127">
         <v>90220</v>
@@ -4339,21 +4483,21 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G127" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H127" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C128">
         <v>90220</v>
@@ -4365,21 +4509,21 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G128" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H128" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C129">
         <v>90220</v>
@@ -4391,21 +4535,21 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G129" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H129" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C130">
         <v>7201</v>
@@ -4417,21 +4561,21 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G130" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H130" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C131">
         <v>7201</v>
@@ -4443,21 +4587,21 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G131" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H131" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C132">
         <v>7201</v>
@@ -4469,21 +4613,21 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G132" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H132" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C133">
         <v>7201</v>
@@ -4495,21 +4639,21 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G133" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H133" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C134">
         <v>7201</v>
@@ -4521,21 +4665,21 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G134" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H134" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C135">
         <v>7201</v>
@@ -4547,21 +4691,21 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G135" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H135" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C136">
         <v>7201</v>
@@ -4573,21 +4717,21 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G136" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H136" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C137">
         <v>7201</v>
@@ -4599,21 +4743,21 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G137" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H137" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C138">
         <v>90220</v>
@@ -4625,21 +4769,21 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G138" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H138" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C139">
         <v>90220</v>
@@ -4651,21 +4795,21 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G139" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H139" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C140">
         <v>90220</v>
@@ -4677,21 +4821,21 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G140" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H140" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C141">
         <v>90220</v>
@@ -4703,21 +4847,21 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G141" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H141" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C142">
         <v>90220</v>
@@ -4729,21 +4873,21 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G142" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H142" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C143">
         <v>90220</v>
@@ -4755,21 +4899,21 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G143" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H143" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C144">
         <v>90220</v>
@@ -4781,21 +4925,21 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G144" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H144" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C145">
         <v>90220</v>
@@ -4807,21 +4951,21 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G145" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H145" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>7201</v>
@@ -4833,21 +4977,21 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G146" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H146" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C147">
         <v>7201</v>
@@ -4859,21 +5003,21 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="H147" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C148">
         <v>7201</v>
@@ -4885,21 +5029,21 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G148" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H148" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C149">
         <v>7201</v>
@@ -4911,21 +5055,21 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G149" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H149" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C150">
         <v>29483</v>
@@ -4937,21 +5081,21 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G150" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H150" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C151">
         <v>29483</v>
@@ -4963,21 +5107,21 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G151" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H151" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C152">
         <v>29483</v>
@@ -4989,21 +5133,21 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G152" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H152" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C153">
         <v>29483</v>
@@ -5015,21 +5159,21 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G153" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H153" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C154">
         <v>90220</v>
@@ -5041,21 +5185,21 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G154" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H154" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C155">
         <v>90220</v>
@@ -5067,21 +5211,21 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G155" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H155" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C156">
         <v>7201</v>
@@ -5093,21 +5237,21 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G156" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H156" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C157">
         <v>7201</v>
@@ -5119,21 +5263,21 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G157" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H157" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C158">
         <v>29483</v>
@@ -5145,21 +5289,21 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G158" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="H158" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C159">
         <v>29483</v>
@@ -5171,21 +5315,21 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G159" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="H159" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C160">
         <v>7201</v>
@@ -5197,21 +5341,21 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G160" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H160" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C161">
         <v>7201</v>
@@ -5223,21 +5367,21 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G161" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H161" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C162">
         <v>29483</v>
@@ -5249,21 +5393,21 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G162" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H162" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C163">
         <v>29483</v>
@@ -5275,21 +5419,21 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G163" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H163" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C164">
         <v>29483</v>
@@ -5301,21 +5445,21 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G164" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H164" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C165">
         <v>29483</v>
@@ -5327,21 +5471,21 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G165" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H165" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C166">
         <v>29483</v>
@@ -5353,21 +5497,21 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G166" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H166" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C167">
         <v>29483</v>
@@ -5379,21 +5523,21 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
+        <v>218</v>
+      </c>
+      <c r="G167" t="s">
+        <v>259</v>
+      </c>
+      <c r="H167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" t="s">
+        <v>38</v>
+      </c>
+      <c r="B168" t="s">
         <v>199</v>
-      </c>
-      <c r="G167" t="s">
-        <v>240</v>
-      </c>
-      <c r="H167" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168" t="s">
-        <v>192</v>
       </c>
       <c r="C168">
         <v>7201</v>
@@ -5405,21 +5549,21 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G168" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H168" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C169">
         <v>7201</v>
@@ -5431,21 +5575,21 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G169" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H169" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C170">
         <v>7201</v>
@@ -5457,39 +5601,527 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G170" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H170" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>202</v>
+      </c>
+      <c r="C171">
+        <v>7201</v>
+      </c>
+      <c r="D171">
+        <v>15672</v>
+      </c>
+      <c r="E171">
+        <v>45000</v>
+      </c>
+      <c r="F171" t="s">
+        <v>218</v>
+      </c>
+      <c r="G171" t="s">
+        <v>260</v>
+      </c>
+      <c r="H171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" t="s">
+        <v>203</v>
+      </c>
+      <c r="C172">
+        <v>29483</v>
+      </c>
+      <c r="D172">
+        <v>30096</v>
+      </c>
+      <c r="E172">
+        <v>11024</v>
+      </c>
+      <c r="F172" t="s">
+        <v>218</v>
+      </c>
+      <c r="G172" t="s">
+        <v>261</v>
+      </c>
+      <c r="H172" t="s">
+        <v>267</v>
+      </c>
+      <c r="I172" t="s">
+        <v>268</v>
+      </c>
+      <c r="J172" t="s">
+        <v>274</v>
+      </c>
+      <c r="K172" t="s">
+        <v>280</v>
+      </c>
+      <c r="L172" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" t="s">
+        <v>204</v>
+      </c>
+      <c r="C173">
+        <v>29483</v>
+      </c>
+      <c r="D173">
+        <v>30096</v>
+      </c>
+      <c r="E173">
+        <v>45000</v>
+      </c>
+      <c r="F173" t="s">
+        <v>218</v>
+      </c>
+      <c r="G173" t="s">
+        <v>261</v>
+      </c>
+      <c r="H173" t="s">
+        <v>267</v>
+      </c>
+      <c r="I173" t="s">
+        <v>268</v>
+      </c>
+      <c r="J173" t="s">
+        <v>274</v>
+      </c>
+      <c r="K173" t="s">
+        <v>281</v>
+      </c>
+      <c r="L173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" t="s">
+        <v>205</v>
+      </c>
+      <c r="C174">
+        <v>7201</v>
+      </c>
+      <c r="D174">
+        <v>17057</v>
+      </c>
+      <c r="E174">
+        <v>11024</v>
+      </c>
+      <c r="F174" t="s">
+        <v>218</v>
+      </c>
+      <c r="G174" t="s">
+        <v>262</v>
+      </c>
+      <c r="H174" t="s">
+        <v>267</v>
+      </c>
+      <c r="I174" t="s">
+        <v>269</v>
+      </c>
+      <c r="J174" t="s">
+        <v>275</v>
+      </c>
+      <c r="K174" t="s">
+        <v>280</v>
+      </c>
+      <c r="L174" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" t="s">
+        <v>206</v>
+      </c>
+      <c r="C175">
+        <v>7201</v>
+      </c>
+      <c r="D175">
+        <v>17057</v>
+      </c>
+      <c r="E175">
+        <v>45000</v>
+      </c>
+      <c r="F175" t="s">
+        <v>218</v>
+      </c>
+      <c r="G175" t="s">
+        <v>262</v>
+      </c>
+      <c r="H175" t="s">
+        <v>267</v>
+      </c>
+      <c r="I175" t="s">
+        <v>269</v>
+      </c>
+      <c r="J175" t="s">
+        <v>275</v>
+      </c>
+      <c r="K175" t="s">
+        <v>281</v>
+      </c>
+      <c r="L175" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" t="s">
+        <v>207</v>
+      </c>
+      <c r="C176">
+        <v>29483</v>
+      </c>
+      <c r="D176">
+        <v>29330</v>
+      </c>
+      <c r="E176">
+        <v>11024</v>
+      </c>
+      <c r="F176" t="s">
+        <v>218</v>
+      </c>
+      <c r="G176" t="s">
+        <v>263</v>
+      </c>
+      <c r="H176" t="s">
+        <v>267</v>
+      </c>
+      <c r="I176" t="s">
+        <v>270</v>
+      </c>
+      <c r="J176" t="s">
+        <v>276</v>
+      </c>
+      <c r="K176" t="s">
+        <v>280</v>
+      </c>
+      <c r="L176" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" t="s">
+        <v>208</v>
+      </c>
+      <c r="C177">
+        <v>29483</v>
+      </c>
+      <c r="D177">
+        <v>29330</v>
+      </c>
+      <c r="E177">
+        <v>45000</v>
+      </c>
+      <c r="F177" t="s">
+        <v>218</v>
+      </c>
+      <c r="G177" t="s">
+        <v>263</v>
+      </c>
+      <c r="H177" t="s">
+        <v>267</v>
+      </c>
+      <c r="I177" t="s">
+        <v>270</v>
+      </c>
+      <c r="J177" t="s">
+        <v>276</v>
+      </c>
+      <c r="K177" t="s">
+        <v>281</v>
+      </c>
+      <c r="L177" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>42</v>
+      </c>
+      <c r="B178" t="s">
+        <v>209</v>
+      </c>
+      <c r="C178">
+        <v>7201</v>
+      </c>
+      <c r="D178">
+        <v>15672</v>
+      </c>
+      <c r="E178">
+        <v>11024</v>
+      </c>
+      <c r="F178" t="s">
+        <v>218</v>
+      </c>
+      <c r="G178" t="s">
+        <v>264</v>
+      </c>
+      <c r="H178" t="s">
+        <v>267</v>
+      </c>
+      <c r="I178" t="s">
+        <v>271</v>
+      </c>
+      <c r="J178" t="s">
+        <v>277</v>
+      </c>
+      <c r="K178" t="s">
+        <v>280</v>
+      </c>
+      <c r="L178" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179">
+        <v>7201</v>
+      </c>
+      <c r="D179">
+        <v>15672</v>
+      </c>
+      <c r="E179">
+        <v>45000</v>
+      </c>
+      <c r="F179" t="s">
+        <v>218</v>
+      </c>
+      <c r="G179" t="s">
+        <v>264</v>
+      </c>
+      <c r="H179" t="s">
+        <v>267</v>
+      </c>
+      <c r="I179" t="s">
+        <v>271</v>
+      </c>
+      <c r="J179" t="s">
+        <v>277</v>
+      </c>
+      <c r="K179" t="s">
+        <v>281</v>
+      </c>
+      <c r="L179" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" t="s">
         <v>35</v>
       </c>
-      <c r="B171" t="s">
-        <v>195</v>
-      </c>
-      <c r="C171" t="s">
-        <v>196</v>
-      </c>
-      <c r="D171" t="s">
-        <v>197</v>
-      </c>
-      <c r="E171" t="s">
-        <v>198</v>
-      </c>
-      <c r="F171" t="s">
-        <v>199</v>
-      </c>
-      <c r="G171" t="s">
-        <v>241</v>
-      </c>
-      <c r="H171" t="s">
-        <v>242</v>
+      <c r="B180" t="s">
+        <v>211</v>
+      </c>
+      <c r="C180">
+        <v>29483</v>
+      </c>
+      <c r="D180">
+        <v>38654</v>
+      </c>
+      <c r="E180">
+        <v>11024</v>
+      </c>
+      <c r="F180" t="s">
+        <v>218</v>
+      </c>
+      <c r="G180" t="s">
+        <v>265</v>
+      </c>
+      <c r="H180" t="s">
+        <v>267</v>
+      </c>
+      <c r="I180" t="s">
+        <v>272</v>
+      </c>
+      <c r="J180" t="s">
+        <v>278</v>
+      </c>
+      <c r="K180" t="s">
+        <v>280</v>
+      </c>
+      <c r="L180" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" t="s">
+        <v>212</v>
+      </c>
+      <c r="C181">
+        <v>29483</v>
+      </c>
+      <c r="D181">
+        <v>38654</v>
+      </c>
+      <c r="E181">
+        <v>45000</v>
+      </c>
+      <c r="F181" t="s">
+        <v>219</v>
+      </c>
+      <c r="G181" t="s">
+        <v>237</v>
+      </c>
+      <c r="I181" t="s">
+        <v>272</v>
+      </c>
+      <c r="J181" t="s">
+        <v>278</v>
+      </c>
+      <c r="K181" t="s">
+        <v>281</v>
+      </c>
+      <c r="L181" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" t="s">
+        <v>212</v>
+      </c>
+      <c r="C182">
+        <v>29483</v>
+      </c>
+      <c r="D182">
+        <v>38654</v>
+      </c>
+      <c r="E182">
+        <v>45000</v>
+      </c>
+      <c r="F182" t="s">
+        <v>219</v>
+      </c>
+      <c r="G182" t="s">
+        <v>238</v>
+      </c>
+      <c r="I182" t="s">
+        <v>272</v>
+      </c>
+      <c r="J182" t="s">
+        <v>278</v>
+      </c>
+      <c r="K182" t="s">
+        <v>281</v>
+      </c>
+      <c r="L182" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" t="s">
+        <v>36</v>
+      </c>
+      <c r="B183" t="s">
+        <v>213</v>
+      </c>
+      <c r="C183">
+        <v>7201</v>
+      </c>
+      <c r="D183">
+        <v>18447</v>
+      </c>
+      <c r="E183">
+        <v>11024</v>
+      </c>
+      <c r="F183" t="s">
+        <v>218</v>
+      </c>
+      <c r="G183" t="s">
+        <v>266</v>
+      </c>
+      <c r="H183" t="s">
+        <v>267</v>
+      </c>
+      <c r="I183" t="s">
+        <v>273</v>
+      </c>
+      <c r="J183" t="s">
+        <v>279</v>
+      </c>
+      <c r="K183" t="s">
+        <v>280</v>
+      </c>
+      <c r="L183" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" t="s">
+        <v>36</v>
+      </c>
+      <c r="B184" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" t="s">
+        <v>215</v>
+      </c>
+      <c r="D184" t="s">
+        <v>216</v>
+      </c>
+      <c r="E184" t="s">
+        <v>217</v>
+      </c>
+      <c r="F184" t="s">
+        <v>218</v>
+      </c>
+      <c r="G184" t="s">
+        <v>266</v>
+      </c>
+      <c r="H184" t="s">
+        <v>267</v>
+      </c>
+      <c r="I184" t="s">
+        <v>273</v>
+      </c>
+      <c r="J184" t="s">
+        <v>279</v>
+      </c>
+      <c r="K184" t="s">
+        <v>281</v>
+      </c>
+      <c r="L184" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="397">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -145,6 +145,45 @@
     <t>CMM0878LCL0003</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -661,10 +700,148 @@
     <t>2025-09-02 07:17:13</t>
   </si>
   <si>
+    <t>2025-09-03 08:36:44</t>
+  </si>
+  <si>
+    <t>2025-09-03 08:37:00</t>
+  </si>
+  <si>
+    <t>2025-09-03 08:37:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 08:37:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:51:48</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:51:50</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:23</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:31</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:34</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:51</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:53</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:10:19</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:10:24</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:14:57</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:14:59</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:16</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:19</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:37</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:50</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:44</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:58</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:18:09</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:18:21</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:42:50</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:43:01</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:46</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:57</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:22</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:25</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:39</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:54</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:25</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:27</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:39:08</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:39:24</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:36:00</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:36:14</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:09:02</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:09:16</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:54</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:57</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:02:20</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:03:17</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:53:45</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:54:06</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>18447</t>
+    <t>15672</t>
   </si>
   <si>
     <t>45000</t>
@@ -817,6 +994,57 @@
     <t>Rate: 963.5699999999999, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 1253.3700000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 632.25, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 5422.200000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1750.125, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1619.9250000000002, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1908.87, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1987.6950000000002, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 801.8700000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 911.9250000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1426.17, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 821.3700000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1118.3700000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 885.015, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 779.25, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 1184.2649999999999, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>504 Server Error: Gateway Timeout for url: https://api.jbhunt.com/pricing/quoting/v3/dynamic-quote</t>
+  </si>
+  <si>
+    <t>Rate: 1402.17, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -838,6 +1066,54 @@
     <t>CMM0077LCL0002_20250902071644</t>
   </si>
   <si>
+    <t>CMM0246LCL0039_20250903083608</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0076_20250903105110</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903110900</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111427</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111730</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078_20250903114223</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009_20250904125511</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014_20250904133750</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015_20250904153923</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012_20250905090547</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006_20250905113833</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001_20250906133522</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250909170828</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007_20250911110739</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002_20250912160116</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918025308</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -856,6 +1132,36 @@
     <t>WBW2</t>
   </si>
   <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>SMF3</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
+    <t>LAN2</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
     <t>FTL</t>
   </si>
   <si>
@@ -875,6 +1181,30 @@
   </si>
   <si>
     <t>02-09-2025</t>
+  </si>
+  <si>
+    <t>03-09-2025</t>
+  </si>
+  <si>
+    <t>04-09-2025</t>
+  </si>
+  <si>
+    <t>05-09-2025</t>
+  </si>
+  <si>
+    <t>06-09-2025</t>
+  </si>
+  <si>
+    <t>09-09-2025</t>
+  </si>
+  <si>
+    <t>11-09-2025</t>
+  </si>
+  <si>
+    <t>12-09-2025</t>
+  </si>
+  <si>
+    <t>18-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1281,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1293,13 +1623,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1307,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -1319,13 +1649,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1333,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -1345,13 +1675,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1359,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -1371,13 +1701,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1385,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1397,13 +1727,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1411,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1423,13 +1753,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1437,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1449,13 +1779,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1463,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1475,13 +1805,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1489,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1501,13 +1831,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1515,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1527,13 +1857,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="H11" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1541,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1553,13 +1883,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1567,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1579,13 +1909,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1593,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1605,13 +1935,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1619,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1631,13 +1961,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1645,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1657,13 +1987,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G16" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1671,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -1683,13 +2013,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G17" t="s">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1697,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -1709,13 +2039,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1723,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -1735,13 +2065,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G19" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1749,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -1761,13 +2091,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1775,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -1787,13 +2117,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1801,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -1813,13 +2143,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="H22" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1827,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -1839,13 +2169,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1853,7 +2183,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -1865,13 +2195,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1879,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -1891,13 +2221,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G25" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1905,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -1917,13 +2247,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1931,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -1943,13 +2273,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1957,7 +2287,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -1969,13 +2299,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H28" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1983,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -1995,13 +2325,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2009,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -2021,13 +2351,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2035,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -2047,13 +2377,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2061,7 +2391,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -2073,13 +2403,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="H32" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2087,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -2099,13 +2429,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2113,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -2125,13 +2455,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2139,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -2151,13 +2481,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2165,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -2177,13 +2507,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2191,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -2203,13 +2533,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2217,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -2229,13 +2559,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2243,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -2255,13 +2585,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2269,7 +2599,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -2281,13 +2611,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2295,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -2307,13 +2637,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2321,7 +2651,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -2333,13 +2663,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G42" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2347,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -2359,13 +2689,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2373,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -2385,13 +2715,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2399,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2411,13 +2741,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2425,7 +2755,7 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2437,13 +2767,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="H46" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2451,7 +2781,7 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2463,13 +2793,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2477,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2489,13 +2819,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2503,7 +2833,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2515,13 +2845,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G49" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2529,7 +2859,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2541,13 +2871,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G50" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2555,7 +2885,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2567,13 +2897,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2581,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2593,13 +2923,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2607,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2619,13 +2949,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2633,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2645,13 +2975,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G54" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2659,7 +2989,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -2671,13 +3001,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2685,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -2697,13 +3027,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2711,7 +3041,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -2723,13 +3053,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2737,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -2749,13 +3079,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2763,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -2775,13 +3105,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G59" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2789,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -2801,13 +3131,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2815,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -2827,13 +3157,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2841,7 +3171,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -2853,13 +3183,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2867,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -2879,13 +3209,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2893,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2905,10 +3235,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2916,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2928,10 +3258,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2939,7 +3269,7 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2951,10 +3281,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2962,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2974,10 +3304,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2985,7 +3315,7 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -2997,13 +3327,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3011,7 +3341,7 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -3023,13 +3353,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H69" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3037,7 +3367,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -3049,13 +3379,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G70" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3063,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -3075,13 +3405,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G71" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3089,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3101,10 +3431,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G72" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3112,7 +3442,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3124,10 +3454,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3135,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3147,10 +3477,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3158,7 +3488,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3170,10 +3500,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3181,7 +3511,7 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -3193,13 +3523,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3207,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -3219,13 +3549,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3233,7 +3563,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3245,10 +3575,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3256,7 +3586,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3268,10 +3598,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3279,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3291,10 +3621,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G80" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3302,7 +3632,7 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3314,10 +3644,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3325,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -3337,13 +3667,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3351,7 +3681,7 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -3363,13 +3693,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3377,7 +3707,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -3389,13 +3719,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G84" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3403,7 +3733,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3415,13 +3745,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="H85" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3429,7 +3759,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3441,10 +3771,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G86" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3452,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3464,10 +3794,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3475,7 +3805,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3487,10 +3817,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G88" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3498,7 +3828,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3510,10 +3840,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3521,7 +3851,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3533,10 +3863,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G90" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3544,7 +3874,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3556,10 +3886,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3567,7 +3897,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3579,10 +3909,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3590,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3602,10 +3932,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3613,7 +3943,7 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -3625,13 +3955,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G94" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="H94" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3639,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -3651,13 +3981,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3665,7 +3995,7 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -3677,13 +4007,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="H96" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3691,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -3703,13 +4033,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G97" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="H97" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3717,7 +4047,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -3729,13 +4059,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G98" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3743,7 +4073,7 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -3755,13 +4085,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H99" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3769,7 +4099,7 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -3781,13 +4111,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G100" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H100" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3795,7 +4125,7 @@
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -3807,13 +4137,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3821,7 +4151,7 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -3833,13 +4163,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G102" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H102" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3847,7 +4177,7 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -3859,13 +4189,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="H103" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3873,7 +4203,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -3885,13 +4215,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G104" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H104" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3899,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -3911,13 +4241,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G105" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H105" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3925,7 +4255,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -3937,13 +4267,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G106" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H106" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3951,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -3963,13 +4293,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G107" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H107" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3977,7 +4307,7 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -3989,13 +4319,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G108" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H108" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4003,7 +4333,7 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -4015,13 +4345,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G109" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H109" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4029,7 +4359,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -4041,13 +4371,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G110" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H110" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4055,7 +4385,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -4067,13 +4397,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G111" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H111" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4081,7 +4411,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -4093,13 +4423,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G112" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H112" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4107,7 +4437,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C113">
         <v>29483</v>
@@ -4119,13 +4449,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G113" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="H113" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4133,7 +4463,7 @@
         <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C114">
         <v>7201</v>
@@ -4145,13 +4475,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="H114" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4159,7 +4489,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C115">
         <v>7201</v>
@@ -4171,13 +4501,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G115" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="H115" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4185,7 +4515,7 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C116">
         <v>29483</v>
@@ -4197,13 +4527,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G116" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="H116" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4211,7 +4541,7 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C117">
         <v>29483</v>
@@ -4223,13 +4553,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G117" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="H117" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4237,7 +4567,7 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C118">
         <v>29483</v>
@@ -4249,13 +4579,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="H118" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4263,7 +4593,7 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C119">
         <v>29483</v>
@@ -4275,13 +4605,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G119" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="H119" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4289,7 +4619,7 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C120">
         <v>7201</v>
@@ -4301,13 +4631,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G120" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="H120" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4315,7 +4645,7 @@
         <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C121">
         <v>7201</v>
@@ -4327,13 +4657,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G121" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="H121" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4341,7 +4671,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C122">
         <v>7201</v>
@@ -4353,13 +4683,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G122" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="H122" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4367,7 +4697,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C123">
         <v>7201</v>
@@ -4379,13 +4709,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G123" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="H123" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4393,7 +4723,7 @@
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C124">
         <v>7201</v>
@@ -4405,13 +4735,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G124" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H124" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4419,7 +4749,7 @@
         <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C125">
         <v>7201</v>
@@ -4431,13 +4761,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H125" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4445,7 +4775,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C126">
         <v>90220</v>
@@ -4457,13 +4787,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G126" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="H126" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4471,7 +4801,7 @@
         <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C127">
         <v>90220</v>
@@ -4483,13 +4813,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G127" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="H127" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4497,7 +4827,7 @@
         <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C128">
         <v>90220</v>
@@ -4509,13 +4839,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G128" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="H128" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4523,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C129">
         <v>90220</v>
@@ -4535,13 +4865,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G129" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="H129" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4549,7 +4879,7 @@
         <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C130">
         <v>7201</v>
@@ -4561,13 +4891,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G130" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H130" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4575,7 +4905,7 @@
         <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C131">
         <v>7201</v>
@@ -4587,13 +4917,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G131" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H131" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4601,7 +4931,7 @@
         <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C132">
         <v>7201</v>
@@ -4613,13 +4943,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G132" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H132" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4627,7 +4957,7 @@
         <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C133">
         <v>7201</v>
@@ -4639,13 +4969,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G133" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H133" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4653,7 +4983,7 @@
         <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C134">
         <v>7201</v>
@@ -4665,13 +4995,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G134" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H134" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4679,7 +5009,7 @@
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C135">
         <v>7201</v>
@@ -4691,13 +5021,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G135" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H135" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4705,7 +5035,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C136">
         <v>7201</v>
@@ -4717,13 +5047,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G136" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H136" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4731,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C137">
         <v>7201</v>
@@ -4743,13 +5073,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G137" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H137" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4757,7 +5087,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C138">
         <v>90220</v>
@@ -4769,13 +5099,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G138" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="H138" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4783,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C139">
         <v>90220</v>
@@ -4795,13 +5125,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G139" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="H139" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4809,7 +5139,7 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C140">
         <v>90220</v>
@@ -4821,13 +5151,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G140" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="H140" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4835,7 +5165,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C141">
         <v>90220</v>
@@ -4847,13 +5177,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G141" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="H141" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4861,7 +5191,7 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C142">
         <v>90220</v>
@@ -4873,13 +5203,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G142" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="H142" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4887,7 +5217,7 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C143">
         <v>90220</v>
@@ -4899,13 +5229,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G143" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="H143" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4913,7 +5243,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C144">
         <v>90220</v>
@@ -4925,13 +5255,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G144" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="H144" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4939,7 +5269,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C145">
         <v>90220</v>
@@ -4951,13 +5281,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G145" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="H145" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4965,7 +5295,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C146">
         <v>7201</v>
@@ -4977,13 +5307,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G146" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H146" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4991,7 +5321,7 @@
         <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C147">
         <v>7201</v>
@@ -5003,13 +5333,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G147" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="H147" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5017,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C148">
         <v>7201</v>
@@ -5029,13 +5359,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H148" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5043,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C149">
         <v>7201</v>
@@ -5055,13 +5385,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="H149" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5069,7 +5399,7 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C150">
         <v>29483</v>
@@ -5081,13 +5411,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G150" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="H150" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5095,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C151">
         <v>29483</v>
@@ -5107,13 +5437,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G151" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="H151" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5121,7 +5451,7 @@
         <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C152">
         <v>29483</v>
@@ -5133,13 +5463,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G152" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="H152" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5147,7 +5477,7 @@
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C153">
         <v>29483</v>
@@ -5159,13 +5489,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G153" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="H153" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5173,7 +5503,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C154">
         <v>90220</v>
@@ -5185,13 +5515,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G154" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="H154" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5199,7 +5529,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C155">
         <v>90220</v>
@@ -5211,13 +5541,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G155" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="H155" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5225,7 +5555,7 @@
         <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C156">
         <v>7201</v>
@@ -5237,13 +5567,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G156" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="H156" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5251,7 +5581,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C157">
         <v>7201</v>
@@ -5263,13 +5593,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G157" t="s">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="H157" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5277,7 +5607,7 @@
         <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C158">
         <v>29483</v>
@@ -5289,13 +5619,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G158" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="H158" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5303,7 +5633,7 @@
         <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C159">
         <v>29483</v>
@@ -5315,13 +5645,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G159" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="H159" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5329,7 +5659,7 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C160">
         <v>7201</v>
@@ -5341,13 +5671,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G160" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="H160" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5355,7 +5685,7 @@
         <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C161">
         <v>7201</v>
@@ -5367,13 +5697,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G161" t="s">
-        <v>257</v>
+        <v>316</v>
       </c>
       <c r="H161" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5381,7 +5711,7 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C162">
         <v>29483</v>
@@ -5393,13 +5723,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G162" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="H162" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5407,7 +5737,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C163">
         <v>29483</v>
@@ -5419,13 +5749,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G163" t="s">
-        <v>258</v>
+        <v>317</v>
       </c>
       <c r="H163" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5433,7 +5763,7 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C164">
         <v>29483</v>
@@ -5445,13 +5775,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G164" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="H164" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5459,7 +5789,7 @@
         <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C165">
         <v>29483</v>
@@ -5471,13 +5801,13 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G165" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="H165" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5485,7 +5815,7 @@
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C166">
         <v>29483</v>
@@ -5497,13 +5827,13 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G166" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="H166" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -5511,7 +5841,7 @@
         <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C167">
         <v>29483</v>
@@ -5523,13 +5853,13 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G167" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="H167" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -5537,7 +5867,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C168">
         <v>7201</v>
@@ -5549,13 +5879,13 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G168" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="H168" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -5563,7 +5893,7 @@
         <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C169">
         <v>7201</v>
@@ -5575,13 +5905,13 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G169" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="H169" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -5589,7 +5919,7 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C170">
         <v>7201</v>
@@ -5601,13 +5931,13 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G170" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="H170" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -5615,7 +5945,7 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C171">
         <v>7201</v>
@@ -5627,13 +5957,13 @@
         <v>45000</v>
       </c>
       <c r="F171" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G171" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="H171" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -5641,7 +5971,7 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C172">
         <v>29483</v>
@@ -5653,25 +5983,25 @@
         <v>11024</v>
       </c>
       <c r="F172" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G172" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="H172" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I172" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="J172" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="K172" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L172" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -5679,7 +6009,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C173">
         <v>29483</v>
@@ -5691,25 +6021,25 @@
         <v>45000</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G173" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="H173" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I173" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="J173" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="K173" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L173" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -5717,7 +6047,7 @@
         <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C174">
         <v>7201</v>
@@ -5729,25 +6059,25 @@
         <v>11024</v>
       </c>
       <c r="F174" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G174" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="H174" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I174" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="J174" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="K174" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L174" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -5755,7 +6085,7 @@
         <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C175">
         <v>7201</v>
@@ -5767,25 +6097,25 @@
         <v>45000</v>
       </c>
       <c r="F175" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G175" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="H175" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I175" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="J175" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="K175" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L175" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -5793,7 +6123,7 @@
         <v>41</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C176">
         <v>29483</v>
@@ -5805,25 +6135,25 @@
         <v>11024</v>
       </c>
       <c r="F176" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G176" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="H176" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I176" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="J176" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="K176" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L176" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -5831,7 +6161,7 @@
         <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C177">
         <v>29483</v>
@@ -5843,25 +6173,25 @@
         <v>45000</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G177" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="H177" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I177" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="J177" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="K177" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L177" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -5869,7 +6199,7 @@
         <v>42</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C178">
         <v>7201</v>
@@ -5881,25 +6211,25 @@
         <v>11024</v>
       </c>
       <c r="F178" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G178" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="H178" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I178" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="J178" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="K178" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L178" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -5907,7 +6237,7 @@
         <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C179">
         <v>7201</v>
@@ -5919,25 +6249,25 @@
         <v>45000</v>
       </c>
       <c r="F179" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G179" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="H179" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I179" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="J179" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="K179" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L179" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -5945,7 +6275,7 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C180">
         <v>29483</v>
@@ -5957,25 +6287,25 @@
         <v>11024</v>
       </c>
       <c r="F180" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G180" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="H180" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I180" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="J180" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="K180" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L180" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -5983,7 +6313,7 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C181">
         <v>29483</v>
@@ -5995,22 +6325,22 @@
         <v>45000</v>
       </c>
       <c r="F181" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G181" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="I181" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="J181" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="K181" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L181" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6018,7 +6348,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C182">
         <v>29483</v>
@@ -6030,22 +6360,22 @@
         <v>45000</v>
       </c>
       <c r="F182" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="G182" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="I182" t="s">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="J182" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="K182" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="L182" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6053,7 +6383,7 @@
         <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C183">
         <v>7201</v>
@@ -6065,25 +6395,25 @@
         <v>11024</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G183" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="H183" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="I183" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="J183" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="K183" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="L183" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -6091,37 +6421,1817 @@
         <v>36</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
-      </c>
-      <c r="C184" t="s">
-        <v>215</v>
-      </c>
-      <c r="D184" t="s">
-        <v>216</v>
-      </c>
-      <c r="E184" t="s">
-        <v>217</v>
+        <v>227</v>
+      </c>
+      <c r="C184">
+        <v>7201</v>
+      </c>
+      <c r="D184">
+        <v>18447</v>
+      </c>
+      <c r="E184">
+        <v>45000</v>
       </c>
       <c r="F184" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G184" t="s">
+        <v>325</v>
+      </c>
+      <c r="H184" t="s">
+        <v>343</v>
+      </c>
+      <c r="I184" t="s">
+        <v>349</v>
+      </c>
+      <c r="J184" t="s">
+        <v>371</v>
+      </c>
+      <c r="K184" t="s">
+        <v>383</v>
+      </c>
+      <c r="L184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185">
+        <v>29483</v>
+      </c>
+      <c r="D185">
+        <v>30567</v>
+      </c>
+      <c r="E185">
+        <v>11024</v>
+      </c>
+      <c r="F185" t="s">
+        <v>277</v>
+      </c>
+      <c r="G185" t="s">
+        <v>326</v>
+      </c>
+      <c r="H185" t="s">
+        <v>343</v>
+      </c>
+      <c r="I185" t="s">
+        <v>350</v>
+      </c>
+      <c r="J185" t="s">
+        <v>372</v>
+      </c>
+      <c r="K185" t="s">
+        <v>382</v>
+      </c>
+      <c r="L185" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186">
+        <v>29483</v>
+      </c>
+      <c r="D186">
+        <v>30567</v>
+      </c>
+      <c r="E186">
+        <v>45000</v>
+      </c>
+      <c r="F186" t="s">
+        <v>277</v>
+      </c>
+      <c r="G186" t="s">
+        <v>326</v>
+      </c>
+      <c r="H186" t="s">
+        <v>343</v>
+      </c>
+      <c r="I186" t="s">
+        <v>350</v>
+      </c>
+      <c r="J186" t="s">
+        <v>372</v>
+      </c>
+      <c r="K186" t="s">
+        <v>383</v>
+      </c>
+      <c r="L186" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187">
+        <v>7201</v>
+      </c>
+      <c r="D187">
+        <v>8873</v>
+      </c>
+      <c r="E187">
+        <v>11024</v>
+      </c>
+      <c r="F187" t="s">
+        <v>277</v>
+      </c>
+      <c r="G187" t="s">
+        <v>327</v>
+      </c>
+      <c r="H187" t="s">
+        <v>343</v>
+      </c>
+      <c r="I187" t="s">
+        <v>350</v>
+      </c>
+      <c r="J187" t="s">
+        <v>373</v>
+      </c>
+      <c r="K187" t="s">
+        <v>382</v>
+      </c>
+      <c r="L187" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188">
+        <v>7201</v>
+      </c>
+      <c r="D188">
+        <v>8873</v>
+      </c>
+      <c r="E188">
+        <v>45000</v>
+      </c>
+      <c r="F188" t="s">
+        <v>277</v>
+      </c>
+      <c r="G188" t="s">
+        <v>327</v>
+      </c>
+      <c r="H188" t="s">
+        <v>343</v>
+      </c>
+      <c r="I188" t="s">
+        <v>350</v>
+      </c>
+      <c r="J188" t="s">
+        <v>373</v>
+      </c>
+      <c r="K188" t="s">
+        <v>383</v>
+      </c>
+      <c r="L188" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189">
+        <v>90220</v>
+      </c>
+      <c r="D189">
+        <v>75241</v>
+      </c>
+      <c r="E189">
+        <v>11024</v>
+      </c>
+      <c r="F189" t="s">
+        <v>277</v>
+      </c>
+      <c r="G189" t="s">
+        <v>328</v>
+      </c>
+      <c r="H189" t="s">
+        <v>343</v>
+      </c>
+      <c r="I189" t="s">
+        <v>351</v>
+      </c>
+      <c r="J189" t="s">
+        <v>374</v>
+      </c>
+      <c r="K189" t="s">
+        <v>382</v>
+      </c>
+      <c r="L189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" t="s">
+        <v>43</v>
+      </c>
+      <c r="B190" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190">
+        <v>90220</v>
+      </c>
+      <c r="D190">
+        <v>75241</v>
+      </c>
+      <c r="E190">
+        <v>45000</v>
+      </c>
+      <c r="F190" t="s">
+        <v>277</v>
+      </c>
+      <c r="G190" t="s">
+        <v>328</v>
+      </c>
+      <c r="H190" t="s">
+        <v>343</v>
+      </c>
+      <c r="I190" t="s">
+        <v>351</v>
+      </c>
+      <c r="J190" t="s">
+        <v>374</v>
+      </c>
+      <c r="K190" t="s">
+        <v>383</v>
+      </c>
+      <c r="L190" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191">
+        <v>90220</v>
+      </c>
+      <c r="D191">
+        <v>95206</v>
+      </c>
+      <c r="E191">
+        <v>11024</v>
+      </c>
+      <c r="F191" t="s">
+        <v>277</v>
+      </c>
+      <c r="G191" t="s">
+        <v>329</v>
+      </c>
+      <c r="H191" t="s">
+        <v>343</v>
+      </c>
+      <c r="I191" t="s">
+        <v>351</v>
+      </c>
+      <c r="J191" t="s">
+        <v>375</v>
+      </c>
+      <c r="K191" t="s">
+        <v>382</v>
+      </c>
+      <c r="L191" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>43</v>
+      </c>
+      <c r="B192" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192">
+        <v>90220</v>
+      </c>
+      <c r="D192">
+        <v>95206</v>
+      </c>
+      <c r="E192">
+        <v>45000</v>
+      </c>
+      <c r="F192" t="s">
+        <v>277</v>
+      </c>
+      <c r="G192" t="s">
+        <v>329</v>
+      </c>
+      <c r="H192" t="s">
+        <v>343</v>
+      </c>
+      <c r="I192" t="s">
+        <v>351</v>
+      </c>
+      <c r="J192" t="s">
+        <v>375</v>
+      </c>
+      <c r="K192" t="s">
+        <v>383</v>
+      </c>
+      <c r="L192" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" t="s">
+        <v>44</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193">
+        <v>29483</v>
+      </c>
+      <c r="D193">
+        <v>38118</v>
+      </c>
+      <c r="E193">
+        <v>11024</v>
+      </c>
+      <c r="F193" t="s">
+        <v>277</v>
+      </c>
+      <c r="G193" t="s">
+        <v>330</v>
+      </c>
+      <c r="H193" t="s">
+        <v>343</v>
+      </c>
+      <c r="I193" t="s">
+        <v>352</v>
+      </c>
+      <c r="J193" t="s">
+        <v>376</v>
+      </c>
+      <c r="K193" t="s">
+        <v>382</v>
+      </c>
+      <c r="L193" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" t="s">
+        <v>44</v>
+      </c>
+      <c r="B194" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194">
+        <v>29483</v>
+      </c>
+      <c r="D194">
+        <v>38118</v>
+      </c>
+      <c r="E194">
+        <v>45000</v>
+      </c>
+      <c r="F194" t="s">
+        <v>277</v>
+      </c>
+      <c r="G194" t="s">
+        <v>330</v>
+      </c>
+      <c r="H194" t="s">
+        <v>343</v>
+      </c>
+      <c r="I194" t="s">
+        <v>352</v>
+      </c>
+      <c r="J194" t="s">
+        <v>376</v>
+      </c>
+      <c r="K194" t="s">
+        <v>383</v>
+      </c>
+      <c r="L194" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" t="s">
+        <v>44</v>
+      </c>
+      <c r="B195" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195">
+        <v>7201</v>
+      </c>
+      <c r="D195">
+        <v>46809</v>
+      </c>
+      <c r="E195">
+        <v>11024</v>
+      </c>
+      <c r="F195" t="s">
+        <v>277</v>
+      </c>
+      <c r="G195" t="s">
+        <v>331</v>
+      </c>
+      <c r="H195" t="s">
+        <v>343</v>
+      </c>
+      <c r="I195" t="s">
+        <v>352</v>
+      </c>
+      <c r="J195" t="s">
+        <v>377</v>
+      </c>
+      <c r="K195" t="s">
+        <v>382</v>
+      </c>
+      <c r="L195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" t="s">
+        <v>44</v>
+      </c>
+      <c r="B196" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196">
+        <v>7201</v>
+      </c>
+      <c r="D196">
+        <v>46809</v>
+      </c>
+      <c r="E196">
+        <v>45000</v>
+      </c>
+      <c r="F196" t="s">
+        <v>277</v>
+      </c>
+      <c r="G196" t="s">
+        <v>331</v>
+      </c>
+      <c r="H196" t="s">
+        <v>343</v>
+      </c>
+      <c r="I196" t="s">
+        <v>352</v>
+      </c>
+      <c r="J196" t="s">
+        <v>377</v>
+      </c>
+      <c r="K196" t="s">
+        <v>383</v>
+      </c>
+      <c r="L196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197">
+        <v>7201</v>
+      </c>
+      <c r="D197">
+        <v>48917</v>
+      </c>
+      <c r="E197">
+        <v>11024</v>
+      </c>
+      <c r="F197" t="s">
+        <v>277</v>
+      </c>
+      <c r="G197" t="s">
+        <v>332</v>
+      </c>
+      <c r="H197" t="s">
+        <v>343</v>
+      </c>
+      <c r="I197" t="s">
+        <v>352</v>
+      </c>
+      <c r="J197" t="s">
+        <v>378</v>
+      </c>
+      <c r="K197" t="s">
+        <v>382</v>
+      </c>
+      <c r="L197" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" t="s">
+        <v>44</v>
+      </c>
+      <c r="B198" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198">
+        <v>7201</v>
+      </c>
+      <c r="D198">
+        <v>48917</v>
+      </c>
+      <c r="E198">
+        <v>45000</v>
+      </c>
+      <c r="F198" t="s">
+        <v>277</v>
+      </c>
+      <c r="G198" t="s">
+        <v>332</v>
+      </c>
+      <c r="H198" t="s">
+        <v>343</v>
+      </c>
+      <c r="I198" t="s">
+        <v>352</v>
+      </c>
+      <c r="J198" t="s">
+        <v>378</v>
+      </c>
+      <c r="K198" t="s">
+        <v>383</v>
+      </c>
+      <c r="L198" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199">
+        <v>29483</v>
+      </c>
+      <c r="D199">
+        <v>38118</v>
+      </c>
+      <c r="E199">
+        <v>11024</v>
+      </c>
+      <c r="F199" t="s">
+        <v>277</v>
+      </c>
+      <c r="G199" t="s">
+        <v>330</v>
+      </c>
+      <c r="H199" t="s">
+        <v>343</v>
+      </c>
+      <c r="I199" t="s">
+        <v>353</v>
+      </c>
+      <c r="J199" t="s">
+        <v>376</v>
+      </c>
+      <c r="K199" t="s">
+        <v>382</v>
+      </c>
+      <c r="L199" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" t="s">
+        <v>44</v>
+      </c>
+      <c r="B200" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200">
+        <v>29483</v>
+      </c>
+      <c r="D200">
+        <v>38118</v>
+      </c>
+      <c r="E200">
+        <v>45000</v>
+      </c>
+      <c r="F200" t="s">
+        <v>277</v>
+      </c>
+      <c r="G200" t="s">
+        <v>330</v>
+      </c>
+      <c r="H200" t="s">
+        <v>343</v>
+      </c>
+      <c r="I200" t="s">
+        <v>353</v>
+      </c>
+      <c r="J200" t="s">
+        <v>376</v>
+      </c>
+      <c r="K200" t="s">
+        <v>383</v>
+      </c>
+      <c r="L200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201">
+        <v>7201</v>
+      </c>
+      <c r="D201">
+        <v>46809</v>
+      </c>
+      <c r="E201">
+        <v>11024</v>
+      </c>
+      <c r="F201" t="s">
+        <v>277</v>
+      </c>
+      <c r="G201" t="s">
+        <v>331</v>
+      </c>
+      <c r="H201" t="s">
+        <v>343</v>
+      </c>
+      <c r="I201" t="s">
+        <v>353</v>
+      </c>
+      <c r="J201" t="s">
+        <v>377</v>
+      </c>
+      <c r="K201" t="s">
+        <v>382</v>
+      </c>
+      <c r="L201" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202">
+        <v>7201</v>
+      </c>
+      <c r="D202">
+        <v>46809</v>
+      </c>
+      <c r="E202">
+        <v>45000</v>
+      </c>
+      <c r="F202" t="s">
+        <v>277</v>
+      </c>
+      <c r="G202" t="s">
+        <v>331</v>
+      </c>
+      <c r="H202" t="s">
+        <v>343</v>
+      </c>
+      <c r="I202" t="s">
+        <v>353</v>
+      </c>
+      <c r="J202" t="s">
+        <v>377</v>
+      </c>
+      <c r="K202" t="s">
+        <v>383</v>
+      </c>
+      <c r="L202" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203">
+        <v>7201</v>
+      </c>
+      <c r="D203">
+        <v>48917</v>
+      </c>
+      <c r="E203">
+        <v>11024</v>
+      </c>
+      <c r="F203" t="s">
+        <v>277</v>
+      </c>
+      <c r="G203" t="s">
+        <v>332</v>
+      </c>
+      <c r="H203" t="s">
+        <v>343</v>
+      </c>
+      <c r="I203" t="s">
+        <v>353</v>
+      </c>
+      <c r="J203" t="s">
+        <v>378</v>
+      </c>
+      <c r="K203" t="s">
+        <v>382</v>
+      </c>
+      <c r="L203" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" t="s">
+        <v>44</v>
+      </c>
+      <c r="B204" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204">
+        <v>7201</v>
+      </c>
+      <c r="D204">
+        <v>48917</v>
+      </c>
+      <c r="E204">
+        <v>45000</v>
+      </c>
+      <c r="F204" t="s">
+        <v>277</v>
+      </c>
+      <c r="G204" t="s">
+        <v>332</v>
+      </c>
+      <c r="H204" t="s">
+        <v>343</v>
+      </c>
+      <c r="I204" t="s">
+        <v>353</v>
+      </c>
+      <c r="J204" t="s">
+        <v>378</v>
+      </c>
+      <c r="K204" t="s">
+        <v>383</v>
+      </c>
+      <c r="L204" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205">
+        <v>7201</v>
+      </c>
+      <c r="D205">
+        <v>46809</v>
+      </c>
+      <c r="E205">
+        <v>11024</v>
+      </c>
+      <c r="F205" t="s">
+        <v>277</v>
+      </c>
+      <c r="G205" t="s">
+        <v>331</v>
+      </c>
+      <c r="H205" t="s">
+        <v>343</v>
+      </c>
+      <c r="I205" t="s">
+        <v>354</v>
+      </c>
+      <c r="J205" t="s">
+        <v>377</v>
+      </c>
+      <c r="K205" t="s">
+        <v>382</v>
+      </c>
+      <c r="L205" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206">
+        <v>7201</v>
+      </c>
+      <c r="D206">
+        <v>46809</v>
+      </c>
+      <c r="E206">
+        <v>45000</v>
+      </c>
+      <c r="F206" t="s">
+        <v>277</v>
+      </c>
+      <c r="G206" t="s">
+        <v>331</v>
+      </c>
+      <c r="H206" t="s">
+        <v>343</v>
+      </c>
+      <c r="I206" t="s">
+        <v>354</v>
+      </c>
+      <c r="J206" t="s">
+        <v>377</v>
+      </c>
+      <c r="K206" t="s">
+        <v>383</v>
+      </c>
+      <c r="L206" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207">
+        <v>7201</v>
+      </c>
+      <c r="D207">
+        <v>48917</v>
+      </c>
+      <c r="E207">
+        <v>11024</v>
+      </c>
+      <c r="F207" t="s">
+        <v>277</v>
+      </c>
+      <c r="G207" t="s">
+        <v>332</v>
+      </c>
+      <c r="H207" t="s">
+        <v>343</v>
+      </c>
+      <c r="I207" t="s">
+        <v>354</v>
+      </c>
+      <c r="J207" t="s">
+        <v>378</v>
+      </c>
+      <c r="K207" t="s">
+        <v>382</v>
+      </c>
+      <c r="L207" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" t="s">
+        <v>44</v>
+      </c>
+      <c r="B208" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208">
+        <v>7201</v>
+      </c>
+      <c r="D208">
+        <v>48917</v>
+      </c>
+      <c r="E208">
+        <v>45000</v>
+      </c>
+      <c r="F208" t="s">
+        <v>277</v>
+      </c>
+      <c r="G208" t="s">
+        <v>332</v>
+      </c>
+      <c r="H208" t="s">
+        <v>343</v>
+      </c>
+      <c r="I208" t="s">
+        <v>354</v>
+      </c>
+      <c r="J208" t="s">
+        <v>378</v>
+      </c>
+      <c r="K208" t="s">
+        <v>383</v>
+      </c>
+      <c r="L208" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209">
+        <v>29483</v>
+      </c>
+      <c r="D209">
+        <v>38118</v>
+      </c>
+      <c r="E209">
+        <v>11024</v>
+      </c>
+      <c r="F209" t="s">
+        <v>277</v>
+      </c>
+      <c r="G209" t="s">
+        <v>330</v>
+      </c>
+      <c r="H209" t="s">
+        <v>343</v>
+      </c>
+      <c r="I209" t="s">
+        <v>355</v>
+      </c>
+      <c r="J209" t="s">
+        <v>376</v>
+      </c>
+      <c r="K209" t="s">
+        <v>382</v>
+      </c>
+      <c r="L209" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210">
+        <v>29483</v>
+      </c>
+      <c r="D210">
+        <v>38118</v>
+      </c>
+      <c r="E210">
+        <v>45000</v>
+      </c>
+      <c r="F210" t="s">
+        <v>277</v>
+      </c>
+      <c r="G210" t="s">
+        <v>330</v>
+      </c>
+      <c r="H210" t="s">
+        <v>343</v>
+      </c>
+      <c r="I210" t="s">
+        <v>355</v>
+      </c>
+      <c r="J210" t="s">
+        <v>376</v>
+      </c>
+      <c r="K210" t="s">
+        <v>383</v>
+      </c>
+      <c r="L210" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211">
+        <v>7201</v>
+      </c>
+      <c r="D211">
+        <v>18031</v>
+      </c>
+      <c r="E211">
+        <v>11024</v>
+      </c>
+      <c r="F211" t="s">
+        <v>277</v>
+      </c>
+      <c r="G211" t="s">
+        <v>333</v>
+      </c>
+      <c r="H211" t="s">
+        <v>343</v>
+      </c>
+      <c r="I211" t="s">
+        <v>356</v>
+      </c>
+      <c r="J211" t="s">
+        <v>379</v>
+      </c>
+      <c r="K211" t="s">
+        <v>382</v>
+      </c>
+      <c r="L211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212">
+        <v>7201</v>
+      </c>
+      <c r="D212">
+        <v>18031</v>
+      </c>
+      <c r="E212">
+        <v>45000</v>
+      </c>
+      <c r="F212" t="s">
+        <v>277</v>
+      </c>
+      <c r="G212" t="s">
+        <v>333</v>
+      </c>
+      <c r="H212" t="s">
+        <v>343</v>
+      </c>
+      <c r="I212" t="s">
+        <v>356</v>
+      </c>
+      <c r="J212" t="s">
+        <v>379</v>
+      </c>
+      <c r="K212" t="s">
+        <v>383</v>
+      </c>
+      <c r="L212" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213">
+        <v>7201</v>
+      </c>
+      <c r="D213">
+        <v>18447</v>
+      </c>
+      <c r="E213">
+        <v>11024</v>
+      </c>
+      <c r="F213" t="s">
+        <v>277</v>
+      </c>
+      <c r="G213" t="s">
+        <v>334</v>
+      </c>
+      <c r="H213" t="s">
+        <v>343</v>
+      </c>
+      <c r="I213" t="s">
+        <v>357</v>
+      </c>
+      <c r="J213" t="s">
+        <v>371</v>
+      </c>
+      <c r="K213" t="s">
+        <v>382</v>
+      </c>
+      <c r="L213" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" t="s">
+        <v>47</v>
+      </c>
+      <c r="B214" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214">
+        <v>7201</v>
+      </c>
+      <c r="D214">
+        <v>18447</v>
+      </c>
+      <c r="E214">
+        <v>45000</v>
+      </c>
+      <c r="F214" t="s">
+        <v>277</v>
+      </c>
+      <c r="G214" t="s">
+        <v>334</v>
+      </c>
+      <c r="H214" t="s">
+        <v>343</v>
+      </c>
+      <c r="I214" t="s">
+        <v>357</v>
+      </c>
+      <c r="J214" t="s">
+        <v>371</v>
+      </c>
+      <c r="K214" t="s">
+        <v>383</v>
+      </c>
+      <c r="L214" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215">
+        <v>7201</v>
+      </c>
+      <c r="D215">
+        <v>15672</v>
+      </c>
+      <c r="E215">
+        <v>11024</v>
+      </c>
+      <c r="F215" t="s">
+        <v>277</v>
+      </c>
+      <c r="G215" t="s">
+        <v>335</v>
+      </c>
+      <c r="H215" t="s">
+        <v>343</v>
+      </c>
+      <c r="I215" t="s">
+        <v>358</v>
+      </c>
+      <c r="J215" t="s">
+        <v>369</v>
+      </c>
+      <c r="K215" t="s">
+        <v>382</v>
+      </c>
+      <c r="L215" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216">
+        <v>7201</v>
+      </c>
+      <c r="D216">
+        <v>15672</v>
+      </c>
+      <c r="E216">
+        <v>45000</v>
+      </c>
+      <c r="F216" t="s">
+        <v>277</v>
+      </c>
+      <c r="G216" t="s">
+        <v>335</v>
+      </c>
+      <c r="H216" t="s">
+        <v>343</v>
+      </c>
+      <c r="I216" t="s">
+        <v>358</v>
+      </c>
+      <c r="J216" t="s">
+        <v>369</v>
+      </c>
+      <c r="K216" t="s">
+        <v>383</v>
+      </c>
+      <c r="L216" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217">
+        <v>7201</v>
+      </c>
+      <c r="D217">
+        <v>18031</v>
+      </c>
+      <c r="E217">
+        <v>11024</v>
+      </c>
+      <c r="F217" t="s">
+        <v>277</v>
+      </c>
+      <c r="G217" t="s">
+        <v>336</v>
+      </c>
+      <c r="H217" t="s">
+        <v>343</v>
+      </c>
+      <c r="I217" t="s">
+        <v>359</v>
+      </c>
+      <c r="J217" t="s">
+        <v>379</v>
+      </c>
+      <c r="K217" t="s">
+        <v>382</v>
+      </c>
+      <c r="L217" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218">
+        <v>7201</v>
+      </c>
+      <c r="D218">
+        <v>18031</v>
+      </c>
+      <c r="E218">
+        <v>45000</v>
+      </c>
+      <c r="F218" t="s">
+        <v>277</v>
+      </c>
+      <c r="G218" t="s">
+        <v>336</v>
+      </c>
+      <c r="H218" t="s">
+        <v>343</v>
+      </c>
+      <c r="I218" t="s">
+        <v>359</v>
+      </c>
+      <c r="J218" t="s">
+        <v>379</v>
+      </c>
+      <c r="K218" t="s">
+        <v>383</v>
+      </c>
+      <c r="L218" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" t="s">
+        <v>50</v>
+      </c>
+      <c r="B219" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219">
+        <v>7201</v>
+      </c>
+      <c r="D219">
+        <v>18031</v>
+      </c>
+      <c r="E219">
+        <v>11024</v>
+      </c>
+      <c r="F219" t="s">
+        <v>277</v>
+      </c>
+      <c r="G219" t="s">
+        <v>336</v>
+      </c>
+      <c r="H219" t="s">
+        <v>343</v>
+      </c>
+      <c r="I219" t="s">
+        <v>360</v>
+      </c>
+      <c r="J219" t="s">
+        <v>379</v>
+      </c>
+      <c r="K219" t="s">
+        <v>382</v>
+      </c>
+      <c r="L219" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" t="s">
+        <v>50</v>
+      </c>
+      <c r="B220" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220">
+        <v>7201</v>
+      </c>
+      <c r="D220">
+        <v>18031</v>
+      </c>
+      <c r="E220">
+        <v>45000</v>
+      </c>
+      <c r="F220" t="s">
+        <v>277</v>
+      </c>
+      <c r="G220" t="s">
+        <v>336</v>
+      </c>
+      <c r="H220" t="s">
+        <v>343</v>
+      </c>
+      <c r="I220" t="s">
+        <v>360</v>
+      </c>
+      <c r="J220" t="s">
+        <v>379</v>
+      </c>
+      <c r="K220" t="s">
+        <v>383</v>
+      </c>
+      <c r="L220" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221" t="s">
+        <v>51</v>
+      </c>
+      <c r="B221" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221">
+        <v>29483</v>
+      </c>
+      <c r="D221">
+        <v>28303</v>
+      </c>
+      <c r="E221">
+        <v>11024</v>
+      </c>
+      <c r="F221" t="s">
+        <v>277</v>
+      </c>
+      <c r="G221" t="s">
+        <v>337</v>
+      </c>
+      <c r="H221" t="s">
+        <v>343</v>
+      </c>
+      <c r="I221" t="s">
+        <v>361</v>
+      </c>
+      <c r="J221" t="s">
+        <v>380</v>
+      </c>
+      <c r="K221" t="s">
+        <v>382</v>
+      </c>
+      <c r="L221" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" t="s">
+        <v>265</v>
+      </c>
+      <c r="C222">
+        <v>29483</v>
+      </c>
+      <c r="D222">
+        <v>28303</v>
+      </c>
+      <c r="E222">
+        <v>45000</v>
+      </c>
+      <c r="F222" t="s">
+        <v>277</v>
+      </c>
+      <c r="G222" t="s">
+        <v>337</v>
+      </c>
+      <c r="H222" t="s">
+        <v>343</v>
+      </c>
+      <c r="I222" t="s">
+        <v>361</v>
+      </c>
+      <c r="J222" t="s">
+        <v>380</v>
+      </c>
+      <c r="K222" t="s">
+        <v>383</v>
+      </c>
+      <c r="L222" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223" t="s">
+        <v>52</v>
+      </c>
+      <c r="B223" t="s">
         <v>266</v>
       </c>
-      <c r="H184" t="s">
+      <c r="C223">
+        <v>7201</v>
+      </c>
+      <c r="D223">
+        <v>18031</v>
+      </c>
+      <c r="E223">
+        <v>11024</v>
+      </c>
+      <c r="F223" t="s">
+        <v>277</v>
+      </c>
+      <c r="G223" t="s">
+        <v>338</v>
+      </c>
+      <c r="H223" t="s">
+        <v>343</v>
+      </c>
+      <c r="I223" t="s">
+        <v>362</v>
+      </c>
+      <c r="J223" t="s">
+        <v>379</v>
+      </c>
+      <c r="K223" t="s">
+        <v>382</v>
+      </c>
+      <c r="L223" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224" t="s">
         <v>267</v>
       </c>
-      <c r="I184" t="s">
+      <c r="C224">
+        <v>7201</v>
+      </c>
+      <c r="D224">
+        <v>18031</v>
+      </c>
+      <c r="E224">
+        <v>45000</v>
+      </c>
+      <c r="F224" t="s">
+        <v>277</v>
+      </c>
+      <c r="G224" t="s">
+        <v>338</v>
+      </c>
+      <c r="H224" t="s">
+        <v>343</v>
+      </c>
+      <c r="I224" t="s">
+        <v>362</v>
+      </c>
+      <c r="J224" t="s">
+        <v>379</v>
+      </c>
+      <c r="K224" t="s">
+        <v>383</v>
+      </c>
+      <c r="L224" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225">
+        <v>7201</v>
+      </c>
+      <c r="D225">
+        <v>8518</v>
+      </c>
+      <c r="E225">
+        <v>11024</v>
+      </c>
+      <c r="F225" t="s">
+        <v>277</v>
+      </c>
+      <c r="G225" t="s">
+        <v>339</v>
+      </c>
+      <c r="H225" t="s">
+        <v>343</v>
+      </c>
+      <c r="I225" t="s">
+        <v>363</v>
+      </c>
+      <c r="J225" t="s">
+        <v>381</v>
+      </c>
+      <c r="K225" t="s">
+        <v>382</v>
+      </c>
+      <c r="L225" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226">
+        <v>7201</v>
+      </c>
+      <c r="D226">
+        <v>8518</v>
+      </c>
+      <c r="E226">
+        <v>45000</v>
+      </c>
+      <c r="F226" t="s">
+        <v>277</v>
+      </c>
+      <c r="G226" t="s">
+        <v>339</v>
+      </c>
+      <c r="H226" t="s">
+        <v>343</v>
+      </c>
+      <c r="I226" t="s">
+        <v>363</v>
+      </c>
+      <c r="J226" t="s">
+        <v>381</v>
+      </c>
+      <c r="K226" t="s">
+        <v>383</v>
+      </c>
+      <c r="L226" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>54</v>
+      </c>
+      <c r="B227" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227">
+        <v>29483</v>
+      </c>
+      <c r="D227">
+        <v>28303</v>
+      </c>
+      <c r="E227">
+        <v>11024</v>
+      </c>
+      <c r="F227" t="s">
+        <v>277</v>
+      </c>
+      <c r="G227" t="s">
+        <v>340</v>
+      </c>
+      <c r="H227" t="s">
+        <v>343</v>
+      </c>
+      <c r="I227" t="s">
+        <v>364</v>
+      </c>
+      <c r="J227" t="s">
+        <v>380</v>
+      </c>
+      <c r="K227" t="s">
+        <v>382</v>
+      </c>
+      <c r="L227" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" t="s">
+        <v>54</v>
+      </c>
+      <c r="B228" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228">
+        <v>29483</v>
+      </c>
+      <c r="D228">
+        <v>28303</v>
+      </c>
+      <c r="E228">
+        <v>45000</v>
+      </c>
+      <c r="F228" t="s">
+        <v>278</v>
+      </c>
+      <c r="G228" t="s">
+        <v>341</v>
+      </c>
+      <c r="I228" t="s">
+        <v>364</v>
+      </c>
+      <c r="J228" t="s">
+        <v>380</v>
+      </c>
+      <c r="K228" t="s">
+        <v>383</v>
+      </c>
+      <c r="L228" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" t="s">
+        <v>54</v>
+      </c>
+      <c r="B229" t="s">
+        <v>271</v>
+      </c>
+      <c r="C229">
+        <v>29483</v>
+      </c>
+      <c r="D229">
+        <v>28303</v>
+      </c>
+      <c r="E229">
+        <v>45000</v>
+      </c>
+      <c r="F229" t="s">
+        <v>278</v>
+      </c>
+      <c r="G229" t="s">
+        <v>297</v>
+      </c>
+      <c r="I229" t="s">
+        <v>364</v>
+      </c>
+      <c r="J229" t="s">
+        <v>380</v>
+      </c>
+      <c r="K229" t="s">
+        <v>383</v>
+      </c>
+      <c r="L229" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" t="s">
+        <v>55</v>
+      </c>
+      <c r="B230" t="s">
+        <v>272</v>
+      </c>
+      <c r="C230">
+        <v>7201</v>
+      </c>
+      <c r="D230">
+        <v>15672</v>
+      </c>
+      <c r="E230">
+        <v>11024</v>
+      </c>
+      <c r="F230" t="s">
+        <v>277</v>
+      </c>
+      <c r="G230" t="s">
+        <v>342</v>
+      </c>
+      <c r="H230" t="s">
+        <v>343</v>
+      </c>
+      <c r="I230" t="s">
+        <v>365</v>
+      </c>
+      <c r="J230" t="s">
+        <v>369</v>
+      </c>
+      <c r="K230" t="s">
+        <v>382</v>
+      </c>
+      <c r="L230" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" t="s">
+        <v>55</v>
+      </c>
+      <c r="B231" t="s">
         <v>273</v>
       </c>
-      <c r="J184" t="s">
-        <v>279</v>
-      </c>
-      <c r="K184" t="s">
-        <v>281</v>
-      </c>
-      <c r="L184" t="s">
-        <v>286</v>
+      <c r="C231" t="s">
+        <v>274</v>
+      </c>
+      <c r="D231" t="s">
+        <v>275</v>
+      </c>
+      <c r="E231" t="s">
+        <v>276</v>
+      </c>
+      <c r="F231" t="s">
+        <v>277</v>
+      </c>
+      <c r="G231" t="s">
+        <v>342</v>
+      </c>
+      <c r="H231" t="s">
+        <v>343</v>
+      </c>
+      <c r="I231" t="s">
+        <v>365</v>
+      </c>
+      <c r="J231" t="s">
+        <v>369</v>
+      </c>
+      <c r="K231" t="s">
+        <v>383</v>
+      </c>
+      <c r="L231" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="423">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -184,6 +184,12 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0637LCL0016</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -838,10 +844,52 @@
     <t>2025-09-18 02:54:06</t>
   </si>
   <si>
-    <t>07201</t>
-  </si>
-  <si>
-    <t>15672</t>
+    <t>2025-09-18 11:10:58</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:11:00</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:28</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:37</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:35</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:38</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:29</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:32</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:41</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:51</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:39</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:41</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:49</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:56</t>
+  </si>
+  <si>
+    <t>90220</t>
+  </si>
+  <si>
+    <t>80018</t>
   </si>
   <si>
     <t>45000</t>
@@ -1045,6 +1093,15 @@
     <t>Rate: 1402.17, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 836.3700000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 5177.295, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 5941.35, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1114,6 +1171,21 @@
     <t>CMM0868LCL0007_20250918025308</t>
   </si>
   <si>
+    <t>CMM0637LCL0016_20250918111028</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918112817</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250918113005</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918195948</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918200259</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1160,6 +1232,12 @@
   </si>
   <si>
     <t>ABE8</t>
+  </si>
+  <si>
+    <t>BFI3</t>
+  </si>
+  <si>
+    <t>DEN8</t>
   </si>
   <si>
     <t>FTL</t>
@@ -1562,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1611,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1623,13 +1701,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1637,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -1649,13 +1727,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1663,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -1675,13 +1753,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1689,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -1701,13 +1779,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1715,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1727,13 +1805,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1741,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1753,13 +1831,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1767,7 +1845,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1779,13 +1857,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1793,7 +1871,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1805,13 +1883,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1819,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1831,13 +1909,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1845,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1857,13 +1935,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1871,7 +1949,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1883,13 +1961,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1897,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1909,13 +1987,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1923,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -1935,13 +2013,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G14" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1949,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -1961,13 +2039,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1975,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -1987,13 +2065,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2001,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -2013,13 +2091,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="H17" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2027,7 +2105,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -2039,13 +2117,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2053,7 +2131,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -2065,13 +2143,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G19" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2079,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -2091,13 +2169,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G20" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="H20" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2105,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -2117,13 +2195,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G21" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2131,7 +2209,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -2143,13 +2221,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G22" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="H22" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2157,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -2169,13 +2247,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G23" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2183,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -2195,13 +2273,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G24" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H24" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2209,7 +2287,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -2221,13 +2299,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="H25" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2235,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -2247,13 +2325,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H26" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2261,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -2273,13 +2351,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H27" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2287,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -2299,13 +2377,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H28" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2313,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -2325,13 +2403,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2339,7 +2417,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -2351,13 +2429,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2365,7 +2443,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -2377,13 +2455,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H31" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2391,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -2403,13 +2481,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H32" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2417,7 +2495,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -2429,13 +2507,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H33" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2443,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -2455,13 +2533,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H34" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2469,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -2481,13 +2559,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="H35" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2495,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -2507,13 +2585,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H36" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2521,7 +2599,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -2533,13 +2611,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2547,7 +2625,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -2559,13 +2637,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H38" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2573,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -2585,13 +2663,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G39" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="H39" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2599,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -2611,13 +2689,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G40" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H40" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2625,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -2637,13 +2715,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H41" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2651,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -2663,13 +2741,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2677,7 +2755,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -2689,13 +2767,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G43" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H43" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2703,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -2715,13 +2793,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G44" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H44" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2729,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2741,13 +2819,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2755,7 +2833,7 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2767,13 +2845,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G46" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="H46" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2781,7 +2859,7 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2793,13 +2871,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G47" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2807,7 +2885,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2819,13 +2897,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G48" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="H48" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2833,7 +2911,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2845,13 +2923,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G49" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="H49" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2859,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2871,13 +2949,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H50" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2885,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2897,13 +2975,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2911,7 +2989,7 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -2923,13 +3001,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H52" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2937,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -2949,13 +3027,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G53" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="H53" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2963,7 +3041,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -2975,13 +3053,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G54" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H54" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2989,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -3001,13 +3079,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G55" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3015,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -3027,13 +3105,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G56" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H56" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3041,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -3053,13 +3131,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G57" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H57" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3067,7 +3145,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -3079,13 +3157,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G58" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H58" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3093,7 +3171,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -3105,13 +3183,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G59" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H59" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3119,7 +3197,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -3131,13 +3209,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H60" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3145,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -3157,13 +3235,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G61" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H61" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3171,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -3183,13 +3261,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G62" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3197,7 +3275,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -3209,13 +3287,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G63" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H63" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3223,7 +3301,7 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3235,10 +3313,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3246,7 +3324,7 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3258,10 +3336,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G65" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3269,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3281,10 +3359,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G66" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3292,7 +3370,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3304,10 +3382,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G67" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3315,7 +3393,7 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -3327,13 +3405,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H68" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3341,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -3353,13 +3431,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G69" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H69" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3367,7 +3445,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -3379,13 +3457,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G70" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H70" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3393,7 +3471,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -3405,13 +3483,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G71" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H71" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3419,7 +3497,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3431,10 +3509,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G72" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3442,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3454,10 +3532,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G73" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3465,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3477,10 +3555,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G74" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3488,7 +3566,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3500,10 +3578,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G75" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3511,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -3523,13 +3601,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G76" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H76" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3537,7 +3615,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -3549,13 +3627,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G77" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="H77" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3563,7 +3641,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3575,10 +3653,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G78" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3586,7 +3664,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3598,10 +3676,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G79" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3609,7 +3687,7 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3621,10 +3699,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3632,7 +3710,7 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3644,10 +3722,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G81" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3655,7 +3733,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -3667,13 +3745,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G82" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H82" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3681,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -3693,13 +3771,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G83" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H83" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3707,7 +3785,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -3719,13 +3797,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G84" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H84" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3733,7 +3811,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3745,13 +3823,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G85" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3759,7 +3837,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3771,10 +3849,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G86" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3782,7 +3860,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3794,10 +3872,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G87" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3805,7 +3883,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3817,10 +3895,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G88" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3828,7 +3906,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3840,10 +3918,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G89" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3851,7 +3929,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3863,10 +3941,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G90" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3874,7 +3952,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3886,10 +3964,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G91" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3897,7 +3975,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3909,10 +3987,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G92" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3920,7 +3998,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3932,10 +4010,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3943,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -3955,13 +4033,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G94" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H94" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3969,7 +4047,7 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -3981,13 +4059,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G95" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H95" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3995,7 +4073,7 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -4007,13 +4085,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G96" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4021,7 +4099,7 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -4033,13 +4111,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G97" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H97" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4047,7 +4125,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -4059,13 +4137,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G98" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H98" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4073,7 +4151,7 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -4085,13 +4163,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G99" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H99" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4099,7 +4177,7 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -4111,13 +4189,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G100" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H100" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4125,7 +4203,7 @@
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -4137,13 +4215,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G101" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H101" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4151,7 +4229,7 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -4163,13 +4241,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G102" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H102" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4177,7 +4255,7 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -4189,13 +4267,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G103" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H103" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4203,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -4215,13 +4293,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G104" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H104" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4229,7 +4307,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -4241,13 +4319,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G105" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H105" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4255,7 +4333,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -4267,13 +4345,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G106" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H106" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4281,7 +4359,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -4293,13 +4371,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G107" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H107" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4307,7 +4385,7 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -4319,13 +4397,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G108" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H108" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4333,7 +4411,7 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -4345,13 +4423,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G109" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H109" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4359,7 +4437,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -4371,13 +4449,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G110" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H110" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4385,7 +4463,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -4397,13 +4475,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G111" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H111" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4411,7 +4489,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -4423,13 +4501,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G112" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H112" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4437,7 +4515,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C113">
         <v>29483</v>
@@ -4449,13 +4527,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G113" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H113" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4463,7 +4541,7 @@
         <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C114">
         <v>7201</v>
@@ -4475,13 +4553,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G114" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="H114" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4489,7 +4567,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115">
         <v>7201</v>
@@ -4501,13 +4579,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G115" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="H115" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4515,7 +4593,7 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C116">
         <v>29483</v>
@@ -4527,13 +4605,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G116" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H116" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4541,7 +4619,7 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C117">
         <v>29483</v>
@@ -4553,13 +4631,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G117" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H117" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4567,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C118">
         <v>29483</v>
@@ -4579,13 +4657,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G118" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H118" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4593,7 +4671,7 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C119">
         <v>29483</v>
@@ -4605,13 +4683,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G119" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="H119" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4619,7 +4697,7 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C120">
         <v>7201</v>
@@ -4631,13 +4709,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G120" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="H120" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4645,7 +4723,7 @@
         <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C121">
         <v>7201</v>
@@ -4657,13 +4735,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G121" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="H121" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4671,7 +4749,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C122">
         <v>7201</v>
@@ -4683,13 +4761,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G122" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H122" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4697,7 +4775,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C123">
         <v>7201</v>
@@ -4709,13 +4787,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G123" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H123" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4723,7 +4801,7 @@
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C124">
         <v>7201</v>
@@ -4735,13 +4813,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G124" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H124" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4749,7 +4827,7 @@
         <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C125">
         <v>7201</v>
@@ -4761,13 +4839,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G125" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H125" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4775,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C126">
         <v>90220</v>
@@ -4787,13 +4865,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G126" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H126" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4801,7 +4879,7 @@
         <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C127">
         <v>90220</v>
@@ -4813,13 +4891,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G127" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H127" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4827,7 +4905,7 @@
         <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C128">
         <v>90220</v>
@@ -4839,13 +4917,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G128" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H128" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4853,7 +4931,7 @@
         <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C129">
         <v>90220</v>
@@ -4865,13 +4943,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G129" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H129" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4879,7 +4957,7 @@
         <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C130">
         <v>7201</v>
@@ -4891,13 +4969,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G130" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H130" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4905,7 +4983,7 @@
         <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>7201</v>
@@ -4917,13 +4995,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G131" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H131" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4931,7 +5009,7 @@
         <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C132">
         <v>7201</v>
@@ -4943,13 +5021,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G132" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4957,7 +5035,7 @@
         <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C133">
         <v>7201</v>
@@ -4969,13 +5047,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G133" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H133" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4983,7 +5061,7 @@
         <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C134">
         <v>7201</v>
@@ -4995,13 +5073,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G134" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H134" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5009,7 +5087,7 @@
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C135">
         <v>7201</v>
@@ -5021,13 +5099,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G135" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H135" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5035,7 +5113,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C136">
         <v>7201</v>
@@ -5047,13 +5125,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G136" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H136" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5061,7 +5139,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C137">
         <v>7201</v>
@@ -5073,13 +5151,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G137" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5087,7 +5165,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C138">
         <v>90220</v>
@@ -5099,13 +5177,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G138" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H138" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5113,7 +5191,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C139">
         <v>90220</v>
@@ -5125,13 +5203,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G139" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H139" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5139,7 +5217,7 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C140">
         <v>90220</v>
@@ -5151,13 +5229,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G140" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H140" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5165,7 +5243,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C141">
         <v>90220</v>
@@ -5177,13 +5255,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G141" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H141" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5191,7 +5269,7 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C142">
         <v>90220</v>
@@ -5203,13 +5281,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G142" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H142" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5217,7 +5295,7 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C143">
         <v>90220</v>
@@ -5229,13 +5307,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G143" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="H143" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5243,7 +5321,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C144">
         <v>90220</v>
@@ -5255,13 +5333,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G144" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H144" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5269,7 +5347,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C145">
         <v>90220</v>
@@ -5281,13 +5359,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G145" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H145" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5295,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C146">
         <v>7201</v>
@@ -5307,13 +5385,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G146" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H146" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5321,7 +5399,7 @@
         <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C147">
         <v>7201</v>
@@ -5333,13 +5411,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G147" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H147" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5347,7 +5425,7 @@
         <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C148">
         <v>7201</v>
@@ -5359,13 +5437,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G148" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H148" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5373,7 +5451,7 @@
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C149">
         <v>7201</v>
@@ -5385,13 +5463,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G149" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H149" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5399,7 +5477,7 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C150">
         <v>29483</v>
@@ -5411,13 +5489,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G150" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H150" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5425,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C151">
         <v>29483</v>
@@ -5437,13 +5515,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G151" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H151" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5451,7 +5529,7 @@
         <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C152">
         <v>29483</v>
@@ -5463,13 +5541,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G152" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H152" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5477,7 +5555,7 @@
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C153">
         <v>29483</v>
@@ -5489,13 +5567,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G153" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H153" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5503,7 +5581,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C154">
         <v>90220</v>
@@ -5515,13 +5593,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G154" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H154" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5529,7 +5607,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C155">
         <v>90220</v>
@@ -5541,13 +5619,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G155" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H155" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5555,7 +5633,7 @@
         <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C156">
         <v>7201</v>
@@ -5567,13 +5645,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G156" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="H156" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5581,7 +5659,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C157">
         <v>7201</v>
@@ -5593,13 +5671,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G157" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="H157" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5607,7 +5685,7 @@
         <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C158">
         <v>29483</v>
@@ -5619,13 +5697,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G158" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H158" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5633,7 +5711,7 @@
         <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C159">
         <v>29483</v>
@@ -5645,13 +5723,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G159" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H159" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5659,7 +5737,7 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C160">
         <v>7201</v>
@@ -5671,13 +5749,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G160" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H160" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5685,7 +5763,7 @@
         <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C161">
         <v>7201</v>
@@ -5697,13 +5775,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G161" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="H161" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5711,7 +5789,7 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C162">
         <v>29483</v>
@@ -5723,13 +5801,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G162" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H162" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5737,7 +5815,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C163">
         <v>29483</v>
@@ -5749,13 +5827,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G163" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="H163" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5763,7 +5841,7 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C164">
         <v>29483</v>
@@ -5775,13 +5853,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G164" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="H164" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5789,7 +5867,7 @@
         <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C165">
         <v>29483</v>
@@ -5801,13 +5879,13 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G165" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="H165" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5815,7 +5893,7 @@
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C166">
         <v>29483</v>
@@ -5827,13 +5905,13 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G166" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="H166" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -5841,7 +5919,7 @@
         <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C167">
         <v>29483</v>
@@ -5853,13 +5931,13 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G167" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="H167" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -5867,7 +5945,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C168">
         <v>7201</v>
@@ -5879,13 +5957,13 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G168" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H168" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -5893,7 +5971,7 @@
         <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C169">
         <v>7201</v>
@@ -5905,13 +5983,13 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G169" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H169" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -5919,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C170">
         <v>7201</v>
@@ -5931,13 +6009,13 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G170" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H170" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -5945,7 +6023,7 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C171">
         <v>7201</v>
@@ -5957,13 +6035,13 @@
         <v>45000</v>
       </c>
       <c r="F171" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G171" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="H171" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -5971,7 +6049,7 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C172">
         <v>29483</v>
@@ -5983,25 +6061,25 @@
         <v>11024</v>
       </c>
       <c r="F172" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G172" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H172" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I172" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="J172" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="K172" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L172" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6009,7 +6087,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C173">
         <v>29483</v>
@@ -6021,25 +6099,25 @@
         <v>45000</v>
       </c>
       <c r="F173" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G173" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="H173" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I173" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="J173" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="K173" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L173" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6047,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C174">
         <v>7201</v>
@@ -6059,25 +6137,25 @@
         <v>11024</v>
       </c>
       <c r="F174" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G174" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="H174" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I174" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="J174" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="K174" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L174" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6085,7 +6163,7 @@
         <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C175">
         <v>7201</v>
@@ -6097,25 +6175,25 @@
         <v>45000</v>
       </c>
       <c r="F175" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G175" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="H175" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I175" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="J175" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="K175" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L175" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6123,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="B176" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C176">
         <v>29483</v>
@@ -6135,25 +6213,25 @@
         <v>11024</v>
       </c>
       <c r="F176" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G176" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H176" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I176" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="J176" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K176" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L176" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -6161,7 +6239,7 @@
         <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C177">
         <v>29483</v>
@@ -6173,25 +6251,25 @@
         <v>45000</v>
       </c>
       <c r="F177" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G177" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H177" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I177" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="J177" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K177" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L177" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -6199,7 +6277,7 @@
         <v>42</v>
       </c>
       <c r="B178" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C178">
         <v>7201</v>
@@ -6211,25 +6289,25 @@
         <v>11024</v>
       </c>
       <c r="F178" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G178" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H178" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I178" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="J178" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K178" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L178" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -6237,7 +6315,7 @@
         <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C179">
         <v>7201</v>
@@ -6249,25 +6327,25 @@
         <v>45000</v>
       </c>
       <c r="F179" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G179" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="H179" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I179" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="J179" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K179" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L179" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -6275,7 +6353,7 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C180">
         <v>29483</v>
@@ -6287,25 +6365,25 @@
         <v>11024</v>
       </c>
       <c r="F180" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G180" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="H180" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I180" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="J180" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K180" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L180" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -6313,7 +6391,7 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C181">
         <v>29483</v>
@@ -6325,22 +6403,22 @@
         <v>45000</v>
       </c>
       <c r="F181" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G181" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="I181" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="J181" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K181" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L181" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6348,7 +6426,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C182">
         <v>29483</v>
@@ -6360,22 +6438,22 @@
         <v>45000</v>
       </c>
       <c r="F182" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G182" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I182" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="J182" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="K182" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L182" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6383,7 +6461,7 @@
         <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C183">
         <v>7201</v>
@@ -6395,25 +6473,25 @@
         <v>11024</v>
       </c>
       <c r="F183" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G183" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="H183" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I183" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="J183" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="K183" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L183" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -6421,7 +6499,7 @@
         <v>36</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C184">
         <v>7201</v>
@@ -6433,25 +6511,25 @@
         <v>45000</v>
       </c>
       <c r="F184" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G184" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="H184" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I184" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="J184" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="K184" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L184" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -6459,7 +6537,7 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C185">
         <v>29483</v>
@@ -6471,25 +6549,25 @@
         <v>11024</v>
       </c>
       <c r="F185" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G185" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="H185" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I185" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J185" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="K185" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L185" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -6497,7 +6575,7 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C186">
         <v>29483</v>
@@ -6509,25 +6587,25 @@
         <v>45000</v>
       </c>
       <c r="F186" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G186" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="H186" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I186" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J186" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="K186" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L186" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -6535,7 +6613,7 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C187">
         <v>7201</v>
@@ -6547,25 +6625,25 @@
         <v>11024</v>
       </c>
       <c r="F187" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G187" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H187" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I187" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J187" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K187" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L187" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -6573,7 +6651,7 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C188">
         <v>7201</v>
@@ -6585,25 +6663,25 @@
         <v>45000</v>
       </c>
       <c r="F188" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G188" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="H188" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I188" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="J188" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K188" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L188" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -6611,7 +6689,7 @@
         <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C189">
         <v>90220</v>
@@ -6623,25 +6701,25 @@
         <v>11024</v>
       </c>
       <c r="F189" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G189" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H189" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I189" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J189" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="K189" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L189" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -6649,7 +6727,7 @@
         <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C190">
         <v>90220</v>
@@ -6661,25 +6739,25 @@
         <v>45000</v>
       </c>
       <c r="F190" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G190" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H190" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I190" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J190" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="K190" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L190" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -6687,7 +6765,7 @@
         <v>43</v>
       </c>
       <c r="B191" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C191">
         <v>90220</v>
@@ -6699,25 +6777,25 @@
         <v>11024</v>
       </c>
       <c r="F191" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G191" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="H191" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I191" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J191" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="K191" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L191" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -6725,7 +6803,7 @@
         <v>43</v>
       </c>
       <c r="B192" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C192">
         <v>90220</v>
@@ -6737,25 +6815,25 @@
         <v>45000</v>
       </c>
       <c r="F192" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G192" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="H192" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I192" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J192" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="K192" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L192" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -6763,7 +6841,7 @@
         <v>44</v>
       </c>
       <c r="B193" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C193">
         <v>29483</v>
@@ -6775,25 +6853,25 @@
         <v>11024</v>
       </c>
       <c r="F193" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G193" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H193" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I193" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J193" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K193" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L193" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -6801,7 +6879,7 @@
         <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C194">
         <v>29483</v>
@@ -6813,25 +6891,25 @@
         <v>45000</v>
       </c>
       <c r="F194" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G194" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H194" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I194" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J194" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K194" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L194" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -6839,7 +6917,7 @@
         <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C195">
         <v>7201</v>
@@ -6851,25 +6929,25 @@
         <v>11024</v>
       </c>
       <c r="F195" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G195" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H195" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I195" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J195" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K195" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L195" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -6877,7 +6955,7 @@
         <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C196">
         <v>7201</v>
@@ -6889,25 +6967,25 @@
         <v>45000</v>
       </c>
       <c r="F196" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G196" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H196" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I196" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J196" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K196" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L196" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -6915,7 +6993,7 @@
         <v>44</v>
       </c>
       <c r="B197" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C197">
         <v>7201</v>
@@ -6927,25 +7005,25 @@
         <v>11024</v>
       </c>
       <c r="F197" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G197" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H197" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I197" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J197" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K197" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L197" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -6953,7 +7031,7 @@
         <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C198">
         <v>7201</v>
@@ -6965,25 +7043,25 @@
         <v>45000</v>
       </c>
       <c r="F198" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G198" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H198" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I198" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="J198" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K198" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L198" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -6991,7 +7069,7 @@
         <v>44</v>
       </c>
       <c r="B199" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C199">
         <v>29483</v>
@@ -7003,25 +7081,25 @@
         <v>11024</v>
       </c>
       <c r="F199" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G199" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H199" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I199" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J199" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K199" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L199" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7029,7 +7107,7 @@
         <v>44</v>
       </c>
       <c r="B200" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C200">
         <v>29483</v>
@@ -7041,25 +7119,25 @@
         <v>45000</v>
       </c>
       <c r="F200" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G200" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H200" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I200" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J200" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K200" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L200" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7067,7 +7145,7 @@
         <v>44</v>
       </c>
       <c r="B201" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C201">
         <v>7201</v>
@@ -7079,25 +7157,25 @@
         <v>11024</v>
       </c>
       <c r="F201" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G201" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H201" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I201" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J201" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K201" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L201" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7105,7 +7183,7 @@
         <v>44</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C202">
         <v>7201</v>
@@ -7117,25 +7195,25 @@
         <v>45000</v>
       </c>
       <c r="F202" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G202" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H202" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I202" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J202" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K202" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L202" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -7143,7 +7221,7 @@
         <v>44</v>
       </c>
       <c r="B203" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C203">
         <v>7201</v>
@@ -7155,25 +7233,25 @@
         <v>11024</v>
       </c>
       <c r="F203" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G203" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H203" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I203" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J203" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K203" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L203" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -7181,7 +7259,7 @@
         <v>44</v>
       </c>
       <c r="B204" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C204">
         <v>7201</v>
@@ -7193,25 +7271,25 @@
         <v>45000</v>
       </c>
       <c r="F204" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G204" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H204" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I204" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="J204" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K204" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L204" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7219,7 +7297,7 @@
         <v>44</v>
       </c>
       <c r="B205" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C205">
         <v>7201</v>
@@ -7231,25 +7309,25 @@
         <v>11024</v>
       </c>
       <c r="F205" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G205" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H205" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I205" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="J205" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K205" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L205" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -7257,7 +7335,7 @@
         <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C206">
         <v>7201</v>
@@ -7269,25 +7347,25 @@
         <v>45000</v>
       </c>
       <c r="F206" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G206" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="H206" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I206" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="J206" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K206" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L206" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -7295,7 +7373,7 @@
         <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C207">
         <v>7201</v>
@@ -7307,25 +7385,25 @@
         <v>11024</v>
       </c>
       <c r="F207" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G207" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H207" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I207" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="J207" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K207" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L207" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -7333,7 +7411,7 @@
         <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C208">
         <v>7201</v>
@@ -7345,25 +7423,25 @@
         <v>45000</v>
       </c>
       <c r="F208" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G208" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="H208" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I208" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="J208" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="K208" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L208" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -7371,7 +7449,7 @@
         <v>45</v>
       </c>
       <c r="B209" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C209">
         <v>29483</v>
@@ -7383,25 +7461,25 @@
         <v>11024</v>
       </c>
       <c r="F209" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G209" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H209" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I209" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="J209" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K209" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L209" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -7409,7 +7487,7 @@
         <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C210">
         <v>29483</v>
@@ -7421,25 +7499,25 @@
         <v>45000</v>
       </c>
       <c r="F210" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G210" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H210" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I210" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="J210" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="K210" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L210" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -7447,7 +7525,7 @@
         <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C211">
         <v>7201</v>
@@ -7459,25 +7537,25 @@
         <v>11024</v>
       </c>
       <c r="F211" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G211" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H211" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I211" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="J211" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K211" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L211" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -7485,7 +7563,7 @@
         <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C212">
         <v>7201</v>
@@ -7497,25 +7575,25 @@
         <v>45000</v>
       </c>
       <c r="F212" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G212" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="H212" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I212" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="J212" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K212" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L212" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -7523,7 +7601,7 @@
         <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C213">
         <v>7201</v>
@@ -7535,25 +7613,25 @@
         <v>11024</v>
       </c>
       <c r="F213" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G213" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="H213" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I213" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="J213" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="K213" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L213" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -7561,7 +7639,7 @@
         <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C214">
         <v>7201</v>
@@ -7573,25 +7651,25 @@
         <v>45000</v>
       </c>
       <c r="F214" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G214" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="H214" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I214" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="J214" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="K214" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L214" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -7599,7 +7677,7 @@
         <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C215">
         <v>7201</v>
@@ -7611,25 +7689,25 @@
         <v>11024</v>
       </c>
       <c r="F215" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G215" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="H215" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I215" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="J215" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K215" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L215" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -7637,7 +7715,7 @@
         <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C216">
         <v>7201</v>
@@ -7649,25 +7727,25 @@
         <v>45000</v>
       </c>
       <c r="F216" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G216" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="H216" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I216" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="J216" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K216" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L216" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -7675,7 +7753,7 @@
         <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C217">
         <v>7201</v>
@@ -7687,25 +7765,25 @@
         <v>11024</v>
       </c>
       <c r="F217" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G217" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H217" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I217" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="J217" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K217" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L217" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -7713,7 +7791,7 @@
         <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C218">
         <v>7201</v>
@@ -7725,25 +7803,25 @@
         <v>45000</v>
       </c>
       <c r="F218" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G218" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H218" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I218" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="J218" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K218" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L218" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -7751,7 +7829,7 @@
         <v>50</v>
       </c>
       <c r="B219" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C219">
         <v>7201</v>
@@ -7763,25 +7841,25 @@
         <v>11024</v>
       </c>
       <c r="F219" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G219" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H219" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I219" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="J219" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K219" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L219" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -7789,7 +7867,7 @@
         <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C220">
         <v>7201</v>
@@ -7801,25 +7879,25 @@
         <v>45000</v>
       </c>
       <c r="F220" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G220" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="H220" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I220" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="J220" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K220" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L220" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -7827,7 +7905,7 @@
         <v>51</v>
       </c>
       <c r="B221" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C221">
         <v>29483</v>
@@ -7839,25 +7917,25 @@
         <v>11024</v>
       </c>
       <c r="F221" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G221" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H221" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I221" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="J221" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K221" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L221" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -7865,7 +7943,7 @@
         <v>51</v>
       </c>
       <c r="B222" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C222">
         <v>29483</v>
@@ -7877,25 +7955,25 @@
         <v>45000</v>
       </c>
       <c r="F222" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G222" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="H222" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I222" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="J222" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K222" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L222" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -7903,7 +7981,7 @@
         <v>52</v>
       </c>
       <c r="B223" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C223">
         <v>7201</v>
@@ -7915,25 +7993,25 @@
         <v>11024</v>
       </c>
       <c r="F223" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G223" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H223" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I223" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="J223" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K223" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L223" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -7941,7 +8019,7 @@
         <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C224">
         <v>7201</v>
@@ -7953,25 +8031,25 @@
         <v>45000</v>
       </c>
       <c r="F224" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G224" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="H224" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I224" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="J224" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="K224" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L224" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -7979,7 +8057,7 @@
         <v>53</v>
       </c>
       <c r="B225" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C225">
         <v>7201</v>
@@ -7991,25 +8069,25 @@
         <v>11024</v>
       </c>
       <c r="F225" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G225" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="H225" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I225" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="J225" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K225" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L225" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8017,7 +8095,7 @@
         <v>53</v>
       </c>
       <c r="B226" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C226">
         <v>7201</v>
@@ -8029,25 +8107,25 @@
         <v>45000</v>
       </c>
       <c r="F226" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G226" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="H226" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I226" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="J226" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K226" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L226" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8055,7 +8133,7 @@
         <v>54</v>
       </c>
       <c r="B227" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C227">
         <v>29483</v>
@@ -8067,25 +8145,25 @@
         <v>11024</v>
       </c>
       <c r="F227" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G227" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="H227" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I227" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="J227" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K227" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L227" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8093,7 +8171,7 @@
         <v>54</v>
       </c>
       <c r="B228" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C228">
         <v>29483</v>
@@ -8105,22 +8183,22 @@
         <v>45000</v>
       </c>
       <c r="F228" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G228" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="I228" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="J228" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K228" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L228" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8128,7 +8206,7 @@
         <v>54</v>
       </c>
       <c r="B229" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C229">
         <v>29483</v>
@@ -8140,22 +8218,22 @@
         <v>45000</v>
       </c>
       <c r="F229" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G229" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I229" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="J229" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="K229" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L229" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -8163,7 +8241,7 @@
         <v>55</v>
       </c>
       <c r="B230" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C230">
         <v>7201</v>
@@ -8175,25 +8253,25 @@
         <v>11024</v>
       </c>
       <c r="F230" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G230" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="H230" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="I230" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="J230" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="K230" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="L230" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8201,37 +8279,569 @@
         <v>55</v>
       </c>
       <c r="B231" t="s">
-        <v>273</v>
-      </c>
-      <c r="C231" t="s">
-        <v>274</v>
-      </c>
-      <c r="D231" t="s">
         <v>275</v>
       </c>
-      <c r="E231" t="s">
+      <c r="C231">
+        <v>7201</v>
+      </c>
+      <c r="D231">
+        <v>15672</v>
+      </c>
+      <c r="E231">
+        <v>45000</v>
+      </c>
+      <c r="F231" t="s">
+        <v>293</v>
+      </c>
+      <c r="G231" t="s">
+        <v>358</v>
+      </c>
+      <c r="H231" t="s">
+        <v>362</v>
+      </c>
+      <c r="I231" t="s">
+        <v>384</v>
+      </c>
+      <c r="J231" t="s">
+        <v>393</v>
+      </c>
+      <c r="K231" t="s">
+        <v>409</v>
+      </c>
+      <c r="L231" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232" t="s">
+        <v>56</v>
+      </c>
+      <c r="B232" t="s">
         <v>276</v>
       </c>
-      <c r="F231" t="s">
+      <c r="C232">
+        <v>7201</v>
+      </c>
+      <c r="D232">
+        <v>18031</v>
+      </c>
+      <c r="E232">
+        <v>11024</v>
+      </c>
+      <c r="F232" t="s">
+        <v>293</v>
+      </c>
+      <c r="G232" t="s">
+        <v>359</v>
+      </c>
+      <c r="H232" t="s">
+        <v>362</v>
+      </c>
+      <c r="I232" t="s">
+        <v>385</v>
+      </c>
+      <c r="J232" t="s">
+        <v>403</v>
+      </c>
+      <c r="K232" t="s">
+        <v>408</v>
+      </c>
+      <c r="L232" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233" t="s">
+        <v>56</v>
+      </c>
+      <c r="B233" t="s">
         <v>277</v>
       </c>
-      <c r="G231" t="s">
-        <v>342</v>
-      </c>
-      <c r="H231" t="s">
-        <v>343</v>
-      </c>
-      <c r="I231" t="s">
-        <v>365</v>
-      </c>
-      <c r="J231" t="s">
-        <v>369</v>
-      </c>
-      <c r="K231" t="s">
-        <v>383</v>
-      </c>
-      <c r="L231" t="s">
-        <v>396</v>
+      <c r="C233">
+        <v>7201</v>
+      </c>
+      <c r="D233">
+        <v>18031</v>
+      </c>
+      <c r="E233">
+        <v>45000</v>
+      </c>
+      <c r="F233" t="s">
+        <v>293</v>
+      </c>
+      <c r="G233" t="s">
+        <v>359</v>
+      </c>
+      <c r="H233" t="s">
+        <v>362</v>
+      </c>
+      <c r="I233" t="s">
+        <v>385</v>
+      </c>
+      <c r="J233" t="s">
+        <v>403</v>
+      </c>
+      <c r="K233" t="s">
+        <v>409</v>
+      </c>
+      <c r="L233" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234" t="s">
+        <v>278</v>
+      </c>
+      <c r="C234">
+        <v>7201</v>
+      </c>
+      <c r="D234">
+        <v>15672</v>
+      </c>
+      <c r="E234">
+        <v>11024</v>
+      </c>
+      <c r="F234" t="s">
+        <v>293</v>
+      </c>
+      <c r="G234" t="s">
+        <v>358</v>
+      </c>
+      <c r="H234" t="s">
+        <v>362</v>
+      </c>
+      <c r="I234" t="s">
+        <v>386</v>
+      </c>
+      <c r="J234" t="s">
+        <v>393</v>
+      </c>
+      <c r="K234" t="s">
+        <v>408</v>
+      </c>
+      <c r="L234" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" t="s">
+        <v>55</v>
+      </c>
+      <c r="B235" t="s">
+        <v>279</v>
+      </c>
+      <c r="C235">
+        <v>7201</v>
+      </c>
+      <c r="D235">
+        <v>15672</v>
+      </c>
+      <c r="E235">
+        <v>45000</v>
+      </c>
+      <c r="F235" t="s">
+        <v>293</v>
+      </c>
+      <c r="G235" t="s">
+        <v>358</v>
+      </c>
+      <c r="H235" t="s">
+        <v>362</v>
+      </c>
+      <c r="I235" t="s">
+        <v>386</v>
+      </c>
+      <c r="J235" t="s">
+        <v>393</v>
+      </c>
+      <c r="K235" t="s">
+        <v>409</v>
+      </c>
+      <c r="L235" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236" t="s">
+        <v>52</v>
+      </c>
+      <c r="B236" t="s">
+        <v>280</v>
+      </c>
+      <c r="C236">
+        <v>7201</v>
+      </c>
+      <c r="D236">
+        <v>18031</v>
+      </c>
+      <c r="E236">
+        <v>11024</v>
+      </c>
+      <c r="F236" t="s">
+        <v>293</v>
+      </c>
+      <c r="G236" t="s">
+        <v>359</v>
+      </c>
+      <c r="H236" t="s">
+        <v>362</v>
+      </c>
+      <c r="I236" t="s">
+        <v>387</v>
+      </c>
+      <c r="J236" t="s">
+        <v>403</v>
+      </c>
+      <c r="K236" t="s">
+        <v>408</v>
+      </c>
+      <c r="L236" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237" t="s">
+        <v>52</v>
+      </c>
+      <c r="B237" t="s">
+        <v>281</v>
+      </c>
+      <c r="C237">
+        <v>7201</v>
+      </c>
+      <c r="D237">
+        <v>18031</v>
+      </c>
+      <c r="E237">
+        <v>45000</v>
+      </c>
+      <c r="F237" t="s">
+        <v>293</v>
+      </c>
+      <c r="G237" t="s">
+        <v>359</v>
+      </c>
+      <c r="H237" t="s">
+        <v>362</v>
+      </c>
+      <c r="I237" t="s">
+        <v>387</v>
+      </c>
+      <c r="J237" t="s">
+        <v>403</v>
+      </c>
+      <c r="K237" t="s">
+        <v>409</v>
+      </c>
+      <c r="L237" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" t="s">
+        <v>57</v>
+      </c>
+      <c r="B238" t="s">
+        <v>282</v>
+      </c>
+      <c r="C238">
+        <v>90220</v>
+      </c>
+      <c r="D238">
+        <v>98327</v>
+      </c>
+      <c r="E238">
+        <v>11024</v>
+      </c>
+      <c r="F238" t="s">
+        <v>293</v>
+      </c>
+      <c r="G238" t="s">
+        <v>360</v>
+      </c>
+      <c r="H238" t="s">
+        <v>362</v>
+      </c>
+      <c r="I238" t="s">
+        <v>388</v>
+      </c>
+      <c r="J238" t="s">
+        <v>406</v>
+      </c>
+      <c r="K238" t="s">
+        <v>408</v>
+      </c>
+      <c r="L238" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" t="s">
+        <v>57</v>
+      </c>
+      <c r="B239" t="s">
+        <v>283</v>
+      </c>
+      <c r="C239">
+        <v>90220</v>
+      </c>
+      <c r="D239">
+        <v>98327</v>
+      </c>
+      <c r="E239">
+        <v>45000</v>
+      </c>
+      <c r="F239" t="s">
+        <v>293</v>
+      </c>
+      <c r="G239" t="s">
+        <v>360</v>
+      </c>
+      <c r="H239" t="s">
+        <v>362</v>
+      </c>
+      <c r="I239" t="s">
+        <v>388</v>
+      </c>
+      <c r="J239" t="s">
+        <v>406</v>
+      </c>
+      <c r="K239" t="s">
+        <v>409</v>
+      </c>
+      <c r="L239" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240" t="s">
+        <v>57</v>
+      </c>
+      <c r="B240" t="s">
+        <v>284</v>
+      </c>
+      <c r="C240">
+        <v>90220</v>
+      </c>
+      <c r="D240">
+        <v>80018</v>
+      </c>
+      <c r="E240">
+        <v>11024</v>
+      </c>
+      <c r="F240" t="s">
+        <v>293</v>
+      </c>
+      <c r="G240" t="s">
+        <v>361</v>
+      </c>
+      <c r="H240" t="s">
+        <v>362</v>
+      </c>
+      <c r="I240" t="s">
+        <v>388</v>
+      </c>
+      <c r="J240" t="s">
+        <v>407</v>
+      </c>
+      <c r="K240" t="s">
+        <v>408</v>
+      </c>
+      <c r="L240" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" t="s">
+        <v>57</v>
+      </c>
+      <c r="B241" t="s">
+        <v>285</v>
+      </c>
+      <c r="C241">
+        <v>90220</v>
+      </c>
+      <c r="D241">
+        <v>80018</v>
+      </c>
+      <c r="E241">
+        <v>45000</v>
+      </c>
+      <c r="F241" t="s">
+        <v>293</v>
+      </c>
+      <c r="G241" t="s">
+        <v>361</v>
+      </c>
+      <c r="H241" t="s">
+        <v>362</v>
+      </c>
+      <c r="I241" t="s">
+        <v>388</v>
+      </c>
+      <c r="J241" t="s">
+        <v>407</v>
+      </c>
+      <c r="K241" t="s">
+        <v>409</v>
+      </c>
+      <c r="L241" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" t="s">
+        <v>286</v>
+      </c>
+      <c r="C242">
+        <v>90220</v>
+      </c>
+      <c r="D242">
+        <v>98327</v>
+      </c>
+      <c r="E242">
+        <v>11024</v>
+      </c>
+      <c r="F242" t="s">
+        <v>293</v>
+      </c>
+      <c r="G242" t="s">
+        <v>360</v>
+      </c>
+      <c r="H242" t="s">
+        <v>362</v>
+      </c>
+      <c r="I242" t="s">
+        <v>389</v>
+      </c>
+      <c r="J242" t="s">
+        <v>406</v>
+      </c>
+      <c r="K242" t="s">
+        <v>408</v>
+      </c>
+      <c r="L242" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" t="s">
+        <v>57</v>
+      </c>
+      <c r="B243" t="s">
+        <v>287</v>
+      </c>
+      <c r="C243">
+        <v>90220</v>
+      </c>
+      <c r="D243">
+        <v>98327</v>
+      </c>
+      <c r="E243">
+        <v>45000</v>
+      </c>
+      <c r="F243" t="s">
+        <v>293</v>
+      </c>
+      <c r="G243" t="s">
+        <v>360</v>
+      </c>
+      <c r="H243" t="s">
+        <v>362</v>
+      </c>
+      <c r="I243" t="s">
+        <v>389</v>
+      </c>
+      <c r="J243" t="s">
+        <v>406</v>
+      </c>
+      <c r="K243" t="s">
+        <v>409</v>
+      </c>
+      <c r="L243" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" t="s">
+        <v>57</v>
+      </c>
+      <c r="B244" t="s">
+        <v>288</v>
+      </c>
+      <c r="C244">
+        <v>90220</v>
+      </c>
+      <c r="D244">
+        <v>80018</v>
+      </c>
+      <c r="E244">
+        <v>11024</v>
+      </c>
+      <c r="F244" t="s">
+        <v>293</v>
+      </c>
+      <c r="G244" t="s">
+        <v>361</v>
+      </c>
+      <c r="H244" t="s">
+        <v>362</v>
+      </c>
+      <c r="I244" t="s">
+        <v>389</v>
+      </c>
+      <c r="J244" t="s">
+        <v>407</v>
+      </c>
+      <c r="K244" t="s">
+        <v>408</v>
+      </c>
+      <c r="L244" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245" t="s">
+        <v>57</v>
+      </c>
+      <c r="B245" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" t="s">
+        <v>290</v>
+      </c>
+      <c r="D245" t="s">
+        <v>291</v>
+      </c>
+      <c r="E245" t="s">
+        <v>292</v>
+      </c>
+      <c r="F245" t="s">
+        <v>293</v>
+      </c>
+      <c r="G245" t="s">
+        <v>361</v>
+      </c>
+      <c r="H245" t="s">
+        <v>362</v>
+      </c>
+      <c r="I245" t="s">
+        <v>389</v>
+      </c>
+      <c r="J245" t="s">
+        <v>407</v>
+      </c>
+      <c r="K245" t="s">
+        <v>409</v>
+      </c>
+      <c r="L245" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="437">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -190,6 +190,9 @@
     <t>CMM0937LCL0001</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2025-08-14 15:14:45</t>
   </si>
   <si>
@@ -886,10 +889,28 @@
     <t>2025-09-18 20:03:56</t>
   </si>
   <si>
-    <t>90220</t>
-  </si>
-  <si>
-    <t>80018</t>
+    <t>2025-09-19 08:12:40</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:12:53</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:19:54</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:19:57</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:30:52</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:31:01</t>
+  </si>
+  <si>
+    <t>07201</t>
+  </si>
+  <si>
+    <t>33032</t>
   </si>
   <si>
     <t>45000</t>
@@ -1102,6 +1123,15 @@
     <t>Rate: 5941.35, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 1255.35, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>400 Client Error: Bad Request for url: https://api.jbhunt.com/pricing/quoting/v3/dynamic-quote</t>
+  </si>
+  <si>
+    <t>Rate: 5905.665, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1186,6 +1216,15 @@
     <t>CMM0937LCL0001_20250918200259</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250919081213</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919081945</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919113020</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1283,6 +1322,9 @@
   </si>
   <si>
     <t>18-09-2025</t>
+  </si>
+  <si>
+    <t>19-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1689,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>29483</v>
@@ -1701,13 +1743,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1715,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>29483</v>
@@ -1727,13 +1769,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1741,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>7201</v>
@@ -1753,13 +1795,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1767,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>7201</v>
@@ -1779,13 +1821,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1793,7 +1835,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>90220</v>
@@ -1805,13 +1847,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1819,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>90220</v>
@@ -1831,13 +1873,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1845,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>90220</v>
@@ -1857,13 +1899,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1871,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>90220</v>
@@ -1883,13 +1925,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1897,7 +1939,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>90220</v>
@@ -1909,13 +1951,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1923,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>90220</v>
@@ -1935,13 +1977,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H11" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1949,7 +1991,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>29483</v>
@@ -1961,13 +2003,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H12" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1975,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>29483</v>
@@ -1987,13 +2029,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2001,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>7201</v>
@@ -2013,13 +2055,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2027,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>7201</v>
@@ -2039,13 +2081,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2053,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16">
         <v>90220</v>
@@ -2065,13 +2107,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H16" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2079,7 +2121,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>90220</v>
@@ -2091,13 +2133,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H17" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2105,7 +2147,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>90220</v>
@@ -2117,13 +2159,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2131,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>90220</v>
@@ -2143,13 +2185,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="H19" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2157,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>90220</v>
@@ -2169,13 +2211,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2183,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>90220</v>
@@ -2195,13 +2237,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H21" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2209,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>29483</v>
@@ -2221,13 +2263,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H22" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2235,7 +2277,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>29483</v>
@@ -2247,13 +2289,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G23" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2261,7 +2303,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>7201</v>
@@ -2273,13 +2315,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G24" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2287,7 +2329,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>7201</v>
@@ -2299,13 +2341,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H25" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2313,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>77020</v>
@@ -2325,13 +2367,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H26" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2339,7 +2381,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>77020</v>
@@ -2351,13 +2393,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2365,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>7201</v>
@@ -2377,13 +2419,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H28" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2391,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>7201</v>
@@ -2403,13 +2445,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H29" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2417,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>7201</v>
@@ -2429,13 +2471,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2443,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31">
         <v>7201</v>
@@ -2455,13 +2497,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H31" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2469,7 +2511,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>7201</v>
@@ -2481,13 +2523,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2495,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33">
         <v>7201</v>
@@ -2507,13 +2549,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2521,7 +2563,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34">
         <v>77020</v>
@@ -2533,13 +2575,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2547,7 +2589,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>77020</v>
@@ -2559,13 +2601,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H35" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2573,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>7201</v>
@@ -2585,13 +2627,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H36" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2599,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>7201</v>
@@ -2611,13 +2653,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G37" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2625,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38">
         <v>7201</v>
@@ -2637,13 +2679,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H38" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2651,7 +2693,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>7201</v>
@@ -2663,13 +2705,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H39" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2677,7 +2719,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40">
         <v>29483</v>
@@ -2689,13 +2731,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H40" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2703,7 +2745,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C41">
         <v>29483</v>
@@ -2715,13 +2757,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H41" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2729,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>29483</v>
@@ -2741,13 +2783,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H42" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2755,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43">
         <v>29483</v>
@@ -2767,13 +2809,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G43" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H43" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2781,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>29483</v>
@@ -2793,13 +2835,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H44" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2807,7 +2849,7 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>29483</v>
@@ -2819,13 +2861,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G45" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2833,7 +2875,7 @@
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46">
         <v>7201</v>
@@ -2845,13 +2887,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G46" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H46" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2859,7 +2901,7 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>7201</v>
@@ -2871,13 +2913,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H47" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2885,7 +2927,7 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>29483</v>
@@ -2897,13 +2939,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G48" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H48" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2911,7 +2953,7 @@
         <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C49">
         <v>29483</v>
@@ -2923,13 +2965,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H49" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2937,7 +2979,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>7201</v>
@@ -2949,13 +2991,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G50" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H50" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2963,7 +3005,7 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51">
         <v>7201</v>
@@ -2975,13 +3017,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G51" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H51" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2989,7 +3031,7 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>7201</v>
@@ -3001,13 +3043,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G52" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H52" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3015,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>7201</v>
@@ -3027,13 +3069,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G53" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H53" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3041,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54">
         <v>7201</v>
@@ -3053,13 +3095,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H54" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3067,7 +3109,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C55">
         <v>7201</v>
@@ -3079,13 +3121,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G55" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H55" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3093,7 +3135,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56">
         <v>7201</v>
@@ -3105,13 +3147,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G56" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H56" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3119,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57">
         <v>7201</v>
@@ -3131,13 +3173,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G57" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H57" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3145,7 +3187,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58">
         <v>7201</v>
@@ -3157,13 +3199,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G58" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H58" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3171,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59">
         <v>7201</v>
@@ -3183,13 +3225,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H59" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3197,7 +3239,7 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60">
         <v>7201</v>
@@ -3209,13 +3251,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G60" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H60" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3223,7 +3265,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61">
         <v>7201</v>
@@ -3235,13 +3277,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G61" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H61" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3249,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62">
         <v>7201</v>
@@ -3261,13 +3303,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H62" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3275,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63">
         <v>7201</v>
@@ -3287,13 +3329,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G63" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H63" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3301,7 +3343,7 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3313,10 +3355,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3324,7 +3366,7 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3336,10 +3378,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3347,7 +3389,7 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3359,10 +3401,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G66" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3370,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3382,10 +3424,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G67" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3393,7 +3435,7 @@
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>7201</v>
@@ -3405,13 +3447,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G68" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H68" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3419,7 +3461,7 @@
         <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69">
         <v>7201</v>
@@ -3431,13 +3473,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G69" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3445,7 +3487,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C70">
         <v>7201</v>
@@ -3457,13 +3499,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H70" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3471,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71">
         <v>7201</v>
@@ -3483,13 +3525,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H71" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3497,7 +3539,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3509,10 +3551,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3520,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3532,10 +3574,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3543,7 +3585,7 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3555,10 +3597,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G74" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3566,7 +3608,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3578,10 +3620,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3589,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76">
         <v>7201</v>
@@ -3601,13 +3643,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H76" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3615,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C77">
         <v>7201</v>
@@ -3627,13 +3669,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G77" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H77" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3641,7 +3683,7 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3653,10 +3695,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G78" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3664,7 +3706,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -3676,10 +3718,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3687,7 +3729,7 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3699,10 +3741,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G80" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3710,7 +3752,7 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -3722,10 +3764,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G81" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3733,7 +3775,7 @@
         <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C82">
         <v>90220</v>
@@ -3745,13 +3787,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G82" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H82" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3759,7 +3801,7 @@
         <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C83">
         <v>90220</v>
@@ -3771,13 +3813,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H83" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3785,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C84">
         <v>90220</v>
@@ -3797,13 +3839,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G84" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H84" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3811,7 +3853,7 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C85">
         <v>90220</v>
@@ -3823,13 +3865,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H85" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3837,7 +3879,7 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3849,10 +3891,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G86" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3860,7 +3902,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3872,10 +3914,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3883,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3895,10 +3937,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G88" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3906,7 +3948,7 @@
         <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3918,10 +3960,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G89" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3929,7 +3971,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3941,10 +3983,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G90" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3952,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3964,10 +4006,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3975,7 +4017,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3987,10 +4029,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G92" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3998,7 +4040,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4010,10 +4052,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4021,7 +4063,7 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C94">
         <v>7201</v>
@@ -4033,13 +4075,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G94" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H94" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4047,7 +4089,7 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C95">
         <v>7201</v>
@@ -4059,13 +4101,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H95" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4073,7 +4115,7 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C96">
         <v>7201</v>
@@ -4085,13 +4127,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G96" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H96" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4099,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97">
         <v>7201</v>
@@ -4111,13 +4153,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G97" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H97" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4125,7 +4167,7 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98">
         <v>7201</v>
@@ -4137,13 +4179,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G98" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H98" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4151,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C99">
         <v>7201</v>
@@ -4163,13 +4205,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G99" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H99" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4177,7 +4219,7 @@
         <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C100">
         <v>7201</v>
@@ -4189,13 +4231,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G100" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H100" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4203,7 +4245,7 @@
         <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101">
         <v>7201</v>
@@ -4215,13 +4257,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G101" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H101" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4229,7 +4271,7 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C102">
         <v>7201</v>
@@ -4241,13 +4283,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G102" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H102" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4255,7 +4297,7 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C103">
         <v>7201</v>
@@ -4267,13 +4309,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G103" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H103" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4281,7 +4323,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C104">
         <v>29483</v>
@@ -4293,13 +4335,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G104" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H104" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4307,7 +4349,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C105">
         <v>29483</v>
@@ -4319,13 +4361,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G105" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H105" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4333,7 +4375,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C106">
         <v>29483</v>
@@ -4345,13 +4387,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G106" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H106" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4359,7 +4401,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C107">
         <v>29483</v>
@@ -4371,13 +4413,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G107" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H107" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4385,7 +4427,7 @@
         <v>27</v>
       </c>
       <c r="B108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C108">
         <v>29483</v>
@@ -4397,13 +4439,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G108" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H108" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4411,7 +4453,7 @@
         <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C109">
         <v>29483</v>
@@ -4423,13 +4465,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G109" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H109" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4437,7 +4479,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C110">
         <v>29483</v>
@@ -4449,13 +4491,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G110" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H110" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4463,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C111">
         <v>29483</v>
@@ -4475,13 +4517,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G111" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H111" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4489,7 +4531,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C112">
         <v>29483</v>
@@ -4501,13 +4543,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G112" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H112" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4515,7 +4557,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C113">
         <v>29483</v>
@@ -4527,13 +4569,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G113" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="H113" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4541,7 +4583,7 @@
         <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C114">
         <v>7201</v>
@@ -4553,13 +4595,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G114" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H114" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4567,7 +4609,7 @@
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C115">
         <v>7201</v>
@@ -4579,13 +4621,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G115" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H115" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4593,7 +4635,7 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C116">
         <v>29483</v>
@@ -4605,13 +4647,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G116" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H116" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4619,7 +4661,7 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117">
         <v>29483</v>
@@ -4631,13 +4673,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G117" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H117" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4645,7 +4687,7 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C118">
         <v>29483</v>
@@ -4657,13 +4699,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G118" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H118" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4671,7 +4713,7 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C119">
         <v>29483</v>
@@ -4683,13 +4725,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G119" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H119" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4697,7 +4739,7 @@
         <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120">
         <v>7201</v>
@@ -4709,13 +4751,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G120" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H120" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4723,7 +4765,7 @@
         <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C121">
         <v>7201</v>
@@ -4735,13 +4777,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G121" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H121" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4749,7 +4791,7 @@
         <v>30</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C122">
         <v>7201</v>
@@ -4761,13 +4803,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G122" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H122" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4775,7 +4817,7 @@
         <v>30</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C123">
         <v>7201</v>
@@ -4787,13 +4829,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G123" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H123" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4801,7 +4843,7 @@
         <v>30</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C124">
         <v>7201</v>
@@ -4813,13 +4855,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G124" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H124" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4827,7 +4869,7 @@
         <v>30</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C125">
         <v>7201</v>
@@ -4839,13 +4881,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H125" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4853,7 +4895,7 @@
         <v>31</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C126">
         <v>90220</v>
@@ -4865,13 +4907,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G126" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H126" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4879,7 +4921,7 @@
         <v>31</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C127">
         <v>90220</v>
@@ -4891,13 +4933,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G127" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H127" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4905,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>90220</v>
@@ -4917,13 +4959,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G128" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H128" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4931,7 +4973,7 @@
         <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C129">
         <v>90220</v>
@@ -4943,13 +4985,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G129" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H129" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4957,7 +4999,7 @@
         <v>30</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C130">
         <v>7201</v>
@@ -4969,13 +5011,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G130" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H130" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4983,7 +5025,7 @@
         <v>30</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C131">
         <v>7201</v>
@@ -4995,13 +5037,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H131" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5009,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C132">
         <v>7201</v>
@@ -5021,13 +5063,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G132" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H132" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5035,7 +5077,7 @@
         <v>30</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C133">
         <v>7201</v>
@@ -5047,13 +5089,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G133" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H133" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5061,7 +5103,7 @@
         <v>30</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C134">
         <v>7201</v>
@@ -5073,13 +5115,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G134" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H134" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5087,7 +5129,7 @@
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C135">
         <v>7201</v>
@@ -5099,13 +5141,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G135" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H135" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5113,7 +5155,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C136">
         <v>7201</v>
@@ -5125,13 +5167,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G136" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H136" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5139,7 +5181,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C137">
         <v>7201</v>
@@ -5151,13 +5193,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G137" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H137" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5165,7 +5207,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C138">
         <v>90220</v>
@@ -5177,13 +5219,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G138" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H138" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5191,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C139">
         <v>90220</v>
@@ -5203,13 +5245,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G139" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H139" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5217,7 +5259,7 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C140">
         <v>90220</v>
@@ -5229,13 +5271,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G140" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H140" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5243,7 +5285,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C141">
         <v>90220</v>
@@ -5255,13 +5297,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G141" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H141" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5269,7 +5311,7 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C142">
         <v>90220</v>
@@ -5281,13 +5323,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G142" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H142" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5295,7 +5337,7 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C143">
         <v>90220</v>
@@ -5307,13 +5349,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G143" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H143" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5321,7 +5363,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C144">
         <v>90220</v>
@@ -5333,13 +5375,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G144" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H144" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5347,7 +5389,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C145">
         <v>90220</v>
@@ -5359,13 +5401,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G145" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H145" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5373,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C146">
         <v>7201</v>
@@ -5385,13 +5427,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G146" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H146" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5399,7 +5441,7 @@
         <v>30</v>
       </c>
       <c r="B147" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C147">
         <v>7201</v>
@@ -5411,13 +5453,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G147" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="H147" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5425,7 +5467,7 @@
         <v>30</v>
       </c>
       <c r="B148" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C148">
         <v>7201</v>
@@ -5437,13 +5479,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G148" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H148" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5451,7 +5493,7 @@
         <v>30</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C149">
         <v>7201</v>
@@ -5463,13 +5505,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G149" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H149" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5477,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C150">
         <v>29483</v>
@@ -5489,13 +5531,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G150" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H150" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5503,7 +5545,7 @@
         <v>32</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C151">
         <v>29483</v>
@@ -5515,13 +5557,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G151" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H151" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5529,7 +5571,7 @@
         <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C152">
         <v>29483</v>
@@ -5541,13 +5583,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G152" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H152" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5555,7 +5597,7 @@
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C153">
         <v>29483</v>
@@ -5567,13 +5609,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G153" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H153" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5581,7 +5623,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C154">
         <v>90220</v>
@@ -5593,13 +5635,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G154" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H154" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5607,7 +5649,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C155">
         <v>90220</v>
@@ -5619,13 +5661,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G155" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H155" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5633,7 +5675,7 @@
         <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C156">
         <v>7201</v>
@@ -5645,13 +5687,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G156" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H156" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5659,7 +5701,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C157">
         <v>7201</v>
@@ -5671,13 +5713,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G157" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H157" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5685,7 +5727,7 @@
         <v>35</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C158">
         <v>29483</v>
@@ -5697,13 +5739,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G158" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H158" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5711,7 +5753,7 @@
         <v>35</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C159">
         <v>29483</v>
@@ -5723,13 +5765,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G159" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H159" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5737,7 +5779,7 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C160">
         <v>7201</v>
@@ -5749,13 +5791,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G160" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H160" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5763,7 +5805,7 @@
         <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C161">
         <v>7201</v>
@@ -5775,13 +5817,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G161" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H161" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5789,7 +5831,7 @@
         <v>37</v>
       </c>
       <c r="B162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C162">
         <v>29483</v>
@@ -5801,13 +5843,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G162" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H162" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5815,7 +5857,7 @@
         <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C163">
         <v>29483</v>
@@ -5827,13 +5869,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H163" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5841,7 +5883,7 @@
         <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C164">
         <v>29483</v>
@@ -5853,13 +5895,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G164" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H164" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5867,7 +5909,7 @@
         <v>32</v>
       </c>
       <c r="B165" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C165">
         <v>29483</v>
@@ -5879,13 +5921,13 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G165" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H165" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5893,7 +5935,7 @@
         <v>32</v>
       </c>
       <c r="B166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C166">
         <v>29483</v>
@@ -5905,13 +5947,13 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G166" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H166" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -5919,7 +5961,7 @@
         <v>32</v>
       </c>
       <c r="B167" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C167">
         <v>29483</v>
@@ -5931,13 +5973,13 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G167" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H167" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -5945,7 +5987,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C168">
         <v>7201</v>
@@ -5957,13 +5999,13 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G168" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H168" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -5971,7 +6013,7 @@
         <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C169">
         <v>7201</v>
@@ -5983,13 +6025,13 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G169" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H169" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -5997,7 +6039,7 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C170">
         <v>7201</v>
@@ -6009,13 +6051,13 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G170" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H170" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6023,7 +6065,7 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C171">
         <v>7201</v>
@@ -6035,13 +6077,13 @@
         <v>45000</v>
       </c>
       <c r="F171" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G171" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H171" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6049,7 +6091,7 @@
         <v>32</v>
       </c>
       <c r="B172" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C172">
         <v>29483</v>
@@ -6061,25 +6103,25 @@
         <v>11024</v>
       </c>
       <c r="F172" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H172" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I172" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J172" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="K172" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L172" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6087,7 +6129,7 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C173">
         <v>29483</v>
@@ -6099,25 +6141,25 @@
         <v>45000</v>
       </c>
       <c r="F173" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G173" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H173" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I173" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="J173" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="K173" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L173" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6125,7 +6167,7 @@
         <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C174">
         <v>7201</v>
@@ -6137,25 +6179,25 @@
         <v>11024</v>
       </c>
       <c r="F174" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G174" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H174" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I174" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J174" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="K174" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L174" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6163,7 +6205,7 @@
         <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C175">
         <v>7201</v>
@@ -6175,25 +6217,25 @@
         <v>45000</v>
       </c>
       <c r="F175" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G175" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H175" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I175" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="J175" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="K175" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L175" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6201,7 +6243,7 @@
         <v>41</v>
       </c>
       <c r="B176" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C176">
         <v>29483</v>
@@ -6213,25 +6255,25 @@
         <v>11024</v>
       </c>
       <c r="F176" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G176" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H176" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I176" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J176" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K176" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L176" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -6239,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="B177" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C177">
         <v>29483</v>
@@ -6251,25 +6293,25 @@
         <v>45000</v>
       </c>
       <c r="F177" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G177" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H177" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I177" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="J177" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K177" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L177" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -6277,7 +6319,7 @@
         <v>42</v>
       </c>
       <c r="B178" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C178">
         <v>7201</v>
@@ -6289,25 +6331,25 @@
         <v>11024</v>
       </c>
       <c r="F178" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G178" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H178" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I178" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="J178" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K178" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L178" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -6315,7 +6357,7 @@
         <v>42</v>
       </c>
       <c r="B179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C179">
         <v>7201</v>
@@ -6327,25 +6369,25 @@
         <v>45000</v>
       </c>
       <c r="F179" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G179" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="H179" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I179" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="J179" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K179" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L179" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -6353,7 +6395,7 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C180">
         <v>29483</v>
@@ -6365,25 +6407,25 @@
         <v>11024</v>
       </c>
       <c r="F180" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G180" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H180" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I180" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J180" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="K180" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L180" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -6391,7 +6433,7 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C181">
         <v>29483</v>
@@ -6403,22 +6445,22 @@
         <v>45000</v>
       </c>
       <c r="F181" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G181" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="I181" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J181" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="K181" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L181" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6426,7 +6468,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C182">
         <v>29483</v>
@@ -6438,22 +6480,22 @@
         <v>45000</v>
       </c>
       <c r="F182" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G182" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I182" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="J182" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="K182" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L182" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6461,7 +6503,7 @@
         <v>36</v>
       </c>
       <c r="B183" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C183">
         <v>7201</v>
@@ -6473,25 +6515,25 @@
         <v>11024</v>
       </c>
       <c r="F183" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G183" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H183" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I183" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="J183" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K183" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L183" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -6499,7 +6541,7 @@
         <v>36</v>
       </c>
       <c r="B184" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C184">
         <v>7201</v>
@@ -6511,25 +6553,25 @@
         <v>45000</v>
       </c>
       <c r="F184" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G184" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H184" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I184" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="J184" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K184" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L184" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -6537,7 +6579,7 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C185">
         <v>29483</v>
@@ -6549,25 +6591,25 @@
         <v>11024</v>
       </c>
       <c r="F185" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H185" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I185" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J185" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K185" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L185" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -6575,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C186">
         <v>29483</v>
@@ -6587,25 +6629,25 @@
         <v>45000</v>
       </c>
       <c r="F186" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G186" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H186" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I186" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J186" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K186" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L186" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -6613,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C187">
         <v>7201</v>
@@ -6625,25 +6667,25 @@
         <v>11024</v>
       </c>
       <c r="F187" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G187" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H187" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I187" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J187" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K187" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L187" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -6651,7 +6693,7 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C188">
         <v>7201</v>
@@ -6663,25 +6705,25 @@
         <v>45000</v>
       </c>
       <c r="F188" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G188" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="H188" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I188" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="J188" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K188" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L188" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -6689,7 +6731,7 @@
         <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C189">
         <v>90220</v>
@@ -6701,25 +6743,25 @@
         <v>11024</v>
       </c>
       <c r="F189" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G189" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H189" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I189" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J189" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="K189" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L189" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -6727,7 +6769,7 @@
         <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C190">
         <v>90220</v>
@@ -6739,25 +6781,25 @@
         <v>45000</v>
       </c>
       <c r="F190" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G190" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H190" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I190" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J190" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="K190" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L190" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -6765,7 +6807,7 @@
         <v>43</v>
       </c>
       <c r="B191" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C191">
         <v>90220</v>
@@ -6777,25 +6819,25 @@
         <v>11024</v>
       </c>
       <c r="F191" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H191" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I191" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J191" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K191" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L191" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -6803,7 +6845,7 @@
         <v>43</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C192">
         <v>90220</v>
@@ -6815,25 +6857,25 @@
         <v>45000</v>
       </c>
       <c r="F192" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G192" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H192" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I192" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="J192" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K192" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L192" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -6841,7 +6883,7 @@
         <v>44</v>
       </c>
       <c r="B193" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C193">
         <v>29483</v>
@@ -6853,25 +6895,25 @@
         <v>11024</v>
       </c>
       <c r="F193" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G193" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H193" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I193" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J193" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K193" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L193" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -6879,7 +6921,7 @@
         <v>44</v>
       </c>
       <c r="B194" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C194">
         <v>29483</v>
@@ -6891,25 +6933,25 @@
         <v>45000</v>
       </c>
       <c r="F194" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G194" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H194" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I194" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J194" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K194" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L194" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -6917,7 +6959,7 @@
         <v>44</v>
       </c>
       <c r="B195" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C195">
         <v>7201</v>
@@ -6929,25 +6971,25 @@
         <v>11024</v>
       </c>
       <c r="F195" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G195" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H195" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I195" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J195" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K195" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L195" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -6955,7 +6997,7 @@
         <v>44</v>
       </c>
       <c r="B196" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C196">
         <v>7201</v>
@@ -6967,25 +7009,25 @@
         <v>45000</v>
       </c>
       <c r="F196" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G196" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H196" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I196" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J196" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K196" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L196" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -6993,7 +7035,7 @@
         <v>44</v>
       </c>
       <c r="B197" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C197">
         <v>7201</v>
@@ -7005,25 +7047,25 @@
         <v>11024</v>
       </c>
       <c r="F197" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G197" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H197" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I197" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J197" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K197" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L197" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -7031,7 +7073,7 @@
         <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C198">
         <v>7201</v>
@@ -7043,25 +7085,25 @@
         <v>45000</v>
       </c>
       <c r="F198" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G198" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H198" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I198" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="J198" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K198" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L198" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -7069,7 +7111,7 @@
         <v>44</v>
       </c>
       <c r="B199" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C199">
         <v>29483</v>
@@ -7081,25 +7123,25 @@
         <v>11024</v>
       </c>
       <c r="F199" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G199" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H199" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I199" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J199" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K199" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L199" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7107,7 +7149,7 @@
         <v>44</v>
       </c>
       <c r="B200" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C200">
         <v>29483</v>
@@ -7119,25 +7161,25 @@
         <v>45000</v>
       </c>
       <c r="F200" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G200" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H200" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I200" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J200" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K200" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L200" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7145,7 +7187,7 @@
         <v>44</v>
       </c>
       <c r="B201" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C201">
         <v>7201</v>
@@ -7157,25 +7199,25 @@
         <v>11024</v>
       </c>
       <c r="F201" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G201" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H201" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I201" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J201" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K201" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L201" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7183,7 +7225,7 @@
         <v>44</v>
       </c>
       <c r="B202" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C202">
         <v>7201</v>
@@ -7195,25 +7237,25 @@
         <v>45000</v>
       </c>
       <c r="F202" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G202" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H202" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I202" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J202" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K202" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L202" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -7221,7 +7263,7 @@
         <v>44</v>
       </c>
       <c r="B203" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C203">
         <v>7201</v>
@@ -7233,25 +7275,25 @@
         <v>11024</v>
       </c>
       <c r="F203" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G203" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H203" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I203" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J203" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K203" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L203" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -7259,7 +7301,7 @@
         <v>44</v>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C204">
         <v>7201</v>
@@ -7271,25 +7313,25 @@
         <v>45000</v>
       </c>
       <c r="F204" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G204" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H204" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I204" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="J204" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K204" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L204" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7297,7 +7339,7 @@
         <v>44</v>
       </c>
       <c r="B205" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C205">
         <v>7201</v>
@@ -7309,25 +7351,25 @@
         <v>11024</v>
       </c>
       <c r="F205" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G205" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H205" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I205" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J205" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K205" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L205" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -7335,7 +7377,7 @@
         <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C206">
         <v>7201</v>
@@ -7347,25 +7389,25 @@
         <v>45000</v>
       </c>
       <c r="F206" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G206" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H206" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I206" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J206" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K206" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L206" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -7373,7 +7415,7 @@
         <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C207">
         <v>7201</v>
@@ -7385,25 +7427,25 @@
         <v>11024</v>
       </c>
       <c r="F207" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G207" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H207" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I207" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J207" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K207" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L207" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -7411,7 +7453,7 @@
         <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C208">
         <v>7201</v>
@@ -7423,25 +7465,25 @@
         <v>45000</v>
       </c>
       <c r="F208" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G208" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="H208" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I208" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="J208" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="K208" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L208" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -7449,7 +7491,7 @@
         <v>45</v>
       </c>
       <c r="B209" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C209">
         <v>29483</v>
@@ -7461,25 +7503,25 @@
         <v>11024</v>
       </c>
       <c r="F209" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G209" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H209" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I209" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="J209" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K209" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L209" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -7487,7 +7529,7 @@
         <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C210">
         <v>29483</v>
@@ -7499,25 +7541,25 @@
         <v>45000</v>
       </c>
       <c r="F210" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G210" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H210" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I210" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="J210" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K210" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L210" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -7525,7 +7567,7 @@
         <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C211">
         <v>7201</v>
@@ -7537,25 +7579,25 @@
         <v>11024</v>
       </c>
       <c r="F211" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G211" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H211" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I211" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J211" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K211" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L211" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -7563,7 +7605,7 @@
         <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C212">
         <v>7201</v>
@@ -7575,25 +7617,25 @@
         <v>45000</v>
       </c>
       <c r="F212" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G212" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H212" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I212" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J212" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K212" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L212" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -7601,7 +7643,7 @@
         <v>47</v>
       </c>
       <c r="B213" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C213">
         <v>7201</v>
@@ -7613,25 +7655,25 @@
         <v>11024</v>
       </c>
       <c r="F213" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G213" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H213" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I213" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="J213" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K213" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L213" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -7639,7 +7681,7 @@
         <v>47</v>
       </c>
       <c r="B214" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C214">
         <v>7201</v>
@@ -7651,25 +7693,25 @@
         <v>45000</v>
       </c>
       <c r="F214" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G214" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H214" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I214" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="J214" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K214" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L214" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -7677,7 +7719,7 @@
         <v>48</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C215">
         <v>7201</v>
@@ -7689,25 +7731,25 @@
         <v>11024</v>
       </c>
       <c r="F215" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G215" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H215" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I215" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="J215" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K215" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L215" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -7715,7 +7757,7 @@
         <v>48</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C216">
         <v>7201</v>
@@ -7727,25 +7769,25 @@
         <v>45000</v>
       </c>
       <c r="F216" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G216" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H216" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I216" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="J216" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K216" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L216" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -7753,7 +7795,7 @@
         <v>49</v>
       </c>
       <c r="B217" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C217">
         <v>7201</v>
@@ -7765,25 +7807,25 @@
         <v>11024</v>
       </c>
       <c r="F217" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G217" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H217" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I217" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="J217" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K217" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L217" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -7791,7 +7833,7 @@
         <v>49</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C218">
         <v>7201</v>
@@ -7803,25 +7845,25 @@
         <v>45000</v>
       </c>
       <c r="F218" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G218" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H218" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I218" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="J218" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K218" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L218" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -7829,7 +7871,7 @@
         <v>50</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C219">
         <v>7201</v>
@@ -7841,25 +7883,25 @@
         <v>11024</v>
       </c>
       <c r="F219" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G219" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H219" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I219" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J219" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K219" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L219" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -7867,7 +7909,7 @@
         <v>50</v>
       </c>
       <c r="B220" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C220">
         <v>7201</v>
@@ -7879,25 +7921,25 @@
         <v>45000</v>
       </c>
       <c r="F220" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G220" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H220" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I220" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="J220" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K220" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L220" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -7905,7 +7947,7 @@
         <v>51</v>
       </c>
       <c r="B221" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C221">
         <v>29483</v>
@@ -7917,25 +7959,25 @@
         <v>11024</v>
       </c>
       <c r="F221" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G221" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H221" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I221" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J221" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K221" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L221" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -7943,7 +7985,7 @@
         <v>51</v>
       </c>
       <c r="B222" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C222">
         <v>29483</v>
@@ -7955,25 +7997,25 @@
         <v>45000</v>
       </c>
       <c r="F222" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G222" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H222" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I222" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="J222" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K222" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L222" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -7981,7 +8023,7 @@
         <v>52</v>
       </c>
       <c r="B223" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C223">
         <v>7201</v>
@@ -7993,25 +8035,25 @@
         <v>11024</v>
       </c>
       <c r="F223" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G223" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H223" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I223" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="J223" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K223" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L223" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8019,7 +8061,7 @@
         <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C224">
         <v>7201</v>
@@ -8031,25 +8073,25 @@
         <v>45000</v>
       </c>
       <c r="F224" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G224" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H224" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I224" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="J224" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K224" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L224" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8057,7 +8099,7 @@
         <v>53</v>
       </c>
       <c r="B225" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C225">
         <v>7201</v>
@@ -8069,25 +8111,25 @@
         <v>11024</v>
       </c>
       <c r="F225" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G225" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H225" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I225" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J225" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="K225" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L225" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8095,7 +8137,7 @@
         <v>53</v>
       </c>
       <c r="B226" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C226">
         <v>7201</v>
@@ -8107,25 +8149,25 @@
         <v>45000</v>
       </c>
       <c r="F226" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G226" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H226" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I226" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J226" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="K226" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L226" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8133,7 +8175,7 @@
         <v>54</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C227">
         <v>29483</v>
@@ -8145,25 +8187,25 @@
         <v>11024</v>
       </c>
       <c r="F227" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G227" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H227" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I227" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J227" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K227" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L227" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8171,7 +8213,7 @@
         <v>54</v>
       </c>
       <c r="B228" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C228">
         <v>29483</v>
@@ -8183,22 +8225,22 @@
         <v>45000</v>
       </c>
       <c r="F228" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G228" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I228" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J228" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K228" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L228" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8206,7 +8248,7 @@
         <v>54</v>
       </c>
       <c r="B229" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C229">
         <v>29483</v>
@@ -8218,22 +8260,22 @@
         <v>45000</v>
       </c>
       <c r="F229" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G229" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="I229" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="J229" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K229" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L229" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -8241,7 +8283,7 @@
         <v>55</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C230">
         <v>7201</v>
@@ -8253,25 +8295,25 @@
         <v>11024</v>
       </c>
       <c r="F230" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G230" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H230" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I230" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J230" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K230" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L230" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8279,7 +8321,7 @@
         <v>55</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C231">
         <v>7201</v>
@@ -8291,25 +8333,25 @@
         <v>45000</v>
       </c>
       <c r="F231" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G231" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H231" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I231" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="J231" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K231" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L231" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8317,7 +8359,7 @@
         <v>56</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C232">
         <v>7201</v>
@@ -8329,25 +8371,25 @@
         <v>11024</v>
       </c>
       <c r="F232" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G232" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H232" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I232" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J232" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K232" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L232" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -8355,7 +8397,7 @@
         <v>56</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C233">
         <v>7201</v>
@@ -8367,25 +8409,25 @@
         <v>45000</v>
       </c>
       <c r="F233" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G233" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H233" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I233" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="J233" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K233" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L233" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -8393,7 +8435,7 @@
         <v>55</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C234">
         <v>7201</v>
@@ -8405,25 +8447,25 @@
         <v>11024</v>
       </c>
       <c r="F234" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G234" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H234" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I234" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J234" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K234" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L234" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -8431,7 +8473,7 @@
         <v>55</v>
       </c>
       <c r="B235" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C235">
         <v>7201</v>
@@ -8443,25 +8485,25 @@
         <v>45000</v>
       </c>
       <c r="F235" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G235" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H235" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I235" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="J235" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K235" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L235" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8469,7 +8511,7 @@
         <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C236">
         <v>7201</v>
@@ -8481,25 +8523,25 @@
         <v>11024</v>
       </c>
       <c r="F236" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G236" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H236" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I236" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J236" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K236" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L236" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -8507,7 +8549,7 @@
         <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C237">
         <v>7201</v>
@@ -8519,25 +8561,25 @@
         <v>45000</v>
       </c>
       <c r="F237" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G237" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="H237" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I237" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="J237" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="K237" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L237" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -8545,7 +8587,7 @@
         <v>57</v>
       </c>
       <c r="B238" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C238">
         <v>90220</v>
@@ -8557,25 +8599,25 @@
         <v>11024</v>
       </c>
       <c r="F238" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G238" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H238" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I238" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J238" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K238" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L238" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -8583,7 +8625,7 @@
         <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C239">
         <v>90220</v>
@@ -8595,25 +8637,25 @@
         <v>45000</v>
       </c>
       <c r="F239" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G239" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H239" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I239" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J239" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K239" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L239" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -8621,7 +8663,7 @@
         <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C240">
         <v>90220</v>
@@ -8633,25 +8675,25 @@
         <v>11024</v>
       </c>
       <c r="F240" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G240" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H240" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I240" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J240" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K240" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L240" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -8659,7 +8701,7 @@
         <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C241">
         <v>90220</v>
@@ -8671,25 +8713,25 @@
         <v>45000</v>
       </c>
       <c r="F241" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G241" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H241" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I241" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="J241" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K241" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L241" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -8697,7 +8739,7 @@
         <v>57</v>
       </c>
       <c r="B242" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C242">
         <v>90220</v>
@@ -8709,25 +8751,25 @@
         <v>11024</v>
       </c>
       <c r="F242" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G242" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H242" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I242" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J242" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K242" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L242" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -8735,7 +8777,7 @@
         <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C243">
         <v>90220</v>
@@ -8747,25 +8789,25 @@
         <v>45000</v>
       </c>
       <c r="F243" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G243" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H243" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I243" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J243" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="K243" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L243" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -8773,7 +8815,7 @@
         <v>57</v>
       </c>
       <c r="B244" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C244">
         <v>90220</v>
@@ -8785,25 +8827,25 @@
         <v>11024</v>
       </c>
       <c r="F244" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G244" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H244" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I244" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J244" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K244" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L244" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -8811,37 +8853,329 @@
         <v>57</v>
       </c>
       <c r="B245" t="s">
-        <v>289</v>
-      </c>
-      <c r="C245" t="s">
         <v>290</v>
       </c>
-      <c r="D245" t="s">
+      <c r="C245">
+        <v>90220</v>
+      </c>
+      <c r="D245">
+        <v>80018</v>
+      </c>
+      <c r="E245">
+        <v>45000</v>
+      </c>
+      <c r="F245" t="s">
+        <v>300</v>
+      </c>
+      <c r="G245" t="s">
+        <v>368</v>
+      </c>
+      <c r="H245" t="s">
+        <v>372</v>
+      </c>
+      <c r="I245" t="s">
+        <v>399</v>
+      </c>
+      <c r="J245" t="s">
+        <v>420</v>
+      </c>
+      <c r="K245" t="s">
+        <v>422</v>
+      </c>
+      <c r="L245" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" t="s">
+        <v>58</v>
+      </c>
+      <c r="B246" t="s">
         <v>291</v>
       </c>
-      <c r="E245" t="s">
+      <c r="C246">
+        <v>7201</v>
+      </c>
+      <c r="D246">
+        <v>21901</v>
+      </c>
+      <c r="E246">
+        <v>11024</v>
+      </c>
+      <c r="F246" t="s">
+        <v>300</v>
+      </c>
+      <c r="G246" t="s">
+        <v>369</v>
+      </c>
+      <c r="H246" t="s">
+        <v>372</v>
+      </c>
+      <c r="I246" t="s">
+        <v>400</v>
+      </c>
+      <c r="J246" t="s">
+        <v>58</v>
+      </c>
+      <c r="K246" t="s">
+        <v>421</v>
+      </c>
+      <c r="L246" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" t="s">
+        <v>58</v>
+      </c>
+      <c r="B247" t="s">
         <v>292</v>
       </c>
-      <c r="F245" t="s">
+      <c r="C247">
+        <v>7201</v>
+      </c>
+      <c r="D247">
+        <v>21901</v>
+      </c>
+      <c r="E247">
+        <v>45000</v>
+      </c>
+      <c r="F247" t="s">
+        <v>300</v>
+      </c>
+      <c r="G247" t="s">
+        <v>369</v>
+      </c>
+      <c r="H247" t="s">
+        <v>372</v>
+      </c>
+      <c r="I247" t="s">
+        <v>400</v>
+      </c>
+      <c r="J247" t="s">
+        <v>58</v>
+      </c>
+      <c r="K247" t="s">
+        <v>422</v>
+      </c>
+      <c r="L247" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" t="s">
+        <v>58</v>
+      </c>
+      <c r="B248" t="s">
         <v>293</v>
       </c>
-      <c r="G245" t="s">
-        <v>361</v>
-      </c>
-      <c r="H245" t="s">
-        <v>362</v>
-      </c>
-      <c r="I245" t="s">
-        <v>389</v>
-      </c>
-      <c r="J245" t="s">
-        <v>407</v>
-      </c>
-      <c r="K245" t="s">
-        <v>409</v>
-      </c>
-      <c r="L245" t="s">
+      <c r="C248">
+        <v>583229</v>
+      </c>
+      <c r="D248">
+        <v>21901</v>
+      </c>
+      <c r="E248">
+        <v>11024</v>
+      </c>
+      <c r="F248" t="s">
+        <v>301</v>
+      </c>
+      <c r="G248" t="s">
+        <v>370</v>
+      </c>
+      <c r="I248" t="s">
+        <v>401</v>
+      </c>
+      <c r="J248" t="s">
+        <v>58</v>
+      </c>
+      <c r="K248" t="s">
+        <v>421</v>
+      </c>
+      <c r="L248" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" t="s">
+        <v>58</v>
+      </c>
+      <c r="B249" t="s">
+        <v>293</v>
+      </c>
+      <c r="C249">
+        <v>583229</v>
+      </c>
+      <c r="D249">
+        <v>21901</v>
+      </c>
+      <c r="E249">
+        <v>11024</v>
+      </c>
+      <c r="F249" t="s">
+        <v>301</v>
+      </c>
+      <c r="G249" t="s">
+        <v>320</v>
+      </c>
+      <c r="I249" t="s">
+        <v>401</v>
+      </c>
+      <c r="J249" t="s">
+        <v>58</v>
+      </c>
+      <c r="K249" t="s">
+        <v>421</v>
+      </c>
+      <c r="L249" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="A250" t="s">
+        <v>58</v>
+      </c>
+      <c r="B250" t="s">
+        <v>294</v>
+      </c>
+      <c r="C250">
+        <v>583229</v>
+      </c>
+      <c r="D250">
+        <v>21901</v>
+      </c>
+      <c r="E250">
+        <v>45000</v>
+      </c>
+      <c r="F250" t="s">
+        <v>301</v>
+      </c>
+      <c r="G250" t="s">
+        <v>370</v>
+      </c>
+      <c r="I250" t="s">
+        <v>401</v>
+      </c>
+      <c r="J250" t="s">
+        <v>58</v>
+      </c>
+      <c r="K250" t="s">
         <v>422</v>
+      </c>
+      <c r="L250" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251" t="s">
+        <v>58</v>
+      </c>
+      <c r="B251" t="s">
+        <v>294</v>
+      </c>
+      <c r="C251">
+        <v>583229</v>
+      </c>
+      <c r="D251">
+        <v>21901</v>
+      </c>
+      <c r="E251">
+        <v>45000</v>
+      </c>
+      <c r="F251" t="s">
+        <v>301</v>
+      </c>
+      <c r="G251" t="s">
+        <v>320</v>
+      </c>
+      <c r="I251" t="s">
+        <v>401</v>
+      </c>
+      <c r="J251" t="s">
+        <v>58</v>
+      </c>
+      <c r="K251" t="s">
+        <v>422</v>
+      </c>
+      <c r="L251" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" t="s">
+        <v>295</v>
+      </c>
+      <c r="C252">
+        <v>7201</v>
+      </c>
+      <c r="D252">
+        <v>33032</v>
+      </c>
+      <c r="E252">
+        <v>11024</v>
+      </c>
+      <c r="F252" t="s">
+        <v>300</v>
+      </c>
+      <c r="G252" t="s">
+        <v>371</v>
+      </c>
+      <c r="H252" t="s">
+        <v>372</v>
+      </c>
+      <c r="I252" t="s">
+        <v>402</v>
+      </c>
+      <c r="J252" t="s">
+        <v>58</v>
+      </c>
+      <c r="K252" t="s">
+        <v>421</v>
+      </c>
+      <c r="L252" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253" t="s">
+        <v>296</v>
+      </c>
+      <c r="C253" t="s">
+        <v>297</v>
+      </c>
+      <c r="D253" t="s">
+        <v>298</v>
+      </c>
+      <c r="E253" t="s">
+        <v>299</v>
+      </c>
+      <c r="F253" t="s">
+        <v>300</v>
+      </c>
+      <c r="G253" t="s">
+        <v>371</v>
+      </c>
+      <c r="H253" t="s">
+        <v>372</v>
+      </c>
+      <c r="I253" t="s">
+        <v>402</v>
+      </c>
+      <c r="J253" t="s">
+        <v>58</v>
+      </c>
+      <c r="K253" t="s">
+        <v>422</v>
+      </c>
+      <c r="L253" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="449">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -907,10 +907,28 @@
     <t>2025-09-19 11:31:01</t>
   </si>
   <si>
+    <t>2025-09-23 10:58:32</t>
+  </si>
+  <si>
+    <t>2025-09-23 10:58:40</t>
+  </si>
+  <si>
+    <t>2025-09-23 10:58:42</t>
+  </si>
+  <si>
+    <t>2025-09-23 12:04:11</t>
+  </si>
+  <si>
+    <t>2025-09-23 12:04:13</t>
+  </si>
+  <si>
+    <t>2025-09-23 12:04:22</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
-    <t>33032</t>
+    <t>60007</t>
   </si>
   <si>
     <t>45000</t>
@@ -1132,6 +1150,12 @@
     <t>Rate: 5905.665, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 866.8050000000001, Carrier: JBHZ</t>
+  </si>
+  <si>
+    <t>Rate: 2029.59, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1225,6 +1249,12 @@
     <t>TRANSPORT_RATES_20250919113020</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250923105802</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250923120352</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1285,6 +1315,9 @@
     <t>FTL53</t>
   </si>
   <si>
+    <t>Drayage</t>
+  </si>
+  <si>
     <t>28-08-2025</t>
   </si>
   <si>
@@ -1325,6 +1358,9 @@
   </si>
   <si>
     <t>19-09-2025</t>
+  </si>
+  <si>
+    <t>23-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L253"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,13 +1779,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1769,13 +1805,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1795,13 +1831,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1821,13 +1857,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1847,13 +1883,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1873,13 +1909,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1899,13 +1935,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1925,13 +1961,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1951,13 +1987,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1977,13 +2013,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2003,13 +2039,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2029,13 +2065,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H13" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2055,13 +2091,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2081,13 +2117,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H15" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2107,13 +2143,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H16" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2133,13 +2169,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H17" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2159,13 +2195,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H18" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2185,13 +2221,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H19" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2211,13 +2247,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2237,13 +2273,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2263,13 +2299,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H22" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2289,13 +2325,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2315,13 +2351,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2341,13 +2377,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2367,13 +2403,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2393,13 +2429,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G27" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2419,13 +2455,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H28" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2445,13 +2481,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G29" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2471,13 +2507,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2497,13 +2533,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G31" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H31" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2523,13 +2559,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2549,13 +2585,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H33" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2575,13 +2611,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H34" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2601,13 +2637,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H35" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2627,13 +2663,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G36" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2653,13 +2689,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H37" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2679,13 +2715,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H38" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2705,13 +2741,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H39" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2731,13 +2767,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H40" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2757,13 +2793,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H41" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2783,13 +2819,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H42" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2809,13 +2845,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H43" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2835,13 +2871,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H44" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2861,13 +2897,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H45" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2887,13 +2923,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G46" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H46" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2913,13 +2949,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G47" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2939,13 +2975,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G48" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H48" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2965,13 +3001,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G49" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H49" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2991,13 +3027,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G50" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H50" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3017,13 +3053,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G51" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3043,13 +3079,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H52" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3069,13 +3105,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G53" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H53" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3095,13 +3131,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G54" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H54" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3121,13 +3157,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G55" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H55" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3147,13 +3183,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G56" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H56" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3173,13 +3209,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G57" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H57" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3199,13 +3235,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G58" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3225,13 +3261,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G59" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H59" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3251,13 +3287,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H60" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3277,13 +3313,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3303,13 +3339,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G62" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H62" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3329,13 +3365,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G63" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H63" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3355,10 +3391,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G64" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3378,10 +3414,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G65" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3401,10 +3437,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G66" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3424,10 +3460,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3447,13 +3483,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H68" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3473,13 +3509,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G69" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H69" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3499,13 +3535,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G70" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H70" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3525,13 +3561,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G71" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="H71" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3551,10 +3587,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G72" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3574,10 +3610,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G73" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3597,10 +3633,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G74" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3620,10 +3656,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G75" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3643,13 +3679,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G76" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H76" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3669,13 +3705,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G77" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H77" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3695,10 +3731,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G78" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3718,10 +3754,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G79" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3741,10 +3777,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G80" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3764,10 +3800,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G81" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3787,13 +3823,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H82" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3813,13 +3849,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G83" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H83" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3839,13 +3875,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G84" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H84" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3865,13 +3901,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G85" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H85" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3891,10 +3927,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G86" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3914,10 +3950,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G87" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3937,10 +3973,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G88" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3960,10 +3996,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G89" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3983,10 +4019,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G90" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4006,10 +4042,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G91" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4029,10 +4065,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G92" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4052,10 +4088,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G93" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4075,13 +4111,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G94" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4101,13 +4137,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G95" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H95" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4127,13 +4163,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G96" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H96" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4153,13 +4189,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G97" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H97" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4179,13 +4215,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G98" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H98" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4205,13 +4241,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G99" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H99" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4231,13 +4267,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G100" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H100" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4257,13 +4293,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H101" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4283,13 +4319,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G102" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H102" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4309,13 +4345,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G103" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H103" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4335,13 +4371,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G104" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H104" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4361,13 +4397,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G105" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H105" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4387,13 +4423,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G106" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H106" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4413,13 +4449,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G107" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H107" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4439,13 +4475,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H108" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4465,13 +4501,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G109" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H109" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4491,13 +4527,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G110" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H110" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4517,13 +4553,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G111" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H111" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4543,13 +4579,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G112" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H112" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4569,13 +4605,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G113" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H113" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4595,13 +4631,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G114" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H114" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4621,13 +4657,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G115" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H115" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4647,13 +4683,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G116" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H116" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4673,13 +4709,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G117" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H117" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4699,13 +4735,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G118" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H118" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4725,13 +4761,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G119" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H119" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4751,13 +4787,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G120" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H120" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4777,13 +4813,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G121" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H121" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4803,13 +4839,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G122" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H122" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4829,13 +4865,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G123" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H123" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4855,13 +4891,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G124" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H124" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4881,13 +4917,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G125" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H125" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4907,13 +4943,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G126" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H126" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4933,13 +4969,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G127" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H127" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4959,13 +4995,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G128" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H128" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4985,13 +5021,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G129" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H129" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5011,13 +5047,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G130" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H130" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5037,13 +5073,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G131" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H131" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5063,13 +5099,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G132" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H132" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5089,13 +5125,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G133" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H133" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5115,13 +5151,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G134" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H134" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5141,13 +5177,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G135" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H135" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5167,13 +5203,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G136" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H136" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5193,13 +5229,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G137" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H137" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5219,13 +5255,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G138" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H138" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5245,13 +5281,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G139" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H139" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5271,13 +5307,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G140" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H140" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5297,13 +5333,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G141" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H141" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5323,13 +5359,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G142" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H142" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5349,13 +5385,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G143" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H143" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5375,13 +5411,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G144" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H144" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5401,13 +5437,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G145" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H145" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5427,13 +5463,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G146" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H146" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5453,13 +5489,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G147" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H147" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5479,13 +5515,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G148" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H148" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5505,13 +5541,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G149" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H149" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5531,13 +5567,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G150" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H150" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5557,13 +5593,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G151" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H151" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5583,13 +5619,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G152" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H152" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5609,13 +5645,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G153" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H153" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5635,13 +5671,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G154" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H154" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5661,13 +5697,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G155" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H155" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5687,13 +5723,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G156" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H156" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5713,13 +5749,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G157" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H157" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5739,13 +5775,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G158" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H158" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5765,13 +5801,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H159" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5791,13 +5827,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G160" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H160" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5817,13 +5853,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G161" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="H161" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5843,13 +5879,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G162" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H162" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5869,13 +5905,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G163" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H163" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5895,13 +5931,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G164" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H164" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5921,13 +5957,13 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G165" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H165" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5947,13 +5983,13 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G166" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H166" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -5973,13 +6009,13 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G167" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H167" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -5999,13 +6035,13 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G168" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H168" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6025,13 +6061,13 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G169" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H169" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6051,13 +6087,13 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G170" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H170" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6077,13 +6113,13 @@
         <v>45000</v>
       </c>
       <c r="F171" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G171" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H171" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6103,25 +6139,25 @@
         <v>11024</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G172" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H172" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I172" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J172" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K172" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L172" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6141,25 +6177,25 @@
         <v>45000</v>
       </c>
       <c r="F173" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G173" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H173" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I173" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="J173" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K173" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L173" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6179,25 +6215,25 @@
         <v>11024</v>
       </c>
       <c r="F174" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G174" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H174" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I174" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J174" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K174" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L174" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6217,25 +6253,25 @@
         <v>45000</v>
       </c>
       <c r="F175" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G175" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H175" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I175" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J175" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K175" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L175" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6255,25 +6291,25 @@
         <v>11024</v>
       </c>
       <c r="F176" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G176" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H176" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I176" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J176" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K176" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L176" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -6293,25 +6329,25 @@
         <v>45000</v>
       </c>
       <c r="F177" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G177" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H177" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I177" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="J177" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K177" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L177" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -6331,25 +6367,25 @@
         <v>11024</v>
       </c>
       <c r="F178" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G178" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H178" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I178" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J178" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K178" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L178" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -6369,25 +6405,25 @@
         <v>45000</v>
       </c>
       <c r="F179" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G179" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H179" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I179" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J179" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K179" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L179" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -6407,25 +6443,25 @@
         <v>11024</v>
       </c>
       <c r="F180" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G180" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H180" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I180" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J180" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K180" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L180" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -6445,22 +6481,22 @@
         <v>45000</v>
       </c>
       <c r="F181" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G181" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="I181" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J181" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K181" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L181" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6480,22 +6516,22 @@
         <v>45000</v>
       </c>
       <c r="F182" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G182" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I182" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="J182" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K182" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L182" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6515,25 +6551,25 @@
         <v>11024</v>
       </c>
       <c r="F183" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G183" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H183" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I183" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J183" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K183" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L183" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -6553,25 +6589,25 @@
         <v>45000</v>
       </c>
       <c r="F184" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G184" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H184" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I184" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="J184" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K184" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L184" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -6591,25 +6627,25 @@
         <v>11024</v>
       </c>
       <c r="F185" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G185" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H185" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I185" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J185" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K185" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L185" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -6629,25 +6665,25 @@
         <v>45000</v>
       </c>
       <c r="F186" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G186" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H186" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I186" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J186" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="K186" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L186" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -6667,25 +6703,25 @@
         <v>11024</v>
       </c>
       <c r="F187" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G187" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H187" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I187" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J187" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K187" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L187" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -6705,25 +6741,25 @@
         <v>45000</v>
       </c>
       <c r="F188" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G188" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H188" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I188" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="J188" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K188" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L188" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -6743,25 +6779,25 @@
         <v>11024</v>
       </c>
       <c r="F189" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G189" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H189" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I189" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J189" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K189" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L189" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -6781,25 +6817,25 @@
         <v>45000</v>
       </c>
       <c r="F190" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G190" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H190" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I190" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J190" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="K190" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L190" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -6819,25 +6855,25 @@
         <v>11024</v>
       </c>
       <c r="F191" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G191" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H191" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I191" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J191" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K191" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L191" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -6857,25 +6893,25 @@
         <v>45000</v>
       </c>
       <c r="F192" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G192" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H192" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I192" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="J192" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K192" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L192" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -6895,25 +6931,25 @@
         <v>11024</v>
       </c>
       <c r="F193" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G193" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H193" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I193" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J193" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K193" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L193" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -6933,25 +6969,25 @@
         <v>45000</v>
       </c>
       <c r="F194" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G194" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H194" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I194" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J194" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K194" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L194" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -6971,25 +7007,25 @@
         <v>11024</v>
       </c>
       <c r="F195" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G195" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H195" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I195" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J195" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K195" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L195" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7009,25 +7045,25 @@
         <v>45000</v>
       </c>
       <c r="F196" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G196" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H196" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I196" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J196" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K196" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L196" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -7047,25 +7083,25 @@
         <v>11024</v>
       </c>
       <c r="F197" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G197" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H197" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I197" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J197" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K197" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L197" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -7085,25 +7121,25 @@
         <v>45000</v>
       </c>
       <c r="F198" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G198" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H198" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I198" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="J198" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K198" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L198" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -7123,25 +7159,25 @@
         <v>11024</v>
       </c>
       <c r="F199" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G199" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H199" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I199" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J199" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K199" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L199" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7161,25 +7197,25 @@
         <v>45000</v>
       </c>
       <c r="F200" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G200" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H200" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I200" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J200" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K200" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L200" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7199,25 +7235,25 @@
         <v>11024</v>
       </c>
       <c r="F201" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G201" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H201" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I201" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J201" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K201" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L201" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7237,25 +7273,25 @@
         <v>45000</v>
       </c>
       <c r="F202" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G202" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H202" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I202" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J202" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K202" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L202" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -7275,25 +7311,25 @@
         <v>11024</v>
       </c>
       <c r="F203" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G203" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H203" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I203" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J203" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K203" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L203" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -7313,25 +7349,25 @@
         <v>45000</v>
       </c>
       <c r="F204" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G204" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H204" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I204" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J204" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K204" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L204" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7351,25 +7387,25 @@
         <v>11024</v>
       </c>
       <c r="F205" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G205" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H205" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I205" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J205" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K205" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L205" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -7389,25 +7425,25 @@
         <v>45000</v>
       </c>
       <c r="F206" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G206" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H206" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I206" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J206" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K206" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L206" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -7427,25 +7463,25 @@
         <v>11024</v>
       </c>
       <c r="F207" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G207" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H207" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I207" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J207" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K207" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L207" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -7465,25 +7501,25 @@
         <v>45000</v>
       </c>
       <c r="F208" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G208" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H208" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I208" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="J208" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K208" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L208" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -7503,25 +7539,25 @@
         <v>11024</v>
       </c>
       <c r="F209" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G209" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H209" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I209" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="J209" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K209" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L209" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -7541,25 +7577,25 @@
         <v>45000</v>
       </c>
       <c r="F210" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G210" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="H210" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I210" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="J210" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K210" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L210" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -7579,25 +7615,25 @@
         <v>11024</v>
       </c>
       <c r="F211" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G211" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H211" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I211" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J211" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K211" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L211" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -7617,25 +7653,25 @@
         <v>45000</v>
       </c>
       <c r="F212" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G212" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H212" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I212" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J212" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K212" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L212" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -7655,25 +7691,25 @@
         <v>11024</v>
       </c>
       <c r="F213" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G213" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H213" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I213" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J213" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K213" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L213" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -7693,25 +7729,25 @@
         <v>45000</v>
       </c>
       <c r="F214" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G214" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H214" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I214" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="J214" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="K214" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L214" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -7731,25 +7767,25 @@
         <v>11024</v>
       </c>
       <c r="F215" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G215" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H215" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I215" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="J215" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K215" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L215" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -7769,25 +7805,25 @@
         <v>45000</v>
       </c>
       <c r="F216" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G216" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H216" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I216" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="J216" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K216" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L216" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -7807,25 +7843,25 @@
         <v>11024</v>
       </c>
       <c r="F217" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G217" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H217" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I217" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J217" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K217" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L217" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -7845,25 +7881,25 @@
         <v>45000</v>
       </c>
       <c r="F218" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G218" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H218" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I218" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="J218" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K218" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L218" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -7883,25 +7919,25 @@
         <v>11024</v>
       </c>
       <c r="F219" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G219" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H219" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I219" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J219" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K219" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L219" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -7921,25 +7957,25 @@
         <v>45000</v>
       </c>
       <c r="F220" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G220" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H220" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I220" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="J220" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K220" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L220" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -7959,25 +7995,25 @@
         <v>11024</v>
       </c>
       <c r="F221" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G221" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H221" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I221" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="J221" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K221" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L221" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -7997,25 +8033,25 @@
         <v>45000</v>
       </c>
       <c r="F222" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G222" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H222" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I222" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="J222" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K222" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L222" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8035,25 +8071,25 @@
         <v>11024</v>
       </c>
       <c r="F223" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G223" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H223" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I223" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J223" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K223" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L223" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8073,25 +8109,25 @@
         <v>45000</v>
       </c>
       <c r="F224" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G224" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H224" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I224" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="J224" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K224" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L224" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8111,25 +8147,25 @@
         <v>11024</v>
       </c>
       <c r="F225" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G225" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H225" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I225" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J225" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K225" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L225" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8149,25 +8185,25 @@
         <v>45000</v>
       </c>
       <c r="F226" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G226" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H226" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I226" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="J226" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K226" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L226" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8187,25 +8223,25 @@
         <v>11024</v>
       </c>
       <c r="F227" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G227" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H227" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I227" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="J227" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K227" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L227" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8225,22 +8261,22 @@
         <v>45000</v>
       </c>
       <c r="F228" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G228" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I228" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="J228" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K228" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L228" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8260,22 +8296,22 @@
         <v>45000</v>
       </c>
       <c r="F229" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G229" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I229" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="J229" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="K229" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L229" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -8295,25 +8331,25 @@
         <v>11024</v>
       </c>
       <c r="F230" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G230" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H230" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I230" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="J230" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K230" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L230" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8333,25 +8369,25 @@
         <v>45000</v>
       </c>
       <c r="F231" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G231" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H231" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I231" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="J231" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K231" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L231" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8371,25 +8407,25 @@
         <v>11024</v>
       </c>
       <c r="F232" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G232" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H232" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I232" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="J232" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K232" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L232" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -8409,25 +8445,25 @@
         <v>45000</v>
       </c>
       <c r="F233" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G233" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H233" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I233" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="J233" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K233" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L233" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -8447,25 +8483,25 @@
         <v>11024</v>
       </c>
       <c r="F234" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G234" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H234" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I234" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J234" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K234" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L234" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -8485,25 +8521,25 @@
         <v>45000</v>
       </c>
       <c r="F235" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G235" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H235" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I235" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="J235" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K235" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L235" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8523,25 +8559,25 @@
         <v>11024</v>
       </c>
       <c r="F236" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G236" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H236" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I236" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="J236" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K236" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L236" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -8561,25 +8597,25 @@
         <v>45000</v>
       </c>
       <c r="F237" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G237" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H237" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I237" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="J237" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K237" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L237" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -8599,25 +8635,25 @@
         <v>11024</v>
       </c>
       <c r="F238" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G238" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H238" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I238" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J238" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K238" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L238" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -8637,25 +8673,25 @@
         <v>45000</v>
       </c>
       <c r="F239" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G239" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H239" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I239" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J239" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K239" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L239" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -8675,25 +8711,25 @@
         <v>11024</v>
       </c>
       <c r="F240" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G240" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H240" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I240" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J240" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K240" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L240" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -8713,25 +8749,25 @@
         <v>45000</v>
       </c>
       <c r="F241" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G241" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H241" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I241" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="J241" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K241" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L241" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -8751,25 +8787,25 @@
         <v>11024</v>
       </c>
       <c r="F242" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G242" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H242" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I242" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J242" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K242" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L242" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -8789,25 +8825,25 @@
         <v>45000</v>
       </c>
       <c r="F243" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G243" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H243" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I243" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J243" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K243" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L243" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -8827,25 +8863,25 @@
         <v>11024</v>
       </c>
       <c r="F244" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G244" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H244" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I244" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J244" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K244" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L244" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -8865,25 +8901,25 @@
         <v>45000</v>
       </c>
       <c r="F245" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G245" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H245" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I245" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="J245" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K245" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L245" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -8903,25 +8939,25 @@
         <v>11024</v>
       </c>
       <c r="F246" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G246" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H246" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I246" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J246" t="s">
         <v>58</v>
       </c>
       <c r="K246" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L246" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -8941,25 +8977,25 @@
         <v>45000</v>
       </c>
       <c r="F247" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G247" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H247" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I247" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="J247" t="s">
         <v>58</v>
       </c>
       <c r="K247" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L247" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -8979,22 +9015,22 @@
         <v>11024</v>
       </c>
       <c r="F248" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G248" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I248" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J248" t="s">
         <v>58</v>
       </c>
       <c r="K248" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L248" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9014,22 +9050,22 @@
         <v>11024</v>
       </c>
       <c r="F249" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G249" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I249" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J249" t="s">
         <v>58</v>
       </c>
       <c r="K249" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L249" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9049,22 +9085,22 @@
         <v>45000</v>
       </c>
       <c r="F250" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G250" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I250" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J250" t="s">
         <v>58</v>
       </c>
       <c r="K250" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L250" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9084,22 +9120,22 @@
         <v>45000</v>
       </c>
       <c r="F251" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G251" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I251" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="J251" t="s">
         <v>58</v>
       </c>
       <c r="K251" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L251" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9119,25 +9155,25 @@
         <v>11024</v>
       </c>
       <c r="F252" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G252" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H252" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I252" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J252" t="s">
         <v>58</v>
       </c>
       <c r="K252" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L252" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9147,35 +9183,263 @@
       <c r="B253" t="s">
         <v>296</v>
       </c>
-      <c r="C253" t="s">
-        <v>297</v>
-      </c>
-      <c r="D253" t="s">
-        <v>298</v>
-      </c>
-      <c r="E253" t="s">
-        <v>299</v>
+      <c r="C253">
+        <v>7201</v>
+      </c>
+      <c r="D253">
+        <v>33032</v>
+      </c>
+      <c r="E253">
+        <v>45000</v>
       </c>
       <c r="F253" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G253" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H253" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="I253" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="J253" t="s">
         <v>58</v>
       </c>
       <c r="K253" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="L253" t="s">
-        <v>436</v>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" t="s">
+        <v>297</v>
+      </c>
+      <c r="C254">
+        <v>7201</v>
+      </c>
+      <c r="D254">
+        <v>18101</v>
+      </c>
+      <c r="E254">
+        <v>11024</v>
+      </c>
+      <c r="F254" t="s">
+        <v>306</v>
+      </c>
+      <c r="G254" t="s">
+        <v>378</v>
+      </c>
+      <c r="H254" t="s">
+        <v>380</v>
+      </c>
+      <c r="I254" t="s">
+        <v>411</v>
+      </c>
+      <c r="J254" t="s">
+        <v>58</v>
+      </c>
+      <c r="K254" t="s">
+        <v>431</v>
+      </c>
+      <c r="L254" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" t="s">
+        <v>58</v>
+      </c>
+      <c r="B255" t="s">
+        <v>298</v>
+      </c>
+      <c r="C255">
+        <v>7201</v>
+      </c>
+      <c r="D255">
+        <v>18101</v>
+      </c>
+      <c r="E255">
+        <v>45000</v>
+      </c>
+      <c r="F255" t="s">
+        <v>306</v>
+      </c>
+      <c r="G255" t="s">
+        <v>378</v>
+      </c>
+      <c r="H255" t="s">
+        <v>380</v>
+      </c>
+      <c r="I255" t="s">
+        <v>411</v>
+      </c>
+      <c r="J255" t="s">
+        <v>58</v>
+      </c>
+      <c r="K255" t="s">
+        <v>432</v>
+      </c>
+      <c r="L255" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" t="s">
+        <v>299</v>
+      </c>
+      <c r="C256">
+        <v>7201</v>
+      </c>
+      <c r="D256">
+        <v>18101</v>
+      </c>
+      <c r="E256">
+        <v>45000</v>
+      </c>
+      <c r="F256" t="s">
+        <v>306</v>
+      </c>
+      <c r="G256" t="s">
+        <v>378</v>
+      </c>
+      <c r="H256" t="s">
+        <v>380</v>
+      </c>
+      <c r="I256" t="s">
+        <v>411</v>
+      </c>
+      <c r="J256" t="s">
+        <v>58</v>
+      </c>
+      <c r="K256" t="s">
+        <v>433</v>
+      </c>
+      <c r="L256" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" t="s">
+        <v>300</v>
+      </c>
+      <c r="C257">
+        <v>7201</v>
+      </c>
+      <c r="D257">
+        <v>60007</v>
+      </c>
+      <c r="E257">
+        <v>11024</v>
+      </c>
+      <c r="F257" t="s">
+        <v>306</v>
+      </c>
+      <c r="G257" t="s">
+        <v>379</v>
+      </c>
+      <c r="H257" t="s">
+        <v>380</v>
+      </c>
+      <c r="I257" t="s">
+        <v>412</v>
+      </c>
+      <c r="J257" t="s">
+        <v>58</v>
+      </c>
+      <c r="K257" t="s">
+        <v>431</v>
+      </c>
+      <c r="L257" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" t="s">
+        <v>301</v>
+      </c>
+      <c r="C258">
+        <v>7201</v>
+      </c>
+      <c r="D258">
+        <v>60007</v>
+      </c>
+      <c r="E258">
+        <v>45000</v>
+      </c>
+      <c r="F258" t="s">
+        <v>306</v>
+      </c>
+      <c r="G258" t="s">
+        <v>379</v>
+      </c>
+      <c r="H258" t="s">
+        <v>380</v>
+      </c>
+      <c r="I258" t="s">
+        <v>412</v>
+      </c>
+      <c r="J258" t="s">
+        <v>58</v>
+      </c>
+      <c r="K258" t="s">
+        <v>432</v>
+      </c>
+      <c r="L258" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" t="s">
+        <v>302</v>
+      </c>
+      <c r="C259" t="s">
+        <v>303</v>
+      </c>
+      <c r="D259" t="s">
+        <v>304</v>
+      </c>
+      <c r="E259" t="s">
+        <v>305</v>
+      </c>
+      <c r="F259" t="s">
+        <v>306</v>
+      </c>
+      <c r="G259" t="s">
+        <v>379</v>
+      </c>
+      <c r="H259" t="s">
+        <v>380</v>
+      </c>
+      <c r="I259" t="s">
+        <v>412</v>
+      </c>
+      <c r="J259" t="s">
+        <v>58</v>
+      </c>
+      <c r="K259" t="s">
+        <v>433</v>
+      </c>
+      <c r="L259" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/jbhunt_api_tracking.xlsx
+++ b/Logs/jbhunt_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="455">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -925,6 +925,15 @@
     <t>2025-09-23 12:04:22</t>
   </si>
   <si>
+    <t>2025-09-24 07:50:47</t>
+  </si>
+  <si>
+    <t>2025-09-24 07:50:55</t>
+  </si>
+  <si>
+    <t>2025-09-24 07:50:57</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -1156,6 +1165,9 @@
     <t>Rate: 2029.59, Carrier: JBHZ</t>
   </si>
   <si>
+    <t>Rate: 1996.605, Carrier: JBHZ</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1255,6 +1267,9 @@
     <t>TRANSPORT_RATES_20250923120352</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250924075011</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1361,6 +1376,9 @@
   </si>
   <si>
     <t>23-09-2025</t>
+  </si>
+  <si>
+    <t>24-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L259"/>
+  <dimension ref="A1:L262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,13 +1797,13 @@
         <v>11024</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1805,13 +1823,13 @@
         <v>45000</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1831,13 +1849,13 @@
         <v>11024</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1857,13 +1875,13 @@
         <v>45000</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1883,13 +1901,13 @@
         <v>11024</v>
       </c>
       <c r="F6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1909,13 +1927,13 @@
         <v>45000</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1935,13 +1953,13 @@
         <v>11024</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1961,13 +1979,13 @@
         <v>45000</v>
       </c>
       <c r="F9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1987,13 +2005,13 @@
         <v>11024</v>
       </c>
       <c r="F10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2013,13 +2031,13 @@
         <v>45000</v>
       </c>
       <c r="F11" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2039,13 +2057,13 @@
         <v>11024</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H12" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2065,13 +2083,13 @@
         <v>45000</v>
       </c>
       <c r="F13" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G13" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2091,13 +2109,13 @@
         <v>11024</v>
       </c>
       <c r="F14" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2117,13 +2135,13 @@
         <v>45000</v>
       </c>
       <c r="F15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H15" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2143,13 +2161,13 @@
         <v>11024</v>
       </c>
       <c r="F16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2169,13 +2187,13 @@
         <v>45000</v>
       </c>
       <c r="F17" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G17" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2195,13 +2213,13 @@
         <v>11024</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H18" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2221,13 +2239,13 @@
         <v>45000</v>
       </c>
       <c r="F19" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2247,13 +2265,13 @@
         <v>11024</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2273,13 +2291,13 @@
         <v>45000</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H21" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2299,13 +2317,13 @@
         <v>11024</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2325,13 +2343,13 @@
         <v>45000</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2351,13 +2369,13 @@
         <v>11024</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G24" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2377,13 +2395,13 @@
         <v>45000</v>
       </c>
       <c r="F25" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2403,13 +2421,13 @@
         <v>11024</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G26" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H26" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2429,13 +2447,13 @@
         <v>45000</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H27" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2455,13 +2473,13 @@
         <v>11024</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G28" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H28" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2481,13 +2499,13 @@
         <v>45000</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G29" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H29" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2507,13 +2525,13 @@
         <v>11024</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2533,13 +2551,13 @@
         <v>45000</v>
       </c>
       <c r="F31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H31" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2559,13 +2577,13 @@
         <v>11024</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H32" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2585,13 +2603,13 @@
         <v>45000</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H33" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2611,13 +2629,13 @@
         <v>11024</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H34" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2637,13 +2655,13 @@
         <v>45000</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H35" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2663,13 +2681,13 @@
         <v>11024</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H36" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2689,13 +2707,13 @@
         <v>45000</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H37" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2715,13 +2733,13 @@
         <v>11024</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G38" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H38" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2741,13 +2759,13 @@
         <v>45000</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H39" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2767,13 +2785,13 @@
         <v>11024</v>
       </c>
       <c r="F40" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2793,13 +2811,13 @@
         <v>45000</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G41" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H41" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2819,13 +2837,13 @@
         <v>11024</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G42" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H42" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2845,13 +2863,13 @@
         <v>45000</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H43" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2871,13 +2889,13 @@
         <v>11024</v>
       </c>
       <c r="F44" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H44" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2897,13 +2915,13 @@
         <v>45000</v>
       </c>
       <c r="F45" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G45" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H45" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2923,13 +2941,13 @@
         <v>11024</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G46" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H46" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2949,13 +2967,13 @@
         <v>45000</v>
       </c>
       <c r="F47" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H47" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2975,13 +2993,13 @@
         <v>11024</v>
       </c>
       <c r="F48" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G48" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3001,13 +3019,13 @@
         <v>45000</v>
       </c>
       <c r="F49" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G49" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H49" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3027,13 +3045,13 @@
         <v>11024</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H50" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3053,13 +3071,13 @@
         <v>11024</v>
       </c>
       <c r="F51" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H51" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3079,13 +3097,13 @@
         <v>45000</v>
       </c>
       <c r="F52" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G52" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H52" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3105,13 +3123,13 @@
         <v>45000</v>
       </c>
       <c r="F53" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3131,13 +3149,13 @@
         <v>11024</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3157,13 +3175,13 @@
         <v>45000</v>
       </c>
       <c r="F55" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G55" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H55" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3183,13 +3201,13 @@
         <v>11024</v>
       </c>
       <c r="F56" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G56" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H56" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3209,13 +3227,13 @@
         <v>45000</v>
       </c>
       <c r="F57" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G57" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H57" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3235,13 +3253,13 @@
         <v>11024</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H58" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3261,13 +3279,13 @@
         <v>45000</v>
       </c>
       <c r="F59" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G59" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H59" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3287,13 +3305,13 @@
         <v>11024</v>
       </c>
       <c r="F60" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H60" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3313,13 +3331,13 @@
         <v>45000</v>
       </c>
       <c r="F61" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G61" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H61" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3339,13 +3357,13 @@
         <v>11024</v>
       </c>
       <c r="F62" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G62" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H62" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3365,13 +3383,13 @@
         <v>45000</v>
       </c>
       <c r="F63" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G63" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H63" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3391,10 +3409,10 @@
         <v>11024</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3414,10 +3432,10 @@
         <v>11024</v>
       </c>
       <c r="F65" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3437,10 +3455,10 @@
         <v>45000</v>
       </c>
       <c r="F66" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3460,10 +3478,10 @@
         <v>45000</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G67" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3483,13 +3501,13 @@
         <v>11024</v>
       </c>
       <c r="F68" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G68" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H68" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3509,13 +3527,13 @@
         <v>45000</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G69" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H69" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3535,13 +3553,13 @@
         <v>11024</v>
       </c>
       <c r="F70" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H70" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3561,13 +3579,13 @@
         <v>45000</v>
       </c>
       <c r="F71" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G71" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H71" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3587,10 +3605,10 @@
         <v>11024</v>
       </c>
       <c r="F72" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3610,10 +3628,10 @@
         <v>11024</v>
       </c>
       <c r="F73" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3633,10 +3651,10 @@
         <v>45000</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3656,10 +3674,10 @@
         <v>45000</v>
       </c>
       <c r="F75" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G75" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3679,13 +3697,13 @@
         <v>11024</v>
       </c>
       <c r="F76" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G76" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H76" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3705,13 +3723,13 @@
         <v>45000</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G77" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H77" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3731,10 +3749,10 @@
         <v>11024</v>
       </c>
       <c r="F78" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3754,10 +3772,10 @@
         <v>11024</v>
       </c>
       <c r="F79" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G79" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3777,10 +3795,10 @@
         <v>45000</v>
       </c>
       <c r="F80" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G80" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3800,10 +3818,10 @@
         <v>45000</v>
       </c>
       <c r="F81" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3823,13 +3841,13 @@
         <v>11024</v>
       </c>
       <c r="F82" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G82" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H82" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3849,13 +3867,13 @@
         <v>45000</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G83" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H83" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3875,13 +3893,13 @@
         <v>11024</v>
       </c>
       <c r="F84" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G84" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H84" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3901,13 +3919,13 @@
         <v>45000</v>
       </c>
       <c r="F85" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G85" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H85" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3927,10 +3945,10 @@
         <v>11024</v>
       </c>
       <c r="F86" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G86" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3950,10 +3968,10 @@
         <v>11024</v>
       </c>
       <c r="F87" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G87" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3973,10 +3991,10 @@
         <v>45000</v>
       </c>
       <c r="F88" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G88" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3996,10 +4014,10 @@
         <v>45000</v>
       </c>
       <c r="F89" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G89" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4019,10 +4037,10 @@
         <v>11024</v>
       </c>
       <c r="F90" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G90" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4042,10 +4060,10 @@
         <v>11024</v>
       </c>
       <c r="F91" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G91" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4065,10 +4083,10 @@
         <v>45000</v>
       </c>
       <c r="F92" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G92" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4088,10 +4106,10 @@
         <v>45000</v>
       </c>
       <c r="F93" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4111,13 +4129,13 @@
         <v>11024</v>
       </c>
       <c r="F94" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G94" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H94" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4137,13 +4155,13 @@
         <v>45000</v>
       </c>
       <c r="F95" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G95" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H95" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4163,13 +4181,13 @@
         <v>11024</v>
       </c>
       <c r="F96" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G96" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H96" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4189,13 +4207,13 @@
         <v>45000</v>
       </c>
       <c r="F97" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G97" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H97" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4215,13 +4233,13 @@
         <v>11024</v>
       </c>
       <c r="F98" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G98" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H98" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4241,13 +4259,13 @@
         <v>45000</v>
       </c>
       <c r="F99" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G99" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H99" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4267,13 +4285,13 @@
         <v>11024</v>
       </c>
       <c r="F100" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G100" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H100" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4293,13 +4311,13 @@
         <v>45000</v>
       </c>
       <c r="F101" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G101" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H101" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4319,13 +4337,13 @@
         <v>11024</v>
       </c>
       <c r="F102" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G102" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H102" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4345,13 +4363,13 @@
         <v>45000</v>
       </c>
       <c r="F103" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G103" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H103" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4371,13 +4389,13 @@
         <v>11024</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G104" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H104" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4397,13 +4415,13 @@
         <v>45000</v>
       </c>
       <c r="F105" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G105" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H105" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4423,13 +4441,13 @@
         <v>11024</v>
       </c>
       <c r="F106" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G106" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H106" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4449,13 +4467,13 @@
         <v>45000</v>
       </c>
       <c r="F107" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G107" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H107" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4475,13 +4493,13 @@
         <v>11024</v>
       </c>
       <c r="F108" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G108" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H108" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4501,13 +4519,13 @@
         <v>45000</v>
       </c>
       <c r="F109" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G109" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H109" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4527,13 +4545,13 @@
         <v>11024</v>
       </c>
       <c r="F110" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G110" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H110" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4553,13 +4571,13 @@
         <v>45000</v>
       </c>
       <c r="F111" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G111" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H111" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4579,13 +4597,13 @@
         <v>11024</v>
       </c>
       <c r="F112" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G112" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H112" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4605,13 +4623,13 @@
         <v>45000</v>
       </c>
       <c r="F113" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G113" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H113" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4631,13 +4649,13 @@
         <v>11024</v>
       </c>
       <c r="F114" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G114" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H114" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4657,13 +4675,13 @@
         <v>45000</v>
       </c>
       <c r="F115" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G115" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H115" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4683,13 +4701,13 @@
         <v>11024</v>
       </c>
       <c r="F116" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G116" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H116" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4709,13 +4727,13 @@
         <v>45000</v>
       </c>
       <c r="F117" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G117" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H117" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4735,13 +4753,13 @@
         <v>11024</v>
       </c>
       <c r="F118" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G118" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H118" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4761,13 +4779,13 @@
         <v>45000</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G119" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H119" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4787,13 +4805,13 @@
         <v>11024</v>
       </c>
       <c r="F120" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G120" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H120" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4813,13 +4831,13 @@
         <v>45000</v>
       </c>
       <c r="F121" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G121" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H121" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4839,13 +4857,13 @@
         <v>11024</v>
       </c>
       <c r="F122" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G122" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H122" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4865,13 +4883,13 @@
         <v>45000</v>
       </c>
       <c r="F123" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G123" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H123" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4891,13 +4909,13 @@
         <v>11024</v>
       </c>
       <c r="F124" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G124" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H124" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4917,13 +4935,13 @@
         <v>45000</v>
       </c>
       <c r="F125" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G125" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H125" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4943,13 +4961,13 @@
         <v>11024</v>
       </c>
       <c r="F126" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G126" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H126" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4969,13 +4987,13 @@
         <v>45000</v>
       </c>
       <c r="F127" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G127" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H127" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4995,13 +5013,13 @@
         <v>11024</v>
       </c>
       <c r="F128" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G128" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H128" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5021,13 +5039,13 @@
         <v>45000</v>
       </c>
       <c r="F129" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G129" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H129" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5047,13 +5065,13 @@
         <v>11024</v>
       </c>
       <c r="F130" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G130" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H130" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5073,13 +5091,13 @@
         <v>45000</v>
       </c>
       <c r="F131" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G131" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H131" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5099,13 +5117,13 @@
         <v>11024</v>
       </c>
       <c r="F132" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G132" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H132" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5125,13 +5143,13 @@
         <v>45000</v>
       </c>
       <c r="F133" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G133" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H133" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5151,13 +5169,13 @@
         <v>11024</v>
       </c>
       <c r="F134" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G134" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H134" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5177,13 +5195,13 @@
         <v>45000</v>
       </c>
       <c r="F135" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G135" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H135" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5203,13 +5221,13 @@
         <v>11024</v>
       </c>
       <c r="F136" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G136" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H136" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5229,13 +5247,13 @@
         <v>45000</v>
       </c>
       <c r="F137" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G137" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H137" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5255,13 +5273,13 @@
         <v>11024</v>
       </c>
       <c r="F138" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G138" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H138" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5281,13 +5299,13 @@
         <v>45000</v>
       </c>
       <c r="F139" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G139" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H139" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5307,13 +5325,13 @@
         <v>11024</v>
       </c>
       <c r="F140" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G140" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H140" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5333,13 +5351,13 @@
         <v>45000</v>
       </c>
       <c r="F141" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G141" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H141" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5359,13 +5377,13 @@
         <v>11024</v>
       </c>
       <c r="F142" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G142" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H142" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5385,13 +5403,13 @@
         <v>45000</v>
       </c>
       <c r="F143" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G143" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H143" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5411,13 +5429,13 @@
         <v>11024</v>
       </c>
       <c r="F144" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G144" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H144" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5437,13 +5455,13 @@
         <v>45000</v>
       </c>
       <c r="F145" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G145" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H145" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5463,13 +5481,13 @@
         <v>11024</v>
       </c>
       <c r="F146" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G146" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H146" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5489,13 +5507,13 @@
         <v>45000</v>
       </c>
       <c r="F147" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G147" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H147" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5515,13 +5533,13 @@
         <v>11024</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G148" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H148" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5541,13 +5559,13 @@
         <v>45000</v>
       </c>
       <c r="F149" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G149" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H149" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5567,13 +5585,13 @@
         <v>11024</v>
       </c>
       <c r="F150" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G150" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H150" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5593,13 +5611,13 @@
         <v>45000</v>
       </c>
       <c r="F151" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G151" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H151" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5619,13 +5637,13 @@
         <v>11024</v>
       </c>
       <c r="F152" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G152" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H152" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5645,13 +5663,13 @@
         <v>45000</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G153" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H153" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5671,13 +5689,13 @@
         <v>11024</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G154" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H154" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5697,13 +5715,13 @@
         <v>45000</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G155" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H155" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5723,13 +5741,13 @@
         <v>11024</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G156" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H156" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5749,13 +5767,13 @@
         <v>45000</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G157" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H157" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5775,13 +5793,13 @@
         <v>11024</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G158" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H158" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5801,13 +5819,13 @@
         <v>45000</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G159" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H159" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5827,13 +5845,13 @@
         <v>11024</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G160" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H160" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5853,13 +5871,13 @@
         <v>45000</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G161" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H161" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5879,13 +5897,13 @@
         <v>11024</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G162" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H162" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5905,13 +5923,13 @@
         <v>45000</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G163" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H163" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5931,13 +5949,13 @@
         <v>11024</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G164" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H164" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5957,13 +5975,13 @@
         <v>45000</v>
       </c>
       <c r="F165" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G165" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H165" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5983,13 +6001,13 @@
         <v>11024</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G166" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H166" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -6009,13 +6027,13 @@
         <v>45000</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G167" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H167" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -6035,13 +6053,13 @@
         <v>11024</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G168" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H168" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -6061,13 +6079,13 @@
         <v>45000</v>
       </c>
       <c r="F169" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G169" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H169" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -6087,13 +6105,13 @@
         <v>11024</v>
       </c>
       <c r="F170" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G170" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H170" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -6113,13 +6131,13 @@
         <v>45000</v>
       </c>
       <c r="F171" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G171" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H171" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -6139,25 +6157,25 @@
         <v>11024</v>
       </c>
       <c r="F172" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G172" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H172" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I172" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J172" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K172" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L172" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -6177,25 +6195,25 @@
         <v>45000</v>
       </c>
       <c r="F173" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G173" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H173" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I173" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J173" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K173" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L173" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -6215,25 +6233,25 @@
         <v>11024</v>
       </c>
       <c r="F174" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G174" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H174" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I174" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J174" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K174" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L174" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -6253,25 +6271,25 @@
         <v>45000</v>
       </c>
       <c r="F175" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G175" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H175" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I175" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="J175" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K175" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L175" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -6291,25 +6309,25 @@
         <v>11024</v>
       </c>
       <c r="F176" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G176" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H176" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I176" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J176" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K176" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L176" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -6329,25 +6347,25 @@
         <v>45000</v>
       </c>
       <c r="F177" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G177" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H177" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I177" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J177" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K177" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L177" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -6367,25 +6385,25 @@
         <v>11024</v>
       </c>
       <c r="F178" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G178" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H178" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I178" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J178" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K178" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L178" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -6405,25 +6423,25 @@
         <v>45000</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G179" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H179" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I179" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J179" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K179" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L179" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -6443,25 +6461,25 @@
         <v>11024</v>
       </c>
       <c r="F180" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G180" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H180" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I180" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J180" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K180" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L180" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -6481,22 +6499,22 @@
         <v>45000</v>
       </c>
       <c r="F181" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G181" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I181" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J181" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K181" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L181" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -6516,22 +6534,22 @@
         <v>45000</v>
       </c>
       <c r="F182" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G182" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I182" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J182" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K182" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L182" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -6551,25 +6569,25 @@
         <v>11024</v>
       </c>
       <c r="F183" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G183" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H183" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I183" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J183" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K183" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L183" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -6589,25 +6607,25 @@
         <v>45000</v>
       </c>
       <c r="F184" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G184" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H184" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I184" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="J184" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K184" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L184" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -6627,25 +6645,25 @@
         <v>11024</v>
       </c>
       <c r="F185" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G185" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H185" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I185" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J185" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K185" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L185" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -6665,25 +6683,25 @@
         <v>45000</v>
       </c>
       <c r="F186" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G186" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H186" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I186" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J186" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K186" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L186" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -6703,25 +6721,25 @@
         <v>11024</v>
       </c>
       <c r="F187" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G187" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H187" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I187" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J187" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K187" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L187" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -6741,25 +6759,25 @@
         <v>45000</v>
       </c>
       <c r="F188" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G188" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H188" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I188" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J188" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K188" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L188" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -6779,25 +6797,25 @@
         <v>11024</v>
       </c>
       <c r="F189" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G189" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H189" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I189" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J189" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K189" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L189" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -6817,25 +6835,25 @@
         <v>45000</v>
       </c>
       <c r="F190" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G190" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H190" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I190" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J190" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K190" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L190" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -6855,25 +6873,25 @@
         <v>11024</v>
       </c>
       <c r="F191" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G191" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H191" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I191" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J191" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K191" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L191" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -6893,25 +6911,25 @@
         <v>45000</v>
       </c>
       <c r="F192" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G192" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H192" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I192" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="J192" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K192" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L192" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -6931,25 +6949,25 @@
         <v>11024</v>
       </c>
       <c r="F193" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G193" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H193" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I193" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J193" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K193" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L193" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -6969,25 +6987,25 @@
         <v>45000</v>
       </c>
       <c r="F194" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G194" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H194" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I194" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J194" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K194" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L194" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -7007,25 +7025,25 @@
         <v>11024</v>
       </c>
       <c r="F195" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G195" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H195" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I195" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J195" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K195" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L195" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -7045,25 +7063,25 @@
         <v>45000</v>
       </c>
       <c r="F196" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G196" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H196" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I196" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J196" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K196" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L196" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -7083,25 +7101,25 @@
         <v>11024</v>
       </c>
       <c r="F197" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G197" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H197" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I197" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J197" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K197" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L197" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -7121,25 +7139,25 @@
         <v>45000</v>
       </c>
       <c r="F198" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G198" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H198" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I198" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="J198" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K198" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L198" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -7159,25 +7177,25 @@
         <v>11024</v>
       </c>
       <c r="F199" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G199" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H199" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I199" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J199" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K199" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L199" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -7197,25 +7215,25 @@
         <v>45000</v>
       </c>
       <c r="F200" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G200" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H200" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I200" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J200" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K200" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L200" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -7235,25 +7253,25 @@
         <v>11024</v>
       </c>
       <c r="F201" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G201" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H201" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I201" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J201" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K201" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L201" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -7273,25 +7291,25 @@
         <v>45000</v>
       </c>
       <c r="F202" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G202" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H202" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I202" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J202" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K202" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L202" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -7311,25 +7329,25 @@
         <v>11024</v>
       </c>
       <c r="F203" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G203" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H203" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I203" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J203" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K203" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L203" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -7349,25 +7367,25 @@
         <v>45000</v>
       </c>
       <c r="F204" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G204" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H204" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I204" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J204" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K204" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L204" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -7387,25 +7405,25 @@
         <v>11024</v>
       </c>
       <c r="F205" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G205" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H205" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I205" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J205" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K205" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L205" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -7425,25 +7443,25 @@
         <v>45000</v>
       </c>
       <c r="F206" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G206" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H206" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I206" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J206" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K206" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L206" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -7463,25 +7481,25 @@
         <v>11024</v>
       </c>
       <c r="F207" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G207" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H207" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I207" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J207" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K207" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L207" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -7501,25 +7519,25 @@
         <v>45000</v>
       </c>
       <c r="F208" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G208" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H208" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I208" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="J208" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K208" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L208" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -7539,25 +7557,25 @@
         <v>11024</v>
       </c>
       <c r="F209" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G209" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H209" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I209" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J209" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K209" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L209" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -7577,25 +7595,25 @@
         <v>45000</v>
       </c>
       <c r="F210" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G210" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H210" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I210" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J210" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K210" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L210" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -7615,25 +7633,25 @@
         <v>11024</v>
       </c>
       <c r="F211" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G211" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H211" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I211" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J211" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K211" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L211" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -7653,25 +7671,25 @@
         <v>45000</v>
       </c>
       <c r="F212" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G212" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H212" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I212" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="J212" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K212" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L212" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -7691,25 +7709,25 @@
         <v>11024</v>
       </c>
       <c r="F213" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G213" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H213" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I213" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J213" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K213" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L213" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -7729,25 +7747,25 @@
         <v>45000</v>
       </c>
       <c r="F214" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G214" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H214" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I214" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="J214" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K214" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L214" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -7767,25 +7785,25 @@
         <v>11024</v>
       </c>
       <c r="F215" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G215" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H215" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I215" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J215" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K215" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L215" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -7805,25 +7823,25 @@
         <v>45000</v>
       </c>
       <c r="F216" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G216" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H216" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I216" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="J216" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K216" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L216" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -7843,25 +7861,25 @@
         <v>11024</v>
       </c>
       <c r="F217" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G217" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H217" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I217" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J217" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K217" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L217" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -7881,25 +7899,25 @@
         <v>45000</v>
       </c>
       <c r="F218" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G218" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H218" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I218" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J218" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K218" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L218" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -7919,25 +7937,25 @@
         <v>11024</v>
       </c>
       <c r="F219" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G219" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H219" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I219" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J219" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K219" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L219" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -7957,25 +7975,25 @@
         <v>45000</v>
       </c>
       <c r="F220" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G220" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H220" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I220" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J220" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K220" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L220" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -7995,25 +8013,25 @@
         <v>11024</v>
       </c>
       <c r="F221" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G221" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H221" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I221" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J221" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K221" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L221" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -8033,25 +8051,25 @@
         <v>45000</v>
       </c>
       <c r="F222" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G222" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H222" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I222" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J222" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K222" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L222" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -8071,25 +8089,25 @@
         <v>11024</v>
       </c>
       <c r="F223" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G223" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H223" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I223" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J223" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K223" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L223" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -8109,25 +8127,25 @@
         <v>45000</v>
       </c>
       <c r="F224" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G224" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H224" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I224" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J224" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K224" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L224" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="225" spans="1:12">
@@ -8147,25 +8165,25 @@
         <v>11024</v>
       </c>
       <c r="F225" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G225" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H225" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I225" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J225" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K225" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L225" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -8185,25 +8203,25 @@
         <v>45000</v>
       </c>
       <c r="F226" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G226" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H226" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I226" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J226" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K226" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L226" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -8223,25 +8241,25 @@
         <v>11024</v>
       </c>
       <c r="F227" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G227" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H227" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I227" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J227" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K227" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L227" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -8261,22 +8279,22 @@
         <v>45000</v>
       </c>
       <c r="F228" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G228" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I228" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J228" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K228" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L228" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -8296,22 +8314,22 @@
         <v>45000</v>
       </c>
       <c r="F229" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G229" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I229" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J229" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K229" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L229" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -8331,25 +8349,25 @@
         <v>11024</v>
       </c>
       <c r="F230" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G230" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H230" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I230" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J230" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K230" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L230" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -8369,25 +8387,25 @@
         <v>45000</v>
       </c>
       <c r="F231" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G231" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H231" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I231" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J231" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K231" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L231" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -8407,25 +8425,25 @@
         <v>11024</v>
       </c>
       <c r="F232" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G232" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H232" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I232" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J232" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K232" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L232" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -8445,25 +8463,25 @@
         <v>45000</v>
       </c>
       <c r="F233" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G233" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H233" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I233" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J233" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K233" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L233" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -8483,25 +8501,25 @@
         <v>11024</v>
       </c>
       <c r="F234" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G234" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H234" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I234" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J234" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K234" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L234" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -8521,25 +8539,25 @@
         <v>45000</v>
       </c>
       <c r="F235" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G235" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H235" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I235" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="J235" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K235" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L235" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -8559,25 +8577,25 @@
         <v>11024</v>
       </c>
       <c r="F236" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G236" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H236" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I236" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J236" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K236" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L236" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -8597,25 +8615,25 @@
         <v>45000</v>
       </c>
       <c r="F237" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G237" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H237" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I237" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J237" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="K237" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L237" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="238" spans="1:12">
@@ -8635,25 +8653,25 @@
         <v>11024</v>
       </c>
       <c r="F238" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G238" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H238" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I238" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J238" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K238" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L238" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -8673,25 +8691,25 @@
         <v>45000</v>
       </c>
       <c r="F239" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G239" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H239" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I239" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J239" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K239" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L239" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -8711,25 +8729,25 @@
         <v>11024</v>
       </c>
       <c r="F240" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G240" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H240" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I240" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J240" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K240" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L240" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -8749,25 +8767,25 @@
         <v>45000</v>
       </c>
       <c r="F241" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G241" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H241" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I241" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="J241" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K241" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L241" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -8787,25 +8805,25 @@
         <v>11024</v>
       </c>
       <c r="F242" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G242" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H242" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I242" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J242" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K242" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L242" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -8825,25 +8843,25 @@
         <v>45000</v>
       </c>
       <c r="F243" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G243" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H243" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I243" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J243" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="K243" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L243" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -8863,25 +8881,25 @@
         <v>11024</v>
       </c>
       <c r="F244" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G244" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H244" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I244" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J244" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K244" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L244" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -8901,25 +8919,25 @@
         <v>45000</v>
       </c>
       <c r="F245" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G245" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H245" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I245" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J245" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K245" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L245" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -8939,25 +8957,25 @@
         <v>11024</v>
       </c>
       <c r="F246" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G246" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H246" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I246" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J246" t="s">
         <v>58</v>
       </c>
       <c r="K246" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L246" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -8977,25 +8995,25 @@
         <v>45000</v>
       </c>
       <c r="F247" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G247" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H247" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I247" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="J247" t="s">
         <v>58</v>
       </c>
       <c r="K247" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L247" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -9015,22 +9033,22 @@
         <v>11024</v>
       </c>
       <c r="F248" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G248" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I248" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J248" t="s">
         <v>58</v>
       </c>
       <c r="K248" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L248" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -9050,22 +9068,22 @@
         <v>11024</v>
       </c>
       <c r="F249" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G249" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I249" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J249" t="s">
         <v>58</v>
       </c>
       <c r="K249" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L249" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -9085,22 +9103,22 @@
         <v>45000</v>
       </c>
       <c r="F250" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G250" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I250" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J250" t="s">
         <v>58</v>
       </c>
       <c r="K250" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L250" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -9120,22 +9138,22 @@
         <v>45000</v>
       </c>
       <c r="F251" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G251" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I251" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="J251" t="s">
         <v>58</v>
       </c>
       <c r="K251" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L251" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -9155,25 +9173,25 @@
         <v>11024</v>
       </c>
       <c r="F252" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G252" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H252" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I252" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J252" t="s">
         <v>58</v>
       </c>
       <c r="K252" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L252" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -9193,25 +9211,25 @@
         <v>45000</v>
       </c>
       <c r="F253" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G253" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H253" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I253" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J253" t="s">
         <v>58</v>
       </c>
       <c r="K253" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L253" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -9231,25 +9249,25 @@
         <v>11024</v>
       </c>
       <c r="F254" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G254" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H254" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I254" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J254" t="s">
         <v>58</v>
       </c>
       <c r="K254" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L254" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -9269,25 +9287,25 @@
         <v>45000</v>
       </c>
       <c r="F255" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G255" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H255" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I255" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J255" t="s">
         <v>58</v>
       </c>
       <c r="K255" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L255" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -9307,25 +9325,25 @@
         <v>45000</v>
       </c>
       <c r="F256" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G256" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H256" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I256" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J256" t="s">
         <v>58</v>
       </c>
       <c r="K256" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L256" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -9345,25 +9363,25 @@
         <v>11024</v>
       </c>
       <c r="F257" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G257" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H257" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I257" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J257" t="s">
         <v>58</v>
       </c>
       <c r="K257" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L257" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -9383,25 +9401,25 @@
         <v>45000</v>
       </c>
       <c r="F258" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G258" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H258" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I258" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J258" t="s">
         <v>58</v>
       </c>
       <c r="K258" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L258" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -9411,35 +9429,149 @@
       <c r="B259" t="s">
         <v>302</v>
       </c>
-      <c r="C259" t="s">
-        <v>303</v>
-      </c>
-      <c r="D259" t="s">
-        <v>304</v>
-      </c>
-      <c r="E259" t="s">
-        <v>305</v>
+      <c r="C259">
+        <v>7201</v>
+      </c>
+      <c r="D259">
+        <v>60007</v>
+      </c>
+      <c r="E259">
+        <v>45000</v>
       </c>
       <c r="F259" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G259" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H259" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I259" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J259" t="s">
         <v>58</v>
       </c>
       <c r="K259" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L259" t="s">
-        <v>448</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" t="s">
+        <v>303</v>
+      </c>
+      <c r="C260">
+        <v>7201</v>
+      </c>
+      <c r="D260">
+        <v>60007</v>
+      </c>
+      <c r="E260">
+        <v>11024</v>
+      </c>
+      <c r="F260" t="s">
+        <v>309</v>
+      </c>
+      <c r="G260" t="s">
+        <v>383</v>
+      </c>
+      <c r="H260" t="s">
+        <v>384</v>
+      </c>
+      <c r="I260" t="s">
+        <v>417</v>
+      </c>
+      <c r="J260" t="s">
+        <v>58</v>
+      </c>
+      <c r="K260" t="s">
+        <v>436</v>
+      </c>
+      <c r="L260" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" t="s">
+        <v>304</v>
+      </c>
+      <c r="C261">
+        <v>7201</v>
+      </c>
+      <c r="D261">
+        <v>60007</v>
+      </c>
+      <c r="E261">
+        <v>45000</v>
+      </c>
+      <c r="F261" t="s">
+        <v>309</v>
+      </c>
+      <c r="G261" t="s">
+        <v>383</v>
+      </c>
+      <c r="H261" t="s">
+        <v>384</v>
+      </c>
+      <c r="I261" t="s">
+        <v>417</v>
+      </c>
+      <c r="J261" t="s">
+        <v>58</v>
+      </c>
+      <c r="K261" t="s">
+        <v>437</v>
+      </c>
+      <c r="L261" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" t="s">
+        <v>305</v>
+      </c>
+      <c r="C262" t="s">
+        <v>306</v>
+      </c>
+      <c r="D262" t="s">
+        <v>307</v>
+      </c>
+      <c r="E262" t="s">
+        <v>308</v>
+      </c>
+      <c r="F262" t="s">
+        <v>309</v>
+      </c>
+      <c r="G262" t="s">
+        <v>383</v>
+      </c>
+      <c r="H262" t="s">
+        <v>384</v>
+      </c>
+      <c r="I262" t="s">
+        <v>417</v>
+      </c>
+      <c r="J262" t="s">
+        <v>58</v>
+      </c>
+      <c r="K262" t="s">
+        <v>438</v>
+      </c>
+      <c r="L262" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
